--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86374CDF-857B-4641-B7C9-A8A76ED0262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B55C79-31B7-0F4D-803B-32F1C3823217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" activeTab="1" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Touches" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +193,15 @@
   </si>
   <si>
     <t>Total in 3R</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Board Hits</t>
+  </si>
+  <si>
+    <t>Land</t>
   </si>
 </sst>
 </file>
@@ -595,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:Y208"/>
+  <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13051,7 +13061,7 @@
         <v>45768</v>
       </c>
       <c r="E178" s="2">
-        <f t="shared" ref="E178:E200" si="196">E175+1</f>
+        <f t="shared" ref="E178:E218" si="196">E175+1</f>
         <v>59</v>
       </c>
       <c r="F178" s="2">
@@ -14583,31 +14593,31 @@
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
       <c r="P200" s="2">
-        <f t="shared" ref="P200" si="223">COUNTA(H200)</f>
+        <f t="shared" ref="P200:P202" si="223">COUNTA(H200)</f>
         <v>1</v>
       </c>
       <c r="Q200" s="2">
-        <f t="shared" ref="Q200" si="224">COUNTA(I200)</f>
+        <f t="shared" ref="Q200:Q202" si="224">COUNTA(I200)</f>
         <v>1</v>
       </c>
       <c r="R200" s="2">
-        <f t="shared" ref="R200" si="225">COUNTA(J200)</f>
+        <f t="shared" ref="R200:R202" si="225">COUNTA(J200)</f>
         <v>0</v>
       </c>
       <c r="S200" s="2">
-        <f t="shared" ref="S200" si="226">COUNTA(K200)</f>
+        <f t="shared" ref="S200:S202" si="226">COUNTA(K200)</f>
         <v>1</v>
       </c>
       <c r="T200" s="2">
-        <f t="shared" ref="T200" si="227">COUNTA(L200)</f>
+        <f t="shared" ref="T200:T202" si="227">COUNTA(L200)</f>
         <v>0</v>
       </c>
       <c r="U200" s="2">
-        <f t="shared" ref="U200" si="228">COUNTA(M200)</f>
+        <f t="shared" ref="U200:U202" si="228">COUNTA(M200)</f>
         <v>0</v>
       </c>
       <c r="V200" s="2">
-        <f t="shared" ref="V200" si="229">COUNTA(N200)</f>
+        <f t="shared" ref="V200:V202" si="229">COUNTA(N200)</f>
         <v>0</v>
       </c>
       <c r="W200" s="8"/>
@@ -14615,273 +14625,1705 @@
       <c r="Y200" s="8"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="W201" s="6"/>
-      <c r="X201" s="6"/>
-      <c r="Y201" s="6"/>
+      <c r="A201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E201" s="2">
+        <f t="shared" si="196"/>
+        <v>66</v>
+      </c>
+      <c r="F201" s="2">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H201" s="1">
+        <v>5</v>
+      </c>
+      <c r="I201" s="1">
+        <v>1</v>
+      </c>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="P201" s="2">
+        <f t="shared" si="223"/>
+        <v>1</v>
+      </c>
+      <c r="Q201" s="2">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+      <c r="R201" s="2">
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="S201" s="2">
+        <f t="shared" si="226"/>
+        <v>0</v>
+      </c>
+      <c r="T201" s="2">
+        <f t="shared" si="227"/>
+        <v>0</v>
+      </c>
+      <c r="U201" s="2">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="V201" s="2">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="W201" s="8" t="str">
+        <f t="shared" ref="W201" si="230">IF(SUM(H201:H203)&gt;SUM(I201:I203), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X201" s="8">
+        <f t="shared" ref="X201" si="231">ABS(SUM(H201:H203)-SUM(I201:I203))</f>
+        <v>3</v>
+      </c>
+      <c r="Y201" s="8">
+        <f t="shared" ref="Y201" si="232">SUM(H201:H203, I201:I203)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25">
+      <c r="A202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E202" s="2">
+        <f t="shared" si="196"/>
+        <v>66</v>
+      </c>
+      <c r="F202" s="2">
+        <v>2</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <v>2</v>
+      </c>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="P202" s="2">
+        <f t="shared" si="223"/>
+        <v>1</v>
+      </c>
+      <c r="Q202" s="2">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+      <c r="R202" s="2">
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="S202" s="2">
+        <f t="shared" si="226"/>
+        <v>0</v>
+      </c>
+      <c r="T202" s="2">
+        <f t="shared" si="227"/>
+        <v>0</v>
+      </c>
+      <c r="U202" s="2">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="V202" s="2">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="W202" s="8"/>
+      <c r="X202" s="8"/>
+      <c r="Y202" s="8"/>
+    </row>
+    <row r="203" spans="1:25">
+      <c r="A203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E203" s="2">
+        <f t="shared" si="196"/>
+        <v>66</v>
+      </c>
+      <c r="F203" s="2">
+        <v>3</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H203" s="1">
+        <v>1</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="P203" s="2">
+        <f t="shared" ref="P203:P205" si="233">COUNTA(H203)</f>
+        <v>1</v>
+      </c>
+      <c r="Q203" s="2">
+        <f t="shared" ref="Q203:Q205" si="234">COUNTA(I203)</f>
+        <v>1</v>
+      </c>
+      <c r="R203" s="2">
+        <f t="shared" ref="R203:R205" si="235">COUNTA(J203)</f>
+        <v>0</v>
+      </c>
+      <c r="S203" s="2">
+        <f t="shared" ref="S203:S205" si="236">COUNTA(K203)</f>
+        <v>0</v>
+      </c>
+      <c r="T203" s="2">
+        <f t="shared" ref="T203:T205" si="237">COUNTA(L203)</f>
+        <v>0</v>
+      </c>
+      <c r="U203" s="2">
+        <f t="shared" ref="U203:U205" si="238">COUNTA(M203)</f>
+        <v>0</v>
+      </c>
+      <c r="V203" s="2">
+        <f t="shared" ref="V203:V205" si="239">COUNTA(N203)</f>
+        <v>0</v>
+      </c>
+      <c r="W203" s="8"/>
+      <c r="X203" s="8"/>
+      <c r="Y203" s="8"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E204" s="2">
+        <f t="shared" si="196"/>
+        <v>67</v>
+      </c>
+      <c r="F204" s="2">
+        <v>1</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="1">
+        <v>5</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1</v>
+      </c>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="P204" s="2">
+        <f t="shared" si="233"/>
+        <v>1</v>
+      </c>
+      <c r="Q204" s="2">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+      <c r="R204" s="2">
+        <f t="shared" si="235"/>
+        <v>0</v>
+      </c>
+      <c r="S204" s="2">
+        <f t="shared" si="236"/>
+        <v>0</v>
+      </c>
+      <c r="T204" s="2">
+        <f t="shared" si="237"/>
+        <v>0</v>
+      </c>
+      <c r="U204" s="2">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="V204" s="2">
+        <f t="shared" si="239"/>
+        <v>0</v>
+      </c>
+      <c r="W204" s="8" t="str">
+        <f t="shared" ref="W204" si="240">IF(SUM(H204:H206)&gt;SUM(I204:I206), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X204" s="8">
+        <f t="shared" ref="X204" si="241">ABS(SUM(H204:H206)-SUM(I204:I206))</f>
+        <v>8</v>
+      </c>
+      <c r="Y204" s="8">
+        <f t="shared" ref="Y204" si="242">SUM(H204:H206, I204:I206)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25">
+      <c r="A205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E205" s="2">
+        <f t="shared" si="196"/>
+        <v>67</v>
+      </c>
+      <c r="F205" s="2">
+        <v>2</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1</v>
+      </c>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="P205" s="2">
+        <f t="shared" si="233"/>
+        <v>1</v>
+      </c>
+      <c r="Q205" s="2">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+      <c r="R205" s="2">
+        <f t="shared" si="235"/>
+        <v>0</v>
+      </c>
+      <c r="S205" s="2">
+        <f t="shared" si="236"/>
+        <v>0</v>
+      </c>
+      <c r="T205" s="2">
+        <f t="shared" si="237"/>
+        <v>0</v>
+      </c>
+      <c r="U205" s="2">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="V205" s="2">
+        <f t="shared" si="239"/>
+        <v>0</v>
+      </c>
+      <c r="W205" s="8"/>
+      <c r="X205" s="8"/>
+      <c r="Y205" s="8"/>
+    </row>
+    <row r="206" spans="1:25">
+      <c r="A206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E206" s="2">
+        <f t="shared" si="196"/>
+        <v>67</v>
+      </c>
+      <c r="F206" s="2">
+        <v>3</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="1">
+        <v>6</v>
+      </c>
+      <c r="I206" s="1">
+        <v>1</v>
+      </c>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="P206" s="2">
+        <f t="shared" ref="P206:P208" si="243">COUNTA(H206)</f>
+        <v>1</v>
+      </c>
+      <c r="Q206" s="2">
+        <f t="shared" ref="Q206:Q208" si="244">COUNTA(I206)</f>
+        <v>1</v>
+      </c>
+      <c r="R206" s="2">
+        <f t="shared" ref="R206:R208" si="245">COUNTA(J206)</f>
+        <v>0</v>
+      </c>
+      <c r="S206" s="2">
+        <f t="shared" ref="S206:S208" si="246">COUNTA(K206)</f>
+        <v>0</v>
+      </c>
+      <c r="T206" s="2">
+        <f t="shared" ref="T206:T208" si="247">COUNTA(L206)</f>
+        <v>0</v>
+      </c>
+      <c r="U206" s="2">
+        <f t="shared" ref="U206:U208" si="248">COUNTA(M206)</f>
+        <v>0</v>
+      </c>
+      <c r="V206" s="2">
+        <f t="shared" ref="V206:V208" si="249">COUNTA(N206)</f>
+        <v>0</v>
+      </c>
+      <c r="W206" s="8"/>
+      <c r="X206" s="8"/>
+      <c r="Y206" s="8"/>
+    </row>
+    <row r="207" spans="1:25">
+      <c r="A207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E207" s="2">
+        <f t="shared" si="196"/>
+        <v>68</v>
+      </c>
+      <c r="F207" s="2">
+        <v>1</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" s="1">
+        <v>3</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1">
+        <v>1</v>
+      </c>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="P207" s="2">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="Q207" s="2">
+        <f t="shared" si="244"/>
+        <v>1</v>
+      </c>
+      <c r="R207" s="2">
+        <f t="shared" si="245"/>
+        <v>1</v>
+      </c>
+      <c r="S207" s="2">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="T207" s="2">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="U207" s="2">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="V207" s="2">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+      <c r="W207" s="8" t="str">
+        <f t="shared" ref="W207" si="250">IF(SUM(H207:H209)&gt;SUM(I207:I209), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X207" s="8">
+        <f t="shared" ref="X207" si="251">ABS(SUM(H207:H209)-SUM(I207:I209))</f>
+        <v>9</v>
+      </c>
+      <c r="Y207" s="8">
+        <f t="shared" ref="Y207" si="252">SUM(H207:H209, I207:I209)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25">
+      <c r="A208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E208" s="2">
+        <f t="shared" si="196"/>
+        <v>68</v>
+      </c>
+      <c r="F208" s="2">
+        <v>2</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="1">
+        <v>3</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>1</v>
+      </c>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="P208" s="2">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="Q208" s="2">
+        <f t="shared" si="244"/>
+        <v>1</v>
+      </c>
+      <c r="R208" s="2">
+        <f t="shared" si="245"/>
+        <v>1</v>
+      </c>
+      <c r="S208" s="2">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="U208" s="2">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="V208" s="2">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+      <c r="W208" s="8"/>
+      <c r="X208" s="8"/>
+      <c r="Y208" s="8"/>
+    </row>
+    <row r="209" spans="1:25">
+      <c r="A209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E209" s="2">
+        <f t="shared" si="196"/>
+        <v>68</v>
+      </c>
+      <c r="F209" s="2">
+        <v>3</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="1">
+        <v>4</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>2</v>
+      </c>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="P209" s="2">
+        <f t="shared" ref="P209:P211" si="253">COUNTA(H209)</f>
+        <v>1</v>
+      </c>
+      <c r="Q209" s="2">
+        <f t="shared" ref="Q209:Q211" si="254">COUNTA(I209)</f>
+        <v>1</v>
+      </c>
+      <c r="R209" s="2">
+        <f t="shared" ref="R209:R211" si="255">COUNTA(J209)</f>
+        <v>1</v>
+      </c>
+      <c r="S209" s="2">
+        <f t="shared" ref="S209:S211" si="256">COUNTA(K209)</f>
+        <v>0</v>
+      </c>
+      <c r="T209" s="2">
+        <f t="shared" ref="T209:T211" si="257">COUNTA(L209)</f>
+        <v>0</v>
+      </c>
+      <c r="U209" s="2">
+        <f t="shared" ref="U209:U211" si="258">COUNTA(M209)</f>
+        <v>0</v>
+      </c>
+      <c r="V209" s="2">
+        <f t="shared" ref="V209:V211" si="259">COUNTA(N209)</f>
+        <v>0</v>
+      </c>
+      <c r="W209" s="8"/>
+      <c r="X209" s="8"/>
+      <c r="Y209" s="8"/>
+    </row>
+    <row r="210" spans="1:25">
+      <c r="A210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E210" s="2">
+        <f t="shared" si="196"/>
+        <v>69</v>
+      </c>
+      <c r="F210" s="2">
+        <v>1</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" s="1">
+        <v>2</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>2</v>
+      </c>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="P210" s="2">
+        <f t="shared" si="253"/>
+        <v>1</v>
+      </c>
+      <c r="Q210" s="2">
+        <f t="shared" si="254"/>
+        <v>1</v>
+      </c>
+      <c r="R210" s="2">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+      <c r="S210" s="2">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="T210" s="2">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="U210" s="2">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="V210" s="2">
+        <f t="shared" si="259"/>
+        <v>0</v>
+      </c>
+      <c r="W210" s="8" t="str">
+        <f t="shared" ref="W210" si="260">IF(SUM(H210:H212)&gt;SUM(I210:I212), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X210" s="8">
+        <f t="shared" ref="X210" si="261">ABS(SUM(H210:H212)-SUM(I210:I212))</f>
+        <v>6</v>
+      </c>
+      <c r="Y210" s="8">
+        <f t="shared" ref="Y210" si="262">SUM(H210:H212, I210:I212)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25">
+      <c r="A211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E211" s="2">
+        <f t="shared" si="196"/>
+        <v>69</v>
+      </c>
+      <c r="F211" s="2">
+        <v>2</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" s="1">
+        <v>3</v>
+      </c>
+      <c r="I211" s="1">
+        <v>2</v>
+      </c>
+      <c r="J211" s="1">
+        <v>1</v>
+      </c>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="P211" s="2">
+        <f t="shared" si="253"/>
+        <v>1</v>
+      </c>
+      <c r="Q211" s="2">
+        <f t="shared" si="254"/>
+        <v>1</v>
+      </c>
+      <c r="R211" s="2">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+      <c r="S211" s="2">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="T211" s="2">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="U211" s="2">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="V211" s="2">
+        <f t="shared" si="259"/>
+        <v>0</v>
+      </c>
+      <c r="W211" s="8"/>
+      <c r="X211" s="8"/>
+      <c r="Y211" s="8"/>
+    </row>
+    <row r="212" spans="1:25">
+      <c r="A212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="4">
+        <v>45771</v>
+      </c>
+      <c r="E212" s="2">
+        <f t="shared" si="196"/>
+        <v>69</v>
+      </c>
+      <c r="F212" s="2">
+        <v>3</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="1">
+        <v>6</v>
+      </c>
+      <c r="I212" s="1">
+        <v>3</v>
+      </c>
+      <c r="J212" s="1">
+        <v>1</v>
+      </c>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="P212" s="2">
+        <f t="shared" ref="P212:P214" si="263">COUNTA(H212)</f>
+        <v>1</v>
+      </c>
+      <c r="Q212" s="2">
+        <f t="shared" ref="Q212:Q214" si="264">COUNTA(I212)</f>
+        <v>1</v>
+      </c>
+      <c r="R212" s="2">
+        <f t="shared" ref="R212:R214" si="265">COUNTA(J212)</f>
+        <v>1</v>
+      </c>
+      <c r="S212" s="2">
+        <f t="shared" ref="S212:S214" si="266">COUNTA(K212)</f>
+        <v>0</v>
+      </c>
+      <c r="T212" s="2">
+        <f t="shared" ref="T212:T214" si="267">COUNTA(L212)</f>
+        <v>0</v>
+      </c>
+      <c r="U212" s="2">
+        <f t="shared" ref="U212:U214" si="268">COUNTA(M212)</f>
+        <v>0</v>
+      </c>
+      <c r="V212" s="2">
+        <f t="shared" ref="V212:V214" si="269">COUNTA(N212)</f>
+        <v>0</v>
+      </c>
+      <c r="W212" s="8"/>
+      <c r="X212" s="8"/>
+      <c r="Y212" s="8"/>
+    </row>
+    <row r="213" spans="1:25">
+      <c r="A213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="4">
+        <v>45772</v>
+      </c>
+      <c r="E213" s="2">
+        <f t="shared" si="196"/>
+        <v>70</v>
+      </c>
+      <c r="F213" s="2">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>4</v>
+      </c>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="P213" s="2">
+        <f t="shared" si="263"/>
+        <v>1</v>
+      </c>
+      <c r="Q213" s="2">
+        <f t="shared" si="264"/>
+        <v>1</v>
+      </c>
+      <c r="R213" s="2">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="S213" s="2">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="T213" s="2">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="U213" s="2">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="V213" s="2">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="W213" s="8" t="str">
+        <f t="shared" ref="W213" si="270">IF(SUM(H213:H215)&gt;SUM(I213:I215), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X213" s="8">
+        <f t="shared" ref="X213" si="271">ABS(SUM(H213:H215)-SUM(I213:I215))</f>
+        <v>2</v>
+      </c>
+      <c r="Y213" s="8">
+        <f t="shared" ref="Y213" si="272">SUM(H213:H215, I213:I215)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25">
+      <c r="A214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" s="4">
+        <v>45772</v>
+      </c>
+      <c r="E214" s="2">
+        <f t="shared" si="196"/>
+        <v>70</v>
+      </c>
+      <c r="F214" s="2">
+        <v>2</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H214" s="1">
+        <v>5</v>
+      </c>
+      <c r="I214" s="1">
+        <v>2</v>
+      </c>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="P214" s="2">
+        <f t="shared" si="263"/>
+        <v>1</v>
+      </c>
+      <c r="Q214" s="2">
+        <f t="shared" si="264"/>
+        <v>1</v>
+      </c>
+      <c r="R214" s="2">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="S214" s="2">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="T214" s="2">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="U214" s="2">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="V214" s="2">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="W214" s="8"/>
+      <c r="X214" s="8"/>
+      <c r="Y214" s="8"/>
+    </row>
+    <row r="215" spans="1:25">
+      <c r="A215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="4">
+        <v>45772</v>
+      </c>
+      <c r="E215" s="2">
+        <f t="shared" si="196"/>
+        <v>70</v>
+      </c>
+      <c r="F215" s="2">
+        <v>3</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215" s="1">
+        <v>4</v>
+      </c>
+      <c r="I215" s="1">
+        <v>1</v>
+      </c>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="P215" s="2">
+        <f t="shared" ref="P215:P217" si="273">COUNTA(H215)</f>
+        <v>1</v>
+      </c>
+      <c r="Q215" s="2">
+        <f t="shared" ref="Q215:Q217" si="274">COUNTA(I215)</f>
+        <v>1</v>
+      </c>
+      <c r="R215" s="2">
+        <f t="shared" ref="R215:R217" si="275">COUNTA(J215)</f>
+        <v>0</v>
+      </c>
+      <c r="S215" s="2">
+        <f t="shared" ref="S215:S217" si="276">COUNTA(K215)</f>
+        <v>0</v>
+      </c>
+      <c r="T215" s="2">
+        <f t="shared" ref="T215:T217" si="277">COUNTA(L215)</f>
+        <v>0</v>
+      </c>
+      <c r="U215" s="2">
+        <f t="shared" ref="U215:U217" si="278">COUNTA(M215)</f>
+        <v>0</v>
+      </c>
+      <c r="V215" s="2">
+        <f t="shared" ref="V215:V217" si="279">COUNTA(N215)</f>
+        <v>0</v>
+      </c>
+      <c r="W215" s="8"/>
+      <c r="X215" s="8"/>
+      <c r="Y215" s="8"/>
+    </row>
+    <row r="216" spans="1:25">
+      <c r="A216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="4">
+        <v>45772</v>
+      </c>
+      <c r="E216" s="2">
+        <f t="shared" si="196"/>
+        <v>71</v>
+      </c>
+      <c r="F216" s="2">
+        <v>1</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" s="1">
+        <v>8</v>
+      </c>
+      <c r="I216" s="1">
+        <v>3</v>
+      </c>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="P216" s="2">
+        <f t="shared" si="273"/>
+        <v>1</v>
+      </c>
+      <c r="Q216" s="2">
+        <f t="shared" si="274"/>
+        <v>1</v>
+      </c>
+      <c r="R216" s="2">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="S216" s="2">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="T216" s="2">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="U216" s="2">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="V216" s="2">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="W216" s="8" t="str">
+        <f t="shared" ref="W216" si="280">IF(SUM(H216:H218)&gt;SUM(I216:I218), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X216" s="8">
+        <f t="shared" ref="X216" si="281">ABS(SUM(H216:H218)-SUM(I216:I218))</f>
+        <v>5</v>
+      </c>
+      <c r="Y216" s="8">
+        <f t="shared" ref="Y216" si="282">SUM(H216:H218, I216:I218)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25">
+      <c r="A217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="4">
+        <v>45772</v>
+      </c>
+      <c r="E217" s="2">
+        <f t="shared" si="196"/>
+        <v>71</v>
+      </c>
+      <c r="F217" s="2">
+        <v>2</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2</v>
+      </c>
+      <c r="I217" s="1">
+        <v>2</v>
+      </c>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="P217" s="2">
+        <f t="shared" si="273"/>
+        <v>1</v>
+      </c>
+      <c r="Q217" s="2">
+        <f t="shared" si="274"/>
+        <v>1</v>
+      </c>
+      <c r="R217" s="2">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="S217" s="2">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="T217" s="2">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="U217" s="2">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="V217" s="2">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="W217" s="8"/>
+      <c r="X217" s="8"/>
+      <c r="Y217" s="8"/>
+    </row>
+    <row r="218" spans="1:25">
+      <c r="A218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="4">
+        <v>45772</v>
+      </c>
+      <c r="E218" s="2">
+        <f t="shared" si="196"/>
+        <v>71</v>
+      </c>
+      <c r="F218" s="2">
+        <v>3</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="1">
+        <v>3</v>
+      </c>
+      <c r="I218" s="1">
+        <v>3</v>
+      </c>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="P218" s="2">
+        <f t="shared" ref="P218" si="283">COUNTA(H218)</f>
+        <v>1</v>
+      </c>
+      <c r="Q218" s="2">
+        <f t="shared" ref="Q218" si="284">COUNTA(I218)</f>
+        <v>1</v>
+      </c>
+      <c r="R218" s="2">
+        <f t="shared" ref="R218" si="285">COUNTA(J218)</f>
+        <v>0</v>
+      </c>
+      <c r="S218" s="2">
+        <f t="shared" ref="S218" si="286">COUNTA(K218)</f>
+        <v>0</v>
+      </c>
+      <c r="T218" s="2">
+        <f t="shared" ref="T218" si="287">COUNTA(L218)</f>
+        <v>0</v>
+      </c>
+      <c r="U218" s="2">
+        <f t="shared" ref="U218" si="288">COUNTA(M218)</f>
+        <v>0</v>
+      </c>
+      <c r="V218" s="2">
+        <f t="shared" ref="V218" si="289">COUNTA(N218)</f>
+        <v>0</v>
+      </c>
+      <c r="W218" s="8"/>
+      <c r="X218" s="8"/>
+      <c r="Y218" s="8"/>
+    </row>
+    <row r="219" spans="1:25">
+      <c r="W219" s="6"/>
+      <c r="X219" s="6"/>
+      <c r="Y219" s="6"/>
+    </row>
+    <row r="222" spans="1:25">
+      <c r="A222" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="1">
-        <v>1</v>
-      </c>
-      <c r="H204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, H$2:H201)/SUMIF($F$2:$F201, $G204, P$2:P201)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="I204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, I$2:I201)/SUMIF($F$2:$F201, $G204, Q$2:Q201)</f>
-        <v>0.96923076923076923</v>
-      </c>
-      <c r="J204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, J$2:J201)/SUMIF($F$2:$F201, $G204, R$2:R201)</f>
-        <v>0.4</v>
-      </c>
-      <c r="K204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, K$2:K201)/SUMIF($F$2:$F201, $G204, S$2:S201)</f>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+      <c r="H222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, H$2:H219)/SUMIF($F$2:$F219, $G222, P$2:P219)</f>
+        <v>2.5652173913043477</v>
+      </c>
+      <c r="I222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, I$2:I219)/SUMIF($F$2:$F219, $G222, Q$2:Q219)</f>
+        <v>1.028169014084507</v>
+      </c>
+      <c r="J222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, J$2:J219)/SUMIF($F$2:$F219, $G222, R$2:R219)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, K$2:K219)/SUMIF($F$2:$F219, $G222, S$2:S219)</f>
         <v>1.25</v>
       </c>
-      <c r="L204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, L$2:L201)/SUMIF($F$2:$F201, $G204, T$2:T201)</f>
-        <v>0</v>
-      </c>
-      <c r="M204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, M$2:M201)/SUMIF($F$2:$F201, $G204, U$2:U201)</f>
-        <v>0</v>
-      </c>
-      <c r="N204" s="5">
-        <f>SUMIF($F$2:$F201, $G204, N$2:N201)/SUMIF($F$2:$F201, $G204, V$2:V201)</f>
-        <v>1</v>
-      </c>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="5"/>
-      <c r="R204" s="5"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
-      <c r="U204" s="5"/>
-      <c r="V204" s="5"/>
-      <c r="X204" s="1" t="s">
+      <c r="L222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, L$2:L219)/SUMIF($F$2:$F219, $G222, T$2:T219)</f>
+        <v>0</v>
+      </c>
+      <c r="M222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, M$2:M219)/SUMIF($F$2:$F219, $G222, U$2:U219)</f>
+        <v>0</v>
+      </c>
+      <c r="N222" s="5">
+        <f>SUMIF($F$2:$F219, $G222, N$2:N219)/SUMIF($F$2:$F219, $G222, V$2:V219)</f>
+        <v>1</v>
+      </c>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
+      <c r="R222" s="5"/>
+      <c r="S222" s="5"/>
+      <c r="T222" s="5"/>
+      <c r="U222" s="5"/>
+      <c r="V222" s="5"/>
+      <c r="X222" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y204" s="1" t="s">
+      <c r="Y222" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:25">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="1">
+    <row r="223" spans="1:25">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="1">
         <v>2</v>
       </c>
-      <c r="H205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, H$2:H202)/SUMIF($F$2:$F202, $G205, P$2:P202)</f>
-        <v>2.9365079365079363</v>
-      </c>
-      <c r="I205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, I$2:I202)/SUMIF($F$2:$F202, $G205, Q$2:Q202)</f>
-        <v>1.323076923076923</v>
-      </c>
-      <c r="J205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, J$2:J202)/SUMIF($F$2:$F202, $G205, R$2:R202)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, K$2:K202)/SUMIF($F$2:$F202, $G205, S$2:S202)</f>
+      <c r="H223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, H$2:H220)/SUMIF($F$2:$F220, $G223, P$2:P220)</f>
+        <v>2.8695652173913042</v>
+      </c>
+      <c r="I223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, I$2:I220)/SUMIF($F$2:$F220, $G223, Q$2:Q220)</f>
+        <v>1.3380281690140845</v>
+      </c>
+      <c r="J223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, J$2:J220)/SUMIF($F$2:$F220, $G223, R$2:R220)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, K$2:K220)/SUMIF($F$2:$F220, $G223, S$2:S220)</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, L$2:L202)/SUMIF($F$2:$F202, $G205, T$2:T202)</f>
-        <v>0</v>
-      </c>
-      <c r="M205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, M$2:M202)/SUMIF($F$2:$F202, $G205, U$2:U202)</f>
+      <c r="L223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, L$2:L220)/SUMIF($F$2:$F220, $G223, T$2:T220)</f>
+        <v>0</v>
+      </c>
+      <c r="M223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, M$2:M220)/SUMIF($F$2:$F220, $G223, U$2:U220)</f>
         <v>1.5</v>
       </c>
-      <c r="N205" s="5">
-        <f>SUMIF($F$2:$F202, $G205, N$2:N202)/SUMIF($F$2:$F202, $G205, V$2:V202)</f>
-        <v>1</v>
-      </c>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="5"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
-      <c r="U205" s="5"/>
-      <c r="V205" s="5"/>
-      <c r="W205" s="1" t="s">
+      <c r="N223" s="5">
+        <f>SUMIF($F$2:$F220, $G223, N$2:N220)/SUMIF($F$2:$F220, $G223, V$2:V220)</f>
+        <v>1</v>
+      </c>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5"/>
+      <c r="V223" s="5"/>
+      <c r="W223" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X205" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W201,W205)</f>
-        <v>49</v>
-      </c>
-      <c r="Y205" s="7">
-        <f>X205/SUM(X205:X206)</f>
-        <v>0.77777777777777779</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="1">
-        <v>3</v>
-      </c>
-      <c r="H206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, H$2:H203)/SUMIF($F$2:$F203, $G206, P$2:P203)</f>
-        <v>2.3492063492063493</v>
-      </c>
-      <c r="I206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, I$2:I203)/SUMIF($F$2:$F203, $G206, Q$2:Q203)</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="J206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, J$2:J203)/SUMIF($F$2:$F203, $G206, R$2:R203)</f>
-        <v>1.3</v>
-      </c>
-      <c r="K206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, K$2:K203)/SUMIF($F$2:$F203, $G206, S$2:S203)</f>
+      <c r="X223" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W219,W223)</f>
+        <v>55</v>
+      </c>
+      <c r="Y223" s="7">
+        <f>X223/SUM(X223:X224)</f>
+        <v>0.79710144927536231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="1">
+        <v>3</v>
+      </c>
+      <c r="H224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, H$2:H221)/SUMIF($F$2:$F221, $G224, P$2:P221)</f>
+        <v>2.4927536231884058</v>
+      </c>
+      <c r="I224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, I$2:I221)/SUMIF($F$2:$F221, $G224, Q$2:Q221)</f>
+        <v>1.5211267605633803</v>
+      </c>
+      <c r="J224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, J$2:J221)/SUMIF($F$2:$F221, $G224, R$2:R221)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, K$2:K221)/SUMIF($F$2:$F221, $G224, S$2:S221)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, L$2:L203)/SUMIF($F$2:$F203, $G206, T$2:T203)</f>
-        <v>1</v>
-      </c>
-      <c r="M206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, M$2:M203)/SUMIF($F$2:$F203, $G206, U$2:U203)</f>
+      <c r="L224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, L$2:L221)/SUMIF($F$2:$F221, $G224, T$2:T221)</f>
+        <v>1</v>
+      </c>
+      <c r="M224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, M$2:M221)/SUMIF($F$2:$F221, $G224, U$2:U221)</f>
         <v>0.5</v>
       </c>
-      <c r="N206" s="5">
-        <f>SUMIF($F$2:$F203, $G206, N$2:N203)/SUMIF($F$2:$F203, $G206, V$2:V203)</f>
-        <v>0</v>
-      </c>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5"/>
-      <c r="V206" s="5"/>
-      <c r="W206" s="1" t="s">
+      <c r="N224" s="5">
+        <f>SUMIF($F$2:$F221, $G224, N$2:N221)/SUMIF($F$2:$F221, $G224, V$2:V221)</f>
+        <v>0</v>
+      </c>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+      <c r="U224" s="5"/>
+      <c r="V224" s="5"/>
+      <c r="W224" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X206" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W202,W206)</f>
+      <c r="X224" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W220,W224)</f>
         <v>14</v>
       </c>
-      <c r="Y206" s="7">
-        <f>X206/SUM(X205:X206)</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="1" t="s">
+      <c r="Y224" s="7">
+        <f>X224/SUM(X223:X224)</f>
+        <v>0.20289855072463769</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H207" s="5">
-        <f>IF(SUMIF($F$2:$F204, $G207, P$2:P204) = 0, "", SUMIF($F$2:$F204, $G207, H$2:H204)/SUMIF($F$2:$F204, $G207, P$2:P204))</f>
+      <c r="H225" s="5">
+        <f>IF(SUMIF($F$2:$F222, $G225, P$2:P222) = 0, "", SUMIF($F$2:$F222, $G225, H$2:H222)/SUMIF($F$2:$F222, $G225, P$2:P222))</f>
         <v>2.5</v>
       </c>
-      <c r="I207" s="5">
-        <f>IF(SUMIF($F$2:$F204, $G207, Q$2:Q204) = 0, "", SUMIF($F$2:$F204, $G207, I$2:I204)/SUMIF($F$2:$F204, $G207, Q$2:Q204))</f>
-        <v>3</v>
-      </c>
-      <c r="J207" s="5">
-        <f>IF(SUMIF($F$2:$F204, $G207, R$2:R204) = 0, "", SUMIF($F$2:$F204, $G207, J$2:J204)/SUMIF($F$2:$F204, $G207, R$2:R204))</f>
+      <c r="I225" s="5">
+        <f>IF(SUMIF($F$2:$F222, $G225, Q$2:Q222) = 0, "", SUMIF($F$2:$F222, $G225, I$2:I222)/SUMIF($F$2:$F222, $G225, Q$2:Q222))</f>
+        <v>3</v>
+      </c>
+      <c r="J225" s="5">
+        <f>IF(SUMIF($F$2:$F222, $G225, R$2:R222) = 0, "", SUMIF($F$2:$F222, $G225, J$2:J222)/SUMIF($F$2:$F222, $G225, R$2:R222))</f>
         <v>2</v>
       </c>
-      <c r="K207" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F204, $G207, S$2:S204) = 0, "", SUMIF($F$2:$F204, $G207, K$2:K204)/SUMIF($F$2:$F204, $G207, S$2:S204))</f>
+      <c r="K225" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F222, $G225, S$2:S222) = 0, "", SUMIF($F$2:$F222, $G225, K$2:K222)/SUMIF($F$2:$F222, $G225, S$2:S222))</f>
         <v/>
       </c>
-      <c r="L207" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F204, $G207, T$2:T204) = 0, "", SUMIF($F$2:$F204, $G207, L$2:L204)/SUMIF($F$2:$F204, $G207, T$2:T204))</f>
+      <c r="L225" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F222, $G225, T$2:T222) = 0, "", SUMIF($F$2:$F222, $G225, L$2:L222)/SUMIF($F$2:$F222, $G225, T$2:T222))</f>
         <v/>
       </c>
-      <c r="M207" s="5">
-        <f>IF(SUMIF($F$2:$F204, $G207, U$2:U204) = 0, "", SUMIF($F$2:$F204, $G207, M$2:M204)/SUMIF($F$2:$F204, $G207, U$2:U204))</f>
-        <v>0</v>
-      </c>
-      <c r="N207" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F204, $G207, V$2:V204) = 0, "", SUMIF($F$2:$F204, $G207, N$2:N204)/SUMIF($F$2:$F204, $G207, V$2:V204))</f>
+      <c r="M225" s="5">
+        <f>IF(SUMIF($F$2:$F222, $G225, U$2:U222) = 0, "", SUMIF($F$2:$F222, $G225, M$2:M222)/SUMIF($F$2:$F222, $G225, U$2:U222))</f>
+        <v>0</v>
+      </c>
+      <c r="N225" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F222, $G225, V$2:V222) = 0, "", SUMIF($F$2:$F222, $G225, N$2:N222)/SUMIF($F$2:$F222, $G225, V$2:V222))</f>
         <v/>
       </c>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5"/>
-      <c r="V207" s="5"/>
-    </row>
-    <row r="208" spans="1:25">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="1" t="s">
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5"/>
+      <c r="V225" s="5"/>
+    </row>
+    <row r="226" spans="1:22">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H208" s="5">
-        <f>AVERAGE(H$2:H201)*3</f>
-        <v>7.7277486910994764</v>
-      </c>
-      <c r="I208" s="5">
-        <f>AVERAGE(I$2:I201)*3</f>
-        <v>3.8832487309644668</v>
-      </c>
-      <c r="J208" s="5">
-        <f>AVERAGE(J$2:J201)*3</f>
-        <v>2.71875</v>
-      </c>
-      <c r="K208" s="5">
-        <f>AVERAGE(K$2:K201)*3</f>
+      <c r="H226" s="5">
+        <f>AVERAGE(H$2:H219)*3</f>
+        <v>7.9234449760765546</v>
+      </c>
+      <c r="I226" s="5">
+        <f>AVERAGE(I$2:I219)*3</f>
+        <v>3.934883720930233</v>
+      </c>
+      <c r="J226" s="5">
+        <f>AVERAGE(J$2:J219)*3</f>
+        <v>2.9210526315789473</v>
+      </c>
+      <c r="K226" s="5">
+        <f>AVERAGE(K$2:K219)*3</f>
         <v>3.083333333333333</v>
       </c>
-      <c r="L208" s="5">
-        <f>AVERAGE(L$2:L201)*3</f>
-        <v>1</v>
-      </c>
-      <c r="M208" s="5">
-        <f>AVERAGE(M$2:M201)*3</f>
+      <c r="L226" s="5">
+        <f>AVERAGE(L$2:L219)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M226" s="5">
+        <f>AVERAGE(M$2:M219)*3</f>
         <v>1.5</v>
       </c>
-      <c r="N208" s="5">
-        <f>AVERAGE(N$2:N201)*3</f>
+      <c r="N226" s="5">
+        <f>AVERAGE(N$2:N219)*3</f>
         <v>2</v>
       </c>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5"/>
-      <c r="V208" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+      <c r="U226" s="5"/>
+      <c r="V226" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="196">
-    <mergeCell ref="A204:F208"/>
+  <mergeCells count="214">
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W201:W203"/>
+    <mergeCell ref="X201:X203"/>
+    <mergeCell ref="Y201:Y203"/>
+    <mergeCell ref="W204:W206"/>
+    <mergeCell ref="X204:X206"/>
+    <mergeCell ref="Y204:Y206"/>
+    <mergeCell ref="W207:W209"/>
+    <mergeCell ref="X207:X209"/>
+    <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="W116:W118"/>
+    <mergeCell ref="X116:X118"/>
+    <mergeCell ref="W104:W106"/>
+    <mergeCell ref="X104:X106"/>
+    <mergeCell ref="W107:W109"/>
+    <mergeCell ref="X107:X109"/>
+    <mergeCell ref="W110:W112"/>
+    <mergeCell ref="X110:X112"/>
+    <mergeCell ref="W113:W115"/>
+    <mergeCell ref="X113:X115"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="Y193:Y197"/>
+    <mergeCell ref="W198:W200"/>
+    <mergeCell ref="X198:X200"/>
+    <mergeCell ref="Y198:Y200"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="W83:W85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="W164:W166"/>
+    <mergeCell ref="X164:X166"/>
+    <mergeCell ref="Y164:Y166"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="Y116:Y118"/>
+    <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y89:Y91"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="Y98:Y100"/>
+    <mergeCell ref="Y101:Y103"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="W98:W100"/>
+    <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="W101:W103"/>
+    <mergeCell ref="X101:X103"/>
+    <mergeCell ref="Y74:Y76"/>
+    <mergeCell ref="Y77:Y79"/>
+    <mergeCell ref="Y80:Y82"/>
+    <mergeCell ref="Y83:Y85"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="W95:W97"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Y56:Y58"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="Y62:Y64"/>
+    <mergeCell ref="Y65:Y67"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Y71:Y73"/>
+    <mergeCell ref="W89:W91"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y119:Y121"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W143:W145"/>
+    <mergeCell ref="X143:X145"/>
+    <mergeCell ref="Y143:Y145"/>
+    <mergeCell ref="W146:W148"/>
+    <mergeCell ref="X146:X148"/>
+    <mergeCell ref="Y146:Y148"/>
+    <mergeCell ref="W149:W151"/>
+    <mergeCell ref="X149:X151"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W184:W186"/>
+    <mergeCell ref="X184:X186"/>
+    <mergeCell ref="Y184:Y186"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="Y167:Y169"/>
+    <mergeCell ref="W161:W163"/>
+    <mergeCell ref="X161:X163"/>
+    <mergeCell ref="Y161:Y163"/>
+    <mergeCell ref="W158:W160"/>
+    <mergeCell ref="X158:X160"/>
+    <mergeCell ref="A222:F226"/>
     <mergeCell ref="W170:W172"/>
     <mergeCell ref="X170:X172"/>
     <mergeCell ref="Y170:Y172"/>
@@ -14902,183 +16344,11 @@
     <mergeCell ref="Y190:Y192"/>
     <mergeCell ref="X181:X183"/>
     <mergeCell ref="Y181:Y183"/>
-    <mergeCell ref="W184:W186"/>
-    <mergeCell ref="X184:X186"/>
-    <mergeCell ref="Y184:Y186"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
-    <mergeCell ref="Y167:Y169"/>
-    <mergeCell ref="W161:W163"/>
-    <mergeCell ref="X161:X163"/>
-    <mergeCell ref="Y161:Y163"/>
-    <mergeCell ref="W143:W145"/>
-    <mergeCell ref="X143:X145"/>
-    <mergeCell ref="Y143:Y145"/>
-    <mergeCell ref="W146:W148"/>
-    <mergeCell ref="X146:X148"/>
-    <mergeCell ref="Y146:Y148"/>
-    <mergeCell ref="W149:W151"/>
-    <mergeCell ref="X149:X151"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
-    <mergeCell ref="Y119:Y121"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="W101:W103"/>
-    <mergeCell ref="X101:X103"/>
-    <mergeCell ref="Y74:Y76"/>
-    <mergeCell ref="Y77:Y79"/>
-    <mergeCell ref="Y80:Y82"/>
-    <mergeCell ref="Y83:Y85"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="Y62:Y64"/>
-    <mergeCell ref="Y65:Y67"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Y71:Y73"/>
-    <mergeCell ref="W89:W91"/>
-    <mergeCell ref="X89:X91"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W95:W97"/>
-    <mergeCell ref="X95:X97"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W158:W160"/>
-    <mergeCell ref="X158:X160"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="W98:W100"/>
-    <mergeCell ref="X98:X100"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="W116:W118"/>
-    <mergeCell ref="X116:X118"/>
-    <mergeCell ref="W104:W106"/>
-    <mergeCell ref="X104:X106"/>
-    <mergeCell ref="W107:W109"/>
-    <mergeCell ref="X107:X109"/>
-    <mergeCell ref="W110:W112"/>
-    <mergeCell ref="X110:X112"/>
-    <mergeCell ref="Y98:Y100"/>
-    <mergeCell ref="Y101:Y103"/>
-    <mergeCell ref="W113:W115"/>
-    <mergeCell ref="X113:X115"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Y56:Y58"/>
-    <mergeCell ref="Y193:Y197"/>
-    <mergeCell ref="W198:W200"/>
-    <mergeCell ref="X198:X200"/>
-    <mergeCell ref="Y198:Y200"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="W83:W85"/>
-    <mergeCell ref="X83:X85"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="W164:W166"/>
-    <mergeCell ref="X164:X166"/>
-    <mergeCell ref="Y164:Y166"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
-    <mergeCell ref="Y116:Y118"/>
-    <mergeCell ref="W122:W124"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y89:Y91"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="W213:W215"/>
+    <mergeCell ref="X213:X215"/>
+    <mergeCell ref="Y213:Y215"/>
   </mergeCells>
-  <conditionalFormatting sqref="H204:N207">
+  <conditionalFormatting sqref="H222:N225">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15090,7 +16360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H208:N208">
+  <conditionalFormatting sqref="H226:N226">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15104,4 +16374,64 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA0B96-8D86-B443-90CB-3A07A27BEEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B89C833-8AE1-EF4B-A0C3-4F278C818580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" activeTab="1" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId3"/>
-    <pivotCache cacheId="37" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -208,13 +208,7 @@
     <t>Land</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>(All)</t>
   </si>
   <si>
     <t>Games</t>
@@ -300,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,80 +317,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -426,42 +359,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45775.544553587963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{E930814E-E8A5-CE4D-93DE-71F077D1D59F}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E8" sheet="Next Gen"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Game" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="73"/>
-    </cacheField>
-    <cacheField name="Player" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Joshua"/>
-        <s v="Caleb"/>
-        <s v="Daniel"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Throws" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="9"/>
-    </cacheField>
-    <cacheField name="Land" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Board Hits" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="9"/>
-    </cacheField>
-    <cacheField name="touch_comp" numFmtId="0" formula="Land /'Board Hits'" databaseField="0"/>
-    <cacheField name="accuracy_comp" numFmtId="0" formula="'Board Hits'/Throws" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45775.545510532407" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="223" xr:uid="{F672F0BC-460C-774A-9857-1BF730060EB5}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N224" sheet="Scores"/>
@@ -656,61 +553,43 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
-  <r>
-    <n v="71"/>
-    <x v="0"/>
-    <n v="9"/>
-    <n v="4"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <x v="1"/>
-    <n v="9"/>
-    <n v="5"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <x v="0"/>
-    <n v="9"/>
-    <n v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <x v="1"/>
-    <n v="9"/>
-    <n v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <x v="2"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <x v="1"/>
-    <n v="9"/>
-    <n v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <x v="0"/>
-    <n v="9"/>
-    <n v="4"/>
-    <n v="6"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45775.756599652777" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{35C3325B-3AEE-6043-A960-DB3E8DA68362}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E13" sheet="Next Gen"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Game" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="75"/>
+    </cacheField>
+    <cacheField name="Player" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Joshua"/>
+        <s v="Caleb"/>
+        <s v="Daniel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Throws" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Board Hits" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Land" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="touch_comp" numFmtId="0" formula="Land/'Board Hits'" databaseField="0"/>
+    <cacheField name="accuracy_comp" numFmtId="0" formula="'Board Hits'/Throws" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="223">
   <r>
     <x v="0"/>
@@ -4283,30 +4162,119 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="8"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40FFAAF7-92A4-BE46-A8AA-9E2BE932EACE}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A237:H242" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40FFAAF7-92A4-BE46-A8AA-9E2BE932EACE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+  <location ref="G246:N251" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4537,7 +4505,7 @@
     <dataField name="Average of Veronica" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -4562,7 +4530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CCF94C8-D65B-3B4D-9D3A-57B9193ABE3B}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50B5D12-F4BB-614A-838B-8CB625EDBDBC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
   <location ref="H3:M7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4619,20 +4587,20 @@
   </colItems>
   <dataFields count="5">
     <dataField name="Games" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Hits" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Landing" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Hits" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Landing" fld="4" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Accuracy" fld="6" baseField="0" baseItem="0"/>
     <dataField name="Touch" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="24">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4965,22 +4933,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:AI786"/>
+  <dimension ref="A1:AI793"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H248" sqref="H248"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W228" sqref="W228:W231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="22" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="28" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -5128,15 +5097,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W2" s="8" t="str">
+      <c r="W2" s="11" t="str">
         <f>IF(SUM(H2:H4)&gt;SUM(I2:I4), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="11">
         <f>ABS(SUM(H2:H4)-SUM(I2:I4))</f>
         <v>10</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="11">
         <f>SUM(H2:H4, I2:I4)</f>
         <v>12</v>
       </c>
@@ -5204,9 +5173,9 @@
         <f t="shared" ref="V3:V66" si="7">COUNTA(N3)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
@@ -5271,9 +5240,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
@@ -5338,15 +5307,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="8" t="str">
+      <c r="W5" s="11" t="str">
         <f t="shared" ref="W5" si="8">IF(SUM(H5:H7)&gt;SUM(I5:I7), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="11">
         <f>ABS(SUM(H5:H7)-SUM(I5:I7))</f>
         <v>16</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="11">
         <f t="shared" ref="Y5" si="9">SUM(H5:H7, I5:I7)</f>
         <v>16</v>
       </c>
@@ -5414,9 +5383,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
@@ -5481,9 +5450,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
@@ -5548,15 +5517,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="8" t="str">
+      <c r="W8" s="11" t="str">
         <f t="shared" ref="W8" si="12">IF(SUM(H8:H10)&gt;SUM(I8:I10), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="11">
         <f t="shared" ref="X8" si="13">ABS(SUM(H8:H10)-SUM(I8:I10))</f>
         <v>6</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="11">
         <f t="shared" ref="Y8" si="14">SUM(H8:H10, I8:I10)</f>
         <v>14</v>
       </c>
@@ -5624,9 +5593,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
@@ -5691,9 +5660,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
@@ -5760,15 +5729,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="8" t="str">
+      <c r="W11" s="11" t="str">
         <f t="shared" ref="W11" si="15">IF(SUM(H11:H13)&gt;SUM(I11:I13), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="11">
         <f t="shared" ref="X11" si="16">ABS(SUM(H11:H13)-SUM(I11:I13))</f>
         <v>4</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="11">
         <f t="shared" ref="Y11" si="17">SUM(H11:H13, I11:I13)</f>
         <v>4</v>
       </c>
@@ -5838,9 +5807,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -5907,9 +5876,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
@@ -5976,15 +5945,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="8" t="str">
+      <c r="W14" s="11" t="str">
         <f t="shared" ref="W14" si="18">IF(SUM(H14:H16)&gt;SUM(I14:I16), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="11">
         <f t="shared" ref="X14" si="19">ABS(SUM(H14:H16)-SUM(I14:I16))</f>
         <v>10</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="11">
         <f t="shared" ref="Y14" si="20">SUM(H14:H16, I14:I16)</f>
         <v>12</v>
       </c>
@@ -6054,9 +6023,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
@@ -6123,9 +6092,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
@@ -6190,15 +6159,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="8" t="str">
+      <c r="W17" s="11" t="str">
         <f t="shared" ref="W17" si="21">IF(SUM(H17:H19)&gt;SUM(I17:I19), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="11">
         <f t="shared" ref="X17" si="22">ABS(SUM(H17:H19)-SUM(I17:I19))</f>
         <v>6</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="11">
         <f t="shared" ref="Y17" si="23">SUM(H17:H19, I17:I19)</f>
         <v>14</v>
       </c>
@@ -6266,9 +6235,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
@@ -6333,9 +6302,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
@@ -6400,15 +6369,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="8" t="str">
+      <c r="W20" s="11" t="str">
         <f t="shared" ref="W20" si="24">IF(SUM(H20:H22)&gt;SUM(I20:I22), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="11">
         <f t="shared" ref="X20" si="25">ABS(SUM(H20:H22)-SUM(I20:I22))</f>
         <v>4</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y20" s="11">
         <f t="shared" ref="Y20" si="26">SUM(H20:H22, I20:I22)</f>
         <v>14</v>
       </c>
@@ -6476,9 +6445,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
@@ -6543,9 +6512,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
@@ -6610,15 +6579,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="8" t="str">
+      <c r="W23" s="11" t="str">
         <f t="shared" ref="W23" si="27">IF(SUM(H23:H25)&gt;SUM(I23:I25), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="11">
         <f t="shared" ref="X23" si="28">ABS(SUM(H23:H25)-SUM(I23:I25))</f>
         <v>4</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y23" s="11">
         <f t="shared" ref="Y23" si="29">SUM(H23:H25, I23:I25)</f>
         <v>8</v>
       </c>
@@ -6686,9 +6655,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -6753,9 +6722,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
@@ -6822,15 +6791,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W26" s="8" t="str">
+      <c r="W26" s="11" t="str">
         <f t="shared" ref="W26" si="30">IF(SUM(H26:H28)&gt;SUM(I26:I28), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="11">
         <f t="shared" ref="X26" si="31">ABS(SUM(H26:H28)-SUM(I26:I28))</f>
         <v>2</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Y26" s="11">
         <f t="shared" ref="Y26" si="32">SUM(H26:H28, I26:I28)</f>
         <v>20</v>
       </c>
@@ -6900,9 +6869,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
@@ -6969,9 +6938,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
@@ -7036,15 +7005,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W29" s="8" t="str">
+      <c r="W29" s="11" t="str">
         <f t="shared" ref="W29" si="33">IF(SUM(H29:H31)&gt;SUM(I29:I31), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="11">
         <f t="shared" ref="X29" si="34">ABS(SUM(H29:H31)-SUM(I29:I31))</f>
         <v>5</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Y29" s="11">
         <f t="shared" ref="Y29" si="35">SUM(H29:H31, I29:I31)</f>
         <v>7</v>
       </c>
@@ -7112,9 +7081,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
@@ -7179,9 +7148,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
@@ -7248,15 +7217,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="8" t="str">
+      <c r="W32" s="11" t="str">
         <f t="shared" ref="W32" si="36">IF(SUM(H32:H34)&gt;SUM(I32:I34), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="11">
         <f t="shared" ref="X32" si="37">ABS(SUM(H32:H34)-SUM(I32:I34))</f>
         <v>9</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="11">
         <f t="shared" ref="Y32" si="38">SUM(H32:H34, I32:I34)</f>
         <v>19</v>
       </c>
@@ -7326,9 +7295,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
@@ -7395,9 +7364,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
@@ -7464,15 +7433,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W35" s="8" t="str">
+      <c r="W35" s="11" t="str">
         <f t="shared" ref="W35" si="39">IF(SUM(H35:H37)&gt;SUM(I35:I37), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X35" s="8">
+      <c r="X35" s="11">
         <f t="shared" ref="X35" si="40">ABS(SUM(H35:H37)-SUM(I35:I37))</f>
         <v>7</v>
       </c>
-      <c r="Y35" s="8">
+      <c r="Y35" s="11">
         <f t="shared" ref="Y35" si="41">SUM(H35:H37, I35:I37)</f>
         <v>13</v>
       </c>
@@ -7542,9 +7511,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -7611,9 +7580,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
@@ -7680,15 +7649,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W38" s="8" t="str">
+      <c r="W38" s="11" t="str">
         <f t="shared" ref="W38" si="42">IF(SUM(H38:H40)&gt;SUM(I38:I40), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X38" s="8">
+      <c r="X38" s="11">
         <f t="shared" ref="X38" si="43">ABS(SUM(H38:H40)-SUM(I38:I40))</f>
         <v>10</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y38" s="11">
         <f t="shared" ref="Y38" si="44">SUM(H38:H40, I38:I40)</f>
         <v>12</v>
       </c>
@@ -7758,9 +7727,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
@@ -7827,9 +7796,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
@@ -7894,15 +7863,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W41" s="8" t="str">
+      <c r="W41" s="11" t="str">
         <f t="shared" ref="W41" si="45">IF(SUM(H41:H43)&gt;SUM(I41:I43), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X41" s="11">
         <f t="shared" ref="X41" si="46">ABS(SUM(H41:H43)-SUM(I41:I43))</f>
         <v>8</v>
       </c>
-      <c r="Y41" s="8">
+      <c r="Y41" s="11">
         <f t="shared" ref="Y41" si="47">SUM(H41:H43, I41:I43)</f>
         <v>14</v>
       </c>
@@ -7970,9 +7939,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
@@ -8037,9 +8006,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
@@ -8104,15 +8073,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W44" s="8" t="str">
+      <c r="W44" s="11" t="str">
         <f t="shared" ref="W44" si="48">IF(SUM(H44:H46)&gt;SUM(I44:I46), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="11">
         <f t="shared" ref="X44" si="49">ABS(SUM(H44:H46)-SUM(I44:I46))</f>
         <v>2</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="Y44" s="11">
         <f t="shared" ref="Y44" si="50">SUM(H44:H46, I44:I46)</f>
         <v>8</v>
       </c>
@@ -8180,9 +8149,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
@@ -8247,9 +8216,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -8316,15 +8285,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W47" s="8" t="str">
+      <c r="W47" s="11" t="str">
         <f t="shared" ref="W47" si="51">IF(SUM(H47:H49)&gt;SUM(I47:I49), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X47" s="8">
+      <c r="X47" s="11">
         <f t="shared" ref="X47" si="52">ABS(SUM(H47:H49)-SUM(I47:I49))</f>
         <v>8</v>
       </c>
-      <c r="Y47" s="8">
+      <c r="Y47" s="11">
         <f t="shared" ref="Y47" si="53">SUM(H47:H49, I47:I49)</f>
         <v>10</v>
       </c>
@@ -8394,9 +8363,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -8463,9 +8432,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
@@ -8530,15 +8499,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W50" s="8" t="str">
+      <c r="W50" s="11" t="str">
         <f t="shared" ref="W50" si="54">IF(SUM(H50:H52)&gt;SUM(I50:I52), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X50" s="8">
+      <c r="X50" s="11">
         <f t="shared" ref="X50" si="55">ABS(SUM(H50:H52)-SUM(I50:I52))</f>
         <v>7</v>
       </c>
-      <c r="Y50" s="8">
+      <c r="Y50" s="11">
         <f t="shared" ref="Y50" si="56">SUM(H50:H52, I50:I52)</f>
         <v>9</v>
       </c>
@@ -8606,9 +8575,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
@@ -8673,9 +8642,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
@@ -8740,15 +8709,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W53" s="8" t="str">
+      <c r="W53" s="11" t="str">
         <f t="shared" ref="W53" si="57">IF(SUM(H53:H55)&gt;SUM(I53:I55), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X53" s="8">
+      <c r="X53" s="11">
         <f t="shared" ref="X53" si="58">ABS(SUM(H53:H55)-SUM(I53:I55))</f>
         <v>5</v>
       </c>
-      <c r="Y53" s="8">
+      <c r="Y53" s="11">
         <f t="shared" ref="Y53" si="59">SUM(H53:H55, I53:I55)</f>
         <v>13</v>
       </c>
@@ -8816,9 +8785,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
@@ -8883,9 +8852,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
@@ -8950,15 +8919,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W56" s="8" t="str">
+      <c r="W56" s="11" t="str">
         <f t="shared" ref="W56" si="60">IF(SUM(H56:H58)&gt;SUM(I56:I58), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X56" s="8">
+      <c r="X56" s="11">
         <f t="shared" ref="X56" si="61">ABS(SUM(H56:H58)-SUM(I56:I58))</f>
         <v>3</v>
       </c>
-      <c r="Y56" s="8">
+      <c r="Y56" s="11">
         <f t="shared" ref="Y56" si="62">SUM(H56:H58, I56:I58)</f>
         <v>13</v>
       </c>
@@ -9026,9 +8995,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
@@ -9093,9 +9062,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
@@ -9160,15 +9129,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W59" s="8" t="str">
+      <c r="W59" s="11" t="str">
         <f t="shared" ref="W59" si="63">IF(SUM(H59:H61)&gt;SUM(I59:I61), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X59" s="8">
+      <c r="X59" s="11">
         <f t="shared" ref="X59" si="64">ABS(SUM(H59:H61)-SUM(I59:I61))</f>
         <v>2</v>
       </c>
-      <c r="Y59" s="8">
+      <c r="Y59" s="11">
         <f t="shared" ref="Y59" si="65">SUM(H59:H61, I59:I61)</f>
         <v>6</v>
       </c>
@@ -9236,9 +9205,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -9303,9 +9272,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
@@ -9370,15 +9339,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W62" s="8" t="str">
+      <c r="W62" s="11" t="str">
         <f t="shared" ref="W62" si="66">IF(SUM(H62:H64)&gt;SUM(I62:I64), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X62" s="8">
+      <c r="X62" s="11">
         <f t="shared" ref="X62" si="67">ABS(SUM(H62:H64)-SUM(I62:I64))</f>
         <v>3</v>
       </c>
-      <c r="Y62" s="8">
+      <c r="Y62" s="11">
         <f t="shared" ref="Y62" si="68">SUM(H62:H64, I62:I64)</f>
         <v>17</v>
       </c>
@@ -9446,9 +9415,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
@@ -9513,9 +9482,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
@@ -9580,15 +9549,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W65" s="8" t="str">
+      <c r="W65" s="11" t="str">
         <f t="shared" ref="W65" si="69">IF(SUM(H65:H67)&gt;SUM(I65:I67), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X65" s="8">
+      <c r="X65" s="11">
         <f t="shared" ref="X65" si="70">ABS(SUM(H65:H67)-SUM(I65:I67))</f>
         <v>4</v>
       </c>
-      <c r="Y65" s="8">
+      <c r="Y65" s="11">
         <f t="shared" ref="Y65" si="71">SUM(H65:H67, I65:I67)</f>
         <v>4</v>
       </c>
@@ -9656,9 +9625,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
@@ -9723,9 +9692,9 @@
         <f t="shared" ref="V67:V130" si="78">COUNTA(N67)</f>
         <v>0</v>
       </c>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
@@ -9790,15 +9759,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W68" s="8" t="str">
+      <c r="W68" s="11" t="str">
         <f t="shared" ref="W68" si="79">IF(SUM(H68:H70)&gt;SUM(I68:I70), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X68" s="8">
+      <c r="X68" s="11">
         <f t="shared" ref="X68" si="80">ABS(SUM(H68:H70)-SUM(I68:I70))</f>
         <v>9</v>
       </c>
-      <c r="Y68" s="8">
+      <c r="Y68" s="11">
         <f t="shared" ref="Y68" si="81">SUM(H68:H70, I68:I70)</f>
         <v>13</v>
       </c>
@@ -9866,9 +9835,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -9933,9 +9902,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
@@ -10000,15 +9969,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W71" s="8" t="str">
+      <c r="W71" s="11" t="str">
         <f t="shared" ref="W71" si="83">IF(SUM(H71:H73)&gt;SUM(I71:I73), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X71" s="8">
+      <c r="X71" s="11">
         <f t="shared" ref="X71" si="84">ABS(SUM(H71:H73)-SUM(I71:I73))</f>
         <v>9</v>
       </c>
-      <c r="Y71" s="8">
+      <c r="Y71" s="11">
         <f t="shared" ref="Y71" si="85">SUM(H71:H73, I71:I73)</f>
         <v>11</v>
       </c>
@@ -10076,9 +10045,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -10143,9 +10112,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
@@ -10212,15 +10181,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W74" s="8" t="str">
+      <c r="W74" s="11" t="str">
         <f t="shared" ref="W74" si="87">IF(SUM(H74:H76)&gt;SUM(I74:I76), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X74" s="8">
+      <c r="X74" s="11">
         <f t="shared" ref="X74" si="88">ABS(SUM(H74:H76)-SUM(I74:I76))</f>
         <v>3</v>
       </c>
-      <c r="Y74" s="8">
+      <c r="Y74" s="11">
         <f t="shared" ref="Y74" si="89">SUM(H74:H76, I74:I76)</f>
         <v>9</v>
       </c>
@@ -10290,9 +10259,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
@@ -10359,9 +10328,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
@@ -10426,15 +10395,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W77" s="8" t="str">
+      <c r="W77" s="11" t="str">
         <f t="shared" ref="W77" si="90">IF(SUM(H77:H79)&gt;SUM(I77:I79), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X77" s="8">
+      <c r="X77" s="11">
         <f t="shared" ref="X77" si="91">ABS(SUM(H77:H79)-SUM(I77:I79))</f>
         <v>1</v>
       </c>
-      <c r="Y77" s="8">
+      <c r="Y77" s="11">
         <f t="shared" ref="Y77" si="92">SUM(H77:H79, I77:I79)</f>
         <v>23</v>
       </c>
@@ -10502,9 +10471,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
@@ -10569,9 +10538,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
@@ -10638,15 +10607,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W80" s="8" t="str">
+      <c r="W80" s="11" t="str">
         <f t="shared" ref="W80" si="93">IF(SUM(H80:H82)&gt;SUM(I80:I82), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X80" s="8">
+      <c r="X80" s="11">
         <f t="shared" ref="X80" si="94">ABS(SUM(H80:H82)-SUM(I80:I82))</f>
         <v>8</v>
       </c>
-      <c r="Y80" s="8">
+      <c r="Y80" s="11">
         <f t="shared" ref="Y80" si="95">SUM(H80:H82, I80:I82)</f>
         <v>12</v>
       </c>
@@ -10716,9 +10685,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
@@ -10785,9 +10754,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
@@ -10852,15 +10821,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W83" s="8" t="str">
+      <c r="W83" s="11" t="str">
         <f t="shared" ref="W83" si="96">IF(SUM(H83:H85)&gt;SUM(I83:I85), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X83" s="8">
+      <c r="X83" s="11">
         <f t="shared" ref="X83" si="97">ABS(SUM(H83:H85)-SUM(I83:I85))</f>
         <v>3</v>
       </c>
-      <c r="Y83" s="8">
+      <c r="Y83" s="11">
         <f t="shared" ref="Y83" si="98">SUM(H83:H85, I83:I85)</f>
         <v>11</v>
       </c>
@@ -10928,9 +10897,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -10995,9 +10964,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
@@ -11062,15 +11031,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W86" s="8" t="str">
+      <c r="W86" s="11" t="str">
         <f t="shared" ref="W86" si="99">IF(SUM(H86:H88)&gt;SUM(I86:I88), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X86" s="8">
+      <c r="X86" s="11">
         <f t="shared" ref="X86" si="100">ABS(SUM(H86:H88)-SUM(I86:I88))</f>
         <v>5</v>
       </c>
-      <c r="Y86" s="8">
+      <c r="Y86" s="11">
         <f t="shared" ref="Y86" si="101">SUM(H86:H88, I86:I88)</f>
         <v>15</v>
       </c>
@@ -11138,9 +11107,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-      <c r="Y87" s="8"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
@@ -11205,9 +11174,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
@@ -11272,15 +11241,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W89" s="8" t="str">
+      <c r="W89" s="11" t="str">
         <f t="shared" ref="W89" si="102">IF(SUM(H89:H91)&gt;SUM(I89:I91), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X89" s="8">
+      <c r="X89" s="11">
         <f t="shared" ref="X89" si="103">ABS(SUM(H89:H91)-SUM(I89:I91))</f>
         <v>5</v>
       </c>
-      <c r="Y89" s="8">
+      <c r="Y89" s="11">
         <f t="shared" ref="Y89" si="104">SUM(H89:H91, I89:I91)</f>
         <v>9</v>
       </c>
@@ -11348,9 +11317,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
@@ -11415,9 +11384,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="8"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
@@ -11482,15 +11451,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W92" s="8" t="str">
+      <c r="W92" s="11" t="str">
         <f t="shared" ref="W92" si="105">IF(SUM(H92:H94)&gt;SUM(I92:I94), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X92" s="8">
+      <c r="X92" s="11">
         <f t="shared" ref="X92" si="106">ABS(SUM(H92:H94)-SUM(I92:I94))</f>
         <v>1</v>
       </c>
-      <c r="Y92" s="8">
+      <c r="Y92" s="11">
         <f t="shared" ref="Y92" si="107">SUM(H92:H94, I92:I94)</f>
         <v>11</v>
       </c>
@@ -11558,9 +11527,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W93" s="8"/>
-      <c r="X93" s="8"/>
-      <c r="Y93" s="8"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
@@ -11625,9 +11594,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="8"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
@@ -11692,15 +11661,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W95" s="8" t="str">
+      <c r="W95" s="11" t="str">
         <f t="shared" ref="W95" si="108">IF(SUM(H95:H97)&gt;SUM(I95:I97), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X95" s="8">
+      <c r="X95" s="11">
         <f t="shared" ref="X95" si="109">ABS(SUM(H95:H97)-SUM(I95:I97))</f>
         <v>1</v>
       </c>
-      <c r="Y95" s="8">
+      <c r="Y95" s="11">
         <f t="shared" ref="Y95" si="110">SUM(H95:H97, I95:I97)</f>
         <v>9</v>
       </c>
@@ -11768,9 +11737,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="8"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
@@ -11835,9 +11804,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="1" t="s">
@@ -11904,15 +11873,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W98" s="8" t="str">
+      <c r="W98" s="11" t="str">
         <f t="shared" ref="W98" si="111">IF(SUM(H98:H100)&gt;SUM(I98:I100), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X98" s="8">
+      <c r="X98" s="11">
         <f t="shared" ref="X98" si="112">ABS(SUM(H98:H100)-SUM(I98:I100))</f>
         <v>1</v>
       </c>
-      <c r="Y98" s="8">
+      <c r="Y98" s="11">
         <f t="shared" ref="Y98" si="113">SUM(H98:H100, I98:I100)</f>
         <v>9</v>
       </c>
@@ -11982,9 +11951,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="8"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="1" t="s">
@@ -12051,9 +12020,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="8"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
@@ -12120,15 +12089,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W101" s="8" t="str">
+      <c r="W101" s="11" t="str">
         <f t="shared" ref="W101" si="114">IF(SUM(H101:H103)&gt;SUM(I101:I103), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X101" s="8">
+      <c r="X101" s="11">
         <f t="shared" ref="X101" si="115">ABS(SUM(H101:H103)-SUM(I101:I103))</f>
         <v>7</v>
       </c>
-      <c r="Y101" s="8">
+      <c r="Y101" s="11">
         <f t="shared" ref="Y101" si="116">SUM(H101:H103, I101:I103)</f>
         <v>9</v>
       </c>
@@ -12198,9 +12167,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="8"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
@@ -12267,9 +12236,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
@@ -12333,15 +12302,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W104" s="8" t="str">
+      <c r="W104" s="11" t="str">
         <f t="shared" ref="W104" si="117">IF(SUM(H104:H106)&gt;SUM(I104:I106), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X104" s="8">
+      <c r="X104" s="11">
         <f t="shared" ref="X104" si="118">ABS(SUM(H104:H106)-SUM(I104:I106))</f>
         <v>6</v>
       </c>
-      <c r="Y104" s="8">
+      <c r="Y104" s="11">
         <f t="shared" ref="Y104" si="119">SUM(H104:H106, I104:I106)</f>
         <v>10</v>
       </c>
@@ -12408,9 +12377,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W105" s="8"/>
-      <c r="X105" s="8"/>
-      <c r="Y105" s="8"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="1" t="s">
@@ -12474,9 +12443,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W106" s="8"/>
-      <c r="X106" s="8"/>
-      <c r="Y106" s="8"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="1" t="s">
@@ -12543,15 +12512,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W107" s="8" t="str">
+      <c r="W107" s="11" t="str">
         <f t="shared" ref="W107" si="120">IF(SUM(H107:H109)&gt;SUM(I107:I109), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X107" s="8">
+      <c r="X107" s="11">
         <f t="shared" ref="X107" si="121">ABS(SUM(H107:H109)-SUM(I107:I109))</f>
         <v>1</v>
       </c>
-      <c r="Y107" s="8">
+      <c r="Y107" s="11">
         <f t="shared" ref="Y107" si="122">SUM(H107:H109, I107:I109)</f>
         <v>3</v>
       </c>
@@ -12621,9 +12590,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W108" s="8"/>
-      <c r="X108" s="8"/>
-      <c r="Y108" s="8"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="1" t="s">
@@ -12690,9 +12659,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W109" s="8"/>
-      <c r="X109" s="8"/>
-      <c r="Y109" s="8"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="1" t="s">
@@ -12756,15 +12725,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W110" s="8" t="str">
+      <c r="W110" s="11" t="str">
         <f t="shared" ref="W110" si="123">IF(SUM(H110:H112)&gt;SUM(I110:I112), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X110" s="8">
+      <c r="X110" s="11">
         <f t="shared" ref="X110" si="124">ABS(SUM(H110:H112)-SUM(I110:I112))</f>
         <v>2</v>
       </c>
-      <c r="Y110" s="8">
+      <c r="Y110" s="11">
         <f t="shared" ref="Y110" si="125">SUM(H110:H112, I110:I112)</f>
         <v>14</v>
       </c>
@@ -12831,9 +12800,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W111" s="8"/>
-      <c r="X111" s="8"/>
-      <c r="Y111" s="8"/>
+      <c r="W111" s="11"/>
+      <c r="X111" s="11"/>
+      <c r="Y111" s="11"/>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="1" t="s">
@@ -12897,9 +12866,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W112" s="8"/>
-      <c r="X112" s="8"/>
-      <c r="Y112" s="8"/>
+      <c r="W112" s="11"/>
+      <c r="X112" s="11"/>
+      <c r="Y112" s="11"/>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="1" t="s">
@@ -12965,15 +12934,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W113" s="8" t="str">
+      <c r="W113" s="11" t="str">
         <f t="shared" ref="W113" si="126">IF(SUM(H113:H115)&gt;SUM(I113:I115), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X113" s="8">
+      <c r="X113" s="11">
         <f t="shared" ref="X113" si="127">ABS(SUM(H113:H115)-SUM(I113:I115))</f>
         <v>3</v>
       </c>
-      <c r="Y113" s="8">
+      <c r="Y113" s="11">
         <f t="shared" ref="Y113" si="128">SUM(H113:H115, I113:I115)</f>
         <v>5</v>
       </c>
@@ -13042,9 +13011,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W114" s="8"/>
-      <c r="X114" s="8"/>
-      <c r="Y114" s="8"/>
+      <c r="W114" s="11"/>
+      <c r="X114" s="11"/>
+      <c r="Y114" s="11"/>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="1" t="s">
@@ -13110,9 +13079,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W115" s="8"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="8"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="11"/>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -13176,15 +13145,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W116" s="8" t="str">
+      <c r="W116" s="11" t="str">
         <f t="shared" ref="W116" si="129">IF(SUM(H116:H118)&gt;SUM(I116:I118), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X116" s="8">
+      <c r="X116" s="11">
         <f t="shared" ref="X116" si="130">ABS(SUM(H116:H118)-SUM(I116:I118))</f>
         <v>9</v>
       </c>
-      <c r="Y116" s="8">
+      <c r="Y116" s="11">
         <f t="shared" ref="Y116" si="131">SUM(H116:H118, I116:I118)</f>
         <v>21</v>
       </c>
@@ -13251,9 +13220,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W117" s="8"/>
-      <c r="X117" s="8"/>
-      <c r="Y117" s="8"/>
+      <c r="W117" s="11"/>
+      <c r="X117" s="11"/>
+      <c r="Y117" s="11"/>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="1" t="s">
@@ -13317,9 +13286,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="11"/>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="1" t="s">
@@ -13383,15 +13352,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W119" s="8" t="str">
+      <c r="W119" s="11" t="str">
         <f t="shared" ref="W119" si="132">IF(SUM(H119:H121)&gt;SUM(I119:I121), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X119" s="8">
+      <c r="X119" s="11">
         <f t="shared" ref="X119" si="133">ABS(SUM(H119:H121)-SUM(I119:I121))</f>
         <v>2</v>
       </c>
-      <c r="Y119" s="8">
+      <c r="Y119" s="11">
         <f t="shared" ref="Y119" si="134">SUM(H119:H121, I119:I121)</f>
         <v>14</v>
       </c>
@@ -13458,9 +13427,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
+      <c r="W120" s="11"/>
+      <c r="X120" s="11"/>
+      <c r="Y120" s="11"/>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="1" t="s">
@@ -13524,9 +13493,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W121" s="8"/>
-      <c r="X121" s="8"/>
-      <c r="Y121" s="8"/>
+      <c r="W121" s="11"/>
+      <c r="X121" s="11"/>
+      <c r="Y121" s="11"/>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="1" t="s">
@@ -13590,15 +13559,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W122" s="8" t="str">
+      <c r="W122" s="11" t="str">
         <f t="shared" ref="W122" si="135">IF(SUM(H122:H124)&gt;SUM(I122:I124), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X122" s="8">
+      <c r="X122" s="11">
         <f t="shared" ref="X122" si="136">ABS(SUM(H122:H124)-SUM(I122:I124))</f>
         <v>2</v>
       </c>
-      <c r="Y122" s="8">
+      <c r="Y122" s="11">
         <f t="shared" ref="Y122" si="137">SUM(H122:H124, I122:I124)</f>
         <v>6</v>
       </c>
@@ -13665,9 +13634,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W123" s="8"/>
-      <c r="X123" s="8"/>
-      <c r="Y123" s="8"/>
+      <c r="W123" s="11"/>
+      <c r="X123" s="11"/>
+      <c r="Y123" s="11"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="1" t="s">
@@ -13731,9 +13700,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
+      <c r="W124" s="11"/>
+      <c r="X124" s="11"/>
+      <c r="Y124" s="11"/>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="1" t="s">
@@ -13797,15 +13766,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W125" s="8" t="str">
+      <c r="W125" s="11" t="str">
         <f t="shared" ref="W125" si="138">IF(SUM(H125:H127)&gt;SUM(I125:I127), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X125" s="8">
+      <c r="X125" s="11">
         <f t="shared" ref="X125" si="139">ABS(SUM(H125:H127)-SUM(I125:I127))</f>
         <v>1</v>
       </c>
-      <c r="Y125" s="8">
+      <c r="Y125" s="11">
         <f t="shared" ref="Y125" si="140">SUM(H125:H127, I125:I127)</f>
         <v>11</v>
       </c>
@@ -13872,9 +13841,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W126" s="8"/>
-      <c r="X126" s="8"/>
-      <c r="Y126" s="8"/>
+      <c r="W126" s="11"/>
+      <c r="X126" s="11"/>
+      <c r="Y126" s="11"/>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
@@ -13938,9 +13907,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W127" s="8"/>
-      <c r="X127" s="8"/>
-      <c r="Y127" s="8"/>
+      <c r="W127" s="11"/>
+      <c r="X127" s="11"/>
+      <c r="Y127" s="11"/>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="1" t="s">
@@ -14006,15 +13975,15 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W128" s="8" t="str">
+      <c r="W128" s="11" t="str">
         <f t="shared" ref="W128" si="141">IF(SUM(H128:H130)&gt;SUM(I128:I130), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X128" s="8">
+      <c r="X128" s="11">
         <f t="shared" ref="X128" si="142">ABS(SUM(H128:H130)-SUM(I128:I130))</f>
         <v>1</v>
       </c>
-      <c r="Y128" s="8">
+      <c r="Y128" s="11">
         <f t="shared" ref="Y128" si="143">SUM(H128:H130, I128:I130)</f>
         <v>15</v>
       </c>
@@ -14083,9 +14052,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W129" s="8"/>
-      <c r="X129" s="8"/>
-      <c r="Y129" s="8"/>
+      <c r="W129" s="11"/>
+      <c r="X129" s="11"/>
+      <c r="Y129" s="11"/>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="1" t="s">
@@ -14151,9 +14120,9 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="W130" s="8"/>
-      <c r="X130" s="8"/>
-      <c r="Y130" s="8"/>
+      <c r="W130" s="11"/>
+      <c r="X130" s="11"/>
+      <c r="Y130" s="11"/>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="1" t="s">
@@ -14219,15 +14188,15 @@
         <f t="shared" ref="V131:V194" si="150">COUNTA(N131)</f>
         <v>1</v>
       </c>
-      <c r="W131" s="8" t="str">
+      <c r="W131" s="11" t="str">
         <f t="shared" ref="W131" si="151">IF(SUM(H131:H133)&gt;SUM(I131:I133), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X131" s="8">
+      <c r="X131" s="11">
         <f t="shared" ref="X131" si="152">ABS(SUM(H131:H133)-SUM(I131:I133))</f>
         <v>2</v>
       </c>
-      <c r="Y131" s="8">
+      <c r="Y131" s="11">
         <f t="shared" ref="Y131" si="153">SUM(H131:H133, I131:I133)</f>
         <v>12</v>
       </c>
@@ -14296,9 +14265,9 @@
         <f t="shared" si="150"/>
         <v>1</v>
       </c>
-      <c r="W132" s="8"/>
-      <c r="X132" s="8"/>
-      <c r="Y132" s="8"/>
+      <c r="W132" s="11"/>
+      <c r="X132" s="11"/>
+      <c r="Y132" s="11"/>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="1" t="s">
@@ -14364,9 +14333,9 @@
         <f t="shared" si="150"/>
         <v>1</v>
       </c>
-      <c r="W133" s="8"/>
-      <c r="X133" s="8"/>
-      <c r="Y133" s="8"/>
+      <c r="W133" s="11"/>
+      <c r="X133" s="11"/>
+      <c r="Y133" s="11"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="1" t="s">
@@ -14432,15 +14401,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W134" s="8" t="str">
+      <c r="W134" s="11" t="str">
         <f t="shared" ref="W134" si="154">IF(SUM(H134:H136)&gt;SUM(I134:I136), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X134" s="8">
+      <c r="X134" s="11">
         <f t="shared" ref="X134" si="155">ABS(SUM(H134:H136)-SUM(I134:I136))</f>
         <v>6</v>
       </c>
-      <c r="Y134" s="8">
+      <c r="Y134" s="11">
         <f t="shared" ref="Y134" si="156">SUM(H134:H136, I134:I136)</f>
         <v>8</v>
       </c>
@@ -14509,9 +14478,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W135" s="8"/>
-      <c r="X135" s="8"/>
-      <c r="Y135" s="8"/>
+      <c r="W135" s="11"/>
+      <c r="X135" s="11"/>
+      <c r="Y135" s="11"/>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="1" t="s">
@@ -14577,9 +14546,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W136" s="8"/>
-      <c r="X136" s="8"/>
-      <c r="Y136" s="8"/>
+      <c r="W136" s="11"/>
+      <c r="X136" s="11"/>
+      <c r="Y136" s="11"/>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="1" t="s">
@@ -14643,15 +14612,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W137" s="8" t="str">
+      <c r="W137" s="11" t="str">
         <f t="shared" ref="W137" si="159">IF(SUM(H137:H139)&gt;SUM(I137:I139), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X137" s="8">
+      <c r="X137" s="11">
         <f t="shared" ref="X137" si="160">ABS(SUM(H137:H139)-SUM(I137:I139))</f>
         <v>8</v>
       </c>
-      <c r="Y137" s="8">
+      <c r="Y137" s="11">
         <f t="shared" ref="Y137" si="161">SUM(H137:H139, I137:I139)</f>
         <v>12</v>
       </c>
@@ -14718,9 +14687,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W138" s="8"/>
-      <c r="X138" s="8"/>
-      <c r="Y138" s="8"/>
+      <c r="W138" s="11"/>
+      <c r="X138" s="11"/>
+      <c r="Y138" s="11"/>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -14784,9 +14753,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W139" s="8"/>
-      <c r="X139" s="8"/>
-      <c r="Y139" s="8"/>
+      <c r="W139" s="11"/>
+      <c r="X139" s="11"/>
+      <c r="Y139" s="11"/>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="1" t="s">
@@ -14849,9 +14818,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W140" s="8"/>
-      <c r="X140" s="8"/>
-      <c r="Y140" s="8"/>
+      <c r="W140" s="11"/>
+      <c r="X140" s="11"/>
+      <c r="Y140" s="11"/>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="1" t="s">
@@ -14914,9 +14883,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W141" s="8"/>
-      <c r="X141" s="8"/>
-      <c r="Y141" s="8"/>
+      <c r="W141" s="11"/>
+      <c r="X141" s="11"/>
+      <c r="Y141" s="11"/>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="1" t="s">
@@ -14979,9 +14948,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W142" s="8"/>
-      <c r="X142" s="8"/>
-      <c r="Y142" s="8"/>
+      <c r="W142" s="11"/>
+      <c r="X142" s="11"/>
+      <c r="Y142" s="11"/>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="1" t="s">
@@ -15045,15 +15014,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W143" s="8" t="str">
+      <c r="W143" s="11" t="str">
         <f t="shared" ref="W143" si="163">IF(SUM(H143:H145)&gt;SUM(I143:I145), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X143" s="8">
+      <c r="X143" s="11">
         <f t="shared" ref="X143" si="164">ABS(SUM(H143:H145)-SUM(I143:I145))</f>
         <v>1</v>
       </c>
-      <c r="Y143" s="8">
+      <c r="Y143" s="11">
         <f t="shared" ref="Y143" si="165">SUM(H143:H145, I143:I145)</f>
         <v>7</v>
       </c>
@@ -15120,9 +15089,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W144" s="8"/>
-      <c r="X144" s="8"/>
-      <c r="Y144" s="8"/>
+      <c r="W144" s="11"/>
+      <c r="X144" s="11"/>
+      <c r="Y144" s="11"/>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="1" t="s">
@@ -15186,9 +15155,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W145" s="8"/>
-      <c r="X145" s="8"/>
-      <c r="Y145" s="8"/>
+      <c r="W145" s="11"/>
+      <c r="X145" s="11"/>
+      <c r="Y145" s="11"/>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="1" t="s">
@@ -15252,15 +15221,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W146" s="8" t="str">
+      <c r="W146" s="11" t="str">
         <f t="shared" ref="W146" si="166">IF(SUM(H146:H148)&gt;SUM(I146:I148), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X146" s="8">
+      <c r="X146" s="11">
         <f t="shared" ref="X146" si="167">ABS(SUM(H146:H148)-SUM(I146:I148))</f>
         <v>3</v>
       </c>
-      <c r="Y146" s="8">
+      <c r="Y146" s="11">
         <f t="shared" ref="Y146" si="168">SUM(H146:H148, I146:I148)</f>
         <v>11</v>
       </c>
@@ -15327,9 +15296,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W147" s="8"/>
-      <c r="X147" s="8"/>
-      <c r="Y147" s="8"/>
+      <c r="W147" s="11"/>
+      <c r="X147" s="11"/>
+      <c r="Y147" s="11"/>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="1" t="s">
@@ -15393,9 +15362,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W148" s="8"/>
-      <c r="X148" s="8"/>
-      <c r="Y148" s="8"/>
+      <c r="W148" s="11"/>
+      <c r="X148" s="11"/>
+      <c r="Y148" s="11"/>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="1" t="s">
@@ -15459,15 +15428,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W149" s="8" t="str">
+      <c r="W149" s="11" t="str">
         <f t="shared" ref="W149" si="169">IF(SUM(H149:H151)&gt;SUM(I149:I151), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X149" s="8">
+      <c r="X149" s="11">
         <f t="shared" ref="X149" si="170">ABS(SUM(H149:H151)-SUM(I149:I151))</f>
         <v>2</v>
       </c>
-      <c r="Y149" s="8">
+      <c r="Y149" s="11">
         <f t="shared" ref="Y149" si="171">SUM(H149:H151, I149:I151)</f>
         <v>8</v>
       </c>
@@ -15534,9 +15503,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W150" s="8"/>
-      <c r="X150" s="8"/>
-      <c r="Y150" s="8"/>
+      <c r="W150" s="11"/>
+      <c r="X150" s="11"/>
+      <c r="Y150" s="11"/>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="1" t="s">
@@ -15600,9 +15569,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W151" s="8"/>
-      <c r="X151" s="8"/>
-      <c r="Y151" s="8"/>
+      <c r="W151" s="11"/>
+      <c r="X151" s="11"/>
+      <c r="Y151" s="11"/>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="1" t="s">
@@ -15666,15 +15635,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W152" s="8" t="str">
+      <c r="W152" s="11" t="str">
         <f t="shared" ref="W152" si="172">IF(SUM(H152:H154)&gt;SUM(I152:I154), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X152" s="8">
+      <c r="X152" s="11">
         <f t="shared" ref="X152" si="173">ABS(SUM(H152:H154)-SUM(I152:I154))</f>
         <v>1</v>
       </c>
-      <c r="Y152" s="8">
+      <c r="Y152" s="11">
         <f t="shared" ref="Y152" si="174">SUM(H152:H154, I152:I154)</f>
         <v>13</v>
       </c>
@@ -15741,9 +15710,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W153" s="8"/>
-      <c r="X153" s="8"/>
-      <c r="Y153" s="8"/>
+      <c r="W153" s="11"/>
+      <c r="X153" s="11"/>
+      <c r="Y153" s="11"/>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="1" t="s">
@@ -15807,9 +15776,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W154" s="8"/>
-      <c r="X154" s="8"/>
-      <c r="Y154" s="8"/>
+      <c r="W154" s="11"/>
+      <c r="X154" s="11"/>
+      <c r="Y154" s="11"/>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="1" t="s">
@@ -15873,15 +15842,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W155" s="8" t="str">
+      <c r="W155" s="11" t="str">
         <f t="shared" ref="W155" si="175">IF(SUM(H155:H157)&gt;SUM(I155:I157), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X155" s="8">
+      <c r="X155" s="11">
         <f t="shared" ref="X155" si="176">ABS(SUM(H155:H157)-SUM(I155:I157))</f>
         <v>5</v>
       </c>
-      <c r="Y155" s="8">
+      <c r="Y155" s="11">
         <f t="shared" ref="Y155" si="177">SUM(H155:H157, I155:I157)</f>
         <v>15</v>
       </c>
@@ -15948,9 +15917,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W156" s="8"/>
-      <c r="X156" s="8"/>
-      <c r="Y156" s="8"/>
+      <c r="W156" s="11"/>
+      <c r="X156" s="11"/>
+      <c r="Y156" s="11"/>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="1" t="s">
@@ -16014,9 +15983,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W157" s="8"/>
-      <c r="X157" s="8"/>
-      <c r="Y157" s="8"/>
+      <c r="W157" s="11"/>
+      <c r="X157" s="11"/>
+      <c r="Y157" s="11"/>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="1" t="s">
@@ -16080,15 +16049,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W158" s="8" t="str">
+      <c r="W158" s="11" t="str">
         <f t="shared" ref="W158" si="178">IF(SUM(H158:H160)&gt;SUM(I158:I160), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X158" s="8">
+      <c r="X158" s="11">
         <f t="shared" ref="X158" si="179">ABS(SUM(H158:H160)-SUM(I158:I160))</f>
         <v>10</v>
       </c>
-      <c r="Y158" s="8">
+      <c r="Y158" s="11">
         <f t="shared" ref="Y158" si="180">SUM(H158:H160, I158:I160)</f>
         <v>10</v>
       </c>
@@ -16155,9 +16124,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W159" s="8"/>
-      <c r="X159" s="8"/>
-      <c r="Y159" s="8"/>
+      <c r="W159" s="11"/>
+      <c r="X159" s="11"/>
+      <c r="Y159" s="11"/>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="1" t="s">
@@ -16221,9 +16190,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W160" s="8"/>
-      <c r="X160" s="8"/>
-      <c r="Y160" s="8"/>
+      <c r="W160" s="11"/>
+      <c r="X160" s="11"/>
+      <c r="Y160" s="11"/>
     </row>
     <row r="161" spans="1:25">
       <c r="A161" s="1" t="s">
@@ -16294,15 +16263,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W161" s="8" t="str">
+      <c r="W161" s="11" t="str">
         <f t="shared" ref="W161" si="181">IF(SUM(H161:H163)&gt;SUM(I161:I163), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X161" s="8">
+      <c r="X161" s="11">
         <f t="shared" ref="X161" si="182">ABS(SUM(H161:H163)-SUM(I161:I163))</f>
         <v>3</v>
       </c>
-      <c r="Y161" s="8">
+      <c r="Y161" s="11">
         <f t="shared" ref="Y161" si="183">SUM(H161:H163, I161:I163)</f>
         <v>9</v>
       </c>
@@ -16376,9 +16345,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W162" s="8"/>
-      <c r="X162" s="8"/>
-      <c r="Y162" s="8"/>
+      <c r="W162" s="11"/>
+      <c r="X162" s="11"/>
+      <c r="Y162" s="11"/>
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="1" t="s">
@@ -16449,9 +16418,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W163" s="8"/>
-      <c r="X163" s="8"/>
-      <c r="Y163" s="8"/>
+      <c r="W163" s="11"/>
+      <c r="X163" s="11"/>
+      <c r="Y163" s="11"/>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="1" t="s">
@@ -16515,15 +16484,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W164" s="8" t="str">
+      <c r="W164" s="11" t="str">
         <f t="shared" ref="W164" si="184">IF(SUM(H164:H166)&gt;SUM(I164:I166), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X164" s="8">
+      <c r="X164" s="11">
         <f t="shared" ref="X164" si="185">ABS(SUM(H164:H166)-SUM(I164:I166))</f>
         <v>2</v>
       </c>
-      <c r="Y164" s="8">
+      <c r="Y164" s="11">
         <f t="shared" ref="Y164" si="186">SUM(H164:H166, I164:I166)</f>
         <v>16</v>
       </c>
@@ -16590,9 +16559,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W165" s="8"/>
-      <c r="X165" s="8"/>
-      <c r="Y165" s="8"/>
+      <c r="W165" s="11"/>
+      <c r="X165" s="11"/>
+      <c r="Y165" s="11"/>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="1" t="s">
@@ -16656,9 +16625,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W166" s="8"/>
-      <c r="X166" s="8"/>
-      <c r="Y166" s="8"/>
+      <c r="W166" s="11"/>
+      <c r="X166" s="11"/>
+      <c r="Y166" s="11"/>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="1" t="s">
@@ -16722,15 +16691,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W167" s="8" t="str">
+      <c r="W167" s="11" t="str">
         <f t="shared" ref="W167" si="187">IF(SUM(H167:H169)&gt;SUM(I167:I169), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X167" s="8">
+      <c r="X167" s="11">
         <f t="shared" ref="X167" si="188">ABS(SUM(H167:H169)-SUM(I167:I169))</f>
         <v>7</v>
       </c>
-      <c r="Y167" s="8">
+      <c r="Y167" s="11">
         <f t="shared" ref="Y167" si="189">SUM(H167:H169, I167:I169)</f>
         <v>13</v>
       </c>
@@ -16797,9 +16766,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W168" s="8"/>
-      <c r="X168" s="8"/>
-      <c r="Y168" s="8"/>
+      <c r="W168" s="11"/>
+      <c r="X168" s="11"/>
+      <c r="Y168" s="11"/>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="1" t="s">
@@ -16863,9 +16832,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W169" s="8"/>
-      <c r="X169" s="8"/>
-      <c r="Y169" s="8"/>
+      <c r="W169" s="11"/>
+      <c r="X169" s="11"/>
+      <c r="Y169" s="11"/>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="1" t="s">
@@ -16931,15 +16900,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W170" s="8" t="str">
+      <c r="W170" s="11" t="str">
         <f t="shared" ref="W170" si="190">IF(SUM(H170:H172)&gt;SUM(I170:I172), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X170" s="8">
+      <c r="X170" s="11">
         <f t="shared" ref="X170" si="191">ABS(SUM(H170:H172)-SUM(I170:I172))</f>
         <v>2</v>
       </c>
-      <c r="Y170" s="8">
+      <c r="Y170" s="11">
         <f t="shared" ref="Y170" si="192">SUM(H170:H172, I170:I172)</f>
         <v>12</v>
       </c>
@@ -17008,9 +16977,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W171" s="8"/>
-      <c r="X171" s="8"/>
-      <c r="Y171" s="8"/>
+      <c r="W171" s="11"/>
+      <c r="X171" s="11"/>
+      <c r="Y171" s="11"/>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="1" t="s">
@@ -17076,9 +17045,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W172" s="8"/>
-      <c r="X172" s="8"/>
-      <c r="Y172" s="8"/>
+      <c r="W172" s="11"/>
+      <c r="X172" s="11"/>
+      <c r="Y172" s="11"/>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="1" t="s">
@@ -17144,15 +17113,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W173" s="8" t="str">
+      <c r="W173" s="11" t="str">
         <f t="shared" ref="W173" si="193">IF(SUM(H173:H175)&gt;SUM(I173:I175), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X173" s="8">
+      <c r="X173" s="11">
         <f t="shared" ref="X173" si="194">ABS(SUM(H173:H175)-SUM(I173:I175))</f>
         <v>1</v>
       </c>
-      <c r="Y173" s="8">
+      <c r="Y173" s="11">
         <f t="shared" ref="Y173" si="195">SUM(H173:H175, I173:I175)</f>
         <v>7</v>
       </c>
@@ -17221,9 +17190,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W174" s="8"/>
-      <c r="X174" s="8"/>
-      <c r="Y174" s="8"/>
+      <c r="W174" s="11"/>
+      <c r="X174" s="11"/>
+      <c r="Y174" s="11"/>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="1" t="s">
@@ -17289,9 +17258,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W175" s="8"/>
-      <c r="X175" s="8"/>
-      <c r="Y175" s="8"/>
+      <c r="W175" s="11"/>
+      <c r="X175" s="11"/>
+      <c r="Y175" s="11"/>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="1" t="s">
@@ -17352,9 +17321,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W176" s="8"/>
-      <c r="X176" s="8"/>
-      <c r="Y176" s="8"/>
+      <c r="W176" s="11"/>
+      <c r="X176" s="11"/>
+      <c r="Y176" s="11"/>
     </row>
     <row r="177" spans="1:25">
       <c r="A177" s="1" t="s">
@@ -17415,9 +17384,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W177" s="8"/>
-      <c r="X177" s="8"/>
-      <c r="Y177" s="8"/>
+      <c r="W177" s="11"/>
+      <c r="X177" s="11"/>
+      <c r="Y177" s="11"/>
     </row>
     <row r="178" spans="1:25">
       <c r="A178" s="1" t="s">
@@ -17481,15 +17450,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W178" s="8" t="str">
+      <c r="W178" s="11" t="str">
         <f t="shared" ref="W178" si="197">IF(SUM(H178:H180)&gt;SUM(I178:I180), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X178" s="8">
+      <c r="X178" s="11">
         <f t="shared" ref="X178" si="198">ABS(SUM(H178:H180)-SUM(I178:I180))</f>
         <v>11</v>
       </c>
-      <c r="Y178" s="8">
+      <c r="Y178" s="11">
         <f t="shared" ref="Y178" si="199">SUM(H178:H180, I178:I180)</f>
         <v>13</v>
       </c>
@@ -17556,9 +17525,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W179" s="8"/>
-      <c r="X179" s="8"/>
-      <c r="Y179" s="8"/>
+      <c r="W179" s="11"/>
+      <c r="X179" s="11"/>
+      <c r="Y179" s="11"/>
     </row>
     <row r="180" spans="1:25">
       <c r="A180" s="1" t="s">
@@ -17622,9 +17591,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W180" s="8"/>
-      <c r="X180" s="8"/>
-      <c r="Y180" s="8"/>
+      <c r="W180" s="11"/>
+      <c r="X180" s="11"/>
+      <c r="Y180" s="11"/>
     </row>
     <row r="181" spans="1:25">
       <c r="A181" s="1" t="s">
@@ -17688,15 +17657,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W181" s="8" t="str">
+      <c r="W181" s="11" t="str">
         <f t="shared" ref="W181" si="201">IF(SUM(H181:H183)&gt;SUM(I181:I183), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X181" s="8">
+      <c r="X181" s="11">
         <f t="shared" ref="X181" si="202">ABS(SUM(H181:H183)-SUM(I181:I183))</f>
         <v>7</v>
       </c>
-      <c r="Y181" s="8">
+      <c r="Y181" s="11">
         <f t="shared" ref="Y181" si="203">SUM(H181:H183, I181:I183)</f>
         <v>17</v>
       </c>
@@ -17763,9 +17732,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W182" s="8"/>
-      <c r="X182" s="8"/>
-      <c r="Y182" s="8"/>
+      <c r="W182" s="11"/>
+      <c r="X182" s="11"/>
+      <c r="Y182" s="11"/>
     </row>
     <row r="183" spans="1:25">
       <c r="A183" s="1" t="s">
@@ -17829,9 +17798,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W183" s="8"/>
-      <c r="X183" s="8"/>
-      <c r="Y183" s="8"/>
+      <c r="W183" s="11"/>
+      <c r="X183" s="11"/>
+      <c r="Y183" s="11"/>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" s="1" t="s">
@@ -17895,15 +17864,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W184" s="8" t="str">
+      <c r="W184" s="11" t="str">
         <f t="shared" ref="W184" si="204">IF(SUM(H184:H186)&gt;SUM(I184:I186), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X184" s="8">
+      <c r="X184" s="11">
         <f t="shared" ref="X184" si="205">ABS(SUM(H184:H186)-SUM(I184:I186))</f>
         <v>11</v>
       </c>
-      <c r="Y184" s="8">
+      <c r="Y184" s="11">
         <f t="shared" ref="Y184" si="206">SUM(H184:H186, I184:I186)</f>
         <v>15</v>
       </c>
@@ -17970,9 +17939,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W185" s="8"/>
-      <c r="X185" s="8"/>
-      <c r="Y185" s="8"/>
+      <c r="W185" s="11"/>
+      <c r="X185" s="11"/>
+      <c r="Y185" s="11"/>
     </row>
     <row r="186" spans="1:25">
       <c r="A186" s="1" t="s">
@@ -18036,9 +18005,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W186" s="8"/>
-      <c r="X186" s="8"/>
-      <c r="Y186" s="8"/>
+      <c r="W186" s="11"/>
+      <c r="X186" s="11"/>
+      <c r="Y186" s="11"/>
     </row>
     <row r="187" spans="1:25">
       <c r="A187" s="1" t="s">
@@ -18104,15 +18073,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W187" s="8" t="str">
+      <c r="W187" s="11" t="str">
         <f t="shared" ref="W187" si="207">IF(SUM(H187:H189)&gt;SUM(I187:I189), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X187" s="8">
+      <c r="X187" s="11">
         <f t="shared" ref="X187" si="208">ABS(SUM(H187:H189)-SUM(I187:I189))</f>
         <v>6</v>
       </c>
-      <c r="Y187" s="8">
+      <c r="Y187" s="11">
         <f t="shared" ref="Y187" si="209">SUM(H187:H189, I187:I189)</f>
         <v>10</v>
       </c>
@@ -18181,9 +18150,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W188" s="8"/>
-      <c r="X188" s="8"/>
-      <c r="Y188" s="8"/>
+      <c r="W188" s="11"/>
+      <c r="X188" s="11"/>
+      <c r="Y188" s="11"/>
     </row>
     <row r="189" spans="1:25">
       <c r="A189" s="1" t="s">
@@ -18249,9 +18218,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W189" s="8"/>
-      <c r="X189" s="8"/>
-      <c r="Y189" s="8"/>
+      <c r="W189" s="11"/>
+      <c r="X189" s="11"/>
+      <c r="Y189" s="11"/>
     </row>
     <row r="190" spans="1:25">
       <c r="A190" s="1" t="s">
@@ -18315,15 +18284,15 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W190" s="8" t="str">
+      <c r="W190" s="11" t="str">
         <f t="shared" ref="W190" si="210">IF(SUM(H190:H192)&gt;SUM(I190:I192), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X190" s="8">
+      <c r="X190" s="11">
         <f t="shared" ref="X190" si="211">ABS(SUM(H190:H192)-SUM(I190:I192))</f>
         <v>5</v>
       </c>
-      <c r="Y190" s="8">
+      <c r="Y190" s="11">
         <f t="shared" ref="Y190" si="212">SUM(H190:H192, I190:I192)</f>
         <v>13</v>
       </c>
@@ -18390,9 +18359,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W191" s="8"/>
-      <c r="X191" s="8"/>
-      <c r="Y191" s="8"/>
+      <c r="W191" s="11"/>
+      <c r="X191" s="11"/>
+      <c r="Y191" s="11"/>
     </row>
     <row r="192" spans="1:25">
       <c r="A192" s="1" t="s">
@@ -18456,9 +18425,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W192" s="8"/>
-      <c r="X192" s="8"/>
-      <c r="Y192" s="8"/>
+      <c r="W192" s="11"/>
+      <c r="X192" s="11"/>
+      <c r="Y192" s="11"/>
     </row>
     <row r="193" spans="1:25">
       <c r="A193" s="1" t="s">
@@ -18522,9 +18491,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W193" s="8"/>
-      <c r="X193" s="8"/>
-      <c r="Y193" s="8"/>
+      <c r="W193" s="11"/>
+      <c r="X193" s="11"/>
+      <c r="Y193" s="11"/>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" s="1" t="s">
@@ -18588,9 +18557,9 @@
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="W194" s="8"/>
-      <c r="X194" s="8"/>
-      <c r="Y194" s="8"/>
+      <c r="W194" s="11"/>
+      <c r="X194" s="11"/>
+      <c r="Y194" s="11"/>
     </row>
     <row r="195" spans="1:25">
       <c r="A195" s="1" t="s">
@@ -18654,9 +18623,9 @@
         <f t="shared" ref="V195:V199" si="219">COUNTA(N195)</f>
         <v>0</v>
       </c>
-      <c r="W195" s="8"/>
-      <c r="X195" s="8"/>
-      <c r="Y195" s="8"/>
+      <c r="W195" s="11"/>
+      <c r="X195" s="11"/>
+      <c r="Y195" s="11"/>
     </row>
     <row r="196" spans="1:25">
       <c r="A196" s="1" t="s">
@@ -18718,9 +18687,9 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="W196" s="8"/>
-      <c r="X196" s="8"/>
-      <c r="Y196" s="8"/>
+      <c r="W196" s="11"/>
+      <c r="X196" s="11"/>
+      <c r="Y196" s="11"/>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" s="1" t="s">
@@ -18782,9 +18751,9 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="W197" s="8"/>
-      <c r="X197" s="8"/>
-      <c r="Y197" s="8"/>
+      <c r="W197" s="11"/>
+      <c r="X197" s="11"/>
+      <c r="Y197" s="11"/>
     </row>
     <row r="198" spans="1:25">
       <c r="A198" s="1" t="s">
@@ -18849,15 +18818,15 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="W198" s="8" t="str">
+      <c r="W198" s="11" t="str">
         <f t="shared" ref="W198" si="220">IF(SUM(H198:H200)&gt;SUM(I198:I200), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X198" s="8">
+      <c r="X198" s="11">
         <f t="shared" ref="X198" si="221">ABS(SUM(H198:H200)-SUM(I198:I200))</f>
         <v>4</v>
       </c>
-      <c r="Y198" s="8">
+      <c r="Y198" s="11">
         <f t="shared" ref="Y198" si="222">SUM(H198:H200, I198:I200)</f>
         <v>10</v>
       </c>
@@ -18925,9 +18894,9 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="W199" s="8"/>
-      <c r="X199" s="8"/>
-      <c r="Y199" s="8"/>
+      <c r="W199" s="11"/>
+      <c r="X199" s="11"/>
+      <c r="Y199" s="11"/>
     </row>
     <row r="200" spans="1:25">
       <c r="A200" s="1" t="s">
@@ -18992,9 +18961,9 @@
         <f t="shared" ref="V200:V202" si="229">COUNTA(N200)</f>
         <v>0</v>
       </c>
-      <c r="W200" s="8"/>
-      <c r="X200" s="8"/>
-      <c r="Y200" s="8"/>
+      <c r="W200" s="11"/>
+      <c r="X200" s="11"/>
+      <c r="Y200" s="11"/>
     </row>
     <row r="201" spans="1:25">
       <c r="A201" s="1" t="s">
@@ -19057,15 +19026,15 @@
         <f t="shared" si="229"/>
         <v>0</v>
       </c>
-      <c r="W201" s="8" t="str">
+      <c r="W201" s="11" t="str">
         <f t="shared" ref="W201" si="230">IF(SUM(H201:H203)&gt;SUM(I201:I203), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X201" s="8">
+      <c r="X201" s="11">
         <f t="shared" ref="X201" si="231">ABS(SUM(H201:H203)-SUM(I201:I203))</f>
         <v>3</v>
       </c>
-      <c r="Y201" s="8">
+      <c r="Y201" s="11">
         <f t="shared" ref="Y201" si="232">SUM(H201:H203, I201:I203)</f>
         <v>9</v>
       </c>
@@ -19131,9 +19100,9 @@
         <f t="shared" si="229"/>
         <v>0</v>
       </c>
-      <c r="W202" s="8"/>
-      <c r="X202" s="8"/>
-      <c r="Y202" s="8"/>
+      <c r="W202" s="11"/>
+      <c r="X202" s="11"/>
+      <c r="Y202" s="11"/>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="1" t="s">
@@ -19196,9 +19165,9 @@
         <f t="shared" ref="V203:V205" si="239">COUNTA(N203)</f>
         <v>0</v>
       </c>
-      <c r="W203" s="8"/>
-      <c r="X203" s="8"/>
-      <c r="Y203" s="8"/>
+      <c r="W203" s="11"/>
+      <c r="X203" s="11"/>
+      <c r="Y203" s="11"/>
     </row>
     <row r="204" spans="1:25">
       <c r="A204" s="1" t="s">
@@ -19261,15 +19230,15 @@
         <f t="shared" si="239"/>
         <v>0</v>
       </c>
-      <c r="W204" s="8" t="str">
+      <c r="W204" s="11" t="str">
         <f t="shared" ref="W204" si="240">IF(SUM(H204:H206)&gt;SUM(I204:I206), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X204" s="8">
+      <c r="X204" s="11">
         <f t="shared" ref="X204" si="241">ABS(SUM(H204:H206)-SUM(I204:I206))</f>
         <v>8</v>
       </c>
-      <c r="Y204" s="8">
+      <c r="Y204" s="11">
         <f t="shared" ref="Y204" si="242">SUM(H204:H206, I204:I206)</f>
         <v>14</v>
       </c>
@@ -19335,9 +19304,9 @@
         <f t="shared" si="239"/>
         <v>0</v>
       </c>
-      <c r="W205" s="8"/>
-      <c r="X205" s="8"/>
-      <c r="Y205" s="8"/>
+      <c r="W205" s="11"/>
+      <c r="X205" s="11"/>
+      <c r="Y205" s="11"/>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" s="1" t="s">
@@ -19400,9 +19369,9 @@
         <f t="shared" ref="V206:V208" si="249">COUNTA(N206)</f>
         <v>0</v>
       </c>
-      <c r="W206" s="8"/>
-      <c r="X206" s="8"/>
-      <c r="Y206" s="8"/>
+      <c r="W206" s="11"/>
+      <c r="X206" s="11"/>
+      <c r="Y206" s="11"/>
     </row>
     <row r="207" spans="1:25">
       <c r="A207" s="1" t="s">
@@ -19468,15 +19437,15 @@
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="W207" s="8" t="str">
+      <c r="W207" s="11" t="str">
         <f t="shared" ref="W207" si="250">IF(SUM(H207:H209)&gt;SUM(I207:I209), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X207" s="8">
+      <c r="X207" s="11">
         <f t="shared" ref="X207" si="251">ABS(SUM(H207:H209)-SUM(I207:I209))</f>
         <v>9</v>
       </c>
-      <c r="Y207" s="8">
+      <c r="Y207" s="11">
         <f t="shared" ref="Y207" si="252">SUM(H207:H209, I207:I209)</f>
         <v>11</v>
       </c>
@@ -19545,9 +19514,9 @@
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="W208" s="8"/>
-      <c r="X208" s="8"/>
-      <c r="Y208" s="8"/>
+      <c r="W208" s="11"/>
+      <c r="X208" s="11"/>
+      <c r="Y208" s="11"/>
     </row>
     <row r="209" spans="1:25">
       <c r="A209" s="1" t="s">
@@ -19613,9 +19582,9 @@
         <f t="shared" ref="V209:V211" si="259">COUNTA(N209)</f>
         <v>0</v>
       </c>
-      <c r="W209" s="8"/>
-      <c r="X209" s="8"/>
-      <c r="Y209" s="8"/>
+      <c r="W209" s="11"/>
+      <c r="X209" s="11"/>
+      <c r="Y209" s="11"/>
     </row>
     <row r="210" spans="1:25">
       <c r="A210" s="1" t="s">
@@ -19681,15 +19650,15 @@
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="W210" s="8" t="str">
+      <c r="W210" s="11" t="str">
         <f t="shared" ref="W210" si="260">IF(SUM(H210:H212)&gt;SUM(I210:I212), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X210" s="8">
+      <c r="X210" s="11">
         <f t="shared" ref="X210" si="261">ABS(SUM(H210:H212)-SUM(I210:I212))</f>
         <v>6</v>
       </c>
-      <c r="Y210" s="8">
+      <c r="Y210" s="11">
         <f t="shared" ref="Y210" si="262">SUM(H210:H212, I210:I212)</f>
         <v>16</v>
       </c>
@@ -19758,9 +19727,9 @@
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="W211" s="8"/>
-      <c r="X211" s="8"/>
-      <c r="Y211" s="8"/>
+      <c r="W211" s="11"/>
+      <c r="X211" s="11"/>
+      <c r="Y211" s="11"/>
     </row>
     <row r="212" spans="1:25">
       <c r="A212" s="1" t="s">
@@ -19826,9 +19795,9 @@
         <f t="shared" ref="V212:V214" si="269">COUNTA(N212)</f>
         <v>0</v>
       </c>
-      <c r="W212" s="8"/>
-      <c r="X212" s="8"/>
-      <c r="Y212" s="8"/>
+      <c r="W212" s="11"/>
+      <c r="X212" s="11"/>
+      <c r="Y212" s="11"/>
     </row>
     <row r="213" spans="1:25">
       <c r="A213" s="1" t="s">
@@ -19891,15 +19860,15 @@
         <f t="shared" si="269"/>
         <v>0</v>
       </c>
-      <c r="W213" s="8" t="str">
+      <c r="W213" s="11" t="str">
         <f t="shared" ref="W213" si="270">IF(SUM(H213:H215)&gt;SUM(I213:I215), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X213" s="8">
+      <c r="X213" s="11">
         <f t="shared" ref="X213" si="271">ABS(SUM(H213:H215)-SUM(I213:I215))</f>
         <v>2</v>
       </c>
-      <c r="Y213" s="8">
+      <c r="Y213" s="11">
         <f t="shared" ref="Y213" si="272">SUM(H213:H215, I213:I215)</f>
         <v>16</v>
       </c>
@@ -19965,9 +19934,9 @@
         <f t="shared" si="269"/>
         <v>0</v>
       </c>
-      <c r="W214" s="8"/>
-      <c r="X214" s="8"/>
-      <c r="Y214" s="8"/>
+      <c r="W214" s="11"/>
+      <c r="X214" s="11"/>
+      <c r="Y214" s="11"/>
     </row>
     <row r="215" spans="1:25">
       <c r="A215" s="1" t="s">
@@ -20030,9 +19999,9 @@
         <f t="shared" ref="V215:V217" si="279">COUNTA(N215)</f>
         <v>0</v>
       </c>
-      <c r="W215" s="8"/>
-      <c r="X215" s="8"/>
-      <c r="Y215" s="8"/>
+      <c r="W215" s="11"/>
+      <c r="X215" s="11"/>
+      <c r="Y215" s="11"/>
     </row>
     <row r="216" spans="1:25">
       <c r="A216" s="1" t="s">
@@ -20095,15 +20064,15 @@
         <f t="shared" si="279"/>
         <v>0</v>
       </c>
-      <c r="W216" s="8" t="str">
+      <c r="W216" s="11" t="str">
         <f t="shared" ref="W216" si="280">IF(SUM(H216:H218)&gt;SUM(I216:I218), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X216" s="8">
+      <c r="X216" s="11">
         <f t="shared" ref="X216" si="281">ABS(SUM(H216:H218)-SUM(I216:I218))</f>
         <v>5</v>
       </c>
-      <c r="Y216" s="8">
+      <c r="Y216" s="11">
         <f t="shared" ref="Y216" si="282">SUM(H216:H218, I216:I218)</f>
         <v>21</v>
       </c>
@@ -20169,9 +20138,9 @@
         <f t="shared" si="279"/>
         <v>0</v>
       </c>
-      <c r="W217" s="8"/>
-      <c r="X217" s="8"/>
-      <c r="Y217" s="8"/>
+      <c r="W217" s="11"/>
+      <c r="X217" s="11"/>
+      <c r="Y217" s="11"/>
     </row>
     <row r="218" spans="1:25">
       <c r="A218" s="1" t="s">
@@ -20234,9 +20203,9 @@
         <f t="shared" ref="V218:V220" si="289">COUNTA(N218)</f>
         <v>0</v>
       </c>
-      <c r="W218" s="8"/>
-      <c r="X218" s="8"/>
-      <c r="Y218" s="8"/>
+      <c r="W218" s="11"/>
+      <c r="X218" s="11"/>
+      <c r="Y218" s="11"/>
     </row>
     <row r="219" spans="1:25">
       <c r="A219" s="1" t="s">
@@ -20301,15 +20270,15 @@
         <f t="shared" si="289"/>
         <v>0</v>
       </c>
-      <c r="W219" s="8" t="str">
+      <c r="W219" s="11" t="str">
         <f t="shared" ref="W219" si="290">IF(SUM(H219:H221)&gt;SUM(I219:I221), "Caleb", "Joshua")</f>
         <v>Caleb</v>
       </c>
-      <c r="X219" s="8">
+      <c r="X219" s="11">
         <f t="shared" ref="X219" si="291">ABS(SUM(H219:H221)-SUM(I219:I221))</f>
         <v>3</v>
       </c>
-      <c r="Y219" s="8">
+      <c r="Y219" s="11">
         <f t="shared" ref="Y219" si="292">SUM(H219:H221, I219:I221)</f>
         <v>5</v>
       </c>
@@ -20377,9 +20346,9 @@
         <f t="shared" si="289"/>
         <v>0</v>
       </c>
-      <c r="W220" s="8"/>
-      <c r="X220" s="8"/>
-      <c r="Y220" s="8"/>
+      <c r="W220" s="11"/>
+      <c r="X220" s="11"/>
+      <c r="Y220" s="11"/>
     </row>
     <row r="221" spans="1:25">
       <c r="A221" s="1" t="s">
@@ -20444,9 +20413,9 @@
         <f t="shared" ref="V221:V223" si="299">COUNTA(N221)</f>
         <v>0</v>
       </c>
-      <c r="W221" s="8"/>
-      <c r="X221" s="8"/>
-      <c r="Y221" s="8"/>
+      <c r="W221" s="11"/>
+      <c r="X221" s="11"/>
+      <c r="Y221" s="11"/>
     </row>
     <row r="222" spans="1:25">
       <c r="A222" s="1" t="s">
@@ -20509,15 +20478,15 @@
         <f t="shared" si="299"/>
         <v>0</v>
       </c>
-      <c r="W222" s="8" t="str">
+      <c r="W222" s="11" t="str">
         <f t="shared" ref="W222" si="300">IF(SUM(H222:H224)&gt;SUM(I222:I224), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
-      <c r="X222" s="8">
+      <c r="X222" s="11">
         <f t="shared" ref="X222" si="301">ABS(SUM(H222:H224)-SUM(I222:I224))</f>
         <v>8</v>
       </c>
-      <c r="Y222" s="8">
+      <c r="Y222" s="11">
         <f t="shared" ref="Y222" si="302">SUM(H222:H224, I222:I224)</f>
         <v>12</v>
       </c>
@@ -20583,9 +20552,9 @@
         <f t="shared" si="299"/>
         <v>0</v>
       </c>
-      <c r="W223" s="8"/>
-      <c r="X223" s="8"/>
-      <c r="Y223" s="8"/>
+      <c r="W223" s="11"/>
+      <c r="X223" s="11"/>
+      <c r="Y223" s="11"/>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" s="1" t="s">
@@ -20621,678 +20590,788 @@
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
       <c r="P224" s="2">
-        <f t="shared" ref="P224" si="303">COUNTA(H224)</f>
+        <f t="shared" ref="P224:P226" si="303">COUNTA(H224)</f>
         <v>1</v>
       </c>
       <c r="Q224" s="2">
-        <f t="shared" ref="Q224" si="304">COUNTA(I224)</f>
+        <f t="shared" ref="Q224:Q226" si="304">COUNTA(I224)</f>
         <v>1</v>
       </c>
       <c r="R224" s="2">
-        <f t="shared" ref="R224" si="305">COUNTA(J224)</f>
+        <f t="shared" ref="R224:R226" si="305">COUNTA(J224)</f>
         <v>0</v>
       </c>
       <c r="S224" s="2">
-        <f t="shared" ref="S224" si="306">COUNTA(K224)</f>
+        <f t="shared" ref="S224:S226" si="306">COUNTA(K224)</f>
         <v>0</v>
       </c>
       <c r="T224" s="2">
-        <f t="shared" ref="T224" si="307">COUNTA(L224)</f>
+        <f t="shared" ref="T224:T226" si="307">COUNTA(L224)</f>
         <v>0</v>
       </c>
       <c r="U224" s="2">
-        <f t="shared" ref="U224" si="308">COUNTA(M224)</f>
+        <f t="shared" ref="U224:U226" si="308">COUNTA(M224)</f>
         <v>0</v>
       </c>
       <c r="V224" s="2">
-        <f t="shared" ref="V224" si="309">COUNTA(N224)</f>
-        <v>0</v>
-      </c>
-      <c r="W224" s="8"/>
-      <c r="X224" s="8"/>
-      <c r="Y224" s="8"/>
-    </row>
-    <row r="225" spans="1:35">
-      <c r="W225" s="6"/>
-      <c r="X225" s="6"/>
-      <c r="Y225" s="6"/>
-    </row>
-    <row r="228" spans="1:35">
-      <c r="A228" s="8" t="s">
+        <f t="shared" ref="V224:V226" si="309">COUNTA(N224)</f>
+        <v>0</v>
+      </c>
+      <c r="W224" s="11"/>
+      <c r="X224" s="11"/>
+      <c r="Y224" s="11"/>
+    </row>
+    <row r="225" spans="1:25">
+      <c r="A225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E225" s="2">
+        <f>E222+1</f>
+        <v>74</v>
+      </c>
+      <c r="F225" s="2">
+        <v>1</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H225" s="1">
+        <v>4</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="P225" s="2">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="Q225" s="2">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="R225" s="2">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="S225" s="2">
+        <f t="shared" si="306"/>
+        <v>1</v>
+      </c>
+      <c r="T225" s="2">
+        <f t="shared" si="307"/>
+        <v>0</v>
+      </c>
+      <c r="U225" s="2">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="V225" s="2">
+        <f t="shared" si="309"/>
+        <v>0</v>
+      </c>
+      <c r="W225" s="11" t="str">
+        <f t="shared" ref="W225" si="310">IF(SUM(H225:H227)&gt;SUM(I225:I227), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X225" s="11">
+        <f t="shared" ref="X225" si="311">ABS(SUM(H225:H227)-SUM(I225:I227))</f>
+        <v>6</v>
+      </c>
+      <c r="Y225" s="11">
+        <f t="shared" ref="Y225" si="312">SUM(H225:H227, I225:I227)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25">
+      <c r="A226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E226" s="2">
+        <f>E223+1</f>
+        <v>74</v>
+      </c>
+      <c r="F226" s="2">
+        <v>2</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H226" s="1">
+        <v>1</v>
+      </c>
+      <c r="I226" s="1">
+        <v>1</v>
+      </c>
+      <c r="K226" s="2">
+        <v>2</v>
+      </c>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="P226" s="2">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="Q226" s="2">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="R226" s="2">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="S226" s="2">
+        <f t="shared" si="306"/>
+        <v>1</v>
+      </c>
+      <c r="T226" s="2">
+        <f t="shared" si="307"/>
+        <v>0</v>
+      </c>
+      <c r="U226" s="2">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="V226" s="2">
+        <f t="shared" si="309"/>
+        <v>0</v>
+      </c>
+      <c r="W226" s="11"/>
+      <c r="X226" s="11"/>
+      <c r="Y226" s="11"/>
+    </row>
+    <row r="227" spans="1:25">
+      <c r="A227" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E227" s="2">
+        <f>E224+1</f>
+        <v>74</v>
+      </c>
+      <c r="F227" s="2">
+        <v>3</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H227" s="1">
+        <v>2</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="K227" s="2">
+        <v>1</v>
+      </c>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="P227" s="2">
+        <f t="shared" ref="P227:P231" si="313">COUNTA(H227)</f>
+        <v>1</v>
+      </c>
+      <c r="Q227" s="2">
+        <f t="shared" ref="Q227:Q231" si="314">COUNTA(I227)</f>
+        <v>1</v>
+      </c>
+      <c r="R227" s="2">
+        <f t="shared" ref="R227:R230" si="315">COUNTA(J227)</f>
+        <v>0</v>
+      </c>
+      <c r="S227" s="2">
+        <f t="shared" ref="S227:S230" si="316">COUNTA(K227)</f>
+        <v>1</v>
+      </c>
+      <c r="T227" s="2">
+        <f t="shared" ref="T227:T230" si="317">COUNTA(L227)</f>
+        <v>0</v>
+      </c>
+      <c r="U227" s="2">
+        <f t="shared" ref="U227:U230" si="318">COUNTA(M227)</f>
+        <v>0</v>
+      </c>
+      <c r="V227" s="2">
+        <f t="shared" ref="V227:V230" si="319">COUNTA(N227)</f>
+        <v>0</v>
+      </c>
+      <c r="W227" s="11"/>
+      <c r="X227" s="11"/>
+      <c r="Y227" s="11"/>
+    </row>
+    <row r="228" spans="1:25">
+      <c r="A228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E228" s="2">
+        <f t="shared" ref="E228:E230" si="320">E225+1</f>
+        <v>75</v>
+      </c>
+      <c r="F228" s="2">
+        <v>1</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="1">
+        <v>5</v>
+      </c>
+      <c r="I228" s="1">
+        <v>4</v>
+      </c>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="P228" s="2">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+      <c r="Q228" s="2">
+        <f t="shared" si="314"/>
+        <v>1</v>
+      </c>
+      <c r="R228" s="2">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="S228" s="2">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="T228" s="2">
+        <f t="shared" si="317"/>
+        <v>0</v>
+      </c>
+      <c r="U228" s="2">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="V228" s="2">
+        <f t="shared" si="319"/>
+        <v>0</v>
+      </c>
+      <c r="W228" s="11" t="str">
+        <f>IF(SUM(H228:H231)&gt;SUM(I228:I231), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X228" s="11">
+        <f>ABS(SUM(H228:H231)-SUM(I228:I231))</f>
+        <v>2</v>
+      </c>
+      <c r="Y228" s="11">
+        <f>SUM(H228:H231, I228:I231)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25">
+      <c r="A229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E229" s="2">
+        <f t="shared" si="320"/>
+        <v>75</v>
+      </c>
+      <c r="F229" s="2">
+        <v>2</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" s="1">
+        <v>2</v>
+      </c>
+      <c r="I229" s="1">
+        <v>3</v>
+      </c>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="P229" s="2">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+      <c r="Q229" s="2">
+        <f t="shared" si="314"/>
+        <v>1</v>
+      </c>
+      <c r="R229" s="2">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="S229" s="2">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="T229" s="2">
+        <f t="shared" si="317"/>
+        <v>0</v>
+      </c>
+      <c r="U229" s="2">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="V229" s="2">
+        <f t="shared" si="319"/>
+        <v>0</v>
+      </c>
+      <c r="W229" s="11"/>
+      <c r="X229" s="11"/>
+      <c r="Y229" s="11"/>
+    </row>
+    <row r="230" spans="1:25">
+      <c r="A230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E230" s="2">
+        <f t="shared" si="320"/>
+        <v>75</v>
+      </c>
+      <c r="F230" s="2">
+        <v>3</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="P230" s="2">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+      <c r="Q230" s="2">
+        <f t="shared" si="314"/>
+        <v>1</v>
+      </c>
+      <c r="R230" s="2">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="S230" s="2">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="T230" s="2">
+        <f t="shared" si="317"/>
+        <v>0</v>
+      </c>
+      <c r="U230" s="2">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="V230" s="2">
+        <f t="shared" si="319"/>
+        <v>0</v>
+      </c>
+      <c r="W230" s="11"/>
+      <c r="X230" s="11"/>
+      <c r="Y230" s="11"/>
+    </row>
+    <row r="231" spans="1:25">
+      <c r="A231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="4">
+        <v>45775</v>
+      </c>
+      <c r="E231" s="2">
+        <v>75</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="1">
+        <v>3</v>
+      </c>
+      <c r="I231" s="1">
+        <v>1</v>
+      </c>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="P231" s="2">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+      <c r="Q231" s="2">
+        <f t="shared" si="314"/>
+        <v>1</v>
+      </c>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2"/>
+      <c r="V231" s="2"/>
+      <c r="W231" s="11"/>
+      <c r="X231" s="11"/>
+      <c r="Y231" s="11"/>
+    </row>
+    <row r="232" spans="1:25">
+      <c r="W232" s="6"/>
+      <c r="X232" s="6"/>
+      <c r="Y232" s="6"/>
+    </row>
+    <row r="235" spans="1:25">
+      <c r="A235" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="1">
-        <v>1</v>
-      </c>
-      <c r="H228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, H$2:H225)/SUMIF($F$2:$F225, $G228, P$2:P225)</f>
-        <v>2.5492957746478875</v>
-      </c>
-      <c r="I228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, I$2:I225)/SUMIF($F$2:$F225, $G228, Q$2:Q225)</f>
-        <v>1.0821917808219179</v>
-      </c>
-      <c r="J228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, J$2:J225)/SUMIF($F$2:$F225, $G228, R$2:R225)</f>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="1">
+        <v>1</v>
+      </c>
+      <c r="H235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, H$2:H232)/SUMIF($F$2:$F232, $G235, P$2:P232)</f>
+        <v>2.6027397260273974</v>
+      </c>
+      <c r="I235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, I$2:I232)/SUMIF($F$2:$F232, $G235, Q$2:Q232)</f>
+        <v>1.1066666666666667</v>
+      </c>
+      <c r="J235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, J$2:J232)/SUMIF($F$2:$F232, $G235, R$2:R232)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, K$2:K225)/SUMIF($F$2:$F225, $G228, S$2:S225)</f>
-        <v>1.1538461538461537</v>
-      </c>
-      <c r="L228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, L$2:L225)/SUMIF($F$2:$F225, $G228, T$2:T225)</f>
-        <v>0</v>
-      </c>
-      <c r="M228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, M$2:M225)/SUMIF($F$2:$F225, $G228, U$2:U225)</f>
-        <v>0</v>
-      </c>
-      <c r="N228" s="5">
-        <f>SUMIF($F$2:$F225, $G228, N$2:N225)/SUMIF($F$2:$F225, $G228, V$2:V225)</f>
-        <v>1</v>
-      </c>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5"/>
-      <c r="V228" s="5"/>
-      <c r="X228" s="1" t="s">
+      <c r="K235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, K$2:K232)/SUMIF($F$2:$F232, $G235, S$2:S232)</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="L235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, L$2:L232)/SUMIF($F$2:$F232, $G235, T$2:T232)</f>
+        <v>0</v>
+      </c>
+      <c r="M235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, M$2:M232)/SUMIF($F$2:$F232, $G235, U$2:U232)</f>
+        <v>0</v>
+      </c>
+      <c r="N235" s="5">
+        <f>SUMIF($F$2:$F232, $G235, N$2:N232)/SUMIF($F$2:$F232, $G235, V$2:V232)</f>
+        <v>1</v>
+      </c>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5"/>
+      <c r="V235" s="5"/>
+      <c r="X235" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y228" s="1" t="s">
+      <c r="Y235" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:35">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="1">
+    <row r="236" spans="1:25">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="1">
         <v>2</v>
       </c>
-      <c r="H229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, H$2:H226)/SUMIF($F$2:$F226, $G229, P$2:P226)</f>
-        <v>2.788732394366197</v>
-      </c>
-      <c r="I229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, I$2:I226)/SUMIF($F$2:$F226, $G229, Q$2:Q226)</f>
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="J229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, J$2:J226)/SUMIF($F$2:$F226, $G229, R$2:R226)</f>
+      <c r="H236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, H$2:H233)/SUMIF($F$2:$F233, $G236, P$2:P233)</f>
+        <v>2.7534246575342465</v>
+      </c>
+      <c r="I236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, I$2:I233)/SUMIF($F$2:$F233, $G236, Q$2:Q233)</f>
+        <v>1.3866666666666667</v>
+      </c>
+      <c r="J236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, J$2:J233)/SUMIF($F$2:$F233, $G236, R$2:R233)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, K$2:K226)/SUMIF($F$2:$F226, $G229, S$2:S226)</f>
-        <v>1.0769230769230769</v>
-      </c>
-      <c r="L229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, L$2:L226)/SUMIF($F$2:$F226, $G229, T$2:T226)</f>
-        <v>0</v>
-      </c>
-      <c r="M229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, M$2:M226)/SUMIF($F$2:$F226, $G229, U$2:U226)</f>
+      <c r="K236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, K$2:K233)/SUMIF($F$2:$F233, $G236, S$2:S233)</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, L$2:L233)/SUMIF($F$2:$F233, $G236, T$2:T233)</f>
+        <v>0</v>
+      </c>
+      <c r="M236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, M$2:M233)/SUMIF($F$2:$F233, $G236, U$2:U233)</f>
         <v>1.5</v>
       </c>
-      <c r="N229" s="5">
-        <f>SUMIF($F$2:$F226, $G229, N$2:N226)/SUMIF($F$2:$F226, $G229, V$2:V226)</f>
-        <v>1</v>
-      </c>
-      <c r="P229" s="5"/>
-      <c r="Q229" s="5"/>
-      <c r="R229" s="5"/>
-      <c r="S229" s="5"/>
-      <c r="T229" s="5"/>
-      <c r="U229" s="5"/>
-      <c r="V229" s="5"/>
-      <c r="W229" s="1" t="s">
+      <c r="N236" s="5">
+        <f>SUMIF($F$2:$F233, $G236, N$2:N233)/SUMIF($F$2:$F233, $G236, V$2:V233)</f>
+        <v>1</v>
+      </c>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="5"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="5"/>
+      <c r="V236" s="5"/>
+      <c r="W236" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X229" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W225,W229)</f>
-        <v>56</v>
-      </c>
-      <c r="Y229" s="7">
-        <f>X229/SUM(X229:X230)</f>
-        <v>0.78873239436619713</v>
-      </c>
-    </row>
-    <row r="230" spans="1:35">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="1">
+      <c r="X236" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W232,W236)</f>
+        <v>58</v>
+      </c>
+      <c r="Y236" s="7">
+        <f>X236/SUM(X236:X237)</f>
+        <v>0.79452054794520544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="1">
         <v>3</v>
       </c>
-      <c r="H230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, H$2:H227)/SUMIF($F$2:$F227, $G230, P$2:P227)</f>
-        <v>2.4507042253521125</v>
-      </c>
-      <c r="I230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, I$2:I227)/SUMIF($F$2:$F227, $G230, Q$2:Q227)</f>
-        <v>1.4794520547945205</v>
-      </c>
-      <c r="J230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, J$2:J227)/SUMIF($F$2:$F227, $G230, R$2:R227)</f>
+      <c r="H237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, H$2:H234)/SUMIF($F$2:$F234, $G237, P$2:P234)</f>
+        <v>2.4109589041095889</v>
+      </c>
+      <c r="I237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, I$2:I234)/SUMIF($F$2:$F234, $G237, Q$2:Q234)</f>
+        <v>1.44</v>
+      </c>
+      <c r="J237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, J$2:J234)/SUMIF($F$2:$F234, $G237, R$2:R234)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, K$2:K227)/SUMIF($F$2:$F227, $G230, S$2:S227)</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="L230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, L$2:L227)/SUMIF($F$2:$F227, $G230, T$2:T227)</f>
-        <v>1</v>
-      </c>
-      <c r="M230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, M$2:M227)/SUMIF($F$2:$F227, $G230, U$2:U227)</f>
+      <c r="K237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, K$2:K234)/SUMIF($F$2:$F234, $G237, S$2:S234)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, L$2:L234)/SUMIF($F$2:$F234, $G237, T$2:T234)</f>
+        <v>1</v>
+      </c>
+      <c r="M237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, M$2:M234)/SUMIF($F$2:$F234, $G237, U$2:U234)</f>
         <v>0.5</v>
       </c>
-      <c r="N230" s="5">
-        <f>SUMIF($F$2:$F227, $G230, N$2:N227)/SUMIF($F$2:$F227, $G230, V$2:V227)</f>
-        <v>0</v>
-      </c>
-      <c r="P230" s="5"/>
-      <c r="Q230" s="5"/>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5"/>
-      <c r="V230" s="5"/>
-      <c r="W230" s="1" t="s">
+      <c r="N237" s="5">
+        <f>SUMIF($F$2:$F234, $G237, N$2:N234)/SUMIF($F$2:$F234, $G237, V$2:V234)</f>
+        <v>0</v>
+      </c>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5"/>
+      <c r="V237" s="5"/>
+      <c r="W237" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X230" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W226,W230)</f>
+      <c r="X237" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W233,W237)</f>
         <v>15</v>
       </c>
-      <c r="Y230" s="7">
-        <f>X230/SUM(X229:X230)</f>
-        <v>0.21126760563380281</v>
-      </c>
-    </row>
-    <row r="231" spans="1:35">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="1" t="s">
+      <c r="Y237" s="7">
+        <f>X237/SUM(X236:X237)</f>
+        <v>0.20547945205479451</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H231" s="5">
-        <f>IF(SUMIF($F$2:$F228, $G231, P$2:P228) = 0, "", SUMIF($F$2:$F228, $G231, H$2:H228)/SUMIF($F$2:$F228, $G231, P$2:P228))</f>
-        <v>2.5</v>
-      </c>
-      <c r="I231" s="5">
-        <f>IF(SUMIF($F$2:$F228, $G231, Q$2:Q228) = 0, "", SUMIF($F$2:$F228, $G231, I$2:I228)/SUMIF($F$2:$F228, $G231, Q$2:Q228))</f>
-        <v>3</v>
-      </c>
-      <c r="J231" s="5">
-        <f>IF(SUMIF($F$2:$F228, $G231, R$2:R228) = 0, "", SUMIF($F$2:$F228, $G231, J$2:J228)/SUMIF($F$2:$F228, $G231, R$2:R228))</f>
+      <c r="H238" s="5">
+        <f>IF(SUMIF($F$2:$F235, $G238, P$2:P235) = 0, "", SUMIF($F$2:$F235, $G238, H$2:H235)/SUMIF($F$2:$F235, $G238, P$2:P235))</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I238" s="5">
+        <f>IF(SUMIF($F$2:$F235, $G238, Q$2:Q235) = 0, "", SUMIF($F$2:$F235, $G238, I$2:I235)/SUMIF($F$2:$F235, $G238, Q$2:Q235))</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J238" s="5">
+        <f>IF(SUMIF($F$2:$F235, $G238, R$2:R235) = 0, "", SUMIF($F$2:$F235, $G238, J$2:J235)/SUMIF($F$2:$F235, $G238, R$2:R235))</f>
         <v>2</v>
       </c>
-      <c r="K231" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F228, $G231, S$2:S228) = 0, "", SUMIF($F$2:$F228, $G231, K$2:K228)/SUMIF($F$2:$F228, $G231, S$2:S228))</f>
+      <c r="K238" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F235, $G238, S$2:S235) = 0, "", SUMIF($F$2:$F235, $G238, K$2:K235)/SUMIF($F$2:$F235, $G238, S$2:S235))</f>
         <v/>
       </c>
-      <c r="L231" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F228, $G231, T$2:T228) = 0, "", SUMIF($F$2:$F228, $G231, L$2:L228)/SUMIF($F$2:$F228, $G231, T$2:T228))</f>
+      <c r="L238" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F235, $G238, T$2:T235) = 0, "", SUMIF($F$2:$F235, $G238, L$2:L235)/SUMIF($F$2:$F235, $G238, T$2:T235))</f>
         <v/>
       </c>
-      <c r="M231" s="5">
-        <f>IF(SUMIF($F$2:$F228, $G231, U$2:U228) = 0, "", SUMIF($F$2:$F228, $G231, M$2:M228)/SUMIF($F$2:$F228, $G231, U$2:U228))</f>
-        <v>0</v>
-      </c>
-      <c r="N231" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F228, $G231, V$2:V228) = 0, "", SUMIF($F$2:$F228, $G231, N$2:N228)/SUMIF($F$2:$F228, $G231, V$2:V228))</f>
+      <c r="M238" s="5">
+        <f>IF(SUMIF($F$2:$F235, $G238, U$2:U235) = 0, "", SUMIF($F$2:$F235, $G238, M$2:M235)/SUMIF($F$2:$F235, $G238, U$2:U235))</f>
+        <v>0</v>
+      </c>
+      <c r="N238" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F235, $G238, V$2:V235) = 0, "", SUMIF($F$2:$F235, $G238, N$2:N235)/SUMIF($F$2:$F235, $G238, V$2:V235))</f>
         <v/>
       </c>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5"/>
-      <c r="V231" s="5"/>
-    </row>
-    <row r="232" spans="1:35">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="1" t="s">
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="5"/>
+      <c r="V238" s="5"/>
+    </row>
+    <row r="239" spans="1:25">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H232" s="5">
-        <f>AVERAGE(H$2:H225)*3</f>
-        <v>7.786046511627907</v>
-      </c>
-      <c r="I232" s="5">
-        <f>AVERAGE(I$2:I225)*3</f>
-        <v>3.9773755656108598</v>
-      </c>
-      <c r="J232" s="5">
-        <f>AVERAGE(J$2:J225)*3</f>
+      <c r="H239" s="5">
+        <f>AVERAGE(H$2:H232)*3</f>
+        <v>7.7702702702702702</v>
+      </c>
+      <c r="I239" s="5">
+        <f>AVERAGE(I$2:I232)*3</f>
+        <v>3.9736842105263155</v>
+      </c>
+      <c r="J239" s="5">
+        <f>AVERAGE(J$2:J232)*3</f>
         <v>2.9210526315789473</v>
       </c>
-      <c r="K232" s="5">
-        <f>AVERAGE(K$2:K225)*3</f>
-        <v>2.8461538461538458</v>
-      </c>
-      <c r="L232" s="5">
-        <f>AVERAGE(L$2:L225)*3</f>
-        <v>1</v>
-      </c>
-      <c r="M232" s="5">
-        <f>AVERAGE(M$2:M225)*3</f>
+      <c r="K239" s="5">
+        <f>AVERAGE(K$2:K232)*3</f>
+        <v>2.8571428571428568</v>
+      </c>
+      <c r="L239" s="5">
+        <f>AVERAGE(L$2:L232)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M239" s="5">
+        <f>AVERAGE(M$2:M232)*3</f>
         <v>1.5</v>
       </c>
-      <c r="N232" s="5">
-        <f>AVERAGE(N$2:N225)*3</f>
+      <c r="N239" s="5">
+        <f>AVERAGE(N$2:N232)*3</f>
         <v>2</v>
       </c>
-      <c r="P232" s="5"/>
-      <c r="Q232" s="5"/>
-      <c r="R232" s="5"/>
-      <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
-      <c r="U232" s="5"/>
-      <c r="V232" s="5"/>
-    </row>
-    <row r="233" spans="1:35">
-      <c r="A233" s="10" t="s">
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5"/>
+      <c r="V239" s="5"/>
+    </row>
+    <row r="242" spans="1:35">
+      <c r="G242" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B233" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="234" spans="1:35">
-      <c r="A234" s="10" t="s">
+      <c r="H242" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:35">
+      <c r="G243" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B234" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="235" spans="1:35">
-      <c r="A235" s="10" t="s">
+      <c r="H243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:35">
+      <c r="G244" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B235" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="237" spans="1:35">
-      <c r="A237" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B237" t="s">
-        <v>65</v>
-      </c>
-      <c r="C237" t="s">
-        <v>66</v>
-      </c>
-      <c r="D237" t="s">
-        <v>67</v>
-      </c>
-      <c r="E237" t="s">
-        <v>68</v>
-      </c>
-      <c r="F237" t="s">
-        <v>69</v>
-      </c>
-      <c r="G237" t="s">
-        <v>70</v>
-      </c>
-      <c r="H237" t="s">
-        <v>71</v>
-      </c>
-      <c r="I237"/>
-      <c r="J237"/>
-      <c r="K237"/>
-      <c r="L237"/>
-      <c r="M237"/>
-      <c r="N237"/>
-      <c r="O237"/>
-      <c r="P237"/>
-      <c r="Q237"/>
-      <c r="R237"/>
-      <c r="S237"/>
-      <c r="T237"/>
-      <c r="U237"/>
-      <c r="V237"/>
-      <c r="W237"/>
-      <c r="X237"/>
-      <c r="Y237"/>
-      <c r="Z237"/>
-      <c r="AA237"/>
-      <c r="AB237"/>
-      <c r="AC237"/>
-      <c r="AD237"/>
-      <c r="AE237"/>
-      <c r="AF237"/>
-      <c r="AG237"/>
-      <c r="AH237"/>
-      <c r="AI237"/>
-    </row>
-    <row r="238" spans="1:35">
-      <c r="A238" s="11">
-        <v>1</v>
-      </c>
-      <c r="B238" s="12">
-        <v>2.5492957746478875</v>
-      </c>
-      <c r="C238" s="12">
-        <v>1.0821917808219179</v>
-      </c>
-      <c r="D238" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E238" s="12">
-        <v>1.1538461538461537</v>
-      </c>
-      <c r="F238" s="12">
-        <v>0</v>
-      </c>
-      <c r="G238" s="9">
-        <v>0</v>
-      </c>
-      <c r="H238" s="12">
-        <v>1</v>
-      </c>
-      <c r="I238"/>
-      <c r="J238"/>
-      <c r="K238"/>
-      <c r="L238"/>
-      <c r="M238"/>
-      <c r="N238"/>
-      <c r="O238"/>
-      <c r="P238"/>
-      <c r="Q238"/>
-      <c r="R238"/>
-      <c r="S238"/>
-      <c r="T238"/>
-      <c r="U238"/>
-      <c r="V238"/>
-      <c r="W238"/>
-      <c r="X238"/>
-      <c r="Y238"/>
-      <c r="Z238"/>
-      <c r="AA238"/>
-      <c r="AB238"/>
-      <c r="AC238"/>
-      <c r="AD238"/>
-      <c r="AE238"/>
-      <c r="AF238"/>
-      <c r="AG238"/>
-      <c r="AH238"/>
-      <c r="AI238"/>
-    </row>
-    <row r="239" spans="1:35">
-      <c r="A239" s="11">
-        <v>2</v>
-      </c>
-      <c r="B239" s="12">
-        <v>2.788732394366197</v>
-      </c>
-      <c r="C239" s="12">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="D239" s="12">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E239" s="12">
-        <v>1.0769230769230769</v>
-      </c>
-      <c r="F239" s="12">
-        <v>0</v>
-      </c>
-      <c r="G239" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="H239" s="12">
-        <v>1</v>
-      </c>
-      <c r="I239"/>
-      <c r="J239"/>
-      <c r="K239"/>
-      <c r="L239"/>
-      <c r="M239"/>
-      <c r="N239"/>
-      <c r="O239"/>
-      <c r="P239"/>
-      <c r="Q239"/>
-      <c r="R239"/>
-      <c r="S239"/>
-      <c r="T239"/>
-      <c r="U239"/>
-      <c r="V239"/>
-      <c r="W239"/>
-      <c r="X239"/>
-      <c r="Y239"/>
-      <c r="Z239"/>
-      <c r="AA239"/>
-      <c r="AB239"/>
-      <c r="AC239"/>
-      <c r="AD239"/>
-      <c r="AE239"/>
-      <c r="AF239"/>
-      <c r="AG239"/>
-      <c r="AH239"/>
-      <c r="AI239"/>
-    </row>
-    <row r="240" spans="1:35">
-      <c r="A240" s="11">
-        <v>3</v>
-      </c>
-      <c r="B240" s="12">
-        <v>2.4507042253521125</v>
-      </c>
-      <c r="C240" s="12">
-        <v>1.4794520547945205</v>
-      </c>
-      <c r="D240" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E240" s="12">
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="F240" s="12">
-        <v>1</v>
-      </c>
-      <c r="G240" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H240" s="12">
-        <v>0</v>
-      </c>
-      <c r="I240"/>
-      <c r="J240"/>
-      <c r="K240"/>
-      <c r="L240"/>
-      <c r="M240"/>
-      <c r="N240"/>
-      <c r="O240"/>
-      <c r="P240"/>
-      <c r="Q240"/>
-      <c r="R240"/>
-      <c r="S240"/>
-      <c r="T240"/>
-      <c r="U240"/>
-      <c r="V240"/>
-      <c r="W240"/>
-      <c r="X240"/>
-      <c r="Y240"/>
-      <c r="Z240"/>
-      <c r="AA240"/>
-      <c r="AB240"/>
-      <c r="AC240"/>
-      <c r="AD240"/>
-      <c r="AE240"/>
-      <c r="AF240"/>
-      <c r="AG240"/>
-      <c r="AH240"/>
-      <c r="AI240"/>
-    </row>
-    <row r="241" spans="1:31">
-      <c r="A241" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B241" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="C241" s="12">
-        <v>3</v>
-      </c>
-      <c r="D241" s="12">
-        <v>2</v>
-      </c>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="9">
-        <v>0</v>
-      </c>
-      <c r="H241" s="12"/>
-      <c r="I241"/>
-      <c r="J241"/>
-      <c r="K241"/>
-      <c r="L241"/>
-      <c r="M241"/>
-      <c r="N241"/>
-      <c r="O241"/>
-      <c r="P241"/>
-      <c r="Q241"/>
-      <c r="R241"/>
-      <c r="S241"/>
-      <c r="T241"/>
-      <c r="U241"/>
-      <c r="V241"/>
-      <c r="W241"/>
-      <c r="X241"/>
-      <c r="Y241"/>
-      <c r="Z241"/>
-      <c r="AA241"/>
-      <c r="AB241"/>
-      <c r="AC241"/>
-      <c r="AD241"/>
-      <c r="AE241"/>
-    </row>
-    <row r="242" spans="1:31">
-      <c r="A242" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B242" s="12">
-        <v>2.5953488372093023</v>
-      </c>
-      <c r="C242" s="12">
-        <v>1.3257918552036199</v>
-      </c>
-      <c r="D242" s="12">
-        <v>0.97368421052631582</v>
-      </c>
-      <c r="E242" s="12">
-        <v>0.94871794871794868</v>
-      </c>
-      <c r="F242" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G242" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H242" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I242"/>
-      <c r="J242"/>
-      <c r="K242"/>
-      <c r="L242"/>
-      <c r="M242"/>
-      <c r="N242"/>
-      <c r="O242"/>
-      <c r="P242"/>
-      <c r="Q242"/>
-      <c r="R242"/>
-      <c r="S242"/>
-      <c r="T242"/>
-      <c r="U242"/>
-      <c r="V242"/>
-      <c r="W242"/>
-      <c r="X242"/>
-      <c r="Y242"/>
-      <c r="Z242"/>
-      <c r="AA242"/>
-      <c r="AB242"/>
-      <c r="AC242"/>
-      <c r="AD242"/>
-      <c r="AE242"/>
-    </row>
-    <row r="243" spans="1:31">
-      <c r="A243"/>
-      <c r="B243"/>
-      <c r="C243"/>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243"/>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
-      <c r="K243"/>
-      <c r="L243"/>
-      <c r="M243"/>
-      <c r="N243"/>
-      <c r="O243"/>
-      <c r="P243"/>
-      <c r="Q243"/>
-      <c r="R243"/>
-      <c r="S243"/>
-      <c r="T243"/>
-      <c r="U243"/>
-      <c r="V243"/>
-      <c r="W243"/>
-      <c r="X243"/>
-      <c r="Y243"/>
-      <c r="Z243"/>
-      <c r="AA243"/>
-      <c r="AB243"/>
-      <c r="AC243"/>
-      <c r="AD243"/>
-      <c r="AE243"/>
-    </row>
-    <row r="244" spans="1:31">
-      <c r="A244"/>
-      <c r="B244"/>
-      <c r="C244"/>
-      <c r="D244"/>
-      <c r="E244"/>
-      <c r="F244"/>
-      <c r="G244"/>
-      <c r="H244"/>
-      <c r="I244"/>
-      <c r="J244"/>
-      <c r="K244"/>
-      <c r="L244"/>
-      <c r="M244"/>
-      <c r="N244"/>
+      <c r="H244" t="s">
+        <v>16</v>
+      </c>
       <c r="O244"/>
       <c r="P244"/>
       <c r="Q244"/>
@@ -21310,22 +21389,12 @@
       <c r="AC244"/>
       <c r="AD244"/>
       <c r="AE244"/>
-    </row>
-    <row r="245" spans="1:31">
-      <c r="A245"/>
-      <c r="B245"/>
-      <c r="C245"/>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245"/>
-      <c r="G245"/>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
-      <c r="K245"/>
-      <c r="L245"/>
-      <c r="M245"/>
-      <c r="N245"/>
+      <c r="AF244"/>
+      <c r="AG244"/>
+      <c r="AH244"/>
+      <c r="AI244"/>
+    </row>
+    <row r="245" spans="1:35">
       <c r="O245"/>
       <c r="P245"/>
       <c r="Q245"/>
@@ -21343,22 +21412,36 @@
       <c r="AC245"/>
       <c r="AD245"/>
       <c r="AE245"/>
-    </row>
-    <row r="246" spans="1:31">
-      <c r="A246"/>
-      <c r="B246"/>
-      <c r="C246"/>
-      <c r="D246"/>
-      <c r="E246"/>
-      <c r="F246"/>
-      <c r="G246"/>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
-      <c r="K246"/>
-      <c r="L246"/>
-      <c r="M246"/>
-      <c r="N246"/>
+      <c r="AF245"/>
+      <c r="AG245"/>
+      <c r="AH245"/>
+      <c r="AI245"/>
+    </row>
+    <row r="246" spans="1:35">
+      <c r="G246" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H246" t="s">
+        <v>63</v>
+      </c>
+      <c r="I246" t="s">
+        <v>64</v>
+      </c>
+      <c r="J246" t="s">
+        <v>65</v>
+      </c>
+      <c r="K246" t="s">
+        <v>66</v>
+      </c>
+      <c r="L246" t="s">
+        <v>67</v>
+      </c>
+      <c r="M246" t="s">
+        <v>68</v>
+      </c>
+      <c r="N246" t="s">
+        <v>69</v>
+      </c>
       <c r="O246"/>
       <c r="P246"/>
       <c r="Q246"/>
@@ -21376,22 +21459,34 @@
       <c r="AC246"/>
       <c r="AD246"/>
       <c r="AE246"/>
-    </row>
-    <row r="247" spans="1:31">
-      <c r="A247"/>
-      <c r="B247"/>
-      <c r="C247"/>
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247"/>
-      <c r="G247"/>
-      <c r="H247"/>
-      <c r="I247"/>
-      <c r="J247"/>
-      <c r="K247"/>
-      <c r="L247"/>
-      <c r="M247"/>
-      <c r="N247"/>
+      <c r="AF246"/>
+      <c r="AG246"/>
+      <c r="AH246"/>
+      <c r="AI246"/>
+    </row>
+    <row r="247" spans="1:35">
+      <c r="G247" s="9">
+        <v>1</v>
+      </c>
+      <c r="H247" s="10">
+        <v>2.6216216216216215</v>
+      </c>
+      <c r="I247" s="10">
+        <v>1.0512820512820513</v>
+      </c>
+      <c r="J247" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="K247" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="L247" s="10"/>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" s="10">
+        <v>1</v>
+      </c>
       <c r="O247"/>
       <c r="P247"/>
       <c r="Q247"/>
@@ -21409,22 +21504,34 @@
       <c r="AC247"/>
       <c r="AD247"/>
       <c r="AE247"/>
-    </row>
-    <row r="248" spans="1:31">
-      <c r="A248"/>
-      <c r="B248"/>
-      <c r="C248"/>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248"/>
-      <c r="G248"/>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
-      <c r="K248"/>
-      <c r="L248"/>
-      <c r="M248"/>
-      <c r="N248"/>
+      <c r="AF247"/>
+      <c r="AG247"/>
+      <c r="AH247"/>
+      <c r="AI247"/>
+    </row>
+    <row r="248" spans="1:35">
+      <c r="G248" s="9">
+        <v>2</v>
+      </c>
+      <c r="H248" s="10">
+        <v>2.9729729729729728</v>
+      </c>
+      <c r="I248" s="10">
+        <v>1.4358974358974359</v>
+      </c>
+      <c r="J248" s="10">
+        <v>1</v>
+      </c>
+      <c r="K248" s="10">
+        <v>1</v>
+      </c>
+      <c r="L248" s="10"/>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" s="10">
+        <v>1</v>
+      </c>
       <c r="O248"/>
       <c r="P248"/>
       <c r="Q248"/>
@@ -21443,21 +21550,29 @@
       <c r="AD248"/>
       <c r="AE248"/>
     </row>
-    <row r="249" spans="1:31">
-      <c r="A249"/>
-      <c r="B249"/>
-      <c r="C249"/>
-      <c r="D249"/>
-      <c r="E249"/>
-      <c r="F249"/>
-      <c r="G249"/>
-      <c r="H249"/>
-      <c r="I249"/>
-      <c r="J249"/>
-      <c r="K249"/>
-      <c r="L249"/>
-      <c r="M249"/>
-      <c r="N249"/>
+    <row r="249" spans="1:35">
+      <c r="G249" s="9">
+        <v>3</v>
+      </c>
+      <c r="H249" s="10">
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="I249" s="10">
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="J249" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K249" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="L249" s="10"/>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" s="10">
+        <v>0</v>
+      </c>
       <c r="O249"/>
       <c r="P249"/>
       <c r="Q249"/>
@@ -21476,21 +21591,27 @@
       <c r="AD249"/>
       <c r="AE249"/>
     </row>
-    <row r="250" spans="1:31">
+    <row r="250" spans="1:35">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
       <c r="E250"/>
       <c r="F250"/>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-      <c r="K250"/>
-      <c r="L250"/>
+      <c r="G250" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10">
+        <v>3</v>
+      </c>
+      <c r="J250" s="10">
+        <v>2</v>
+      </c>
+      <c r="K250" s="10"/>
+      <c r="L250" s="10"/>
       <c r="M250"/>
-      <c r="N250"/>
+      <c r="N250" s="10"/>
       <c r="O250"/>
       <c r="P250"/>
       <c r="Q250"/>
@@ -21509,21 +21630,35 @@
       <c r="AD250"/>
       <c r="AE250"/>
     </row>
-    <row r="251" spans="1:31">
+    <row r="251" spans="1:35">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251"/>
       <c r="F251"/>
-      <c r="G251"/>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-      <c r="K251"/>
-      <c r="L251"/>
-      <c r="M251"/>
-      <c r="N251"/>
+      <c r="G251" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H251" s="10">
+        <v>2.7657657657657659</v>
+      </c>
+      <c r="I251" s="10">
+        <v>1.4201680672268908</v>
+      </c>
+      <c r="J251" s="10">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="K251" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="L251" s="10"/>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="O251"/>
       <c r="P251"/>
       <c r="Q251"/>
@@ -21536,8 +21671,13 @@
       <c r="X251"/>
       <c r="Y251"/>
       <c r="Z251"/>
-    </row>
-    <row r="252" spans="1:31">
+      <c r="AA251"/>
+      <c r="AB251"/>
+      <c r="AC251"/>
+      <c r="AD251"/>
+      <c r="AE251"/>
+    </row>
+    <row r="252" spans="1:35">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -21564,8 +21704,13 @@
       <c r="X252"/>
       <c r="Y252"/>
       <c r="Z252"/>
-    </row>
-    <row r="253" spans="1:31">
+      <c r="AA252"/>
+      <c r="AB252"/>
+      <c r="AC252"/>
+      <c r="AD252"/>
+      <c r="AE252"/>
+    </row>
+    <row r="253" spans="1:35">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -21592,8 +21737,13 @@
       <c r="X253"/>
       <c r="Y253"/>
       <c r="Z253"/>
-    </row>
-    <row r="254" spans="1:31">
+      <c r="AA253"/>
+      <c r="AB253"/>
+      <c r="AC253"/>
+      <c r="AD253"/>
+      <c r="AE253"/>
+    </row>
+    <row r="254" spans="1:35">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -21620,8 +21770,13 @@
       <c r="X254"/>
       <c r="Y254"/>
       <c r="Z254"/>
-    </row>
-    <row r="255" spans="1:31">
+      <c r="AA254"/>
+      <c r="AB254"/>
+      <c r="AC254"/>
+      <c r="AD254"/>
+      <c r="AE254"/>
+    </row>
+    <row r="255" spans="1:35">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -21648,8 +21803,13 @@
       <c r="X255"/>
       <c r="Y255"/>
       <c r="Z255"/>
-    </row>
-    <row r="256" spans="1:31">
+      <c r="AA255"/>
+      <c r="AB255"/>
+      <c r="AC255"/>
+      <c r="AD255"/>
+      <c r="AE255"/>
+    </row>
+    <row r="256" spans="1:35">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
@@ -21676,8 +21836,13 @@
       <c r="X256"/>
       <c r="Y256"/>
       <c r="Z256"/>
-    </row>
-    <row r="257" spans="1:26">
+      <c r="AA256"/>
+      <c r="AB256"/>
+      <c r="AC256"/>
+      <c r="AD256"/>
+      <c r="AE256"/>
+    </row>
+    <row r="257" spans="1:31">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
@@ -21704,8 +21869,13 @@
       <c r="X257"/>
       <c r="Y257"/>
       <c r="Z257"/>
-    </row>
-    <row r="258" spans="1:26">
+      <c r="AA257"/>
+      <c r="AB257"/>
+      <c r="AC257"/>
+      <c r="AD257"/>
+      <c r="AE257"/>
+    </row>
+    <row r="258" spans="1:31">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
@@ -21733,7 +21903,7 @@
       <c r="Y258"/>
       <c r="Z258"/>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:31">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
@@ -21761,7 +21931,7 @@
       <c r="Y259"/>
       <c r="Z259"/>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:31">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -21789,7 +21959,7 @@
       <c r="Y260"/>
       <c r="Z260"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:31">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
@@ -21817,7 +21987,7 @@
       <c r="Y261"/>
       <c r="Z261"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:31">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
@@ -21845,7 +22015,7 @@
       <c r="Y262"/>
       <c r="Z262"/>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:31">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
@@ -21873,7 +22043,7 @@
       <c r="Y263"/>
       <c r="Z263"/>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:31">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
@@ -21901,7 +22071,7 @@
       <c r="Y264"/>
       <c r="Z264"/>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:31">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -21929,7 +22099,7 @@
       <c r="Y265"/>
       <c r="Z265"/>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:31">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
@@ -21957,7 +22127,7 @@
       <c r="Y266"/>
       <c r="Z266"/>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:31">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
@@ -21985,7 +22155,7 @@
       <c r="Y267"/>
       <c r="Z267"/>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:31">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
@@ -22013,7 +22183,7 @@
       <c r="Y268"/>
       <c r="Z268"/>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:31">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
@@ -22041,7 +22211,7 @@
       <c r="Y269"/>
       <c r="Z269"/>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:31">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
@@ -22069,7 +22239,7 @@
       <c r="Y270"/>
       <c r="Z270"/>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:31">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
@@ -22097,7 +22267,7 @@
       <c r="Y271"/>
       <c r="Z271"/>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:31">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
@@ -22791,6 +22961,11 @@
       <c r="S296"/>
       <c r="T296"/>
       <c r="U296"/>
+      <c r="V296"/>
+      <c r="W296"/>
+      <c r="X296"/>
+      <c r="Y296"/>
+      <c r="Z296"/>
     </row>
     <row r="297" spans="1:26">
       <c r="A297"/>
@@ -22814,6 +22989,11 @@
       <c r="S297"/>
       <c r="T297"/>
       <c r="U297"/>
+      <c r="V297"/>
+      <c r="W297"/>
+      <c r="X297"/>
+      <c r="Y297"/>
+      <c r="Z297"/>
     </row>
     <row r="298" spans="1:26">
       <c r="A298"/>
@@ -22837,6 +23017,11 @@
       <c r="S298"/>
       <c r="T298"/>
       <c r="U298"/>
+      <c r="V298"/>
+      <c r="W298"/>
+      <c r="X298"/>
+      <c r="Y298"/>
+      <c r="Z298"/>
     </row>
     <row r="299" spans="1:26">
       <c r="A299"/>
@@ -22860,6 +23045,11 @@
       <c r="S299"/>
       <c r="T299"/>
       <c r="U299"/>
+      <c r="V299"/>
+      <c r="W299"/>
+      <c r="X299"/>
+      <c r="Y299"/>
+      <c r="Z299"/>
     </row>
     <row r="300" spans="1:26">
       <c r="A300"/>
@@ -22883,6 +23073,11 @@
       <c r="S300"/>
       <c r="T300"/>
       <c r="U300"/>
+      <c r="V300"/>
+      <c r="W300"/>
+      <c r="X300"/>
+      <c r="Y300"/>
+      <c r="Z300"/>
     </row>
     <row r="301" spans="1:26">
       <c r="A301"/>
@@ -22906,6 +23101,11 @@
       <c r="S301"/>
       <c r="T301"/>
       <c r="U301"/>
+      <c r="V301"/>
+      <c r="W301"/>
+      <c r="X301"/>
+      <c r="Y301"/>
+      <c r="Z301"/>
     </row>
     <row r="302" spans="1:26">
       <c r="A302"/>
@@ -22929,6 +23129,11 @@
       <c r="S302"/>
       <c r="T302"/>
       <c r="U302"/>
+      <c r="V302"/>
+      <c r="W302"/>
+      <c r="X302"/>
+      <c r="Y302"/>
+      <c r="Z302"/>
     </row>
     <row r="303" spans="1:26">
       <c r="A303"/>
@@ -24448,7 +24653,7 @@
       <c r="T368"/>
       <c r="U368"/>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:21">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
@@ -24465,8 +24670,13 @@
       <c r="N369"/>
       <c r="O369"/>
       <c r="P369"/>
-    </row>
-    <row r="370" spans="1:16">
+      <c r="Q369"/>
+      <c r="R369"/>
+      <c r="S369"/>
+      <c r="T369"/>
+      <c r="U369"/>
+    </row>
+    <row r="370" spans="1:21">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
@@ -24483,8 +24693,13 @@
       <c r="N370"/>
       <c r="O370"/>
       <c r="P370"/>
-    </row>
-    <row r="371" spans="1:16">
+      <c r="Q370"/>
+      <c r="R370"/>
+      <c r="S370"/>
+      <c r="T370"/>
+      <c r="U370"/>
+    </row>
+    <row r="371" spans="1:21">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
@@ -24501,8 +24716,13 @@
       <c r="N371"/>
       <c r="O371"/>
       <c r="P371"/>
-    </row>
-    <row r="372" spans="1:16">
+      <c r="Q371"/>
+      <c r="R371"/>
+      <c r="S371"/>
+      <c r="T371"/>
+      <c r="U371"/>
+    </row>
+    <row r="372" spans="1:21">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
@@ -24519,8 +24739,13 @@
       <c r="N372"/>
       <c r="O372"/>
       <c r="P372"/>
-    </row>
-    <row r="373" spans="1:16">
+      <c r="Q372"/>
+      <c r="R372"/>
+      <c r="S372"/>
+      <c r="T372"/>
+      <c r="U372"/>
+    </row>
+    <row r="373" spans="1:21">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
@@ -24537,8 +24762,13 @@
       <c r="N373"/>
       <c r="O373"/>
       <c r="P373"/>
-    </row>
-    <row r="374" spans="1:16">
+      <c r="Q373"/>
+      <c r="R373"/>
+      <c r="S373"/>
+      <c r="T373"/>
+      <c r="U373"/>
+    </row>
+    <row r="374" spans="1:21">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
@@ -24555,8 +24785,13 @@
       <c r="N374"/>
       <c r="O374"/>
       <c r="P374"/>
-    </row>
-    <row r="375" spans="1:16">
+      <c r="Q374"/>
+      <c r="R374"/>
+      <c r="S374"/>
+      <c r="T374"/>
+      <c r="U374"/>
+    </row>
+    <row r="375" spans="1:21">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
@@ -24573,8 +24808,13 @@
       <c r="N375"/>
       <c r="O375"/>
       <c r="P375"/>
-    </row>
-    <row r="376" spans="1:16">
+      <c r="Q375"/>
+      <c r="R375"/>
+      <c r="S375"/>
+      <c r="T375"/>
+      <c r="U375"/>
+    </row>
+    <row r="376" spans="1:21">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
@@ -24592,7 +24832,7 @@
       <c r="O376"/>
       <c r="P376"/>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:21">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
@@ -24610,7 +24850,7 @@
       <c r="O377"/>
       <c r="P377"/>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:21">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
@@ -24628,7 +24868,7 @@
       <c r="O378"/>
       <c r="P378"/>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:21">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
@@ -24646,7 +24886,7 @@
       <c r="O379"/>
       <c r="P379"/>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:21">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
@@ -24664,7 +24904,7 @@
       <c r="O380"/>
       <c r="P380"/>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:21">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
@@ -24682,7 +24922,7 @@
       <c r="O381"/>
       <c r="P381"/>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:21">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
@@ -24700,7 +24940,7 @@
       <c r="O382"/>
       <c r="P382"/>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:21">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
@@ -24718,7 +24958,7 @@
       <c r="O383"/>
       <c r="P383"/>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:21">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
@@ -26278,6 +26518,11 @@
       <c r="I470"/>
       <c r="J470"/>
       <c r="K470"/>
+      <c r="L470"/>
+      <c r="M470"/>
+      <c r="N470"/>
+      <c r="O470"/>
+      <c r="P470"/>
     </row>
     <row r="471" spans="1:16">
       <c r="A471"/>
@@ -26291,6 +26536,11 @@
       <c r="I471"/>
       <c r="J471"/>
       <c r="K471"/>
+      <c r="L471"/>
+      <c r="M471"/>
+      <c r="N471"/>
+      <c r="O471"/>
+      <c r="P471"/>
     </row>
     <row r="472" spans="1:16">
       <c r="A472"/>
@@ -26304,6 +26554,11 @@
       <c r="I472"/>
       <c r="J472"/>
       <c r="K472"/>
+      <c r="L472"/>
+      <c r="M472"/>
+      <c r="N472"/>
+      <c r="O472"/>
+      <c r="P472"/>
     </row>
     <row r="473" spans="1:16">
       <c r="A473"/>
@@ -26317,6 +26572,11 @@
       <c r="I473"/>
       <c r="J473"/>
       <c r="K473"/>
+      <c r="L473"/>
+      <c r="M473"/>
+      <c r="N473"/>
+      <c r="O473"/>
+      <c r="P473"/>
     </row>
     <row r="474" spans="1:16">
       <c r="A474"/>
@@ -26330,6 +26590,11 @@
       <c r="I474"/>
       <c r="J474"/>
       <c r="K474"/>
+      <c r="L474"/>
+      <c r="M474"/>
+      <c r="N474"/>
+      <c r="O474"/>
+      <c r="P474"/>
     </row>
     <row r="475" spans="1:16">
       <c r="A475"/>
@@ -26343,6 +26608,11 @@
       <c r="I475"/>
       <c r="J475"/>
       <c r="K475"/>
+      <c r="L475"/>
+      <c r="M475"/>
+      <c r="N475"/>
+      <c r="O475"/>
+      <c r="P475"/>
     </row>
     <row r="476" spans="1:16">
       <c r="A476"/>
@@ -26356,6 +26626,11 @@
       <c r="I476"/>
       <c r="J476"/>
       <c r="K476"/>
+      <c r="L476"/>
+      <c r="M476"/>
+      <c r="N476"/>
+      <c r="O476"/>
+      <c r="P476"/>
     </row>
     <row r="477" spans="1:16">
       <c r="A477"/>
@@ -27586,6 +27861,11 @@
       <c r="D571"/>
       <c r="E571"/>
       <c r="F571"/>
+      <c r="G571"/>
+      <c r="H571"/>
+      <c r="I571"/>
+      <c r="J571"/>
+      <c r="K571"/>
     </row>
     <row r="572" spans="1:11">
       <c r="A572"/>
@@ -27594,6 +27874,11 @@
       <c r="D572"/>
       <c r="E572"/>
       <c r="F572"/>
+      <c r="G572"/>
+      <c r="H572"/>
+      <c r="I572"/>
+      <c r="J572"/>
+      <c r="K572"/>
     </row>
     <row r="573" spans="1:11">
       <c r="A573"/>
@@ -27602,6 +27887,11 @@
       <c r="D573"/>
       <c r="E573"/>
       <c r="F573"/>
+      <c r="G573"/>
+      <c r="H573"/>
+      <c r="I573"/>
+      <c r="J573"/>
+      <c r="K573"/>
     </row>
     <row r="574" spans="1:11">
       <c r="A574"/>
@@ -27610,6 +27900,11 @@
       <c r="D574"/>
       <c r="E574"/>
       <c r="F574"/>
+      <c r="G574"/>
+      <c r="H574"/>
+      <c r="I574"/>
+      <c r="J574"/>
+      <c r="K574"/>
     </row>
     <row r="575" spans="1:11">
       <c r="A575"/>
@@ -27618,6 +27913,11 @@
       <c r="D575"/>
       <c r="E575"/>
       <c r="F575"/>
+      <c r="G575"/>
+      <c r="H575"/>
+      <c r="I575"/>
+      <c r="J575"/>
+      <c r="K575"/>
     </row>
     <row r="576" spans="1:11">
       <c r="A576"/>
@@ -27626,16 +27926,26 @@
       <c r="D576"/>
       <c r="E576"/>
       <c r="F576"/>
-    </row>
-    <row r="577" spans="1:6">
+      <c r="G576"/>
+      <c r="H576"/>
+      <c r="I576"/>
+      <c r="J576"/>
+      <c r="K576"/>
+    </row>
+    <row r="577" spans="1:11">
       <c r="A577"/>
       <c r="B577"/>
       <c r="C577"/>
       <c r="D577"/>
       <c r="E577"/>
       <c r="F577"/>
-    </row>
-    <row r="578" spans="1:6">
+      <c r="G577"/>
+      <c r="H577"/>
+      <c r="I577"/>
+      <c r="J577"/>
+      <c r="K577"/>
+    </row>
+    <row r="578" spans="1:11">
       <c r="A578"/>
       <c r="B578"/>
       <c r="C578"/>
@@ -27643,7 +27953,7 @@
       <c r="E578"/>
       <c r="F578"/>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:11">
       <c r="A579"/>
       <c r="B579"/>
       <c r="C579"/>
@@ -27651,7 +27961,7 @@
       <c r="E579"/>
       <c r="F579"/>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:11">
       <c r="A580"/>
       <c r="B580"/>
       <c r="C580"/>
@@ -27659,7 +27969,7 @@
       <c r="E580"/>
       <c r="F580"/>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:11">
       <c r="A581"/>
       <c r="B581"/>
       <c r="C581"/>
@@ -27667,7 +27977,7 @@
       <c r="E581"/>
       <c r="F581"/>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:11">
       <c r="A582"/>
       <c r="B582"/>
       <c r="C582"/>
@@ -27675,7 +27985,7 @@
       <c r="E582"/>
       <c r="F582"/>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:11">
       <c r="A583"/>
       <c r="B583"/>
       <c r="C583"/>
@@ -27683,7 +27993,7 @@
       <c r="E583"/>
       <c r="F583"/>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:11">
       <c r="A584"/>
       <c r="B584"/>
       <c r="C584"/>
@@ -27691,7 +28001,7 @@
       <c r="E584"/>
       <c r="F584"/>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:11">
       <c r="A585"/>
       <c r="B585"/>
       <c r="C585"/>
@@ -27699,7 +28009,7 @@
       <c r="E585"/>
       <c r="F585"/>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:11">
       <c r="A586"/>
       <c r="B586"/>
       <c r="C586"/>
@@ -27707,7 +28017,7 @@
       <c r="E586"/>
       <c r="F586"/>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:11">
       <c r="A587"/>
       <c r="B587"/>
       <c r="C587"/>
@@ -27715,7 +28025,7 @@
       <c r="E587"/>
       <c r="F587"/>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:11">
       <c r="A588"/>
       <c r="B588"/>
       <c r="C588"/>
@@ -27723,7 +28033,7 @@
       <c r="E588"/>
       <c r="F588"/>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:11">
       <c r="A589"/>
       <c r="B589"/>
       <c r="C589"/>
@@ -27731,7 +28041,7 @@
       <c r="E589"/>
       <c r="F589"/>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:11">
       <c r="A590"/>
       <c r="B590"/>
       <c r="C590"/>
@@ -27739,7 +28049,7 @@
       <c r="E590"/>
       <c r="F590"/>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:11">
       <c r="A591"/>
       <c r="B591"/>
       <c r="C591"/>
@@ -27747,7 +28057,7 @@
       <c r="E591"/>
       <c r="F591"/>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:11">
       <c r="A592"/>
       <c r="B592"/>
       <c r="C592"/>
@@ -29307,15 +29617,65 @@
       <c r="E786"/>
       <c r="F786"/>
     </row>
+    <row r="787" spans="1:6">
+      <c r="A787"/>
+      <c r="B787"/>
+      <c r="C787"/>
+      <c r="D787"/>
+      <c r="E787"/>
+      <c r="F787"/>
+    </row>
+    <row r="788" spans="1:6">
+      <c r="A788"/>
+      <c r="B788"/>
+      <c r="C788"/>
+      <c r="D788"/>
+      <c r="E788"/>
+      <c r="F788"/>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="A789"/>
+      <c r="B789"/>
+      <c r="C789"/>
+      <c r="D789"/>
+      <c r="E789"/>
+      <c r="F789"/>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790"/>
+      <c r="B790"/>
+      <c r="C790"/>
+      <c r="D790"/>
+      <c r="E790"/>
+      <c r="F790"/>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="A791"/>
+      <c r="B791"/>
+      <c r="C791"/>
+      <c r="D791"/>
+      <c r="E791"/>
+      <c r="F791"/>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="A792"/>
+      <c r="B792"/>
+      <c r="C792"/>
+      <c r="D792"/>
+      <c r="E792"/>
+      <c r="F792"/>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="A793"/>
+      <c r="B793"/>
+      <c r="C793"/>
+      <c r="D793"/>
+      <c r="E793"/>
+      <c r="F793"/>
+    </row>
   </sheetData>
-  <mergeCells count="220">
-    <mergeCell ref="W219:W221"/>
-    <mergeCell ref="X219:X221"/>
-    <mergeCell ref="Y219:Y221"/>
-    <mergeCell ref="W222:W224"/>
-    <mergeCell ref="X222:X224"/>
-    <mergeCell ref="Y222:Y224"/>
-    <mergeCell ref="A228:F232"/>
+  <mergeCells count="226">
+    <mergeCell ref="A235:F239"/>
     <mergeCell ref="W170:W172"/>
     <mergeCell ref="X170:X172"/>
     <mergeCell ref="Y170:Y172"/>
@@ -29333,6 +29693,9 @@
     <mergeCell ref="X190:X192"/>
     <mergeCell ref="W193:W197"/>
     <mergeCell ref="X193:X197"/>
+    <mergeCell ref="W228:W231"/>
+    <mergeCell ref="X228:X231"/>
+    <mergeCell ref="Y228:Y231"/>
     <mergeCell ref="Y190:Y192"/>
     <mergeCell ref="X181:X183"/>
     <mergeCell ref="Y181:Y183"/>
@@ -29514,12 +29877,6 @@
     <mergeCell ref="X110:X112"/>
     <mergeCell ref="W113:W115"/>
     <mergeCell ref="X113:X115"/>
-    <mergeCell ref="W216:W218"/>
-    <mergeCell ref="X216:X218"/>
-    <mergeCell ref="Y216:Y218"/>
-    <mergeCell ref="W210:W212"/>
-    <mergeCell ref="X210:X212"/>
-    <mergeCell ref="Y210:Y212"/>
     <mergeCell ref="W201:W203"/>
     <mergeCell ref="X201:X203"/>
     <mergeCell ref="Y201:Y203"/>
@@ -29529,8 +29886,23 @@
     <mergeCell ref="W207:W209"/>
     <mergeCell ref="X207:X209"/>
     <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="W225:W227"/>
+    <mergeCell ref="X225:X227"/>
+    <mergeCell ref="Y225:Y227"/>
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W219:W221"/>
+    <mergeCell ref="X219:X221"/>
+    <mergeCell ref="Y219:Y221"/>
+    <mergeCell ref="W222:W224"/>
+    <mergeCell ref="X222:X224"/>
+    <mergeCell ref="Y222:Y224"/>
   </mergeCells>
-  <conditionalFormatting sqref="H228:N231">
+  <conditionalFormatting sqref="H235:N238">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -29542,7 +29914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H232:N232">
+  <conditionalFormatting sqref="H239:N239">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -29560,10 +29932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29586,13 +29958,13 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
@@ -29608,10 +29980,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -29630,28 +30002,28 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>63</v>
+      <c r="H3" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -29665,28 +30037,28 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="12">
-        <v>3</v>
-      </c>
-      <c r="J4" s="12">
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="K4" s="12">
-        <v>3</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.34615384615384615</v>
+      <c r="J4" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.40909090909090912</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -29700,28 +30072,28 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
-        <v>9</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>3</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -29735,28 +30107,28 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="12">
-        <v>3</v>
-      </c>
-      <c r="J6" s="12">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K6" s="12">
-        <v>3</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.45</v>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="K6" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -29770,28 +30142,28 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>9</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10">
         <v>7</v>
       </c>
-      <c r="J7" s="12">
-        <v>7</v>
-      </c>
-      <c r="K7" s="12">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.36734693877551022</v>
+      <c r="K7" s="10">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.44047619047619047</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -29805,36 +30177,120 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
         <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>74</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -29869,7 +30325,20 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
+    <row r="20" spans="8:10">
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B89C833-8AE1-EF4B-A0C3-4F278C818580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB0563-8D09-2E4E-A044-2187ED4B41F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" activeTab="1" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>Average of Veronica</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Accuracy - Board Hits per Throw</t>
+  </si>
+  <si>
+    <t>Touch - Landing per Board Hit</t>
+  </si>
+  <si>
+    <t>Precision - Points per Landing</t>
   </si>
 </sst>
 </file>
@@ -554,11 +569,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45775.756599652777" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{35C3325B-3AEE-6043-A960-DB3E8DA68362}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45776.370188310182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{EB957846-CF12-DB48-82D5-75B5CF214CE0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E13" sheet="Next Gen"/>
+    <worksheetSource ref="A1:F13" sheet="Next Gen"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="9">
     <cacheField name="Game" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="75"/>
     </cacheField>
@@ -578,8 +593,12 @@
     <cacheField name="Land" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
+    <cacheField name="Points" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
+    </cacheField>
     <cacheField name="touch_comp" numFmtId="0" formula="Land/'Board Hits'" databaseField="0"/>
     <cacheField name="accuracy_comp" numFmtId="0" formula="'Board Hits'/Throws" databaseField="0"/>
+    <cacheField name="precision_comp" numFmtId="0" formula="Points/Land" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -4170,6 +4189,7 @@
     <n v="9"/>
     <n v="9"/>
     <n v="4"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="71"/>
@@ -4177,12 +4197,14 @@
     <n v="9"/>
     <n v="8"/>
     <n v="5"/>
+    <n v="13"/>
   </r>
   <r>
     <n v="72"/>
     <x v="0"/>
     <n v="9"/>
     <n v="5"/>
+    <n v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4191,12 +4213,14 @@
     <n v="9"/>
     <n v="9"/>
     <n v="2"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="72"/>
     <x v="2"/>
     <n v="9"/>
     <n v="3"/>
+    <n v="0"/>
     <n v="0"/>
   </r>
   <r>
@@ -4205,6 +4229,7 @@
     <n v="9"/>
     <n v="9"/>
     <n v="2"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="73"/>
@@ -4212,26 +4237,14 @@
     <n v="9"/>
     <n v="6"/>
     <n v="4"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <x v="1"/>
-    <n v="12"/>
-    <n v="12"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="8"/>
-    <n v="6"/>
+    <n v="10"/>
   </r>
   <r>
     <n v="74"/>
     <x v="0"/>
     <n v="9"/>
     <n v="5"/>
+    <n v="1"/>
     <n v="1"/>
   </r>
   <r>
@@ -4240,6 +4253,7 @@
     <n v="9"/>
     <n v="6"/>
     <n v="4"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="74"/>
@@ -4247,6 +4261,23 @@
     <n v="9"/>
     <n v="4"/>
     <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="8"/>
+    <n v="6"/>
+    <n v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -4530,9 +4561,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E50B5D12-F4BB-614A-838B-8CB625EDBDBC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
-  <location ref="H3:M7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A08E82C1-8359-A045-9A0D-43569691351E}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+  <location ref="I3:O7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
@@ -4545,6 +4576,8 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -4568,7 +4601,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -4584,13 +4617,17 @@
     <i i="4">
       <x v="4"/>
     </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
   </colItems>
-  <dataFields count="5">
+  <dataFields count="6">
     <dataField name="Games" fld="1" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Hits" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Landing" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Accuracy" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Touch" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Accuracy" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Touch" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Precision" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
     <format dxfId="3">
@@ -4935,9 +4972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
   <dimension ref="A1:AI793"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W228" sqref="W228:W231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I243" sqref="I243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29675,6 +29712,208 @@
     </row>
   </sheetData>
   <mergeCells count="226">
+    <mergeCell ref="W204:W206"/>
+    <mergeCell ref="X204:X206"/>
+    <mergeCell ref="Y204:Y206"/>
+    <mergeCell ref="W207:W209"/>
+    <mergeCell ref="X207:X209"/>
+    <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="W225:W227"/>
+    <mergeCell ref="X225:X227"/>
+    <mergeCell ref="Y225:Y227"/>
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W219:W221"/>
+    <mergeCell ref="X219:X221"/>
+    <mergeCell ref="Y219:Y221"/>
+    <mergeCell ref="W222:W224"/>
+    <mergeCell ref="X222:X224"/>
+    <mergeCell ref="Y222:Y224"/>
+    <mergeCell ref="W116:W118"/>
+    <mergeCell ref="X116:X118"/>
+    <mergeCell ref="W104:W106"/>
+    <mergeCell ref="X104:X106"/>
+    <mergeCell ref="W107:W109"/>
+    <mergeCell ref="X107:X109"/>
+    <mergeCell ref="W110:W112"/>
+    <mergeCell ref="X110:X112"/>
+    <mergeCell ref="W113:W115"/>
+    <mergeCell ref="X113:X115"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="Y193:Y197"/>
+    <mergeCell ref="W198:W200"/>
+    <mergeCell ref="X198:X200"/>
+    <mergeCell ref="Y198:Y200"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="W83:W85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="W164:W166"/>
+    <mergeCell ref="X164:X166"/>
+    <mergeCell ref="Y164:Y166"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="Y116:Y118"/>
+    <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y89:Y91"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="Y98:Y100"/>
+    <mergeCell ref="Y101:Y103"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="W98:W100"/>
+    <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="W101:W103"/>
+    <mergeCell ref="X101:X103"/>
+    <mergeCell ref="Y74:Y76"/>
+    <mergeCell ref="Y77:Y79"/>
+    <mergeCell ref="Y80:Y82"/>
+    <mergeCell ref="Y83:Y85"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="W95:W97"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Y56:Y58"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="Y62:Y64"/>
+    <mergeCell ref="Y65:Y67"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Y71:Y73"/>
+    <mergeCell ref="W89:W91"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y119:Y121"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W143:W145"/>
+    <mergeCell ref="X143:X145"/>
+    <mergeCell ref="Y143:Y145"/>
+    <mergeCell ref="W146:W148"/>
+    <mergeCell ref="X146:X148"/>
+    <mergeCell ref="Y146:Y148"/>
+    <mergeCell ref="W149:W151"/>
+    <mergeCell ref="X149:X151"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W213:W215"/>
+    <mergeCell ref="X213:X215"/>
+    <mergeCell ref="Y213:Y215"/>
+    <mergeCell ref="W184:W186"/>
+    <mergeCell ref="X184:X186"/>
+    <mergeCell ref="Y184:Y186"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="Y167:Y169"/>
+    <mergeCell ref="W161:W163"/>
+    <mergeCell ref="X161:X163"/>
+    <mergeCell ref="Y161:Y163"/>
+    <mergeCell ref="W158:W160"/>
+    <mergeCell ref="X158:X160"/>
+    <mergeCell ref="W201:W203"/>
+    <mergeCell ref="X201:X203"/>
+    <mergeCell ref="Y201:Y203"/>
     <mergeCell ref="A235:F239"/>
     <mergeCell ref="W170:W172"/>
     <mergeCell ref="X170:X172"/>
@@ -29699,208 +29938,6 @@
     <mergeCell ref="Y190:Y192"/>
     <mergeCell ref="X181:X183"/>
     <mergeCell ref="Y181:Y183"/>
-    <mergeCell ref="W213:W215"/>
-    <mergeCell ref="X213:X215"/>
-    <mergeCell ref="Y213:Y215"/>
-    <mergeCell ref="W184:W186"/>
-    <mergeCell ref="X184:X186"/>
-    <mergeCell ref="Y184:Y186"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
-    <mergeCell ref="Y167:Y169"/>
-    <mergeCell ref="W161:W163"/>
-    <mergeCell ref="X161:X163"/>
-    <mergeCell ref="Y161:Y163"/>
-    <mergeCell ref="W158:W160"/>
-    <mergeCell ref="X158:X160"/>
-    <mergeCell ref="W143:W145"/>
-    <mergeCell ref="X143:X145"/>
-    <mergeCell ref="Y143:Y145"/>
-    <mergeCell ref="W146:W148"/>
-    <mergeCell ref="X146:X148"/>
-    <mergeCell ref="Y146:Y148"/>
-    <mergeCell ref="W149:W151"/>
-    <mergeCell ref="X149:X151"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
-    <mergeCell ref="Y119:Y121"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="Y62:Y64"/>
-    <mergeCell ref="Y65:Y67"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Y71:Y73"/>
-    <mergeCell ref="W89:W91"/>
-    <mergeCell ref="X89:X91"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Y56:Y58"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="Y95:Y97"/>
-    <mergeCell ref="Y98:Y100"/>
-    <mergeCell ref="Y101:Y103"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="W98:W100"/>
-    <mergeCell ref="X98:X100"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="W101:W103"/>
-    <mergeCell ref="X101:X103"/>
-    <mergeCell ref="Y74:Y76"/>
-    <mergeCell ref="Y77:Y79"/>
-    <mergeCell ref="Y80:Y82"/>
-    <mergeCell ref="Y83:Y85"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="W95:W97"/>
-    <mergeCell ref="X95:X97"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="Y193:Y197"/>
-    <mergeCell ref="W198:W200"/>
-    <mergeCell ref="X198:X200"/>
-    <mergeCell ref="Y198:Y200"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="W83:W85"/>
-    <mergeCell ref="X83:X85"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="W164:W166"/>
-    <mergeCell ref="X164:X166"/>
-    <mergeCell ref="Y164:Y166"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
-    <mergeCell ref="Y116:Y118"/>
-    <mergeCell ref="W122:W124"/>
-    <mergeCell ref="Y89:Y91"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="W116:W118"/>
-    <mergeCell ref="X116:X118"/>
-    <mergeCell ref="W104:W106"/>
-    <mergeCell ref="X104:X106"/>
-    <mergeCell ref="W107:W109"/>
-    <mergeCell ref="X107:X109"/>
-    <mergeCell ref="W110:W112"/>
-    <mergeCell ref="X110:X112"/>
-    <mergeCell ref="W113:W115"/>
-    <mergeCell ref="X113:X115"/>
-    <mergeCell ref="W201:W203"/>
-    <mergeCell ref="X201:X203"/>
-    <mergeCell ref="Y201:Y203"/>
-    <mergeCell ref="W204:W206"/>
-    <mergeCell ref="X204:X206"/>
-    <mergeCell ref="Y204:Y206"/>
-    <mergeCell ref="W207:W209"/>
-    <mergeCell ref="X207:X209"/>
-    <mergeCell ref="Y207:Y209"/>
-    <mergeCell ref="W225:W227"/>
-    <mergeCell ref="X225:X227"/>
-    <mergeCell ref="Y225:Y227"/>
-    <mergeCell ref="W216:W218"/>
-    <mergeCell ref="X216:X218"/>
-    <mergeCell ref="Y216:Y218"/>
-    <mergeCell ref="W210:W212"/>
-    <mergeCell ref="X210:X212"/>
-    <mergeCell ref="Y210:Y212"/>
-    <mergeCell ref="W219:W221"/>
-    <mergeCell ref="X219:X221"/>
-    <mergeCell ref="Y219:Y221"/>
-    <mergeCell ref="W222:W224"/>
-    <mergeCell ref="X222:X224"/>
-    <mergeCell ref="Y222:Y224"/>
   </mergeCells>
   <conditionalFormatting sqref="H235:N238">
     <cfRule type="colorScale" priority="2">
@@ -29932,25 +29969,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -29966,10 +30005,13 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1"/>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="I1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>71</v>
       </c>
@@ -29985,13 +30027,20 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="H2"/>
+      <c r="F2" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N232, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
+        <v>8</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2"/>
+      <c r="Q2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>71</v>
       </c>
@@ -30007,26 +30056,37 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N233, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -30042,26 +30102,37 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N234, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>5</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>3.6</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>0.40909090909090912</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="10">
+        <v>2</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>72</v>
       </c>
@@ -30077,26 +30148,34 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N235, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>3.5</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>1.5</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>0.3888888888888889</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>72</v>
       </c>
@@ -30112,26 +30191,34 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N236, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>5</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>6.6</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>3.2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>0.6875</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>0.48484848484848486</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>73</v>
       </c>
@@ -30147,26 +30234,34 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N237, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>12</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>7</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>3.0833333333333335</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>0.73684210526315785</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>0.44047619047619047</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="10">
+        <v>1.8108108108108107</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -30182,14 +30277,18 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="H8"/>
+      <c r="F8" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N238, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
+        <v>10</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -30205,14 +30304,18 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="H9"/>
+      <c r="F9" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N239, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -30228,14 +30331,18 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="H10"/>
+      <c r="F10" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N240, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
+        <v>7</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>74</v>
       </c>
@@ -30251,11 +30358,15 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="H11"/>
+      <c r="F11" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N241, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
+        <v>3</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>75</v>
       </c>
@@ -30271,11 +30382,15 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="H12"/>
+      <c r="F12" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N242, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
+        <v>10</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>75</v>
       </c>
@@ -30291,49 +30406,53 @@
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="H13"/>
+      <c r="F13" s="1">
+        <f>SUMIF(Scores!$E$2:$E$232, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N243, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
+        <v>8</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="H14"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="I14"/>
       <c r="J14"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="H15"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="I15"/>
       <c r="J15"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="H16"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="I16"/>
       <c r="J16"/>
-    </row>
-    <row r="17" spans="8:10">
-      <c r="H17"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="9:11">
       <c r="I17"/>
       <c r="J17"/>
-    </row>
-    <row r="18" spans="8:10">
-      <c r="H18"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="9:11">
       <c r="I18"/>
       <c r="J18"/>
-    </row>
-    <row r="19" spans="8:10">
-      <c r="H19"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="9:11">
       <c r="I19"/>
       <c r="J19"/>
-    </row>
-    <row r="20" spans="8:10">
-      <c r="H20"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="9:11">
       <c r="I20"/>
       <c r="J20"/>
-    </row>
-    <row r="21" spans="8:10">
-      <c r="H21"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="9:11">
       <c r="I21"/>
       <c r="J21"/>
+      <c r="K21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">

--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FD2569-1AF5-794A-A2FC-BE8F1C92F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E0F53-B76D-0440-93BA-CDDE9D3C5923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="760" windowWidth="28040" windowHeight="17400" activeTab="1" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="1600" yWindow="760" windowWidth="28040" windowHeight="17400" activeTab="1" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
     <sheet name="Next Gen" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Height">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId3"/>
-    <pivotCache cacheId="27" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -41,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +293,12 @@
   <si>
     <t>JDC</t>
   </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,11 +373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="62">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -369,6 +387,171 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -395,10 +578,93 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Height">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D65280-06DE-5578-CBEB-732CCF25143E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Height"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7708900" y="1968500"/>
+              <a:ext cx="1790700" cy="1323340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45777.705312152779" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="254" xr:uid="{32911539-3100-E243-B1F2-9EBB0E1C0345}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45778.693871412041" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="267" xr:uid="{148653F5-42FD-1144-8C96-F393955C09E7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N255" sheet="Scores"/>
+    <worksheetSource ref="A1:N268" sheet="Scores"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="angle" numFmtId="0">
@@ -422,10 +688,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="16">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-02-19T00:00:00" maxDate="2025-05-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-02-19T00:00:00" maxDate="2025-05-02T00:00:00"/>
     </cacheField>
     <cacheField name="Game" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="83"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="87"/>
     </cacheField>
     <cacheField name="Round" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="4">
@@ -469,13 +735,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45778.495240972225" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{5DCA81BE-59DC-724F-8753-7BDE4606B02E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45778.694042476855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="41" xr:uid="{6D7EAC56-3696-F748-8B8A-D01931968BF1}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F36" sheet="Next Gen"/>
+    <worksheetSource ref="A1:G42" sheet="Next Gen"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="12">
     <cacheField name="Game" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="84"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="87"/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
       <sharedItems count="4">
@@ -497,21 +763,29 @@
     <cacheField name="Points" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
     </cacheField>
+    <cacheField name="Height" numFmtId="0">
+      <sharedItems count="3">
+        <s v="high"/>
+        <s v="mid"/>
+        <s v="low"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="touch_comp" numFmtId="0" formula="Land/'Board Hits'" databaseField="0"/>
     <cacheField name="accuracy_comp" numFmtId="0" formula="'Board Hits'/Throws" databaseField="0"/>
     <cacheField name="precision_comp" numFmtId="0" formula="Points/Land" databaseField="0"/>
     <cacheField name="land_rate_comp" numFmtId="0" formula="Land/Throws" databaseField="0"/>
+    <cacheField name="points_comp" numFmtId="0" formula="Points/Throws" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="66695097"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="254">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="267">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4568,8 +4842,216 @@
     <n v="83"/>
     <x v="2"/>
     <s v="CJ"/>
-    <n v="6"/>
-    <m/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="84"/>
+    <x v="0"/>
+    <s v="JC"/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="84"/>
+    <x v="1"/>
+    <s v="JC"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="84"/>
+    <x v="2"/>
+    <s v="JC"/>
+    <n v="7"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="85"/>
+    <x v="0"/>
+    <s v="JC"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="85"/>
+    <x v="1"/>
+    <s v="JC"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="85"/>
+    <x v="2"/>
+    <s v="JC"/>
+    <n v="4"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="85"/>
+    <x v="3"/>
+    <s v="JC"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="86"/>
+    <x v="0"/>
+    <s v="CJ"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="86"/>
+    <x v="1"/>
+    <s v="CJ"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="86"/>
+    <x v="2"/>
+    <s v="CJ"/>
+    <n v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="87"/>
+    <x v="0"/>
+    <s v="JC"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="87"/>
+    <x v="1"/>
+    <s v="JC"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-05-01T00:00:00"/>
+    <n v="87"/>
+    <x v="2"/>
+    <s v="JC"/>
+    <n v="1"/>
+    <n v="3"/>
     <m/>
     <m/>
     <m/>
@@ -4580,7 +5062,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="41">
   <r>
     <n v="71"/>
     <x v="0"/>
@@ -4588,6 +5070,7 @@
     <n v="9"/>
     <n v="4"/>
     <n v="8"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="71"/>
@@ -4596,6 +5079,7 @@
     <n v="8"/>
     <n v="5"/>
     <n v="13"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="72"/>
@@ -4604,6 +5088,7 @@
     <n v="5"/>
     <n v="1"/>
     <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="72"/>
@@ -4612,6 +5097,7 @@
     <n v="9"/>
     <n v="2"/>
     <n v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="72"/>
@@ -4620,6 +5106,7 @@
     <n v="3"/>
     <n v="0"/>
     <n v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="73"/>
@@ -4628,6 +5115,7 @@
     <n v="9"/>
     <n v="2"/>
     <n v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="73"/>
@@ -4636,6 +5124,7 @@
     <n v="6"/>
     <n v="4"/>
     <n v="10"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="74"/>
@@ -4644,6 +5133,7 @@
     <n v="5"/>
     <n v="1"/>
     <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="74"/>
@@ -4652,6 +5142,7 @@
     <n v="6"/>
     <n v="4"/>
     <n v="7"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="74"/>
@@ -4660,6 +5151,7 @@
     <n v="4"/>
     <n v="3"/>
     <n v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="75"/>
@@ -4668,6 +5160,7 @@
     <n v="12"/>
     <n v="5"/>
     <n v="10"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="75"/>
@@ -4676,6 +5169,7 @@
     <n v="8"/>
     <n v="6"/>
     <n v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="76"/>
@@ -4684,6 +5178,7 @@
     <n v="8"/>
     <n v="3"/>
     <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="76"/>
@@ -4692,6 +5187,7 @@
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="77"/>
@@ -4700,6 +5196,7 @@
     <n v="9"/>
     <n v="1"/>
     <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="77"/>
@@ -4708,6 +5205,7 @@
     <n v="5"/>
     <n v="3"/>
     <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="77"/>
@@ -4716,6 +5214,7 @@
     <n v="5"/>
     <n v="3"/>
     <n v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="78"/>
@@ -4724,6 +5223,7 @@
     <n v="8"/>
     <n v="5"/>
     <n v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="78"/>
@@ -4732,6 +5232,7 @@
     <n v="6"/>
     <n v="2"/>
     <n v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="79"/>
@@ -4740,6 +5241,7 @@
     <n v="7"/>
     <n v="3"/>
     <n v="7"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="79"/>
@@ -4748,6 +5250,7 @@
     <n v="6"/>
     <n v="1"/>
     <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="79"/>
@@ -4756,6 +5259,7 @@
     <n v="2"/>
     <n v="1"/>
     <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="79"/>
@@ -4764,6 +5268,7 @@
     <n v="5"/>
     <n v="3"/>
     <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="80"/>
@@ -4772,6 +5277,7 @@
     <n v="6"/>
     <n v="2"/>
     <n v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="80"/>
@@ -4780,6 +5286,7 @@
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="80"/>
@@ -4788,6 +5295,7 @@
     <n v="8"/>
     <n v="6"/>
     <n v="12"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="81"/>
@@ -4796,6 +5304,7 @@
     <n v="8"/>
     <n v="4"/>
     <n v="6"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="81"/>
@@ -4804,6 +5313,7 @@
     <n v="4"/>
     <n v="0"/>
     <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="82"/>
@@ -4812,6 +5322,7 @@
     <n v="8"/>
     <n v="6"/>
     <n v="12"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="82"/>
@@ -4820,6 +5331,7 @@
     <n v="3"/>
     <n v="2"/>
     <n v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="82"/>
@@ -4828,6 +5340,7 @@
     <n v="7"/>
     <n v="2"/>
     <n v="5"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="83"/>
@@ -4836,6 +5349,7 @@
     <n v="9"/>
     <n v="6"/>
     <n v="12"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="83"/>
@@ -4844,6 +5358,7 @@
     <n v="5"/>
     <n v="3"/>
     <n v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="84"/>
@@ -4852,6 +5367,7 @@
     <n v="9"/>
     <n v="5"/>
     <n v="10"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="84"/>
@@ -4860,13 +5376,68 @@
     <n v="4"/>
     <n v="3"/>
     <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="6"/>
+    <n v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D5FAF26-982F-154F-8964-48704B11779C}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
-  <location ref="G273:N278" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B74D39B5-411F-0040-AAB6-079A4FE3D2BA}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+  <location ref="G283:N288" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -4972,7 +5543,7 @@
     <dataField name="Average of Veronica" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -4997,9 +5568,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71DE94D3-AE34-6F42-ADA9-D42CB9B42BBD}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
-  <location ref="I3:P8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211C0FFF-31C1-7E41-A47C-3DF5E54B801C}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+  <location ref="J3:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="5">
@@ -5014,6 +5585,15 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -5042,7 +5622,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="7">
+  <colItems count="8">
     <i>
       <x/>
     </i>
@@ -5064,28 +5644,32 @@
     <i i="6">
       <x v="6"/>
     </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
   </colItems>
-  <dataFields count="7">
+  <dataFields count="8">
     <dataField name="Games" fld="1" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Hits" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Landing" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Accuracy" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Touch" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Efficiency" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Land Rate" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Accuracy" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Touch" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Efficiency" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Land Rate" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="PPT" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="59">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5105,6 +5689,29 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Height" xr10:uid="{62277997-43EB-234B-AEC1-7EC7D5C2B1FF}" sourceName="Height">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="66695097">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Height" xr10:uid="{15725CD2-2E2F-584B-B6A5-8323789ECEF2}" cache="Slicer_Height" caption="Height" rowHeight="251883"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5424,11 +6031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:AI820"/>
+  <dimension ref="A1:AI830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J256" sqref="J256"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I294" sqref="I294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21589,7 +22196,7 @@
         <v>45776</v>
       </c>
       <c r="E232" s="2">
-        <f t="shared" ref="E232:E258" si="321">E229+1</f>
+        <f t="shared" ref="E232:E268" si="321">E229+1</f>
         <v>76</v>
       </c>
       <c r="F232" s="2">
@@ -23215,7 +23822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:35">
+    <row r="257" spans="1:25">
       <c r="A257" s="1" t="s">
         <v>30</v>
       </c>
@@ -23280,7 +23887,7 @@
       <c r="X257" s="12"/>
       <c r="Y257" s="12"/>
     </row>
-    <row r="258" spans="1:35">
+    <row r="258" spans="1:25">
       <c r="A258" s="1" t="s">
         <v>30</v>
       </c>
@@ -23336,682 +23943,928 @@
       <c r="X258" s="12"/>
       <c r="Y258" s="12"/>
     </row>
-    <row r="259" spans="1:35">
-      <c r="W259" s="6"/>
-      <c r="X259" s="6"/>
-      <c r="Y259" s="6"/>
-    </row>
-    <row r="262" spans="1:35">
-      <c r="A262" s="12" t="s">
+    <row r="259" spans="1:25">
+      <c r="A259" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" si="321"/>
+        <v>85</v>
+      </c>
+      <c r="F259" s="2">
+        <v>1</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H259" s="1">
+        <v>1</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0</v>
+      </c>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+      <c r="N259" s="2"/>
+      <c r="P259" s="2">
+        <f t="shared" ref="P259:P262" si="405">COUNTA(H259)</f>
+        <v>1</v>
+      </c>
+      <c r="Q259" s="2">
+        <f t="shared" ref="Q259:Q262" si="406">COUNTA(I259)</f>
+        <v>1</v>
+      </c>
+      <c r="R259" s="2">
+        <f t="shared" ref="R259:R261" si="407">COUNTA(J259)</f>
+        <v>0</v>
+      </c>
+      <c r="S259" s="2">
+        <f t="shared" ref="S259:S261" si="408">COUNTA(K259)</f>
+        <v>0</v>
+      </c>
+      <c r="T259" s="2">
+        <f t="shared" ref="T259:T260" si="409">COUNTA(L259)</f>
+        <v>0</v>
+      </c>
+      <c r="U259" s="2">
+        <f t="shared" ref="U259:U260" si="410">COUNTA(M259)</f>
+        <v>0</v>
+      </c>
+      <c r="V259" s="2">
+        <f t="shared" ref="V259:V260" si="411">COUNTA(N259)</f>
+        <v>0</v>
+      </c>
+      <c r="W259" s="12" t="str">
+        <f>IF(SUM(H259:H262)&gt;SUM(I259:I262), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X259" s="12">
+        <f>ABS(SUM(H259:H262)-SUM(I259:I262))</f>
+        <v>4</v>
+      </c>
+      <c r="Y259" s="12">
+        <f t="shared" ref="Y259" si="412">SUM(H259:H261, I259:I261)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25">
+      <c r="A260" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" si="321"/>
+        <v>85</v>
+      </c>
+      <c r="F260" s="2">
+        <v>2</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>2</v>
+      </c>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
+      <c r="N260" s="2"/>
+      <c r="P260" s="2">
+        <f t="shared" si="405"/>
+        <v>1</v>
+      </c>
+      <c r="Q260" s="2">
+        <f t="shared" si="406"/>
+        <v>1</v>
+      </c>
+      <c r="R260" s="2">
+        <f t="shared" si="407"/>
+        <v>0</v>
+      </c>
+      <c r="S260" s="2">
+        <f t="shared" si="408"/>
+        <v>0</v>
+      </c>
+      <c r="T260" s="2">
+        <f t="shared" si="409"/>
+        <v>0</v>
+      </c>
+      <c r="U260" s="2">
+        <f t="shared" si="410"/>
+        <v>0</v>
+      </c>
+      <c r="V260" s="2">
+        <f t="shared" si="411"/>
+        <v>0</v>
+      </c>
+      <c r="W260" s="12"/>
+      <c r="X260" s="12"/>
+      <c r="Y260" s="12"/>
+    </row>
+    <row r="261" spans="1:25">
+      <c r="A261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E261" s="2">
+        <f t="shared" si="321"/>
+        <v>85</v>
+      </c>
+      <c r="F261" s="2">
+        <v>3</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H261" s="1">
+        <v>4</v>
+      </c>
+      <c r="I261" s="1">
+        <v>3</v>
+      </c>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
+      <c r="N261" s="2"/>
+      <c r="P261" s="2">
+        <f t="shared" si="405"/>
+        <v>1</v>
+      </c>
+      <c r="Q261" s="2">
+        <f t="shared" si="406"/>
+        <v>1</v>
+      </c>
+      <c r="R261" s="2">
+        <f t="shared" si="407"/>
+        <v>0</v>
+      </c>
+      <c r="S261" s="2">
+        <f t="shared" si="408"/>
+        <v>0</v>
+      </c>
+      <c r="T261" s="2"/>
+      <c r="U261" s="2"/>
+      <c r="V261" s="2"/>
+      <c r="W261" s="12"/>
+      <c r="X261" s="12"/>
+      <c r="Y261" s="12"/>
+    </row>
+    <row r="262" spans="1:25">
+      <c r="A262" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E262" s="2">
+        <v>85</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H262" s="1">
+        <v>5</v>
+      </c>
+      <c r="I262" s="1">
+        <v>1</v>
+      </c>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2"/>
+      <c r="N262" s="2"/>
+      <c r="P262" s="2">
+        <f t="shared" si="405"/>
+        <v>1</v>
+      </c>
+      <c r="Q262" s="2">
+        <f t="shared" si="406"/>
+        <v>1</v>
+      </c>
+      <c r="R262" s="2"/>
+      <c r="S262" s="2"/>
+      <c r="T262" s="2"/>
+      <c r="U262" s="2"/>
+      <c r="V262" s="2"/>
+      <c r="W262" s="12"/>
+      <c r="X262" s="12"/>
+      <c r="Y262" s="12"/>
+    </row>
+    <row r="263" spans="1:25">
+      <c r="A263" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E263" s="2">
+        <f t="shared" si="321"/>
+        <v>86</v>
+      </c>
+      <c r="F263" s="2">
+        <v>1</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" s="1">
+        <v>3</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2"/>
+      <c r="N263" s="2"/>
+      <c r="P263" s="2">
+        <f t="shared" ref="P263:P265" si="413">COUNTA(H263)</f>
+        <v>1</v>
+      </c>
+      <c r="Q263" s="2">
+        <f t="shared" ref="Q263:Q265" si="414">COUNTA(I263)</f>
+        <v>1</v>
+      </c>
+      <c r="R263" s="2">
+        <f t="shared" ref="R263:R265" si="415">COUNTA(J263)</f>
+        <v>0</v>
+      </c>
+      <c r="S263" s="2">
+        <f t="shared" ref="S263:S265" si="416">COUNTA(K263)</f>
+        <v>0</v>
+      </c>
+      <c r="T263" s="2">
+        <f t="shared" ref="T263:T264" si="417">COUNTA(L263)</f>
+        <v>0</v>
+      </c>
+      <c r="U263" s="2">
+        <f t="shared" ref="U263:U264" si="418">COUNTA(M263)</f>
+        <v>0</v>
+      </c>
+      <c r="V263" s="2">
+        <f t="shared" ref="V263:V264" si="419">COUNTA(N263)</f>
+        <v>0</v>
+      </c>
+      <c r="W263" s="12" t="str">
+        <f t="shared" ref="W263" si="420">IF(SUM(H263:H265)&gt;SUM(I263:I265), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X263" s="12">
+        <f t="shared" ref="X263" si="421">ABS(SUM(H263:H265)-SUM(I263:I265))</f>
+        <v>4</v>
+      </c>
+      <c r="Y263" s="12">
+        <f t="shared" ref="Y263" si="422">SUM(H263:H265, I263:I265)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25">
+      <c r="A264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" si="321"/>
+        <v>86</v>
+      </c>
+      <c r="F264" s="2">
+        <v>2</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" s="1">
+        <v>3</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+      <c r="K264" s="2"/>
+      <c r="L264" s="2"/>
+      <c r="M264" s="2"/>
+      <c r="N264" s="2"/>
+      <c r="P264" s="2">
+        <f t="shared" si="413"/>
+        <v>1</v>
+      </c>
+      <c r="Q264" s="2">
+        <f t="shared" si="414"/>
+        <v>1</v>
+      </c>
+      <c r="R264" s="2">
+        <f t="shared" si="415"/>
+        <v>0</v>
+      </c>
+      <c r="S264" s="2">
+        <f t="shared" si="416"/>
+        <v>0</v>
+      </c>
+      <c r="T264" s="2">
+        <f t="shared" si="417"/>
+        <v>0</v>
+      </c>
+      <c r="U264" s="2">
+        <f t="shared" si="418"/>
+        <v>0</v>
+      </c>
+      <c r="V264" s="2">
+        <f t="shared" si="419"/>
+        <v>0</v>
+      </c>
+      <c r="W264" s="12"/>
+      <c r="X264" s="12"/>
+      <c r="Y264" s="12"/>
+    </row>
+    <row r="265" spans="1:25">
+      <c r="A265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E265" s="2">
+        <f t="shared" si="321"/>
+        <v>86</v>
+      </c>
+      <c r="F265" s="2">
+        <v>3</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" s="1">
+        <v>2</v>
+      </c>
+      <c r="I265" s="1">
+        <v>4</v>
+      </c>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2"/>
+      <c r="N265" s="2"/>
+      <c r="P265" s="2">
+        <f t="shared" si="413"/>
+        <v>1</v>
+      </c>
+      <c r="Q265" s="2">
+        <f t="shared" si="414"/>
+        <v>1</v>
+      </c>
+      <c r="R265" s="2">
+        <f t="shared" si="415"/>
+        <v>0</v>
+      </c>
+      <c r="S265" s="2">
+        <f t="shared" si="416"/>
+        <v>0</v>
+      </c>
+      <c r="T265" s="2"/>
+      <c r="U265" s="2"/>
+      <c r="V265" s="2"/>
+      <c r="W265" s="12"/>
+      <c r="X265" s="12"/>
+      <c r="Y265" s="12"/>
+    </row>
+    <row r="266" spans="1:25">
+      <c r="A266" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E266" s="2">
+        <f t="shared" si="321"/>
+        <v>87</v>
+      </c>
+      <c r="F266" s="2">
+        <v>1</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0</v>
+      </c>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+      <c r="P266" s="2">
+        <f t="shared" ref="P266:P268" si="423">COUNTA(H266)</f>
+        <v>1</v>
+      </c>
+      <c r="Q266" s="2">
+        <f t="shared" ref="Q266:Q268" si="424">COUNTA(I266)</f>
+        <v>1</v>
+      </c>
+      <c r="R266" s="2">
+        <f t="shared" ref="R266:R268" si="425">COUNTA(J266)</f>
+        <v>0</v>
+      </c>
+      <c r="S266" s="2">
+        <f t="shared" ref="S266:S268" si="426">COUNTA(K266)</f>
+        <v>0</v>
+      </c>
+      <c r="T266" s="2">
+        <f t="shared" ref="T266:T267" si="427">COUNTA(L266)</f>
+        <v>0</v>
+      </c>
+      <c r="U266" s="2">
+        <f t="shared" ref="U266:U267" si="428">COUNTA(M266)</f>
+        <v>0</v>
+      </c>
+      <c r="V266" s="2">
+        <f t="shared" ref="V266:V267" si="429">COUNTA(N266)</f>
+        <v>0</v>
+      </c>
+      <c r="W266" s="12" t="str">
+        <f t="shared" ref="W266" si="430">IF(SUM(H266:H268)&gt;SUM(I266:I268), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X266" s="12">
+        <f t="shared" ref="X266" si="431">ABS(SUM(H266:H268)-SUM(I266:I268))</f>
+        <v>1</v>
+      </c>
+      <c r="Y266" s="12">
+        <f t="shared" ref="Y266" si="432">SUM(H266:H268, I266:I268)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25">
+      <c r="A267" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" si="321"/>
+        <v>87</v>
+      </c>
+      <c r="F267" s="2">
+        <v>2</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H267" s="1">
+        <v>3</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
+      <c r="P267" s="2">
+        <f t="shared" si="423"/>
+        <v>1</v>
+      </c>
+      <c r="Q267" s="2">
+        <f t="shared" si="424"/>
+        <v>1</v>
+      </c>
+      <c r="R267" s="2">
+        <f t="shared" si="425"/>
+        <v>0</v>
+      </c>
+      <c r="S267" s="2">
+        <f t="shared" si="426"/>
+        <v>0</v>
+      </c>
+      <c r="T267" s="2">
+        <f t="shared" si="427"/>
+        <v>0</v>
+      </c>
+      <c r="U267" s="2">
+        <f t="shared" si="428"/>
+        <v>0</v>
+      </c>
+      <c r="V267" s="2">
+        <f t="shared" si="429"/>
+        <v>0</v>
+      </c>
+      <c r="W267" s="12"/>
+      <c r="X267" s="12"/>
+      <c r="Y267" s="12"/>
+    </row>
+    <row r="268" spans="1:25">
+      <c r="A268" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="4">
+        <v>45778</v>
+      </c>
+      <c r="E268" s="2">
+        <f t="shared" si="321"/>
+        <v>87</v>
+      </c>
+      <c r="F268" s="2">
+        <v>3</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H268" s="1">
+        <v>1</v>
+      </c>
+      <c r="I268" s="1">
+        <v>3</v>
+      </c>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2"/>
+      <c r="N268" s="2"/>
+      <c r="P268" s="2">
+        <f t="shared" si="423"/>
+        <v>1</v>
+      </c>
+      <c r="Q268" s="2">
+        <f t="shared" si="424"/>
+        <v>1</v>
+      </c>
+      <c r="R268" s="2">
+        <f t="shared" si="425"/>
+        <v>0</v>
+      </c>
+      <c r="S268" s="2">
+        <f t="shared" si="426"/>
+        <v>0</v>
+      </c>
+      <c r="T268" s="2"/>
+      <c r="U268" s="2"/>
+      <c r="V268" s="2"/>
+      <c r="W268" s="12"/>
+      <c r="X268" s="12"/>
+      <c r="Y268" s="12"/>
+    </row>
+    <row r="269" spans="1:25">
+      <c r="W269" s="6"/>
+      <c r="X269" s="6"/>
+      <c r="Y269" s="6"/>
+    </row>
+    <row r="272" spans="1:25">
+      <c r="A272" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B262" s="12"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="12"/>
-      <c r="F262" s="12"/>
-      <c r="G262" s="1">
-        <v>1</v>
-      </c>
-      <c r="H262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, H$2:H259)/SUMIF($F$2:$F259, $G262, P$2:P259)</f>
-        <v>2.6219512195121952</v>
-      </c>
-      <c r="I262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, I$2:I259)/SUMIF($F$2:$F259, $G262, Q$2:Q259)</f>
-        <v>1.1084337349397591</v>
-      </c>
-      <c r="J262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, J$2:J259)/SUMIF($F$2:$F259, $G262, R$2:R259)</f>
-        <v>1</v>
-      </c>
-      <c r="K262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, K$2:K259)/SUMIF($F$2:$F259, $G262, S$2:S259)</f>
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
+      <c r="G272" s="1">
+        <v>1</v>
+      </c>
+      <c r="H272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, H$2:H269)/SUMIF($F$2:$F269, $G272, P$2:P269)</f>
+        <v>2.5764705882352943</v>
+      </c>
+      <c r="I272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, I$2:I269)/SUMIF($F$2:$F269, $G272, Q$2:Q269)</f>
+        <v>1.069767441860465</v>
+      </c>
+      <c r="J272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, J$2:J269)/SUMIF($F$2:$F269, $G272, R$2:R269)</f>
+        <v>1</v>
+      </c>
+      <c r="K272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, K$2:K269)/SUMIF($F$2:$F269, $G272, S$2:S269)</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="L262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, L$2:L259)/SUMIF($F$2:$F259, $G262, T$2:T259)</f>
-        <v>0</v>
-      </c>
-      <c r="M262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, M$2:M259)/SUMIF($F$2:$F259, $G262, U$2:U259)</f>
-        <v>0</v>
-      </c>
-      <c r="N262" s="5">
-        <f>SUMIF($F$2:$F259, $G262, N$2:N259)/SUMIF($F$2:$F259, $G262, V$2:V259)</f>
-        <v>1</v>
-      </c>
-      <c r="P262" s="5"/>
-      <c r="Q262" s="5"/>
-      <c r="R262" s="5"/>
-      <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
-      <c r="U262" s="5"/>
-      <c r="V262" s="5"/>
-      <c r="X262" s="1" t="s">
+      <c r="L272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, L$2:L269)/SUMIF($F$2:$F269, $G272, T$2:T269)</f>
+        <v>0</v>
+      </c>
+      <c r="M272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, M$2:M269)/SUMIF($F$2:$F269, $G272, U$2:U269)</f>
+        <v>0</v>
+      </c>
+      <c r="N272" s="5">
+        <f>SUMIF($F$2:$F269, $G272, N$2:N269)/SUMIF($F$2:$F269, $G272, V$2:V269)</f>
+        <v>1</v>
+      </c>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5"/>
+      <c r="V272" s="5"/>
+      <c r="X272" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y262" s="1" t="s">
+      <c r="Y272" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="263" spans="1:35">
-      <c r="A263" s="12"/>
-      <c r="B263" s="12"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
-      <c r="E263" s="12"/>
-      <c r="F263" s="12"/>
-      <c r="G263" s="1">
+    <row r="273" spans="1:35">
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
+      <c r="F273" s="12"/>
+      <c r="G273" s="1">
         <v>2</v>
       </c>
-      <c r="H263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, H$2:H260)/SUMIF($F$2:$F260, $G263, P$2:P260)</f>
-        <v>2.6829268292682928</v>
-      </c>
-      <c r="I263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, I$2:I260)/SUMIF($F$2:$F260, $G263, Q$2:Q260)</f>
-        <v>1.3614457831325302</v>
-      </c>
-      <c r="J263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, J$2:J260)/SUMIF($F$2:$F260, $G263, R$2:R260)</f>
+      <c r="H273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, H$2:H270)/SUMIF($F$2:$F270, $G273, P$2:P270)</f>
+        <v>2.6588235294117646</v>
+      </c>
+      <c r="I273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, I$2:I270)/SUMIF($F$2:$F270, $G273, Q$2:Q270)</f>
+        <v>1.3372093023255813</v>
+      </c>
+      <c r="J273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, J$2:J270)/SUMIF($F$2:$F270, $G273, R$2:R270)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, K$2:K260)/SUMIF($F$2:$F260, $G263, S$2:S260)</f>
+      <c r="K273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, K$2:K270)/SUMIF($F$2:$F270, $G273, S$2:S270)</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="L263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, L$2:L260)/SUMIF($F$2:$F260, $G263, T$2:T260)</f>
-        <v>0</v>
-      </c>
-      <c r="M263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, M$2:M260)/SUMIF($F$2:$F260, $G263, U$2:U260)</f>
+      <c r="L273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, L$2:L270)/SUMIF($F$2:$F270, $G273, T$2:T270)</f>
+        <v>0</v>
+      </c>
+      <c r="M273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, M$2:M270)/SUMIF($F$2:$F270, $G273, U$2:U270)</f>
         <v>1.5</v>
       </c>
-      <c r="N263" s="5">
-        <f>SUMIF($F$2:$F260, $G263, N$2:N260)/SUMIF($F$2:$F260, $G263, V$2:V260)</f>
-        <v>1</v>
-      </c>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5"/>
-      <c r="V263" s="5"/>
-      <c r="W263" s="1" t="s">
+      <c r="N273" s="5">
+        <f>SUMIF($F$2:$F270, $G273, N$2:N270)/SUMIF($F$2:$F270, $G273, V$2:V270)</f>
+        <v>1</v>
+      </c>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="5"/>
+      <c r="V273" s="5"/>
+      <c r="W273" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X263" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W259,W263)</f>
-        <v>65</v>
-      </c>
-      <c r="Y263" s="7">
-        <f>X263/SUM(X263:X264)</f>
-        <v>0.80246913580246915</v>
-      </c>
-    </row>
-    <row r="264" spans="1:35">
-      <c r="A264" s="12"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="12"/>
-      <c r="F264" s="12"/>
-      <c r="G264" s="1">
+      <c r="X273" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W269,W273)</f>
+        <v>68</v>
+      </c>
+      <c r="Y273" s="7">
+        <f>X273/SUM(X273:X274)</f>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="274" spans="1:35">
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="1">
         <v>3</v>
       </c>
-      <c r="H264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, H$2:H261)/SUMIF($F$2:$F261, $G264, P$2:P261)</f>
-        <v>2.5121951219512195</v>
-      </c>
-      <c r="I264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, I$2:I261)/SUMIF($F$2:$F261, $G264, Q$2:Q261)</f>
-        <v>1.3734939759036144</v>
-      </c>
-      <c r="J264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, J$2:J261)/SUMIF($F$2:$F261, $G264, R$2:R261)</f>
+      <c r="H274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, H$2:H271)/SUMIF($F$2:$F271, $G274, P$2:P271)</f>
+        <v>2.5058823529411764</v>
+      </c>
+      <c r="I274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, I$2:I271)/SUMIF($F$2:$F271, $G274, Q$2:Q271)</f>
+        <v>1.441860465116279</v>
+      </c>
+      <c r="J274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, J$2:J271)/SUMIF($F$2:$F271, $G274, R$2:R271)</f>
         <v>1.3846153846153846</v>
       </c>
-      <c r="K264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, K$2:K261)/SUMIF($F$2:$F261, $G264, S$2:S261)</f>
+      <c r="K274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, K$2:K271)/SUMIF($F$2:$F271, $G274, S$2:S271)</f>
         <v>0.875</v>
       </c>
-      <c r="L264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, L$2:L261)/SUMIF($F$2:$F261, $G264, T$2:T261)</f>
-        <v>1</v>
-      </c>
-      <c r="M264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, M$2:M261)/SUMIF($F$2:$F261, $G264, U$2:U261)</f>
+      <c r="L274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, L$2:L271)/SUMIF($F$2:$F271, $G274, T$2:T271)</f>
+        <v>1</v>
+      </c>
+      <c r="M274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, M$2:M271)/SUMIF($F$2:$F271, $G274, U$2:U271)</f>
         <v>0.5</v>
       </c>
-      <c r="N264" s="5">
-        <f>SUMIF($F$2:$F261, $G264, N$2:N261)/SUMIF($F$2:$F261, $G264, V$2:V261)</f>
-        <v>0</v>
-      </c>
-      <c r="P264" s="5"/>
-      <c r="Q264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5"/>
-      <c r="V264" s="5"/>
-      <c r="W264" s="1" t="s">
+      <c r="N274" s="5">
+        <f>SUMIF($F$2:$F271, $G274, N$2:N271)/SUMIF($F$2:$F271, $G274, V$2:V271)</f>
+        <v>0</v>
+      </c>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="5"/>
+      <c r="V274" s="5"/>
+      <c r="W274" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X264" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W260,W264)</f>
+      <c r="X274" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W270,W274)</f>
         <v>16</v>
       </c>
-      <c r="Y264" s="7">
-        <f>X264/SUM(X263:X264)</f>
-        <v>0.19753086419753085</v>
-      </c>
-    </row>
-    <row r="265" spans="1:35">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
-      <c r="E265" s="12"/>
-      <c r="F265" s="12"/>
-      <c r="G265" s="1" t="s">
+      <c r="Y274" s="7">
+        <f>X274/SUM(X273:X274)</f>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="275" spans="1:35">
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H265" s="5">
-        <f>IF(SUMIF($F$2:$F262, $G265, P$2:P262) = 0, "", SUMIF($F$2:$F262, $G265, H$2:H262)/SUMIF($F$2:$F262, $G265, P$2:P262))</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="I265" s="5">
-        <f>IF(SUMIF($F$2:$F262, $G265, Q$2:Q262) = 0, "", SUMIF($F$2:$F262, $G265, I$2:I262)/SUMIF($F$2:$F262, $G265, Q$2:Q262))</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J265" s="5">
-        <f>IF(SUMIF($F$2:$F262, $G265, R$2:R262) = 0, "", SUMIF($F$2:$F262, $G265, J$2:J262)/SUMIF($F$2:$F262, $G265, R$2:R262))</f>
+      <c r="H275" s="5">
+        <f>IF(SUMIF($F$2:$F272, $G275, P$2:P272) = 0, "", SUMIF($F$2:$F272, $G275, H$2:H272)/SUMIF($F$2:$F272, $G275, P$2:P272))</f>
+        <v>3.25</v>
+      </c>
+      <c r="I275" s="5">
+        <f>IF(SUMIF($F$2:$F272, $G275, Q$2:Q272) = 0, "", SUMIF($F$2:$F272, $G275, I$2:I272)/SUMIF($F$2:$F272, $G275, Q$2:Q272))</f>
         <v>2</v>
       </c>
-      <c r="K265" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F262, $G265, S$2:S262) = 0, "", SUMIF($F$2:$F262, $G265, K$2:K262)/SUMIF($F$2:$F262, $G265, S$2:S262))</f>
+      <c r="J275" s="5">
+        <f>IF(SUMIF($F$2:$F272, $G275, R$2:R272) = 0, "", SUMIF($F$2:$F272, $G275, J$2:J272)/SUMIF($F$2:$F272, $G275, R$2:R272))</f>
+        <v>2</v>
+      </c>
+      <c r="K275" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F272, $G275, S$2:S272) = 0, "", SUMIF($F$2:$F272, $G275, K$2:K272)/SUMIF($F$2:$F272, $G275, S$2:S272))</f>
         <v/>
       </c>
-      <c r="L265" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F262, $G265, T$2:T262) = 0, "", SUMIF($F$2:$F262, $G265, L$2:L262)/SUMIF($F$2:$F262, $G265, T$2:T262))</f>
+      <c r="L275" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F272, $G275, T$2:T272) = 0, "", SUMIF($F$2:$F272, $G275, L$2:L272)/SUMIF($F$2:$F272, $G275, T$2:T272))</f>
         <v/>
       </c>
-      <c r="M265" s="5">
-        <f>IF(SUMIF($F$2:$F262, $G265, U$2:U262) = 0, "", SUMIF($F$2:$F262, $G265, M$2:M262)/SUMIF($F$2:$F262, $G265, U$2:U262))</f>
-        <v>0</v>
-      </c>
-      <c r="N265" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F262, $G265, V$2:V262) = 0, "", SUMIF($F$2:$F262, $G265, N$2:N262)/SUMIF($F$2:$F262, $G265, V$2:V262))</f>
+      <c r="M275" s="5">
+        <f>IF(SUMIF($F$2:$F272, $G275, U$2:U272) = 0, "", SUMIF($F$2:$F272, $G275, M$2:M272)/SUMIF($F$2:$F272, $G275, U$2:U272))</f>
+        <v>0</v>
+      </c>
+      <c r="N275" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F272, $G275, V$2:V272) = 0, "", SUMIF($F$2:$F272, $G275, N$2:N272)/SUMIF($F$2:$F272, $G275, V$2:V272))</f>
         <v/>
       </c>
-      <c r="P265" s="5"/>
-      <c r="Q265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5"/>
-      <c r="V265" s="5"/>
-    </row>
-    <row r="266" spans="1:35">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
-      <c r="F266" s="12"/>
-      <c r="G266" s="1" t="s">
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5"/>
+      <c r="V275" s="5"/>
+    </row>
+    <row r="276" spans="1:35">
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+      <c r="G276" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H266" s="5">
-        <f>AVERAGE(H$2:H259)*3</f>
-        <v>7.8192771084337345</v>
-      </c>
-      <c r="I266" s="5">
-        <f>AVERAGE(I$2:I259)*3</f>
-        <v>3.8809523809523814</v>
-      </c>
-      <c r="J266" s="5">
-        <f>AVERAGE(J$2:J259)*3</f>
+      <c r="H276" s="5">
+        <f>AVERAGE(H$2:H269)*3</f>
+        <v>7.7722007722007724</v>
+      </c>
+      <c r="I276" s="5">
+        <f>AVERAGE(I$2:I269)*3</f>
+        <v>3.8816793893129771</v>
+      </c>
+      <c r="J276" s="5">
+        <f>AVERAGE(J$2:J269)*3</f>
         <v>3.1914893617021276</v>
       </c>
-      <c r="K266" s="5">
-        <f>AVERAGE(K$2:K259)*3</f>
+      <c r="K276" s="5">
+        <f>AVERAGE(K$2:K269)*3</f>
         <v>3</v>
       </c>
-      <c r="L266" s="5">
-        <f>AVERAGE(L$2:L259)*3</f>
-        <v>1</v>
-      </c>
-      <c r="M266" s="5">
-        <f>AVERAGE(M$2:M259)*3</f>
+      <c r="L276" s="5">
+        <f>AVERAGE(L$2:L269)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M276" s="5">
+        <f>AVERAGE(M$2:M269)*3</f>
         <v>1.5</v>
       </c>
-      <c r="N266" s="5">
-        <f>AVERAGE(N$2:N259)*3</f>
+      <c r="N276" s="5">
+        <f>AVERAGE(N$2:N269)*3</f>
         <v>2</v>
       </c>
-      <c r="P266" s="5"/>
-      <c r="Q266" s="5"/>
-      <c r="R266" s="5"/>
-      <c r="S266" s="5"/>
-      <c r="T266" s="5"/>
-      <c r="U266" s="5"/>
-      <c r="V266" s="5"/>
-    </row>
-    <row r="269" spans="1:35">
-      <c r="G269" s="8" t="s">
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5"/>
+      <c r="V276" s="5"/>
+    </row>
+    <row r="279" spans="1:35">
+      <c r="G279" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H269" t="s">
+      <c r="H279" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:35">
-      <c r="G270" s="8" t="s">
+    <row r="280" spans="1:35">
+      <c r="G280" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H270" t="s">
+      <c r="H280" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:35">
-      <c r="G271" s="8" t="s">
+    <row r="281" spans="1:35">
+      <c r="G281" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H271" t="s">
+      <c r="H281" t="s">
         <v>16</v>
       </c>
-      <c r="O271"/>
-      <c r="P271"/>
-      <c r="Q271"/>
-      <c r="R271"/>
-      <c r="S271"/>
-      <c r="T271"/>
-      <c r="U271"/>
-      <c r="V271"/>
-      <c r="W271"/>
-      <c r="X271"/>
-      <c r="Y271"/>
-      <c r="Z271"/>
-      <c r="AA271"/>
-      <c r="AB271"/>
-      <c r="AC271"/>
-      <c r="AD271"/>
-      <c r="AE271"/>
-      <c r="AF271"/>
-      <c r="AG271"/>
-      <c r="AH271"/>
-      <c r="AI271"/>
-    </row>
-    <row r="272" spans="1:35">
-      <c r="O272"/>
-      <c r="P272"/>
-      <c r="Q272"/>
-      <c r="R272"/>
-      <c r="S272"/>
-      <c r="T272"/>
-      <c r="U272"/>
-      <c r="V272"/>
-      <c r="W272"/>
-      <c r="X272"/>
-      <c r="Y272"/>
-      <c r="Z272"/>
-      <c r="AA272"/>
-      <c r="AB272"/>
-      <c r="AC272"/>
-      <c r="AD272"/>
-      <c r="AE272"/>
-      <c r="AF272"/>
-      <c r="AG272"/>
-      <c r="AH272"/>
-      <c r="AI272"/>
-    </row>
-    <row r="273" spans="1:35">
-      <c r="G273" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H273" t="s">
-        <v>63</v>
-      </c>
-      <c r="I273" t="s">
-        <v>64</v>
-      </c>
-      <c r="J273" t="s">
-        <v>65</v>
-      </c>
-      <c r="K273" t="s">
-        <v>66</v>
-      </c>
-      <c r="L273" t="s">
-        <v>67</v>
-      </c>
-      <c r="M273" t="s">
-        <v>68</v>
-      </c>
-      <c r="N273" t="s">
-        <v>69</v>
-      </c>
-      <c r="O273"/>
-      <c r="P273"/>
-      <c r="Q273"/>
-      <c r="R273"/>
-      <c r="S273"/>
-      <c r="T273"/>
-      <c r="U273"/>
-      <c r="V273"/>
-      <c r="W273"/>
-      <c r="X273"/>
-      <c r="Y273"/>
-      <c r="Z273"/>
-      <c r="AA273"/>
-      <c r="AB273"/>
-      <c r="AC273"/>
-      <c r="AD273"/>
-      <c r="AE273"/>
-      <c r="AF273"/>
-      <c r="AG273"/>
-      <c r="AH273"/>
-      <c r="AI273"/>
-    </row>
-    <row r="274" spans="1:35">
-      <c r="G274" s="9">
-        <v>1</v>
-      </c>
-      <c r="H274" s="10">
-        <v>2.7045454545454546</v>
-      </c>
-      <c r="I274" s="10">
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="J274" s="10">
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="K274" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="L274" s="10"/>
-      <c r="M274">
-        <v>0</v>
-      </c>
-      <c r="N274" s="10">
-        <v>1</v>
-      </c>
-      <c r="O274"/>
-      <c r="P274"/>
-      <c r="Q274"/>
-      <c r="R274"/>
-      <c r="S274"/>
-      <c r="T274"/>
-      <c r="U274"/>
-      <c r="V274"/>
-      <c r="W274"/>
-      <c r="X274"/>
-      <c r="Y274"/>
-      <c r="Z274"/>
-      <c r="AA274"/>
-      <c r="AB274"/>
-      <c r="AC274"/>
-      <c r="AD274"/>
-      <c r="AE274"/>
-      <c r="AF274"/>
-      <c r="AG274"/>
-      <c r="AH274"/>
-      <c r="AI274"/>
-    </row>
-    <row r="275" spans="1:35">
-      <c r="G275" s="9">
-        <v>2</v>
-      </c>
-      <c r="H275" s="10">
-        <v>2.7954545454545454</v>
-      </c>
-      <c r="I275" s="10">
-        <v>1.4666666666666666</v>
-      </c>
-      <c r="J275" s="10">
-        <v>1</v>
-      </c>
-      <c r="K275" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="L275" s="10"/>
-      <c r="M275">
-        <v>0</v>
-      </c>
-      <c r="N275" s="10">
-        <v>1</v>
-      </c>
-      <c r="O275"/>
-      <c r="P275"/>
-      <c r="Q275"/>
-      <c r="R275"/>
-      <c r="S275"/>
-      <c r="T275"/>
-      <c r="U275"/>
-      <c r="V275"/>
-      <c r="W275"/>
-      <c r="X275"/>
-      <c r="Y275"/>
-      <c r="Z275"/>
-      <c r="AA275"/>
-      <c r="AB275"/>
-      <c r="AC275"/>
-      <c r="AD275"/>
-      <c r="AE275"/>
-    </row>
-    <row r="276" spans="1:35">
-      <c r="G276" s="9">
-        <v>3</v>
-      </c>
-      <c r="H276" s="10">
-        <v>2.75</v>
-      </c>
-      <c r="I276" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J276" s="10">
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="K276" s="10">
-        <v>1</v>
-      </c>
-      <c r="L276" s="10"/>
-      <c r="M276">
-        <v>0</v>
-      </c>
-      <c r="N276" s="10">
-        <v>0</v>
-      </c>
-      <c r="O276"/>
-      <c r="P276"/>
-      <c r="Q276"/>
-      <c r="R276"/>
-      <c r="S276"/>
-      <c r="T276"/>
-      <c r="U276"/>
-      <c r="V276"/>
-      <c r="W276"/>
-      <c r="X276"/>
-      <c r="Y276"/>
-      <c r="Z276"/>
-      <c r="AA276"/>
-      <c r="AB276"/>
-      <c r="AC276"/>
-      <c r="AD276"/>
-      <c r="AE276"/>
-    </row>
-    <row r="277" spans="1:35">
-      <c r="A277"/>
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H277" s="10">
-        <v>3</v>
-      </c>
-      <c r="I277" s="10">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J277" s="10">
-        <v>2</v>
-      </c>
-      <c r="K277" s="10"/>
-      <c r="L277" s="10"/>
-      <c r="M277"/>
-      <c r="N277" s="10"/>
-      <c r="O277"/>
-      <c r="P277"/>
-      <c r="Q277"/>
-      <c r="R277"/>
-      <c r="S277"/>
-      <c r="T277"/>
-      <c r="U277"/>
-      <c r="V277"/>
-      <c r="W277"/>
-      <c r="X277"/>
-      <c r="Y277"/>
-      <c r="Z277"/>
-      <c r="AA277"/>
-      <c r="AB277"/>
-      <c r="AC277"/>
-      <c r="AD277"/>
-      <c r="AE277"/>
-    </row>
-    <row r="278" spans="1:35">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H278" s="10">
-        <v>2.7518796992481205</v>
-      </c>
-      <c r="I278" s="10">
-        <v>1.3868613138686132</v>
-      </c>
-      <c r="J278" s="10">
-        <v>1.3913043478260869</v>
-      </c>
-      <c r="K278" s="10">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="L278" s="10"/>
-      <c r="M278">
-        <v>0</v>
-      </c>
-      <c r="N278" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O278"/>
-      <c r="P278"/>
-      <c r="Q278"/>
-      <c r="R278"/>
-      <c r="S278"/>
-      <c r="T278"/>
-      <c r="U278"/>
-      <c r="V278"/>
-      <c r="W278"/>
-      <c r="X278"/>
-      <c r="Y278"/>
-      <c r="Z278"/>
-      <c r="AA278"/>
-      <c r="AB278"/>
-      <c r="AC278"/>
-      <c r="AD278"/>
-      <c r="AE278"/>
-    </row>
-    <row r="279" spans="1:35">
-      <c r="A279"/>
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
-      <c r="K279"/>
-      <c r="L279"/>
-      <c r="M279"/>
-      <c r="N279"/>
-      <c r="O279"/>
-      <c r="P279"/>
-      <c r="Q279"/>
-      <c r="R279"/>
-      <c r="S279"/>
-      <c r="T279"/>
-      <c r="U279"/>
-      <c r="V279"/>
-      <c r="W279"/>
-      <c r="X279"/>
-      <c r="Y279"/>
-      <c r="Z279"/>
-      <c r="AA279"/>
-      <c r="AB279"/>
-      <c r="AC279"/>
-      <c r="AD279"/>
-      <c r="AE279"/>
-    </row>
-    <row r="280" spans="1:35">
-      <c r="A280"/>
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-      <c r="H280"/>
-      <c r="I280"/>
-      <c r="J280"/>
-      <c r="K280"/>
-      <c r="L280"/>
-      <c r="M280"/>
-      <c r="N280"/>
-      <c r="O280"/>
-      <c r="P280"/>
-      <c r="Q280"/>
-      <c r="R280"/>
-      <c r="S280"/>
-      <c r="T280"/>
-      <c r="U280"/>
-      <c r="V280"/>
-      <c r="W280"/>
-      <c r="X280"/>
-      <c r="Y280"/>
-      <c r="Z280"/>
-      <c r="AA280"/>
-      <c r="AB280"/>
-      <c r="AC280"/>
-      <c r="AD280"/>
-      <c r="AE280"/>
-    </row>
-    <row r="281" spans="1:35">
-      <c r="A281"/>
-      <c r="B281"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="H281"/>
-      <c r="I281"/>
-      <c r="J281"/>
-      <c r="K281"/>
-      <c r="L281"/>
-      <c r="M281"/>
-      <c r="N281"/>
       <c r="O281"/>
       <c r="P281"/>
       <c r="Q281"/>
@@ -24029,22 +24882,12 @@
       <c r="AC281"/>
       <c r="AD281"/>
       <c r="AE281"/>
+      <c r="AF281"/>
+      <c r="AG281"/>
+      <c r="AH281"/>
+      <c r="AI281"/>
     </row>
     <row r="282" spans="1:35">
-      <c r="A282"/>
-      <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
-      <c r="G282"/>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
-      <c r="K282"/>
-      <c r="L282"/>
-      <c r="M282"/>
-      <c r="N282"/>
       <c r="O282"/>
       <c r="P282"/>
       <c r="Q282"/>
@@ -24062,22 +24905,36 @@
       <c r="AC282"/>
       <c r="AD282"/>
       <c r="AE282"/>
+      <c r="AF282"/>
+      <c r="AG282"/>
+      <c r="AH282"/>
+      <c r="AI282"/>
     </row>
     <row r="283" spans="1:35">
-      <c r="A283"/>
-      <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
-      <c r="H283"/>
-      <c r="I283"/>
-      <c r="J283"/>
-      <c r="K283"/>
-      <c r="L283"/>
-      <c r="M283"/>
-      <c r="N283"/>
+      <c r="G283" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H283" t="s">
+        <v>63</v>
+      </c>
+      <c r="I283" t="s">
+        <v>64</v>
+      </c>
+      <c r="J283" t="s">
+        <v>65</v>
+      </c>
+      <c r="K283" t="s">
+        <v>66</v>
+      </c>
+      <c r="L283" t="s">
+        <v>67</v>
+      </c>
+      <c r="M283" t="s">
+        <v>68</v>
+      </c>
+      <c r="N283" t="s">
+        <v>69</v>
+      </c>
       <c r="O283"/>
       <c r="P283"/>
       <c r="Q283"/>
@@ -24095,22 +24952,34 @@
       <c r="AC283"/>
       <c r="AD283"/>
       <c r="AE283"/>
+      <c r="AF283"/>
+      <c r="AG283"/>
+      <c r="AH283"/>
+      <c r="AI283"/>
     </row>
     <row r="284" spans="1:35">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284"/>
-      <c r="G284"/>
-      <c r="H284"/>
-      <c r="I284"/>
-      <c r="J284"/>
-      <c r="K284"/>
-      <c r="L284"/>
-      <c r="M284"/>
-      <c r="N284"/>
+      <c r="G284" s="9">
+        <v>1</v>
+      </c>
+      <c r="H284" s="10">
+        <v>2.6888888888888891</v>
+      </c>
+      <c r="I284" s="10">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="J284" s="10">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="K284" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="L284" s="10"/>
+      <c r="M284" s="13">
+        <v>0</v>
+      </c>
+      <c r="N284" s="10">
+        <v>1</v>
+      </c>
       <c r="O284"/>
       <c r="P284"/>
       <c r="Q284"/>
@@ -24128,22 +24997,34 @@
       <c r="AC284"/>
       <c r="AD284"/>
       <c r="AE284"/>
+      <c r="AF284"/>
+      <c r="AG284"/>
+      <c r="AH284"/>
+      <c r="AI284"/>
     </row>
     <row r="285" spans="1:35">
-      <c r="A285"/>
-      <c r="B285"/>
-      <c r="C285"/>
-      <c r="D285"/>
-      <c r="E285"/>
-      <c r="F285"/>
-      <c r="G285"/>
-      <c r="H285"/>
-      <c r="I285"/>
-      <c r="J285"/>
-      <c r="K285"/>
-      <c r="L285"/>
-      <c r="M285"/>
-      <c r="N285"/>
+      <c r="G285" s="9">
+        <v>2</v>
+      </c>
+      <c r="H285" s="10">
+        <v>2.7555555555555555</v>
+      </c>
+      <c r="I285" s="10">
+        <v>1.4347826086956521</v>
+      </c>
+      <c r="J285" s="10">
+        <v>1</v>
+      </c>
+      <c r="K285" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="L285" s="10"/>
+      <c r="M285" s="13">
+        <v>0</v>
+      </c>
+      <c r="N285" s="10">
+        <v>1</v>
+      </c>
       <c r="O285"/>
       <c r="P285"/>
       <c r="Q285"/>
@@ -24156,22 +25037,35 @@
       <c r="X285"/>
       <c r="Y285"/>
       <c r="Z285"/>
+      <c r="AA285"/>
+      <c r="AB285"/>
+      <c r="AC285"/>
+      <c r="AD285"/>
+      <c r="AE285"/>
     </row>
     <row r="286" spans="1:35">
-      <c r="A286"/>
-      <c r="B286"/>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-      <c r="F286"/>
-      <c r="G286"/>
-      <c r="H286"/>
-      <c r="I286"/>
-      <c r="J286"/>
-      <c r="K286"/>
-      <c r="L286"/>
-      <c r="M286"/>
-      <c r="N286"/>
+      <c r="G286" s="9">
+        <v>3</v>
+      </c>
+      <c r="H286" s="10">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="I286" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="J286" s="10">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="K286" s="10">
+        <v>1</v>
+      </c>
+      <c r="L286" s="10"/>
+      <c r="M286" s="13">
+        <v>0</v>
+      </c>
+      <c r="N286" s="10">
+        <v>0</v>
+      </c>
       <c r="O286"/>
       <c r="P286"/>
       <c r="Q286"/>
@@ -24184,6 +25078,11 @@
       <c r="X286"/>
       <c r="Y286"/>
       <c r="Z286"/>
+      <c r="AA286"/>
+      <c r="AB286"/>
+      <c r="AC286"/>
+      <c r="AD286"/>
+      <c r="AE286"/>
     </row>
     <row r="287" spans="1:35">
       <c r="A287"/>
@@ -24192,14 +25091,22 @@
       <c r="D287"/>
       <c r="E287"/>
       <c r="F287"/>
-      <c r="G287"/>
-      <c r="H287"/>
-      <c r="I287"/>
-      <c r="J287"/>
-      <c r="K287"/>
-      <c r="L287"/>
-      <c r="M287"/>
-      <c r="N287"/>
+      <c r="G287" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H287" s="10">
+        <v>3</v>
+      </c>
+      <c r="I287" s="10">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J287" s="10">
+        <v>2</v>
+      </c>
+      <c r="K287" s="10"/>
+      <c r="L287" s="10"/>
+      <c r="M287" s="13"/>
+      <c r="N287" s="10"/>
       <c r="O287"/>
       <c r="P287"/>
       <c r="Q287"/>
@@ -24212,6 +25119,11 @@
       <c r="X287"/>
       <c r="Y287"/>
       <c r="Z287"/>
+      <c r="AA287"/>
+      <c r="AB287"/>
+      <c r="AC287"/>
+      <c r="AD287"/>
+      <c r="AE287"/>
     </row>
     <row r="288" spans="1:35">
       <c r="A288"/>
@@ -24220,14 +25132,28 @@
       <c r="D288"/>
       <c r="E288"/>
       <c r="F288"/>
-      <c r="G288"/>
-      <c r="H288"/>
-      <c r="I288"/>
-      <c r="J288"/>
-      <c r="K288"/>
-      <c r="L288"/>
-      <c r="M288"/>
-      <c r="N288"/>
+      <c r="G288" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H288" s="10">
+        <v>2.7426470588235294</v>
+      </c>
+      <c r="I288" s="10">
+        <v>1.3900709219858156</v>
+      </c>
+      <c r="J288" s="10">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="K288" s="10">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="L288" s="10"/>
+      <c r="M288" s="13">
+        <v>0</v>
+      </c>
+      <c r="N288" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="O288"/>
       <c r="P288"/>
       <c r="Q288"/>
@@ -24240,8 +25166,13 @@
       <c r="X288"/>
       <c r="Y288"/>
       <c r="Z288"/>
-    </row>
-    <row r="289" spans="1:26">
+      <c r="AA288"/>
+      <c r="AB288"/>
+      <c r="AC288"/>
+      <c r="AD288"/>
+      <c r="AE288"/>
+    </row>
+    <row r="289" spans="1:31">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
@@ -24268,8 +25199,13 @@
       <c r="X289"/>
       <c r="Y289"/>
       <c r="Z289"/>
-    </row>
-    <row r="290" spans="1:26">
+      <c r="AA289"/>
+      <c r="AB289"/>
+      <c r="AC289"/>
+      <c r="AD289"/>
+      <c r="AE289"/>
+    </row>
+    <row r="290" spans="1:31">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
@@ -24296,8 +25232,13 @@
       <c r="X290"/>
       <c r="Y290"/>
       <c r="Z290"/>
-    </row>
-    <row r="291" spans="1:26">
+      <c r="AA290"/>
+      <c r="AB290"/>
+      <c r="AC290"/>
+      <c r="AD290"/>
+      <c r="AE290"/>
+    </row>
+    <row r="291" spans="1:31">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
@@ -24324,8 +25265,13 @@
       <c r="X291"/>
       <c r="Y291"/>
       <c r="Z291"/>
-    </row>
-    <row r="292" spans="1:26">
+      <c r="AA291"/>
+      <c r="AB291"/>
+      <c r="AC291"/>
+      <c r="AD291"/>
+      <c r="AE291"/>
+    </row>
+    <row r="292" spans="1:31">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
@@ -24352,8 +25298,13 @@
       <c r="X292"/>
       <c r="Y292"/>
       <c r="Z292"/>
-    </row>
-    <row r="293" spans="1:26">
+      <c r="AA292"/>
+      <c r="AB292"/>
+      <c r="AC292"/>
+      <c r="AD292"/>
+      <c r="AE292"/>
+    </row>
+    <row r="293" spans="1:31">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
@@ -24380,8 +25331,13 @@
       <c r="X293"/>
       <c r="Y293"/>
       <c r="Z293"/>
-    </row>
-    <row r="294" spans="1:26">
+      <c r="AA293"/>
+      <c r="AB293"/>
+      <c r="AC293"/>
+      <c r="AD293"/>
+      <c r="AE293"/>
+    </row>
+    <row r="294" spans="1:31">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -24408,8 +25364,13 @@
       <c r="X294"/>
       <c r="Y294"/>
       <c r="Z294"/>
-    </row>
-    <row r="295" spans="1:26">
+      <c r="AA294"/>
+      <c r="AB294"/>
+      <c r="AC294"/>
+      <c r="AD294"/>
+      <c r="AE294"/>
+    </row>
+    <row r="295" spans="1:31">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
@@ -24437,7 +25398,7 @@
       <c r="Y295"/>
       <c r="Z295"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:31">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
@@ -24465,7 +25426,7 @@
       <c r="Y296"/>
       <c r="Z296"/>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:31">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
@@ -24493,7 +25454,7 @@
       <c r="Y297"/>
       <c r="Z297"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:31">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
@@ -24521,7 +25482,7 @@
       <c r="Y298"/>
       <c r="Z298"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:31">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
@@ -24549,7 +25510,7 @@
       <c r="Y299"/>
       <c r="Z299"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:31">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
@@ -24577,7 +25538,7 @@
       <c r="Y300"/>
       <c r="Z300"/>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:31">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -24605,7 +25566,7 @@
       <c r="Y301"/>
       <c r="Z301"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:31">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
@@ -24633,7 +25594,7 @@
       <c r="Y302"/>
       <c r="Z302"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:31">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
@@ -24661,7 +25622,7 @@
       <c r="Y303"/>
       <c r="Z303"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:31">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -25411,6 +26372,11 @@
       <c r="S330"/>
       <c r="T330"/>
       <c r="U330"/>
+      <c r="V330"/>
+      <c r="W330"/>
+      <c r="X330"/>
+      <c r="Y330"/>
+      <c r="Z330"/>
     </row>
     <row r="331" spans="1:26">
       <c r="A331"/>
@@ -25434,6 +26400,11 @@
       <c r="S331"/>
       <c r="T331"/>
       <c r="U331"/>
+      <c r="V331"/>
+      <c r="W331"/>
+      <c r="X331"/>
+      <c r="Y331"/>
+      <c r="Z331"/>
     </row>
     <row r="332" spans="1:26">
       <c r="A332"/>
@@ -25457,6 +26428,11 @@
       <c r="S332"/>
       <c r="T332"/>
       <c r="U332"/>
+      <c r="V332"/>
+      <c r="W332"/>
+      <c r="X332"/>
+      <c r="Y332"/>
+      <c r="Z332"/>
     </row>
     <row r="333" spans="1:26">
       <c r="A333"/>
@@ -25480,6 +26456,11 @@
       <c r="S333"/>
       <c r="T333"/>
       <c r="U333"/>
+      <c r="V333"/>
+      <c r="W333"/>
+      <c r="X333"/>
+      <c r="Y333"/>
+      <c r="Z333"/>
     </row>
     <row r="334" spans="1:26">
       <c r="A334"/>
@@ -25503,6 +26484,11 @@
       <c r="S334"/>
       <c r="T334"/>
       <c r="U334"/>
+      <c r="V334"/>
+      <c r="W334"/>
+      <c r="X334"/>
+      <c r="Y334"/>
+      <c r="Z334"/>
     </row>
     <row r="335" spans="1:26">
       <c r="A335"/>
@@ -25526,6 +26512,11 @@
       <c r="S335"/>
       <c r="T335"/>
       <c r="U335"/>
+      <c r="V335"/>
+      <c r="W335"/>
+      <c r="X335"/>
+      <c r="Y335"/>
+      <c r="Z335"/>
     </row>
     <row r="336" spans="1:26">
       <c r="A336"/>
@@ -25549,8 +26540,13 @@
       <c r="S336"/>
       <c r="T336"/>
       <c r="U336"/>
-    </row>
-    <row r="337" spans="1:21">
+      <c r="V336"/>
+      <c r="W336"/>
+      <c r="X336"/>
+      <c r="Y336"/>
+      <c r="Z336"/>
+    </row>
+    <row r="337" spans="1:26">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
@@ -25572,8 +26568,13 @@
       <c r="S337"/>
       <c r="T337"/>
       <c r="U337"/>
-    </row>
-    <row r="338" spans="1:21">
+      <c r="V337"/>
+      <c r="W337"/>
+      <c r="X337"/>
+      <c r="Y337"/>
+      <c r="Z337"/>
+    </row>
+    <row r="338" spans="1:26">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
@@ -25595,8 +26596,13 @@
       <c r="S338"/>
       <c r="T338"/>
       <c r="U338"/>
-    </row>
-    <row r="339" spans="1:21">
+      <c r="V338"/>
+      <c r="W338"/>
+      <c r="X338"/>
+      <c r="Y338"/>
+      <c r="Z338"/>
+    </row>
+    <row r="339" spans="1:26">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
@@ -25618,8 +26624,13 @@
       <c r="S339"/>
       <c r="T339"/>
       <c r="U339"/>
-    </row>
-    <row r="340" spans="1:21">
+      <c r="V339"/>
+      <c r="W339"/>
+      <c r="X339"/>
+      <c r="Y339"/>
+      <c r="Z339"/>
+    </row>
+    <row r="340" spans="1:26">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
@@ -25642,7 +26653,7 @@
       <c r="T340"/>
       <c r="U340"/>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:26">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
@@ -25665,7 +26676,7 @@
       <c r="T341"/>
       <c r="U341"/>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:26">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
@@ -25688,7 +26699,7 @@
       <c r="T342"/>
       <c r="U342"/>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:26">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
@@ -25711,7 +26722,7 @@
       <c r="T343"/>
       <c r="U343"/>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:26">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
@@ -25734,7 +26745,7 @@
       <c r="T344"/>
       <c r="U344"/>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:26">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
@@ -25757,7 +26768,7 @@
       <c r="T345"/>
       <c r="U345"/>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:26">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
@@ -25780,7 +26791,7 @@
       <c r="T346"/>
       <c r="U346"/>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:26">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
@@ -25803,7 +26814,7 @@
       <c r="T347"/>
       <c r="U347"/>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:26">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
@@ -25826,7 +26837,7 @@
       <c r="T348"/>
       <c r="U348"/>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:26">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
@@ -25849,7 +26860,7 @@
       <c r="T349"/>
       <c r="U349"/>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:26">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
@@ -25872,7 +26883,7 @@
       <c r="T350"/>
       <c r="U350"/>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:26">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
@@ -25895,7 +26906,7 @@
       <c r="T351"/>
       <c r="U351"/>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:26">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
@@ -27085,6 +28096,11 @@
       <c r="N403"/>
       <c r="O403"/>
       <c r="P403"/>
+      <c r="Q403"/>
+      <c r="R403"/>
+      <c r="S403"/>
+      <c r="T403"/>
+      <c r="U403"/>
     </row>
     <row r="404" spans="1:21">
       <c r="A404"/>
@@ -27103,6 +28119,11 @@
       <c r="N404"/>
       <c r="O404"/>
       <c r="P404"/>
+      <c r="Q404"/>
+      <c r="R404"/>
+      <c r="S404"/>
+      <c r="T404"/>
+      <c r="U404"/>
     </row>
     <row r="405" spans="1:21">
       <c r="A405"/>
@@ -27121,6 +28142,11 @@
       <c r="N405"/>
       <c r="O405"/>
       <c r="P405"/>
+      <c r="Q405"/>
+      <c r="R405"/>
+      <c r="S405"/>
+      <c r="T405"/>
+      <c r="U405"/>
     </row>
     <row r="406" spans="1:21">
       <c r="A406"/>
@@ -27139,6 +28165,11 @@
       <c r="N406"/>
       <c r="O406"/>
       <c r="P406"/>
+      <c r="Q406"/>
+      <c r="R406"/>
+      <c r="S406"/>
+      <c r="T406"/>
+      <c r="U406"/>
     </row>
     <row r="407" spans="1:21">
       <c r="A407"/>
@@ -27157,6 +28188,11 @@
       <c r="N407"/>
       <c r="O407"/>
       <c r="P407"/>
+      <c r="Q407"/>
+      <c r="R407"/>
+      <c r="S407"/>
+      <c r="T407"/>
+      <c r="U407"/>
     </row>
     <row r="408" spans="1:21">
       <c r="A408"/>
@@ -27175,6 +28211,11 @@
       <c r="N408"/>
       <c r="O408"/>
       <c r="P408"/>
+      <c r="Q408"/>
+      <c r="R408"/>
+      <c r="S408"/>
+      <c r="T408"/>
+      <c r="U408"/>
     </row>
     <row r="409" spans="1:21">
       <c r="A409"/>
@@ -27193,6 +28234,11 @@
       <c r="N409"/>
       <c r="O409"/>
       <c r="P409"/>
+      <c r="Q409"/>
+      <c r="R409"/>
+      <c r="S409"/>
+      <c r="T409"/>
+      <c r="U409"/>
     </row>
     <row r="410" spans="1:21">
       <c r="A410"/>
@@ -27211,6 +28257,11 @@
       <c r="N410"/>
       <c r="O410"/>
       <c r="P410"/>
+      <c r="Q410"/>
+      <c r="R410"/>
+      <c r="S410"/>
+      <c r="T410"/>
+      <c r="U410"/>
     </row>
     <row r="411" spans="1:21">
       <c r="A411"/>
@@ -27229,6 +28280,11 @@
       <c r="N411"/>
       <c r="O411"/>
       <c r="P411"/>
+      <c r="Q411"/>
+      <c r="R411"/>
+      <c r="S411"/>
+      <c r="T411"/>
+      <c r="U411"/>
     </row>
     <row r="412" spans="1:21">
       <c r="A412"/>
@@ -27247,6 +28303,11 @@
       <c r="N412"/>
       <c r="O412"/>
       <c r="P412"/>
+      <c r="Q412"/>
+      <c r="R412"/>
+      <c r="S412"/>
+      <c r="T412"/>
+      <c r="U412"/>
     </row>
     <row r="413" spans="1:21">
       <c r="A413"/>
@@ -28898,6 +29959,11 @@
       <c r="I504"/>
       <c r="J504"/>
       <c r="K504"/>
+      <c r="L504"/>
+      <c r="M504"/>
+      <c r="N504"/>
+      <c r="O504"/>
+      <c r="P504"/>
     </row>
     <row r="505" spans="1:16">
       <c r="A505"/>
@@ -28911,6 +29977,11 @@
       <c r="I505"/>
       <c r="J505"/>
       <c r="K505"/>
+      <c r="L505"/>
+      <c r="M505"/>
+      <c r="N505"/>
+      <c r="O505"/>
+      <c r="P505"/>
     </row>
     <row r="506" spans="1:16">
       <c r="A506"/>
@@ -28924,6 +29995,11 @@
       <c r="I506"/>
       <c r="J506"/>
       <c r="K506"/>
+      <c r="L506"/>
+      <c r="M506"/>
+      <c r="N506"/>
+      <c r="O506"/>
+      <c r="P506"/>
     </row>
     <row r="507" spans="1:16">
       <c r="A507"/>
@@ -28937,6 +30013,11 @@
       <c r="I507"/>
       <c r="J507"/>
       <c r="K507"/>
+      <c r="L507"/>
+      <c r="M507"/>
+      <c r="N507"/>
+      <c r="O507"/>
+      <c r="P507"/>
     </row>
     <row r="508" spans="1:16">
       <c r="A508"/>
@@ -28950,6 +30031,11 @@
       <c r="I508"/>
       <c r="J508"/>
       <c r="K508"/>
+      <c r="L508"/>
+      <c r="M508"/>
+      <c r="N508"/>
+      <c r="O508"/>
+      <c r="P508"/>
     </row>
     <row r="509" spans="1:16">
       <c r="A509"/>
@@ -28963,6 +30049,11 @@
       <c r="I509"/>
       <c r="J509"/>
       <c r="K509"/>
+      <c r="L509"/>
+      <c r="M509"/>
+      <c r="N509"/>
+      <c r="O509"/>
+      <c r="P509"/>
     </row>
     <row r="510" spans="1:16">
       <c r="A510"/>
@@ -28976,6 +30067,11 @@
       <c r="I510"/>
       <c r="J510"/>
       <c r="K510"/>
+      <c r="L510"/>
+      <c r="M510"/>
+      <c r="N510"/>
+      <c r="O510"/>
+      <c r="P510"/>
     </row>
     <row r="511" spans="1:16">
       <c r="A511"/>
@@ -28989,6 +30085,11 @@
       <c r="I511"/>
       <c r="J511"/>
       <c r="K511"/>
+      <c r="L511"/>
+      <c r="M511"/>
+      <c r="N511"/>
+      <c r="O511"/>
+      <c r="P511"/>
     </row>
     <row r="512" spans="1:16">
       <c r="A512"/>
@@ -29002,8 +30103,13 @@
       <c r="I512"/>
       <c r="J512"/>
       <c r="K512"/>
-    </row>
-    <row r="513" spans="1:11">
+      <c r="L512"/>
+      <c r="M512"/>
+      <c r="N512"/>
+      <c r="O512"/>
+      <c r="P512"/>
+    </row>
+    <row r="513" spans="1:16">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
@@ -29015,8 +30121,13 @@
       <c r="I513"/>
       <c r="J513"/>
       <c r="K513"/>
-    </row>
-    <row r="514" spans="1:11">
+      <c r="L513"/>
+      <c r="M513"/>
+      <c r="N513"/>
+      <c r="O513"/>
+      <c r="P513"/>
+    </row>
+    <row r="514" spans="1:16">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
@@ -29029,7 +30140,7 @@
       <c r="J514"/>
       <c r="K514"/>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:16">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
@@ -29042,7 +30153,7 @@
       <c r="J515"/>
       <c r="K515"/>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:16">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
@@ -29055,7 +30166,7 @@
       <c r="J516"/>
       <c r="K516"/>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:16">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
@@ -29068,7 +30179,7 @@
       <c r="J517"/>
       <c r="K517"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:16">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
@@ -29081,7 +30192,7 @@
       <c r="J518"/>
       <c r="K518"/>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:16">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
@@ -29094,7 +30205,7 @@
       <c r="J519"/>
       <c r="K519"/>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:16">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
@@ -29107,7 +30218,7 @@
       <c r="J520"/>
       <c r="K520"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:16">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
@@ -29120,7 +30231,7 @@
       <c r="J521"/>
       <c r="K521"/>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:16">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
@@ -29133,7 +30244,7 @@
       <c r="J522"/>
       <c r="K522"/>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:16">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
@@ -29146,7 +30257,7 @@
       <c r="J523"/>
       <c r="K523"/>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:16">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
@@ -29159,7 +30270,7 @@
       <c r="J524"/>
       <c r="K524"/>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:16">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
@@ -29172,7 +30283,7 @@
       <c r="J525"/>
       <c r="K525"/>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:16">
       <c r="A526"/>
       <c r="B526"/>
       <c r="C526"/>
@@ -29185,7 +30296,7 @@
       <c r="J526"/>
       <c r="K526"/>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:16">
       <c r="A527"/>
       <c r="B527"/>
       <c r="C527"/>
@@ -29198,7 +30309,7 @@
       <c r="J527"/>
       <c r="K527"/>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:16">
       <c r="A528"/>
       <c r="B528"/>
       <c r="C528"/>
@@ -30206,6 +31317,11 @@
       <c r="D605"/>
       <c r="E605"/>
       <c r="F605"/>
+      <c r="G605"/>
+      <c r="H605"/>
+      <c r="I605"/>
+      <c r="J605"/>
+      <c r="K605"/>
     </row>
     <row r="606" spans="1:11">
       <c r="A606"/>
@@ -30214,6 +31330,11 @@
       <c r="D606"/>
       <c r="E606"/>
       <c r="F606"/>
+      <c r="G606"/>
+      <c r="H606"/>
+      <c r="I606"/>
+      <c r="J606"/>
+      <c r="K606"/>
     </row>
     <row r="607" spans="1:11">
       <c r="A607"/>
@@ -30222,6 +31343,11 @@
       <c r="D607"/>
       <c r="E607"/>
       <c r="F607"/>
+      <c r="G607"/>
+      <c r="H607"/>
+      <c r="I607"/>
+      <c r="J607"/>
+      <c r="K607"/>
     </row>
     <row r="608" spans="1:11">
       <c r="A608"/>
@@ -30230,56 +31356,91 @@
       <c r="D608"/>
       <c r="E608"/>
       <c r="F608"/>
-    </row>
-    <row r="609" spans="1:6">
+      <c r="G608"/>
+      <c r="H608"/>
+      <c r="I608"/>
+      <c r="J608"/>
+      <c r="K608"/>
+    </row>
+    <row r="609" spans="1:11">
       <c r="A609"/>
       <c r="B609"/>
       <c r="C609"/>
       <c r="D609"/>
       <c r="E609"/>
       <c r="F609"/>
-    </row>
-    <row r="610" spans="1:6">
+      <c r="G609"/>
+      <c r="H609"/>
+      <c r="I609"/>
+      <c r="J609"/>
+      <c r="K609"/>
+    </row>
+    <row r="610" spans="1:11">
       <c r="A610"/>
       <c r="B610"/>
       <c r="C610"/>
       <c r="D610"/>
       <c r="E610"/>
       <c r="F610"/>
-    </row>
-    <row r="611" spans="1:6">
+      <c r="G610"/>
+      <c r="H610"/>
+      <c r="I610"/>
+      <c r="J610"/>
+      <c r="K610"/>
+    </row>
+    <row r="611" spans="1:11">
       <c r="A611"/>
       <c r="B611"/>
       <c r="C611"/>
       <c r="D611"/>
       <c r="E611"/>
       <c r="F611"/>
-    </row>
-    <row r="612" spans="1:6">
+      <c r="G611"/>
+      <c r="H611"/>
+      <c r="I611"/>
+      <c r="J611"/>
+      <c r="K611"/>
+    </row>
+    <row r="612" spans="1:11">
       <c r="A612"/>
       <c r="B612"/>
       <c r="C612"/>
       <c r="D612"/>
       <c r="E612"/>
       <c r="F612"/>
-    </row>
-    <row r="613" spans="1:6">
+      <c r="G612"/>
+      <c r="H612"/>
+      <c r="I612"/>
+      <c r="J612"/>
+      <c r="K612"/>
+    </row>
+    <row r="613" spans="1:11">
       <c r="A613"/>
       <c r="B613"/>
       <c r="C613"/>
       <c r="D613"/>
       <c r="E613"/>
       <c r="F613"/>
-    </row>
-    <row r="614" spans="1:6">
+      <c r="G613"/>
+      <c r="H613"/>
+      <c r="I613"/>
+      <c r="J613"/>
+      <c r="K613"/>
+    </row>
+    <row r="614" spans="1:11">
       <c r="A614"/>
       <c r="B614"/>
       <c r="C614"/>
       <c r="D614"/>
       <c r="E614"/>
       <c r="F614"/>
-    </row>
-    <row r="615" spans="1:6">
+      <c r="G614"/>
+      <c r="H614"/>
+      <c r="I614"/>
+      <c r="J614"/>
+      <c r="K614"/>
+    </row>
+    <row r="615" spans="1:11">
       <c r="A615"/>
       <c r="B615"/>
       <c r="C615"/>
@@ -30287,7 +31448,7 @@
       <c r="E615"/>
       <c r="F615"/>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:11">
       <c r="A616"/>
       <c r="B616"/>
       <c r="C616"/>
@@ -30295,7 +31456,7 @@
       <c r="E616"/>
       <c r="F616"/>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:11">
       <c r="A617"/>
       <c r="B617"/>
       <c r="C617"/>
@@ -30303,7 +31464,7 @@
       <c r="E617"/>
       <c r="F617"/>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:11">
       <c r="A618"/>
       <c r="B618"/>
       <c r="C618"/>
@@ -30311,7 +31472,7 @@
       <c r="E618"/>
       <c r="F618"/>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:11">
       <c r="A619"/>
       <c r="B619"/>
       <c r="C619"/>
@@ -30319,7 +31480,7 @@
       <c r="E619"/>
       <c r="F619"/>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:11">
       <c r="A620"/>
       <c r="B620"/>
       <c r="C620"/>
@@ -30327,7 +31488,7 @@
       <c r="E620"/>
       <c r="F620"/>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:11">
       <c r="A621"/>
       <c r="B621"/>
       <c r="C621"/>
@@ -30335,7 +31496,7 @@
       <c r="E621"/>
       <c r="F621"/>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:11">
       <c r="A622"/>
       <c r="B622"/>
       <c r="C622"/>
@@ -30343,7 +31504,7 @@
       <c r="E622"/>
       <c r="F622"/>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:11">
       <c r="A623"/>
       <c r="B623"/>
       <c r="C623"/>
@@ -30351,7 +31512,7 @@
       <c r="E623"/>
       <c r="F623"/>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:11">
       <c r="A624"/>
       <c r="B624"/>
       <c r="C624"/>
@@ -31927,8 +33088,94 @@
       <c r="E820"/>
       <c r="F820"/>
     </row>
+    <row r="821" spans="1:6">
+      <c r="A821"/>
+      <c r="B821"/>
+      <c r="C821"/>
+      <c r="D821"/>
+      <c r="E821"/>
+      <c r="F821"/>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="A822"/>
+      <c r="B822"/>
+      <c r="C822"/>
+      <c r="D822"/>
+      <c r="E822"/>
+      <c r="F822"/>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823"/>
+      <c r="B823"/>
+      <c r="C823"/>
+      <c r="D823"/>
+      <c r="E823"/>
+      <c r="F823"/>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824"/>
+      <c r="B824"/>
+      <c r="C824"/>
+      <c r="D824"/>
+      <c r="E824"/>
+      <c r="F824"/>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825"/>
+      <c r="B825"/>
+      <c r="C825"/>
+      <c r="D825"/>
+      <c r="E825"/>
+      <c r="F825"/>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826"/>
+      <c r="B826"/>
+      <c r="C826"/>
+      <c r="D826"/>
+      <c r="E826"/>
+      <c r="F826"/>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827"/>
+      <c r="B827"/>
+      <c r="C827"/>
+      <c r="D827"/>
+      <c r="E827"/>
+      <c r="F827"/>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="A828"/>
+      <c r="B828"/>
+      <c r="C828"/>
+      <c r="D828"/>
+      <c r="E828"/>
+      <c r="F828"/>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829"/>
+      <c r="B829"/>
+      <c r="C829"/>
+      <c r="D829"/>
+      <c r="E829"/>
+      <c r="F829"/>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830"/>
+      <c r="B830"/>
+      <c r="C830"/>
+      <c r="D830"/>
+      <c r="E830"/>
+      <c r="F830"/>
+    </row>
   </sheetData>
-  <mergeCells count="253">
+  <mergeCells count="262">
+    <mergeCell ref="W263:W265"/>
+    <mergeCell ref="X263:X265"/>
+    <mergeCell ref="Y263:Y265"/>
+    <mergeCell ref="W266:W268"/>
+    <mergeCell ref="X266:X268"/>
+    <mergeCell ref="Y266:Y268"/>
     <mergeCell ref="W250:W252"/>
     <mergeCell ref="X250:X252"/>
     <mergeCell ref="Y250:Y252"/>
@@ -31938,20 +33185,30 @@
     <mergeCell ref="W256:W258"/>
     <mergeCell ref="X256:X258"/>
     <mergeCell ref="Y256:Y258"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="Y193:Y197"/>
-    <mergeCell ref="W198:W200"/>
-    <mergeCell ref="X198:X200"/>
-    <mergeCell ref="Y198:Y200"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="W213:W215"/>
-    <mergeCell ref="X213:X215"/>
-    <mergeCell ref="Y213:Y215"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
+    <mergeCell ref="W253:W255"/>
+    <mergeCell ref="X253:X255"/>
+    <mergeCell ref="Y253:Y255"/>
+    <mergeCell ref="W247:W249"/>
+    <mergeCell ref="X247:X249"/>
+    <mergeCell ref="Y247:Y249"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="W143:W145"/>
+    <mergeCell ref="X143:X145"/>
+    <mergeCell ref="Y143:Y145"/>
+    <mergeCell ref="W146:W148"/>
+    <mergeCell ref="X146:X148"/>
+    <mergeCell ref="Y146:Y148"/>
+    <mergeCell ref="W149:W151"/>
+    <mergeCell ref="X149:X151"/>
     <mergeCell ref="W241:W243"/>
     <mergeCell ref="X241:X243"/>
     <mergeCell ref="Y241:Y243"/>
@@ -31961,15 +33218,29 @@
     <mergeCell ref="W235:W237"/>
     <mergeCell ref="X235:X237"/>
     <mergeCell ref="Y235:Y237"/>
-    <mergeCell ref="W232:W234"/>
-    <mergeCell ref="X232:X234"/>
-    <mergeCell ref="Y232:Y234"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="Y193:Y197"/>
+    <mergeCell ref="W198:W200"/>
+    <mergeCell ref="X198:X200"/>
+    <mergeCell ref="Y198:Y200"/>
+    <mergeCell ref="W213:W215"/>
+    <mergeCell ref="X213:X215"/>
+    <mergeCell ref="Y213:Y215"/>
     <mergeCell ref="Y116:Y118"/>
     <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
     <mergeCell ref="Y89:Y91"/>
     <mergeCell ref="Y92:Y94"/>
     <mergeCell ref="Y95:Y97"/>
@@ -31988,6 +33259,12 @@
     <mergeCell ref="X113:X115"/>
     <mergeCell ref="W98:W100"/>
     <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
     <mergeCell ref="W74:W76"/>
     <mergeCell ref="X74:X76"/>
     <mergeCell ref="W77:W79"/>
@@ -32025,9 +33302,6 @@
     <mergeCell ref="W53:W55"/>
     <mergeCell ref="X53:X55"/>
     <mergeCell ref="X71:X73"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
     <mergeCell ref="X50:X52"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="Y5:Y7"/>
@@ -32039,8 +33313,11 @@
     <mergeCell ref="Y23:Y25"/>
     <mergeCell ref="Y26:Y28"/>
     <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="W5:W7"/>
     <mergeCell ref="W8:W10"/>
@@ -32062,12 +33339,23 @@
     <mergeCell ref="W20:W22"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
     <mergeCell ref="W56:W58"/>
     <mergeCell ref="X56:X58"/>
     <mergeCell ref="W59:W61"/>
@@ -32078,44 +33366,6 @@
     <mergeCell ref="X65:X67"/>
     <mergeCell ref="W68:W70"/>
     <mergeCell ref="X68:X70"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W143:W145"/>
-    <mergeCell ref="X143:X145"/>
-    <mergeCell ref="Y143:Y145"/>
-    <mergeCell ref="W146:W148"/>
-    <mergeCell ref="X146:X148"/>
-    <mergeCell ref="Y146:Y148"/>
-    <mergeCell ref="W149:W151"/>
-    <mergeCell ref="X149:X151"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
     <mergeCell ref="Y167:Y169"/>
     <mergeCell ref="W161:W163"/>
     <mergeCell ref="X161:X163"/>
@@ -32125,7 +33375,7 @@
     <mergeCell ref="W164:W166"/>
     <mergeCell ref="X164:X166"/>
     <mergeCell ref="Y164:Y166"/>
-    <mergeCell ref="A262:F266"/>
+    <mergeCell ref="A272:F276"/>
     <mergeCell ref="W170:W172"/>
     <mergeCell ref="X170:X172"/>
     <mergeCell ref="Y170:Y172"/>
@@ -32158,9 +33408,9 @@
     <mergeCell ref="W204:W206"/>
     <mergeCell ref="X204:X206"/>
     <mergeCell ref="Y204:Y206"/>
-    <mergeCell ref="W253:W255"/>
-    <mergeCell ref="X253:X255"/>
-    <mergeCell ref="Y253:Y255"/>
+    <mergeCell ref="W259:W262"/>
+    <mergeCell ref="X259:X262"/>
+    <mergeCell ref="Y259:Y262"/>
     <mergeCell ref="W207:W209"/>
     <mergeCell ref="X207:X209"/>
     <mergeCell ref="Y207:Y209"/>
@@ -32179,11 +33429,11 @@
     <mergeCell ref="W222:W224"/>
     <mergeCell ref="X222:X224"/>
     <mergeCell ref="Y222:Y224"/>
-    <mergeCell ref="W247:W249"/>
-    <mergeCell ref="X247:X249"/>
-    <mergeCell ref="Y247:Y249"/>
+    <mergeCell ref="W232:W234"/>
+    <mergeCell ref="X232:X234"/>
+    <mergeCell ref="Y232:Y234"/>
   </mergeCells>
-  <conditionalFormatting sqref="H262:N265">
+  <conditionalFormatting sqref="H272:N275">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -32195,7 +33445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H266:N266">
+  <conditionalFormatting sqref="H276:N276">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -32213,30 +33463,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -32255,10 +33506,13 @@
       <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I1"/>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>71</v>
       </c>
@@ -32275,19 +33529,23 @@
         <v>4</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N259, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N269, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
-      <c r="I2"/>
+      <c r="G2" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A2, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="S2" s="1" t="s">
+      <c r="N2"/>
+      <c r="U2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>71</v>
       </c>
@@ -32304,38 +33562,46 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N260, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N270, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A3, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3"/>
+      <c r="U3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -32352,38 +33618,46 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N261, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N271, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A4, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11">
-        <v>14</v>
-      </c>
-      <c r="K4" s="10">
-        <v>8.4285714285714288</v>
+      <c r="K4" s="11">
+        <v>17</v>
       </c>
       <c r="L4" s="10">
-        <v>4.0714285714285712</v>
+        <v>8.2941176470588243</v>
       </c>
       <c r="M4" s="10">
-        <v>0.9147286821705426</v>
+        <v>4.0588235294117645</v>
       </c>
       <c r="N4" s="10">
-        <v>0.48305084745762711</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="O4" s="10">
-        <v>1.9298245614035088</v>
+        <v>0.48936170212765956</v>
       </c>
       <c r="P4" s="10">
-        <v>0.44186046511627908</v>
-      </c>
-      <c r="S4" s="1" t="s">
+        <v>1.9130434782608696</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0.83018867924528306</v>
+      </c>
+      <c r="S4"/>
+      <c r="U4" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>72</v>
       </c>
@@ -32400,35 +33674,43 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N262, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N272, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A5, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>5</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>4.2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>0.46666666666666667</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.47619047619047616</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>1.4</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5" s="10">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>72</v>
       </c>
@@ -32445,35 +33727,43 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N263, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N273, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A6, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11">
-        <v>13</v>
-      </c>
-      <c r="K6" s="10">
-        <v>5.8461538461538458</v>
+      <c r="K6" s="11">
+        <v>16</v>
       </c>
       <c r="L6" s="10">
-        <v>2.3076923076923075</v>
+        <v>6</v>
       </c>
       <c r="M6" s="10">
-        <v>0.6333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="N6" s="10">
-        <v>0.39473684210526316</v>
+        <v>0.64</v>
       </c>
       <c r="O6" s="10">
-        <v>1.7333333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="P6" s="10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>1.8055555555555556</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>73</v>
       </c>
@@ -32490,35 +33780,43 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N264, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N274, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A7, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="11">
         <v>3</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>3.6666666666666665</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>2.3333333333333335</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>0.40740740740740738</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>0.63636363636363635</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>1.8571428571428572</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7" s="10">
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -32535,35 +33833,43 @@
         <v>4</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N265, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N275, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A8, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="11">
-        <v>35</v>
-      </c>
-      <c r="K8" s="10">
-        <v>6.4571428571428573</v>
+      <c r="K8" s="11">
+        <v>41</v>
       </c>
       <c r="L8" s="10">
-        <v>2.9714285714285715</v>
+        <v>6.5609756097560972</v>
       </c>
       <c r="M8" s="10">
-        <v>0.70404984423676009</v>
+        <v>2.975609756097561</v>
       </c>
       <c r="N8" s="10">
-        <v>0.46017699115044247</v>
+        <v>0.70603674540682415</v>
       </c>
       <c r="O8" s="10">
-        <v>1.8173076923076923</v>
+        <v>0.45353159851301117</v>
       </c>
       <c r="P8" s="10">
-        <v>0.32398753894080995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>1.8360655737704918</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.32020997375328086</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0.5879265091863517</v>
+      </c>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -32580,17 +33886,21 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N266, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I9"/>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N276, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A9, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -32607,17 +33917,21 @@
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N267, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N277, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
-      <c r="I10"/>
+      <c r="G10" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A10, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>74</v>
       </c>
@@ -32634,14 +33948,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N268, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N278, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
-      <c r="I11"/>
+      <c r="G11" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A11, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>75</v>
       </c>
@@ -32658,14 +33976,18 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N269, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N279, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
-      <c r="I12"/>
+      <c r="G12" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A12, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>75</v>
       </c>
@@ -32682,14 +34004,18 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N270, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N280, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
-      <c r="I13"/>
+      <c r="G13" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A13, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>76</v>
       </c>
@@ -32706,14 +34032,18 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N271, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N281, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
-      <c r="I14"/>
+      <c r="G14" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A14, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>76</v>
       </c>
@@ -32730,14 +34060,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N272, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I15"/>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N282, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A15, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J15"/>
       <c r="K15"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>77</v>
       </c>
@@ -32754,14 +34088,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N273, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I16"/>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N283, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A16, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>77</v>
       </c>
@@ -32778,14 +34116,18 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N274, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N284, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
-      <c r="I17"/>
+      <c r="G17" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A17, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>77</v>
       </c>
@@ -32802,14 +34144,18 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N275, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N285, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
-      <c r="I18"/>
+      <c r="G18" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A18, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>78</v>
       </c>
@@ -32826,14 +34172,18 @@
         <v>5</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N276, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N286, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
-      <c r="I19"/>
+      <c r="G19" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A19, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>78</v>
       </c>
@@ -32850,14 +34200,18 @@
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N277, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N287, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
-      <c r="I20"/>
+      <c r="G20" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A20, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>79</v>
       </c>
@@ -32874,14 +34228,18 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N278, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N288, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
-      <c r="I21"/>
+      <c r="G21" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A21, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>79</v>
       </c>
@@ -32898,11 +34256,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N279, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N289, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A22, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>79</v>
       </c>
@@ -32919,11 +34281,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N280, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N290, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A23, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>79</v>
       </c>
@@ -32940,11 +34306,15 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N281, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N291, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="G24" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A24, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>80</v>
       </c>
@@ -32961,11 +34331,15 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N282, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N292, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="G25" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A25, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>80</v>
       </c>
@@ -32982,11 +34356,15 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N283, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N293, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="G26" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A26, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>80</v>
       </c>
@@ -33003,11 +34381,15 @@
         <v>6</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N284, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N294, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="G27" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A27, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>81</v>
       </c>
@@ -33024,11 +34406,15 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N285, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N295, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="G28" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A28, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>81</v>
       </c>
@@ -33045,11 +34431,15 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N286, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N296, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A29, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>82</v>
       </c>
@@ -33066,11 +34456,15 @@
         <v>6</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N287, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N297, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="G30" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A30, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>82</v>
       </c>
@@ -33087,11 +34481,15 @@
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N288, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N298, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="G31" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A31, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>82</v>
       </c>
@@ -33108,11 +34506,15 @@
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N289, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N299, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A32, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>83</v>
       </c>
@@ -33129,11 +34531,15 @@
         <v>6</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N290, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N300, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A33, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>83</v>
       </c>
@@ -33150,11 +34556,15 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N291, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N301, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A34, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>84</v>
       </c>
@@ -33171,11 +34581,15 @@
         <v>5</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N292, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N302, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A35, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>84</v>
       </c>
@@ -33192,8 +34606,162 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIF(Scores!$E$2:$E$259, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N293, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N303, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A36, Scores!$E$2:$E$269, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N304, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A37, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>85</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N305, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
+        <v>6</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A38, Scores!$E$2:$E$269, 0))</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N306, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
+        <v>8</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A39, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N307, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A40, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N308, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A41, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <f>SUMIF(Scores!$E$2:$E$269, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N309, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$269, MATCH('Next Gen'!$A42, Scores!$E$2:$E$269, 0))</f>
+        <v>low</v>
       </c>
     </row>
   </sheetData>
@@ -33201,5 +34769,13 @@
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62302CB7-78DD-014B-AE1F-19F7CCF8549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85789E60-515C-B34C-A954-2BD725ED6368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" activeTab="2" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
@@ -22,9 +22,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -415,25 +415,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -7937,8 +7919,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22CC87E5-B97A-7A41-B8CB-BDC4B3344B48}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
-  <location ref="G295:N300" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22CC87E5-B97A-7A41-B8CB-BDC4B3344B48}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+  <location ref="G298:N303" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -8044,7 +8026,7 @@
     <dataField name="Average of Veronica" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -8069,7 +8051,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8783F34-B1CD-114E-9DED-272AEABD9575}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8783F34-B1CD-114E-9DED-272AEABD9575}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P6:S9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -8177,17 +8159,17 @@
     <dataField name="Success Rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8197,7 +8179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8220,7 +8202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86D6F09D-C345-5D42-B2FE-B0A6AF88C4A5}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86D6F09D-C345-5D42-B2FE-B0A6AF88C4A5}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
   <location ref="J3:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -8312,17 +8294,17 @@
     <dataField name="PPT" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8684,11 +8666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:AI842"/>
+  <dimension ref="A1:AI845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I278" sqref="I278"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J283" sqref="J283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24849,7 +24831,7 @@
         <v>45776</v>
       </c>
       <c r="E232" s="2">
-        <f t="shared" ref="E232:E280" si="321">E229+1</f>
+        <f t="shared" ref="E232:E283" si="321">E229+1</f>
         <v>76</v>
       </c>
       <c r="F232" s="2">
@@ -28017,215 +27999,244 @@
       <c r="Y280" s="12"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="W281" s="6"/>
-      <c r="X281" s="6"/>
-      <c r="Y281" s="6"/>
+      <c r="A281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="4">
+        <v>45783</v>
+      </c>
+      <c r="E281" s="2">
+        <f t="shared" si="321"/>
+        <v>92</v>
+      </c>
+      <c r="F281" s="2">
+        <v>1</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281" s="1">
+        <v>4</v>
+      </c>
+      <c r="I281" s="1">
+        <v>3</v>
+      </c>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+      <c r="M281" s="2"/>
+      <c r="N281" s="2"/>
+      <c r="P281" s="2">
+        <f t="shared" ref="P281:P283" si="469">COUNTA(H281)</f>
+        <v>1</v>
+      </c>
+      <c r="Q281" s="2">
+        <f t="shared" ref="Q281:Q283" si="470">COUNTA(I281)</f>
+        <v>1</v>
+      </c>
+      <c r="R281" s="2">
+        <f t="shared" ref="R281:R283" si="471">COUNTA(J281)</f>
+        <v>0</v>
+      </c>
+      <c r="S281" s="2">
+        <f t="shared" ref="S281:S283" si="472">COUNTA(K281)</f>
+        <v>0</v>
+      </c>
+      <c r="T281" s="2">
+        <f t="shared" ref="T281:T282" si="473">COUNTA(L281)</f>
+        <v>0</v>
+      </c>
+      <c r="U281" s="2">
+        <f t="shared" ref="U281:U282" si="474">COUNTA(M281)</f>
+        <v>0</v>
+      </c>
+      <c r="V281" s="2">
+        <f t="shared" ref="V281:V282" si="475">COUNTA(N281)</f>
+        <v>0</v>
+      </c>
+      <c r="W281" s="12" t="str">
+        <f t="shared" ref="W281" si="476">IF(SUM(H281:H283)&gt;SUM(I281:I283), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X281" s="12">
+        <f t="shared" ref="X281" si="477">ABS(SUM(H281:H283)-SUM(I281:I283))</f>
+        <v>4</v>
+      </c>
+      <c r="Y281" s="12">
+        <f t="shared" ref="Y281" si="478">SUM(H281:H283, I281:I283)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25">
+      <c r="A282" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" s="4">
+        <v>45783</v>
+      </c>
+      <c r="E282" s="2">
+        <f t="shared" si="321"/>
+        <v>92</v>
+      </c>
+      <c r="F282" s="2">
+        <v>2</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" s="1">
+        <v>2</v>
+      </c>
+      <c r="I282" s="1">
+        <v>0</v>
+      </c>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2"/>
+      <c r="N282" s="2"/>
+      <c r="P282" s="2">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="Q282" s="2">
+        <f t="shared" si="470"/>
+        <v>1</v>
+      </c>
+      <c r="R282" s="2">
+        <f t="shared" si="471"/>
+        <v>0</v>
+      </c>
+      <c r="S282" s="2">
+        <f t="shared" si="472"/>
+        <v>0</v>
+      </c>
+      <c r="T282" s="2">
+        <f t="shared" si="473"/>
+        <v>0</v>
+      </c>
+      <c r="U282" s="2">
+        <f t="shared" si="474"/>
+        <v>0</v>
+      </c>
+      <c r="V282" s="2">
+        <f t="shared" si="475"/>
+        <v>0</v>
+      </c>
+      <c r="W282" s="12"/>
+      <c r="X282" s="12"/>
+      <c r="Y282" s="12"/>
+    </row>
+    <row r="283" spans="1:25">
+      <c r="A283" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="4">
+        <v>45783</v>
+      </c>
+      <c r="E283" s="2">
+        <f t="shared" si="321"/>
+        <v>92</v>
+      </c>
+      <c r="F283" s="2">
+        <v>3</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H283" s="1">
+        <v>1</v>
+      </c>
+      <c r="I283" s="1">
+        <v>0</v>
+      </c>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
+      <c r="P283" s="2">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="Q283" s="2">
+        <f t="shared" si="470"/>
+        <v>1</v>
+      </c>
+      <c r="R283" s="2">
+        <f t="shared" si="471"/>
+        <v>0</v>
+      </c>
+      <c r="S283" s="2">
+        <f t="shared" si="472"/>
+        <v>0</v>
+      </c>
+      <c r="T283" s="2"/>
+      <c r="U283" s="2"/>
+      <c r="V283" s="2"/>
+      <c r="W283" s="12"/>
+      <c r="X283" s="12"/>
+      <c r="Y283" s="12"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="12" t="s">
+      <c r="W284" s="6"/>
+      <c r="X284" s="6"/>
+      <c r="Y284" s="6"/>
+    </row>
+    <row r="287" spans="1:25">
+      <c r="A287" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
-      <c r="F284" s="12"/>
-      <c r="G284" s="1">
-        <v>1</v>
-      </c>
-      <c r="H284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, H$2:H281)/SUMIF($F$2:$F281, $G284, P$2:P281)</f>
-        <v>2.5280898876404496</v>
-      </c>
-      <c r="I284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, I$2:I281)/SUMIF($F$2:$F281, $G284, Q$2:Q281)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, J$2:J281)/SUMIF($F$2:$F281, $G284, R$2:R281)</f>
-        <v>1</v>
-      </c>
-      <c r="K284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, K$2:K281)/SUMIF($F$2:$F281, $G284, S$2:S281)</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="L284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, L$2:L281)/SUMIF($F$2:$F281, $G284, T$2:T281)</f>
-        <v>0</v>
-      </c>
-      <c r="M284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, M$2:M281)/SUMIF($F$2:$F281, $G284, U$2:U281)</f>
-        <v>0</v>
-      </c>
-      <c r="N284" s="5">
-        <f>SUMIF($F$2:$F281, $G284, N$2:N281)/SUMIF($F$2:$F281, $G284, V$2:V281)</f>
-        <v>0.5</v>
-      </c>
-      <c r="P284" s="5"/>
-      <c r="Q284" s="5"/>
-      <c r="R284" s="5"/>
-      <c r="S284" s="5"/>
-      <c r="T284" s="5"/>
-      <c r="U284" s="5"/>
-      <c r="V284" s="5"/>
-      <c r="X284" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y284" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="285" spans="1:25">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
-      <c r="F285" s="12"/>
-      <c r="G285" s="1">
-        <v>2</v>
-      </c>
-      <c r="H285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, H$2:H282)/SUMIF($F$2:$F282, $G285, P$2:P282)</f>
-        <v>2.606741573033708</v>
-      </c>
-      <c r="I285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, I$2:I282)/SUMIF($F$2:$F282, $G285, Q$2:Q282)</f>
-        <v>1.3444444444444446</v>
-      </c>
-      <c r="J285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, J$2:J282)/SUMIF($F$2:$F282, $G285, R$2:R282)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="K285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, K$2:K282)/SUMIF($F$2:$F282, $G285, S$2:S282)</f>
-        <v>1.2941176470588236</v>
-      </c>
-      <c r="L285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, L$2:L282)/SUMIF($F$2:$F282, $G285, T$2:T282)</f>
-        <v>0</v>
-      </c>
-      <c r="M285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, M$2:M282)/SUMIF($F$2:$F282, $G285, U$2:U282)</f>
-        <v>1.5</v>
-      </c>
-      <c r="N285" s="5">
-        <f>SUMIF($F$2:$F282, $G285, N$2:N282)/SUMIF($F$2:$F282, $G285, V$2:V282)</f>
-        <v>1</v>
-      </c>
-      <c r="P285" s="5"/>
-      <c r="Q285" s="5"/>
-      <c r="R285" s="5"/>
-      <c r="S285" s="5"/>
-      <c r="T285" s="5"/>
-      <c r="U285" s="5"/>
-      <c r="V285" s="5"/>
-      <c r="W285" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X285" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W281,W285)</f>
-        <v>70</v>
-      </c>
-      <c r="Y285" s="7">
-        <f>X285/SUM(X285:X286)</f>
-        <v>0.79545454545454541</v>
-      </c>
-    </row>
-    <row r="286" spans="1:25">
-      <c r="A286" s="12"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
-      <c r="F286" s="12"/>
-      <c r="G286" s="1">
-        <v>3</v>
-      </c>
-      <c r="H286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, H$2:H283)/SUMIF($F$2:$F283, $G286, P$2:P283)</f>
-        <v>2.4831460674157304</v>
-      </c>
-      <c r="I286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, I$2:I283)/SUMIF($F$2:$F283, $G286, Q$2:Q283)</f>
-        <v>1.5</v>
-      </c>
-      <c r="J286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, J$2:J283)/SUMIF($F$2:$F283, $G286, R$2:R283)</f>
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="K286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, K$2:K283)/SUMIF($F$2:$F283, $G286, S$2:S283)</f>
-        <v>0.875</v>
-      </c>
-      <c r="L286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, L$2:L283)/SUMIF($F$2:$F283, $G286, T$2:T283)</f>
-        <v>1</v>
-      </c>
-      <c r="M286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, M$2:M283)/SUMIF($F$2:$F283, $G286, U$2:U283)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N286" s="5">
-        <f>SUMIF($F$2:$F283, $G286, N$2:N283)/SUMIF($F$2:$F283, $G286, V$2:V283)</f>
-        <v>1</v>
-      </c>
-      <c r="P286" s="5"/>
-      <c r="Q286" s="5"/>
-      <c r="R286" s="5"/>
-      <c r="S286" s="5"/>
-      <c r="T286" s="5"/>
-      <c r="U286" s="5"/>
-      <c r="V286" s="5"/>
-      <c r="W286" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X286" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W282,W286)</f>
-        <v>18</v>
-      </c>
-      <c r="Y286" s="7">
-        <f>X286/SUM(X285:X286)</f>
-        <v>0.20454545454545456</v>
-      </c>
-    </row>
-    <row r="287" spans="1:25">
-      <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
-      <c r="G287" s="1" t="s">
-        <v>41</v>
+      <c r="G287" s="1">
+        <v>1</v>
       </c>
       <c r="H287" s="5">
-        <f>IF(SUMIF($F$2:$F284, $G287, P$2:P284) = 0, "", SUMIF($F$2:$F284, $G287, H$2:H284)/SUMIF($F$2:$F284, $G287, P$2:P284))</f>
-        <v>3.25</v>
+        <f>SUMIF($F$2:$F284, $G287, H$2:H284)/SUMIF($F$2:$F284, $G287, P$2:P284)</f>
+        <v>2.5444444444444443</v>
       </c>
       <c r="I287" s="5">
-        <f>IF(SUMIF($F$2:$F284, $G287, Q$2:Q284) = 0, "", SUMIF($F$2:$F284, $G287, I$2:I284)/SUMIF($F$2:$F284, $G287, Q$2:Q284))</f>
-        <v>2</v>
+        <f>SUMIF($F$2:$F284, $G287, I$2:I284)/SUMIF($F$2:$F284, $G287, Q$2:Q284)</f>
+        <v>1.1208791208791209</v>
       </c>
       <c r="J287" s="5">
-        <f>IF(SUMIF($F$2:$F284, $G287, R$2:R284) = 0, "", SUMIF($F$2:$F284, $G287, J$2:J284)/SUMIF($F$2:$F284, $G287, R$2:R284))</f>
-        <v>2</v>
-      </c>
-      <c r="K287" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F284, $G287, S$2:S284) = 0, "", SUMIF($F$2:$F284, $G287, K$2:K284)/SUMIF($F$2:$F284, $G287, S$2:S284))</f>
-        <v/>
-      </c>
-      <c r="L287" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F284, $G287, T$2:T284) = 0, "", SUMIF($F$2:$F284, $G287, L$2:L284)/SUMIF($F$2:$F284, $G287, T$2:T284))</f>
-        <v/>
+        <f>SUMIF($F$2:$F284, $G287, J$2:J284)/SUMIF($F$2:$F284, $G287, R$2:R284)</f>
+        <v>1</v>
+      </c>
+      <c r="K287" s="5">
+        <f>SUMIF($F$2:$F284, $G287, K$2:K284)/SUMIF($F$2:$F284, $G287, S$2:S284)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="L287" s="5">
+        <f>SUMIF($F$2:$F284, $G287, L$2:L284)/SUMIF($F$2:$F284, $G287, T$2:T284)</f>
+        <v>0</v>
       </c>
       <c r="M287" s="5">
-        <f>IF(SUMIF($F$2:$F284, $G287, U$2:U284) = 0, "", SUMIF($F$2:$F284, $G287, M$2:M284)/SUMIF($F$2:$F284, $G287, U$2:U284))</f>
-        <v>0</v>
-      </c>
-      <c r="N287" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F284, $G287, V$2:V284) = 0, "", SUMIF($F$2:$F284, $G287, N$2:N284)/SUMIF($F$2:$F284, $G287, V$2:V284))</f>
-        <v/>
+        <f>SUMIF($F$2:$F284, $G287, M$2:M284)/SUMIF($F$2:$F284, $G287, U$2:U284)</f>
+        <v>0</v>
+      </c>
+      <c r="N287" s="5">
+        <f>SUMIF($F$2:$F284, $G287, N$2:N284)/SUMIF($F$2:$F284, $G287, V$2:V284)</f>
+        <v>0.5</v>
       </c>
       <c r="P287" s="5"/>
       <c r="Q287" s="5"/>
@@ -28234,6 +28245,12 @@
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
       <c r="V287" s="5"/>
+      <c r="X287" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y287" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="288" spans="1:25">
       <c r="A288" s="12"/>
@@ -28242,36 +28259,36 @@
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
-      <c r="G288" s="1" t="s">
-        <v>51</v>
+      <c r="G288" s="1">
+        <v>2</v>
       </c>
       <c r="H288" s="5">
-        <f>AVERAGE(H$2:H281)*3</f>
-        <v>7.6494464944649447</v>
+        <f>SUMIF($F$2:$F285, $G288, H$2:H285)/SUMIF($F$2:$F285, $G288, P$2:P285)</f>
+        <v>2.6</v>
       </c>
       <c r="I288" s="5">
-        <f>AVERAGE(I$2:I281)*3</f>
-        <v>3.9744525547445253</v>
+        <f>SUMIF($F$2:$F285, $G288, I$2:I285)/SUMIF($F$2:$F285, $G288, Q$2:Q285)</f>
+        <v>1.3296703296703296</v>
       </c>
       <c r="J288" s="5">
-        <f>AVERAGE(J$2:J281)*3</f>
-        <v>3.1914893617021276</v>
+        <f>SUMIF($F$2:$F285, $G288, J$2:J285)/SUMIF($F$2:$F285, $G288, R$2:R285)</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K288" s="5">
-        <f>AVERAGE(K$2:K281)*3</f>
-        <v>3</v>
+        <f>SUMIF($F$2:$F285, $G288, K$2:K285)/SUMIF($F$2:$F285, $G288, S$2:S285)</f>
+        <v>1.2941176470588236</v>
       </c>
       <c r="L288" s="5">
-        <f>AVERAGE(L$2:L281)*3</f>
-        <v>1</v>
+        <f>SUMIF($F$2:$F285, $G288, L$2:L285)/SUMIF($F$2:$F285, $G288, T$2:T285)</f>
+        <v>0</v>
       </c>
       <c r="M288" s="5">
-        <f>AVERAGE(M$2:M281)*3</f>
+        <f>SUMIF($F$2:$F285, $G288, M$2:M285)/SUMIF($F$2:$F285, $G288, U$2:U285)</f>
         <v>1.5</v>
       </c>
       <c r="N288" s="5">
-        <f>AVERAGE(N$2:N281)*3</f>
-        <v>2</v>
+        <f>SUMIF($F$2:$F285, $G288, N$2:N285)/SUMIF($F$2:$F285, $G288, V$2:V285)</f>
+        <v>1</v>
       </c>
       <c r="P288" s="5"/>
       <c r="Q288" s="5"/>
@@ -28280,144 +28297,189 @@
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
       <c r="V288" s="5"/>
+      <c r="W288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X288" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W284,W288)</f>
+        <v>71</v>
+      </c>
+      <c r="Y288" s="7">
+        <f>X288/SUM(X288:X289)</f>
+        <v>0.797752808988764</v>
+      </c>
+    </row>
+    <row r="289" spans="1:35">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="1">
+        <v>3</v>
+      </c>
+      <c r="H289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, H$2:H286)/SUMIF($F$2:$F286, $G289, P$2:P286)</f>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="I289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, I$2:I286)/SUMIF($F$2:$F286, $G289, Q$2:Q286)</f>
+        <v>1.4835164835164836</v>
+      </c>
+      <c r="J289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, J$2:J286)/SUMIF($F$2:$F286, $G289, R$2:R286)</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="K289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, K$2:K286)/SUMIF($F$2:$F286, $G289, S$2:S286)</f>
+        <v>0.875</v>
+      </c>
+      <c r="L289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, L$2:L286)/SUMIF($F$2:$F286, $G289, T$2:T286)</f>
+        <v>1</v>
+      </c>
+      <c r="M289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, M$2:M286)/SUMIF($F$2:$F286, $G289, U$2:U286)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N289" s="5">
+        <f>SUMIF($F$2:$F286, $G289, N$2:N286)/SUMIF($F$2:$F286, $G289, V$2:V286)</f>
+        <v>1</v>
+      </c>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5"/>
+      <c r="V289" s="5"/>
+      <c r="W289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X289" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W285,W289)</f>
+        <v>18</v>
+      </c>
+      <c r="Y289" s="7">
+        <f>X289/SUM(X288:X289)</f>
+        <v>0.20224719101123595</v>
+      </c>
+    </row>
+    <row r="290" spans="1:35">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+      <c r="G290" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H290" s="5">
+        <f>IF(SUMIF($F$2:$F287, $G290, P$2:P287) = 0, "", SUMIF($F$2:$F287, $G290, H$2:H287)/SUMIF($F$2:$F287, $G290, P$2:P287))</f>
+        <v>3.25</v>
+      </c>
+      <c r="I290" s="5">
+        <f>IF(SUMIF($F$2:$F287, $G290, Q$2:Q287) = 0, "", SUMIF($F$2:$F287, $G290, I$2:I287)/SUMIF($F$2:$F287, $G290, Q$2:Q287))</f>
+        <v>2</v>
+      </c>
+      <c r="J290" s="5">
+        <f>IF(SUMIF($F$2:$F287, $G290, R$2:R287) = 0, "", SUMIF($F$2:$F287, $G290, J$2:J287)/SUMIF($F$2:$F287, $G290, R$2:R287))</f>
+        <v>2</v>
+      </c>
+      <c r="K290" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F287, $G290, S$2:S287) = 0, "", SUMIF($F$2:$F287, $G290, K$2:K287)/SUMIF($F$2:$F287, $G290, S$2:S287))</f>
+        <v/>
+      </c>
+      <c r="L290" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F287, $G290, T$2:T287) = 0, "", SUMIF($F$2:$F287, $G290, L$2:L287)/SUMIF($F$2:$F287, $G290, T$2:T287))</f>
+        <v/>
+      </c>
+      <c r="M290" s="5">
+        <f>IF(SUMIF($F$2:$F287, $G290, U$2:U287) = 0, "", SUMIF($F$2:$F287, $G290, M$2:M287)/SUMIF($F$2:$F287, $G290, U$2:U287))</f>
+        <v>0</v>
+      </c>
+      <c r="N290" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F287, $G290, V$2:V287) = 0, "", SUMIF($F$2:$F287, $G290, N$2:N287)/SUMIF($F$2:$F287, $G290, V$2:V287))</f>
+        <v/>
+      </c>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5"/>
+      <c r="V290" s="5"/>
     </row>
     <row r="291" spans="1:35">
-      <c r="G291" s="8" t="s">
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H291" s="5">
+        <f>AVERAGE(H$2:H284)*3</f>
+        <v>7.6423357664233578</v>
+      </c>
+      <c r="I291" s="5">
+        <f>AVERAGE(I$2:I284)*3</f>
+        <v>3.9638989169675085</v>
+      </c>
+      <c r="J291" s="5">
+        <f>AVERAGE(J$2:J284)*3</f>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="K291" s="5">
+        <f>AVERAGE(K$2:K284)*3</f>
+        <v>3</v>
+      </c>
+      <c r="L291" s="5">
+        <f>AVERAGE(L$2:L284)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M291" s="5">
+        <f>AVERAGE(M$2:M284)*3</f>
+        <v>1.5</v>
+      </c>
+      <c r="N291" s="5">
+        <f>AVERAGE(N$2:N284)*3</f>
+        <v>2</v>
+      </c>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5"/>
+      <c r="V291" s="5"/>
+    </row>
+    <row r="294" spans="1:35">
+      <c r="G294" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H291" t="s">
+      <c r="H294" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="292" spans="1:35">
-      <c r="G292" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H292" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="293" spans="1:35">
-      <c r="G293" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H293" t="s">
-        <v>16</v>
-      </c>
-      <c r="O293"/>
-      <c r="P293"/>
-      <c r="Q293"/>
-      <c r="R293"/>
-      <c r="S293"/>
-      <c r="T293"/>
-      <c r="U293"/>
-      <c r="V293"/>
-      <c r="W293"/>
-      <c r="X293"/>
-      <c r="Y293"/>
-      <c r="Z293"/>
-      <c r="AA293"/>
-      <c r="AB293"/>
-      <c r="AC293"/>
-      <c r="AD293"/>
-      <c r="AE293"/>
-      <c r="AF293"/>
-      <c r="AG293"/>
-      <c r="AH293"/>
-      <c r="AI293"/>
-    </row>
-    <row r="294" spans="1:35">
-      <c r="O294"/>
-      <c r="P294"/>
-      <c r="Q294"/>
-      <c r="R294"/>
-      <c r="S294"/>
-      <c r="T294"/>
-      <c r="U294"/>
-      <c r="V294"/>
-      <c r="W294"/>
-      <c r="X294"/>
-      <c r="Y294"/>
-      <c r="Z294"/>
-      <c r="AA294"/>
-      <c r="AB294"/>
-      <c r="AC294"/>
-      <c r="AD294"/>
-      <c r="AE294"/>
-      <c r="AF294"/>
-      <c r="AG294"/>
-      <c r="AH294"/>
-      <c r="AI294"/>
     </row>
     <row r="295" spans="1:35">
       <c r="G295" s="8" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H295" t="s">
-        <v>63</v>
-      </c>
-      <c r="I295" t="s">
-        <v>64</v>
-      </c>
-      <c r="J295" t="s">
-        <v>65</v>
-      </c>
-      <c r="K295" t="s">
-        <v>66</v>
-      </c>
-      <c r="L295" t="s">
-        <v>67</v>
-      </c>
-      <c r="M295" t="s">
-        <v>68</v>
-      </c>
-      <c r="N295" t="s">
-        <v>69</v>
-      </c>
-      <c r="O295"/>
-      <c r="P295"/>
-      <c r="Q295"/>
-      <c r="R295"/>
-      <c r="S295"/>
-      <c r="T295"/>
-      <c r="U295"/>
-      <c r="V295"/>
-      <c r="W295"/>
-      <c r="X295"/>
-      <c r="Y295"/>
-      <c r="Z295"/>
-      <c r="AA295"/>
-      <c r="AB295"/>
-      <c r="AC295"/>
-      <c r="AD295"/>
-      <c r="AE295"/>
-      <c r="AF295"/>
-      <c r="AG295"/>
-      <c r="AH295"/>
-      <c r="AI295"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="296" spans="1:35">
-      <c r="G296" s="9">
-        <v>1</v>
-      </c>
-      <c r="H296" s="10">
-        <v>2.652173913043478</v>
-      </c>
-      <c r="I296" s="10">
-        <v>1.1702127659574468</v>
-      </c>
-      <c r="J296" s="10">
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="K296" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="L296" s="10"/>
-      <c r="M296">
-        <v>0</v>
-      </c>
-      <c r="N296" s="10">
-        <v>1</v>
+      <c r="G296" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296" t="s">
+        <v>16</v>
       </c>
       <c r="O296"/>
       <c r="P296"/>
@@ -28442,28 +28504,6 @@
       <c r="AI296"/>
     </row>
     <row r="297" spans="1:35">
-      <c r="G297" s="9">
-        <v>2</v>
-      </c>
-      <c r="H297" s="10">
-        <v>2.7826086956521738</v>
-      </c>
-      <c r="I297" s="10">
-        <v>1.4680851063829787</v>
-      </c>
-      <c r="J297" s="10">
-        <v>1</v>
-      </c>
-      <c r="K297" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="L297" s="10"/>
-      <c r="M297">
-        <v>0</v>
-      </c>
-      <c r="N297" s="10">
-        <v>1</v>
-      </c>
       <c r="O297"/>
       <c r="P297"/>
       <c r="Q297"/>
@@ -28481,29 +28521,35 @@
       <c r="AC297"/>
       <c r="AD297"/>
       <c r="AE297"/>
+      <c r="AF297"/>
+      <c r="AG297"/>
+      <c r="AH297"/>
+      <c r="AI297"/>
     </row>
     <row r="298" spans="1:35">
-      <c r="G298" s="9">
-        <v>3</v>
-      </c>
-      <c r="H298" s="10">
-        <v>2.8043478260869565</v>
-      </c>
-      <c r="I298" s="10">
-        <v>1.553191489361702</v>
-      </c>
-      <c r="J298" s="10">
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="K298" s="10">
-        <v>1</v>
-      </c>
-      <c r="L298" s="10"/>
-      <c r="M298">
-        <v>0</v>
-      </c>
-      <c r="N298" s="10">
-        <v>0</v>
+      <c r="G298" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H298" t="s">
+        <v>63</v>
+      </c>
+      <c r="I298" t="s">
+        <v>64</v>
+      </c>
+      <c r="J298" t="s">
+        <v>65</v>
+      </c>
+      <c r="K298" t="s">
+        <v>66</v>
+      </c>
+      <c r="L298" t="s">
+        <v>67</v>
+      </c>
+      <c r="M298" t="s">
+        <v>68</v>
+      </c>
+      <c r="N298" t="s">
+        <v>69</v>
       </c>
       <c r="O298"/>
       <c r="P298"/>
@@ -28522,30 +28568,34 @@
       <c r="AC298"/>
       <c r="AD298"/>
       <c r="AE298"/>
+      <c r="AF298"/>
+      <c r="AG298"/>
+      <c r="AH298"/>
+      <c r="AI298"/>
     </row>
     <row r="299" spans="1:35">
-      <c r="A299"/>
-      <c r="B299"/>
-      <c r="C299"/>
-      <c r="D299"/>
-      <c r="E299"/>
-      <c r="F299"/>
-      <c r="G299" s="9" t="s">
-        <v>41</v>
+      <c r="G299" s="9">
+        <v>1</v>
       </c>
       <c r="H299" s="10">
-        <v>3</v>
+        <v>2.652173913043478</v>
       </c>
       <c r="I299" s="10">
-        <v>2.3333333333333335</v>
+        <v>1.1702127659574468</v>
       </c>
       <c r="J299" s="10">
-        <v>2</v>
-      </c>
-      <c r="K299" s="10"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="K299" s="10">
+        <v>0.9</v>
+      </c>
       <c r="L299" s="10"/>
-      <c r="M299"/>
-      <c r="N299" s="10"/>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299" s="10">
+        <v>1</v>
+      </c>
       <c r="O299"/>
       <c r="P299"/>
       <c r="Q299"/>
@@ -28563,35 +28613,33 @@
       <c r="AC299"/>
       <c r="AD299"/>
       <c r="AE299"/>
+      <c r="AF299"/>
+      <c r="AG299"/>
+      <c r="AH299"/>
+      <c r="AI299"/>
     </row>
     <row r="300" spans="1:35">
-      <c r="A300"/>
-      <c r="B300"/>
-      <c r="C300"/>
-      <c r="D300"/>
-      <c r="E300"/>
-      <c r="F300"/>
-      <c r="G300" s="9" t="s">
-        <v>55</v>
+      <c r="G300" s="9">
+        <v>2</v>
       </c>
       <c r="H300" s="10">
-        <v>2.7482014388489207</v>
+        <v>2.7826086956521738</v>
       </c>
       <c r="I300" s="10">
-        <v>1.4166666666666667</v>
+        <v>1.4680851063829787</v>
       </c>
       <c r="J300" s="10">
-        <v>1.3913043478260869</v>
+        <v>1</v>
       </c>
       <c r="K300" s="10">
-        <v>1.0666666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="L300" s="10"/>
       <c r="M300">
         <v>0</v>
       </c>
       <c r="N300" s="10">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O300"/>
       <c r="P300"/>
@@ -28612,20 +28660,28 @@
       <c r="AE300"/>
     </row>
     <row r="301" spans="1:35">
-      <c r="A301"/>
-      <c r="B301"/>
-      <c r="C301"/>
-      <c r="D301"/>
-      <c r="E301"/>
-      <c r="F301"/>
-      <c r="G301"/>
-      <c r="H301"/>
-      <c r="I301"/>
-      <c r="J301"/>
-      <c r="K301"/>
-      <c r="L301"/>
-      <c r="M301"/>
-      <c r="N301"/>
+      <c r="G301" s="9">
+        <v>3</v>
+      </c>
+      <c r="H301" s="10">
+        <v>2.8043478260869565</v>
+      </c>
+      <c r="I301" s="10">
+        <v>1.553191489361702</v>
+      </c>
+      <c r="J301" s="10">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="K301" s="10">
+        <v>1</v>
+      </c>
+      <c r="L301" s="10"/>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" s="10">
+        <v>0</v>
+      </c>
       <c r="O301"/>
       <c r="P301"/>
       <c r="Q301"/>
@@ -28651,14 +28707,22 @@
       <c r="D302"/>
       <c r="E302"/>
       <c r="F302"/>
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
-      <c r="K302"/>
-      <c r="L302"/>
+      <c r="G302" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H302" s="10">
+        <v>3</v>
+      </c>
+      <c r="I302" s="10">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J302" s="10">
+        <v>2</v>
+      </c>
+      <c r="K302" s="10"/>
+      <c r="L302" s="10"/>
       <c r="M302"/>
-      <c r="N302"/>
+      <c r="N302" s="10"/>
       <c r="O302"/>
       <c r="P302"/>
       <c r="Q302"/>
@@ -28684,14 +28748,28 @@
       <c r="D303"/>
       <c r="E303"/>
       <c r="F303"/>
-      <c r="G303"/>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303"/>
-      <c r="K303"/>
-      <c r="L303"/>
-      <c r="M303"/>
-      <c r="N303"/>
+      <c r="G303" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H303" s="10">
+        <v>2.7482014388489207</v>
+      </c>
+      <c r="I303" s="10">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="J303" s="10">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="K303" s="10">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="L303" s="10"/>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="O303"/>
       <c r="P303"/>
       <c r="Q303"/>
@@ -28836,6 +28914,11 @@
       <c r="X307"/>
       <c r="Y307"/>
       <c r="Z307"/>
+      <c r="AA307"/>
+      <c r="AB307"/>
+      <c r="AC307"/>
+      <c r="AD307"/>
+      <c r="AE307"/>
     </row>
     <row r="308" spans="1:31">
       <c r="A308"/>
@@ -28864,6 +28947,11 @@
       <c r="X308"/>
       <c r="Y308"/>
       <c r="Z308"/>
+      <c r="AA308"/>
+      <c r="AB308"/>
+      <c r="AC308"/>
+      <c r="AD308"/>
+      <c r="AE308"/>
     </row>
     <row r="309" spans="1:31">
       <c r="A309"/>
@@ -28892,6 +28980,11 @@
       <c r="X309"/>
       <c r="Y309"/>
       <c r="Z309"/>
+      <c r="AA309"/>
+      <c r="AB309"/>
+      <c r="AC309"/>
+      <c r="AD309"/>
+      <c r="AE309"/>
     </row>
     <row r="310" spans="1:31">
       <c r="A310"/>
@@ -30091,8 +30184,13 @@
       <c r="S352"/>
       <c r="T352"/>
       <c r="U352"/>
-    </row>
-    <row r="353" spans="1:21">
+      <c r="V352"/>
+      <c r="W352"/>
+      <c r="X352"/>
+      <c r="Y352"/>
+      <c r="Z352"/>
+    </row>
+    <row r="353" spans="1:26">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
@@ -30114,8 +30212,13 @@
       <c r="S353"/>
       <c r="T353"/>
       <c r="U353"/>
-    </row>
-    <row r="354" spans="1:21">
+      <c r="V353"/>
+      <c r="W353"/>
+      <c r="X353"/>
+      <c r="Y353"/>
+      <c r="Z353"/>
+    </row>
+    <row r="354" spans="1:26">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -30137,8 +30240,13 @@
       <c r="S354"/>
       <c r="T354"/>
       <c r="U354"/>
-    </row>
-    <row r="355" spans="1:21">
+      <c r="V354"/>
+      <c r="W354"/>
+      <c r="X354"/>
+      <c r="Y354"/>
+      <c r="Z354"/>
+    </row>
+    <row r="355" spans="1:26">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
@@ -30161,7 +30269,7 @@
       <c r="T355"/>
       <c r="U355"/>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:26">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
@@ -30184,7 +30292,7 @@
       <c r="T356"/>
       <c r="U356"/>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:26">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
@@ -30207,7 +30315,7 @@
       <c r="T357"/>
       <c r="U357"/>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:26">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
@@ -30230,7 +30338,7 @@
       <c r="T358"/>
       <c r="U358"/>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:26">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
@@ -30253,7 +30361,7 @@
       <c r="T359"/>
       <c r="U359"/>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:26">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
@@ -30276,7 +30384,7 @@
       <c r="T360"/>
       <c r="U360"/>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:26">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
@@ -30299,7 +30407,7 @@
       <c r="T361"/>
       <c r="U361"/>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:26">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -30322,7 +30430,7 @@
       <c r="T362"/>
       <c r="U362"/>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:26">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
@@ -30345,7 +30453,7 @@
       <c r="T363"/>
       <c r="U363"/>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:26">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
@@ -30368,7 +30476,7 @@
       <c r="T364"/>
       <c r="U364"/>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:26">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
@@ -30391,7 +30499,7 @@
       <c r="T365"/>
       <c r="U365"/>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:26">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
@@ -30414,7 +30522,7 @@
       <c r="T366"/>
       <c r="U366"/>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:26">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
@@ -30437,7 +30545,7 @@
       <c r="T367"/>
       <c r="U367"/>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:26">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
@@ -31765,6 +31873,11 @@
       <c r="N425"/>
       <c r="O425"/>
       <c r="P425"/>
+      <c r="Q425"/>
+      <c r="R425"/>
+      <c r="S425"/>
+      <c r="T425"/>
+      <c r="U425"/>
     </row>
     <row r="426" spans="1:21">
       <c r="A426"/>
@@ -31783,6 +31896,11 @@
       <c r="N426"/>
       <c r="O426"/>
       <c r="P426"/>
+      <c r="Q426"/>
+      <c r="R426"/>
+      <c r="S426"/>
+      <c r="T426"/>
+      <c r="U426"/>
     </row>
     <row r="427" spans="1:21">
       <c r="A427"/>
@@ -31801,6 +31919,11 @@
       <c r="N427"/>
       <c r="O427"/>
       <c r="P427"/>
+      <c r="Q427"/>
+      <c r="R427"/>
+      <c r="S427"/>
+      <c r="T427"/>
+      <c r="U427"/>
     </row>
     <row r="428" spans="1:21">
       <c r="A428"/>
@@ -33578,6 +33701,11 @@
       <c r="I526"/>
       <c r="J526"/>
       <c r="K526"/>
+      <c r="L526"/>
+      <c r="M526"/>
+      <c r="N526"/>
+      <c r="O526"/>
+      <c r="P526"/>
     </row>
     <row r="527" spans="1:16">
       <c r="A527"/>
@@ -33591,6 +33719,11 @@
       <c r="I527"/>
       <c r="J527"/>
       <c r="K527"/>
+      <c r="L527"/>
+      <c r="M527"/>
+      <c r="N527"/>
+      <c r="O527"/>
+      <c r="P527"/>
     </row>
     <row r="528" spans="1:16">
       <c r="A528"/>
@@ -33604,6 +33737,11 @@
       <c r="I528"/>
       <c r="J528"/>
       <c r="K528"/>
+      <c r="L528"/>
+      <c r="M528"/>
+      <c r="N528"/>
+      <c r="O528"/>
+      <c r="P528"/>
     </row>
     <row r="529" spans="1:11">
       <c r="A529"/>
@@ -34886,6 +35024,11 @@
       <c r="D627"/>
       <c r="E627"/>
       <c r="F627"/>
+      <c r="G627"/>
+      <c r="H627"/>
+      <c r="I627"/>
+      <c r="J627"/>
+      <c r="K627"/>
     </row>
     <row r="628" spans="1:11">
       <c r="A628"/>
@@ -34894,6 +35037,11 @@
       <c r="D628"/>
       <c r="E628"/>
       <c r="F628"/>
+      <c r="G628"/>
+      <c r="H628"/>
+      <c r="I628"/>
+      <c r="J628"/>
+      <c r="K628"/>
     </row>
     <row r="629" spans="1:11">
       <c r="A629"/>
@@ -34902,6 +35050,11 @@
       <c r="D629"/>
       <c r="E629"/>
       <c r="F629"/>
+      <c r="G629"/>
+      <c r="H629"/>
+      <c r="I629"/>
+      <c r="J629"/>
+      <c r="K629"/>
     </row>
     <row r="630" spans="1:11">
       <c r="A630"/>
@@ -36607,42 +36760,248 @@
       <c r="E842"/>
       <c r="F842"/>
     </row>
+    <row r="843" spans="1:6">
+      <c r="A843"/>
+      <c r="B843"/>
+      <c r="C843"/>
+      <c r="D843"/>
+      <c r="E843"/>
+      <c r="F843"/>
+    </row>
+    <row r="844" spans="1:6">
+      <c r="A844"/>
+      <c r="B844"/>
+      <c r="C844"/>
+      <c r="D844"/>
+      <c r="E844"/>
+      <c r="F844"/>
+    </row>
+    <row r="845" spans="1:6">
+      <c r="A845"/>
+      <c r="B845"/>
+      <c r="C845"/>
+      <c r="D845"/>
+      <c r="E845"/>
+      <c r="F845"/>
+    </row>
   </sheetData>
-  <mergeCells count="274">
-    <mergeCell ref="W278:W280"/>
-    <mergeCell ref="X278:X280"/>
-    <mergeCell ref="Y278:Y280"/>
-    <mergeCell ref="W247:W249"/>
-    <mergeCell ref="X247:X249"/>
-    <mergeCell ref="Y247:Y249"/>
-    <mergeCell ref="W272:W274"/>
-    <mergeCell ref="X272:X274"/>
-    <mergeCell ref="Y272:Y274"/>
-    <mergeCell ref="W263:W265"/>
-    <mergeCell ref="X263:X265"/>
-    <mergeCell ref="Y263:Y265"/>
-    <mergeCell ref="W266:W268"/>
-    <mergeCell ref="X266:X268"/>
-    <mergeCell ref="Y266:Y268"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
-    <mergeCell ref="Y167:Y169"/>
-    <mergeCell ref="W161:W163"/>
-    <mergeCell ref="X161:X163"/>
-    <mergeCell ref="Y161:Y163"/>
-    <mergeCell ref="W158:W160"/>
-    <mergeCell ref="X158:X160"/>
-    <mergeCell ref="W164:W166"/>
-    <mergeCell ref="X164:X166"/>
-    <mergeCell ref="Y164:Y166"/>
+  <mergeCells count="277">
+    <mergeCell ref="W281:W283"/>
+    <mergeCell ref="X281:X283"/>
+    <mergeCell ref="Y281:Y283"/>
+    <mergeCell ref="W232:W234"/>
+    <mergeCell ref="X232:X234"/>
+    <mergeCell ref="Y232:Y234"/>
+    <mergeCell ref="W269:W271"/>
+    <mergeCell ref="X269:X271"/>
+    <mergeCell ref="Y269:Y271"/>
+    <mergeCell ref="W250:W252"/>
+    <mergeCell ref="X250:X252"/>
+    <mergeCell ref="Y250:Y252"/>
+    <mergeCell ref="W259:W262"/>
+    <mergeCell ref="X259:X262"/>
+    <mergeCell ref="Y259:Y262"/>
+    <mergeCell ref="W244:W246"/>
+    <mergeCell ref="X244:X246"/>
+    <mergeCell ref="Y244:Y246"/>
+    <mergeCell ref="W256:W258"/>
+    <mergeCell ref="X256:X258"/>
+    <mergeCell ref="Y256:Y258"/>
+    <mergeCell ref="W253:W255"/>
+    <mergeCell ref="X253:X255"/>
+    <mergeCell ref="Y253:Y255"/>
+    <mergeCell ref="W207:W209"/>
+    <mergeCell ref="X207:X209"/>
+    <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="W225:W227"/>
+    <mergeCell ref="X225:X227"/>
+    <mergeCell ref="Y225:Y227"/>
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W219:W221"/>
+    <mergeCell ref="X219:X221"/>
+    <mergeCell ref="Y219:Y221"/>
+    <mergeCell ref="W222:W224"/>
+    <mergeCell ref="X222:X224"/>
+    <mergeCell ref="Y222:Y224"/>
+    <mergeCell ref="Y190:Y192"/>
+    <mergeCell ref="X181:X183"/>
+    <mergeCell ref="Y181:Y183"/>
+    <mergeCell ref="W201:W203"/>
+    <mergeCell ref="X201:X203"/>
+    <mergeCell ref="Y201:Y203"/>
+    <mergeCell ref="W204:W206"/>
+    <mergeCell ref="X204:X206"/>
+    <mergeCell ref="Y204:Y206"/>
+    <mergeCell ref="A287:F291"/>
+    <mergeCell ref="W170:W172"/>
+    <mergeCell ref="X170:X172"/>
+    <mergeCell ref="Y170:Y172"/>
+    <mergeCell ref="W173:W177"/>
+    <mergeCell ref="X173:X177"/>
+    <mergeCell ref="Y173:Y177"/>
+    <mergeCell ref="W178:W180"/>
+    <mergeCell ref="X178:X180"/>
+    <mergeCell ref="Y178:Y180"/>
+    <mergeCell ref="W181:W183"/>
+    <mergeCell ref="W187:W189"/>
+    <mergeCell ref="X187:X189"/>
+    <mergeCell ref="Y187:Y189"/>
+    <mergeCell ref="W190:W192"/>
+    <mergeCell ref="X190:X192"/>
+    <mergeCell ref="W193:W197"/>
+    <mergeCell ref="X193:X197"/>
+    <mergeCell ref="W228:W231"/>
+    <mergeCell ref="X228:X231"/>
+    <mergeCell ref="Y228:Y231"/>
+    <mergeCell ref="W184:W186"/>
+    <mergeCell ref="X184:X186"/>
+    <mergeCell ref="Y184:Y186"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="Y74:Y76"/>
+    <mergeCell ref="Y77:Y79"/>
+    <mergeCell ref="Y80:Y82"/>
+    <mergeCell ref="Y83:Y85"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="W95:W97"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Y56:Y58"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="Y62:Y64"/>
+    <mergeCell ref="Y65:Y67"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Y71:Y73"/>
+    <mergeCell ref="W89:W91"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="W101:W103"/>
+    <mergeCell ref="X101:X103"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="W83:W85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="Y89:Y91"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="Y98:Y100"/>
+    <mergeCell ref="Y101:Y103"/>
+    <mergeCell ref="Y119:Y121"/>
+    <mergeCell ref="W116:W118"/>
+    <mergeCell ref="X116:X118"/>
+    <mergeCell ref="W104:W106"/>
+    <mergeCell ref="X104:X106"/>
+    <mergeCell ref="W107:W109"/>
+    <mergeCell ref="X107:X109"/>
+    <mergeCell ref="W110:W112"/>
+    <mergeCell ref="X110:X112"/>
+    <mergeCell ref="W113:W115"/>
+    <mergeCell ref="X113:X115"/>
+    <mergeCell ref="W98:W100"/>
+    <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="Y116:Y118"/>
+    <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
     <mergeCell ref="W143:W145"/>
     <mergeCell ref="X143:X145"/>
     <mergeCell ref="Y143:Y145"/>
@@ -36667,224 +37026,45 @@
     <mergeCell ref="W213:W215"/>
     <mergeCell ref="X213:X215"/>
     <mergeCell ref="Y213:Y215"/>
-    <mergeCell ref="Y116:Y118"/>
-    <mergeCell ref="W122:W124"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
-    <mergeCell ref="Y89:Y91"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="Y95:Y97"/>
-    <mergeCell ref="Y98:Y100"/>
-    <mergeCell ref="Y101:Y103"/>
-    <mergeCell ref="Y119:Y121"/>
-    <mergeCell ref="W116:W118"/>
-    <mergeCell ref="X116:X118"/>
-    <mergeCell ref="W104:W106"/>
-    <mergeCell ref="X104:X106"/>
-    <mergeCell ref="W107:W109"/>
-    <mergeCell ref="X107:X109"/>
-    <mergeCell ref="W110:W112"/>
-    <mergeCell ref="X110:X112"/>
-    <mergeCell ref="W113:W115"/>
-    <mergeCell ref="X113:X115"/>
-    <mergeCell ref="W98:W100"/>
-    <mergeCell ref="X98:X100"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="W101:W103"/>
-    <mergeCell ref="X101:X103"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="W83:W85"/>
-    <mergeCell ref="X83:X85"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="Y74:Y76"/>
-    <mergeCell ref="Y77:Y79"/>
-    <mergeCell ref="Y80:Y82"/>
-    <mergeCell ref="Y83:Y85"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="W95:W97"/>
-    <mergeCell ref="X95:X97"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Y56:Y58"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="Y62:Y64"/>
-    <mergeCell ref="Y65:Y67"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Y71:Y73"/>
-    <mergeCell ref="W89:W91"/>
-    <mergeCell ref="X89:X91"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="A284:F288"/>
-    <mergeCell ref="W170:W172"/>
-    <mergeCell ref="X170:X172"/>
-    <mergeCell ref="Y170:Y172"/>
-    <mergeCell ref="W173:W177"/>
-    <mergeCell ref="X173:X177"/>
-    <mergeCell ref="Y173:Y177"/>
-    <mergeCell ref="W178:W180"/>
-    <mergeCell ref="X178:X180"/>
-    <mergeCell ref="Y178:Y180"/>
-    <mergeCell ref="W181:W183"/>
-    <mergeCell ref="W187:W189"/>
-    <mergeCell ref="X187:X189"/>
-    <mergeCell ref="Y187:Y189"/>
-    <mergeCell ref="W190:W192"/>
-    <mergeCell ref="X190:X192"/>
-    <mergeCell ref="W193:W197"/>
-    <mergeCell ref="X193:X197"/>
-    <mergeCell ref="W228:W231"/>
-    <mergeCell ref="X228:X231"/>
-    <mergeCell ref="Y228:Y231"/>
-    <mergeCell ref="W184:W186"/>
-    <mergeCell ref="X184:X186"/>
-    <mergeCell ref="Y184:Y186"/>
-    <mergeCell ref="Y190:Y192"/>
-    <mergeCell ref="X181:X183"/>
-    <mergeCell ref="Y181:Y183"/>
-    <mergeCell ref="W201:W203"/>
-    <mergeCell ref="X201:X203"/>
-    <mergeCell ref="Y201:Y203"/>
-    <mergeCell ref="W204:W206"/>
-    <mergeCell ref="X204:X206"/>
-    <mergeCell ref="Y204:Y206"/>
-    <mergeCell ref="W207:W209"/>
-    <mergeCell ref="X207:X209"/>
-    <mergeCell ref="Y207:Y209"/>
-    <mergeCell ref="W225:W227"/>
-    <mergeCell ref="X225:X227"/>
-    <mergeCell ref="Y225:Y227"/>
-    <mergeCell ref="W216:W218"/>
-    <mergeCell ref="X216:X218"/>
-    <mergeCell ref="Y216:Y218"/>
-    <mergeCell ref="W210:W212"/>
-    <mergeCell ref="X210:X212"/>
-    <mergeCell ref="Y210:Y212"/>
-    <mergeCell ref="W219:W221"/>
-    <mergeCell ref="X219:X221"/>
-    <mergeCell ref="Y219:Y221"/>
-    <mergeCell ref="W222:W224"/>
-    <mergeCell ref="X222:X224"/>
-    <mergeCell ref="Y222:Y224"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="Y167:Y169"/>
+    <mergeCell ref="W161:W163"/>
+    <mergeCell ref="X161:X163"/>
+    <mergeCell ref="Y161:Y163"/>
+    <mergeCell ref="W158:W160"/>
+    <mergeCell ref="X158:X160"/>
+    <mergeCell ref="W164:W166"/>
+    <mergeCell ref="X164:X166"/>
+    <mergeCell ref="Y164:Y166"/>
+    <mergeCell ref="W278:W280"/>
+    <mergeCell ref="X278:X280"/>
+    <mergeCell ref="Y278:Y280"/>
+    <mergeCell ref="W247:W249"/>
+    <mergeCell ref="X247:X249"/>
+    <mergeCell ref="Y247:Y249"/>
+    <mergeCell ref="W272:W274"/>
+    <mergeCell ref="X272:X274"/>
+    <mergeCell ref="Y272:Y274"/>
+    <mergeCell ref="W263:W265"/>
+    <mergeCell ref="X263:X265"/>
+    <mergeCell ref="Y263:Y265"/>
+    <mergeCell ref="W266:W268"/>
+    <mergeCell ref="X266:X268"/>
+    <mergeCell ref="Y266:Y268"/>
     <mergeCell ref="W275:W277"/>
     <mergeCell ref="X275:X277"/>
     <mergeCell ref="Y275:Y277"/>
-    <mergeCell ref="W232:W234"/>
-    <mergeCell ref="X232:X234"/>
-    <mergeCell ref="Y232:Y234"/>
-    <mergeCell ref="W269:W271"/>
-    <mergeCell ref="X269:X271"/>
-    <mergeCell ref="Y269:Y271"/>
-    <mergeCell ref="W250:W252"/>
-    <mergeCell ref="X250:X252"/>
-    <mergeCell ref="Y250:Y252"/>
-    <mergeCell ref="W259:W262"/>
-    <mergeCell ref="X259:X262"/>
-    <mergeCell ref="Y259:Y262"/>
-    <mergeCell ref="W244:W246"/>
-    <mergeCell ref="X244:X246"/>
-    <mergeCell ref="Y244:Y246"/>
-    <mergeCell ref="W256:W258"/>
-    <mergeCell ref="X256:X258"/>
-    <mergeCell ref="Y256:Y258"/>
-    <mergeCell ref="W253:W255"/>
-    <mergeCell ref="X253:X255"/>
-    <mergeCell ref="Y253:Y255"/>
   </mergeCells>
-  <conditionalFormatting sqref="H284:N287">
+  <conditionalFormatting sqref="H287:N290">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -36896,7 +37076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H288:N288">
+  <conditionalFormatting sqref="H291:N291">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -36914,13 +37094,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2B40FE-052D-8547-979C-A956FC17E5E1}">
-  <dimension ref="A1:S177"/>
+  <dimension ref="A1:S179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I180" sqref="I180"/>
+      <selection pane="bottomRight" activeCell="A180" sqref="A180:L181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36980,26 +37160,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A2, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A2, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A2, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A2, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A2, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A2, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A2, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A2, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A2, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A2, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -37031,26 +37211,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A3, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A3, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A3, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A3, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A3, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A3, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A3, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A3, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A3, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A3, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -37087,26 +37267,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A4, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A4, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A4, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A4, Scores!$F$2:$F$284, D$1)</f>
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A4, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A4, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A4, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A4, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A4, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A4, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -37143,26 +37323,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A5, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A5, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A5, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A5, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A5, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A5, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A5, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A5, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A5, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A5, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -37195,26 +37375,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A6, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A6, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A6, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A6, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A6, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A6, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A6, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A6, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A6, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A6, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -37256,26 +37436,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A7, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A7, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A7, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A7, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A7, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A7, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A7, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A7, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A7, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A7, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -37317,26 +37497,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A8, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A8, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A8, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A8, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A8, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A8, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A8, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A8, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A8, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A8, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -37378,26 +37558,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A9, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A9, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A9, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A9, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A9, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A9, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A9, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A9, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A9, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A9, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -37439,26 +37619,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A10, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A10, Scores!$E$2:$E$284, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A10, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A10, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A10, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A10, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A10, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A10, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A10, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A10, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -37491,26 +37671,26 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A11, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A11, Scores!$E$2:$E$284, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A11, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A11, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A11, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A11, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A11, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A11, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A11, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A11, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -37543,26 +37723,26 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A12, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A12, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A12, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A12, Scores!$F$2:$F$284, D$1)</f>
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A12, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A12, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A12, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A12, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A12, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A12, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -37595,26 +37775,26 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A13, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A13, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A13, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A13, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A13, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A13, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A13, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A13, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A13, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A13, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -37647,26 +37827,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A14, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A14, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A14, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A14, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A14, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A14, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A14, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A14, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A14, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A14, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -37699,26 +37879,26 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A15, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A15, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A15, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A15, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A15, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A15, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A15, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A15, Scores!$F$2:$F$284, F$1)</f>
         <v>6</v>
       </c>
       <c r="G15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A15, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A15, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -37751,26 +37931,26 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A16, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A16, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A16, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A16, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A16, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A16, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A16, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A16, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A16, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A16, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -37803,26 +37983,26 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A17, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A17, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A17, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A17, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A17, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A17, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A17, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A17, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A17, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A17, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -37855,26 +38035,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A18, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A18, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A18, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A18, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A18, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A18, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A18, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A18, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A18, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A18, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -37907,26 +38087,26 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A19, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A19, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A19, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A19, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A19, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A19, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A19, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A19, Scores!$F$2:$F$284, F$1)</f>
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A19, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A19, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -37959,26 +38139,26 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A20, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A20, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A20, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A20, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A20, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A20, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A20, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A20, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A20, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A20, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -38011,26 +38191,26 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A21, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A21, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A21, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A21, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A21, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A21, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A21, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A21, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A21, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A21, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -38063,26 +38243,26 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A22, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A22, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A22, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A22, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A22, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A22, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A22, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A22, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A22, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A22, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -38115,26 +38295,26 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A23, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A23, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A23, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A23, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A23, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A23, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A23, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A23, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A23, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A23, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -38167,26 +38347,26 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A24, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A24, Scores!$E$2:$E$284, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A24, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A24, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A24, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A24, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A24, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A24, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A24, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A24, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -38219,26 +38399,26 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A25, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A25, Scores!$E$2:$E$284, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A25, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A25, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A25, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A25, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A25, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A25, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A25, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A25, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -38271,26 +38451,26 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A26, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A26, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A26, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A26, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A26, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A26, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A26, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A26, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A26, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A26, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -38323,26 +38503,26 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A27, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A27, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A27, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A27, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A27, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A27, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A27, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A27, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A27, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A27, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -38375,26 +38555,26 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A28, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A28, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A28, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A28, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A28, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A28, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A28, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A28, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A28, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A28, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -38427,26 +38607,26 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A29, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A29, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A29, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A29, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A29, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A29, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A29, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A29, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A29, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A29, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -38479,26 +38659,26 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A30, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A30, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A30, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A30, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A30, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A30, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A30, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A30, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A30, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A30, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -38531,26 +38711,26 @@
         <v>15</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A31, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A31, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A31, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A31, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A31, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A31, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A31, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A31, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A31, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A31, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -38583,26 +38763,26 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A32, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A32, Scores!$E$2:$E$284, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A32, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A32, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A32, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A32, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A32, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A32, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A32, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A32, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H32" s="1" t="str">
@@ -38635,26 +38815,26 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A33, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A33, Scores!$E$2:$E$284, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A33, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A33, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A33, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A33, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A33, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A33, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A33, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A33, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H33" s="1" t="str">
@@ -38684,26 +38864,26 @@
         <v>17</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A34, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A34, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A34, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A34, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A34, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A34, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A34, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A34, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A34, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A34, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
@@ -38733,26 +38913,26 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A35, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A35, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A35, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A35, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A35, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A35, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A35, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A35, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A35, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A35, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -38782,26 +38962,26 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A36, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A36, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A36, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A36, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A36, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A36, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A36, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A36, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A36, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A36, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -38831,26 +39011,26 @@
         <v>18</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A37, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A37, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A37, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A37, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A37, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A37, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A37, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A37, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A37, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A37, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
@@ -38880,26 +39060,26 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A38, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A38, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A38, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A38, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A38, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A38, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A38, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A38, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A38, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A38, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
@@ -38929,26 +39109,26 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A39, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A39, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A39, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A39, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A39, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A39, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A39, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A39, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A39, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A39, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -38978,26 +39158,26 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A40, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A40, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A40, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A40, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A40, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A40, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A40, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A40, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A40, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A40, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
@@ -39027,26 +39207,26 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A41, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A41, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A41, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A41, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A41, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A41, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A41, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A41, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A41, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A41, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -39076,26 +39256,26 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A42, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A42, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A42, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A42, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A42, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A42, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A42, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A42, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A42, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A42, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
@@ -39125,26 +39305,26 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A43, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A43, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A43, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A43, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A43, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A43, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A43, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A43, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A43, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A43, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -39174,26 +39354,26 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A44, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A44, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A44, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A44, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A44, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A44, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A44, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A44, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A44, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A44, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -39223,26 +39403,26 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A45, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A45, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A45, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A45, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A45, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A45, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A45, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A45, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A45, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A45, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -39272,26 +39452,26 @@
         <v>23</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A46, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A46, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A46, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A46, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A46, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A46, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A46, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A46, Scores!$F$2:$F$284, F$1)</f>
         <v>7</v>
       </c>
       <c r="G46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A46, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A46, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
@@ -39321,26 +39501,26 @@
         <v>23</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A47, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A47, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A47, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A47, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A47, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A47, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A47, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A47, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A47, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A47, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
@@ -39370,26 +39550,26 @@
         <v>24</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A48, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A48, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A48, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A48, Scores!$F$2:$F$284, D$1)</f>
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A48, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A48, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A48, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A48, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A48, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A48, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
@@ -39419,26 +39599,26 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A49, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A49, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A49, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A49, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A49, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A49, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A49, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A49, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A49, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A49, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
@@ -39468,26 +39648,26 @@
         <v>25</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A50, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A50, Scores!$E$2:$E$284, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A50, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A50, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A50, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A50, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A50, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A50, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A50, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A50, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
@@ -39517,26 +39697,26 @@
         <v>25</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A51, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A51, Scores!$E$2:$E$284, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A51, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A51, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A51, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A51, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A51, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A51, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A51, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A51, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
@@ -39566,26 +39746,26 @@
         <v>26</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A52, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A52, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A52, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A52, Scores!$F$2:$F$284, D$1)</f>
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A52, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A52, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A52, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A52, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A52, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A52, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
@@ -39615,26 +39795,26 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A53, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A53, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A53, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A53, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A53, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A53, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A53, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A53, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A53, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A53, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
@@ -39664,26 +39844,26 @@
         <v>27</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A54, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A54, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A54, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A54, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A54, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A54, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A54, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A54, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A54, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A54, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
@@ -39713,26 +39893,26 @@
         <v>27</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A55, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A55, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A55, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A55, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A55, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A55, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A55, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A55, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A55, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A55, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
@@ -39762,26 +39942,26 @@
         <v>28</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A56, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A56, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A56, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A56, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A56, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A56, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A56, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A56, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A56, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A56, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -39811,26 +39991,26 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A57, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A57, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A57, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A57, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A57, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A57, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A57, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A57, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A57, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A57, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
@@ -39860,26 +40040,26 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A58, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A58, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A58, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A58, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A58, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A58, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A58, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A58, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A58, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A58, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -39909,26 +40089,26 @@
         <v>29</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A59, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A59, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A59, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A59, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A59, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A59, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A59, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A59, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A59, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A59, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -39958,26 +40138,26 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A60, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A60, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A60, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A60, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A60, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A60, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A60, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A60, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A60, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A60, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -40007,26 +40187,26 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A61, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A61, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A61, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A61, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A61, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A61, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A61, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A61, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A61, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A61, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -40056,26 +40236,26 @@
         <v>31</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A62, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A62, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A62, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A62, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A62, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A62, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A62, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A62, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A62, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A62, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -40105,26 +40285,26 @@
         <v>31</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A63, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A63, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A63, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A63, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A63, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A63, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A63, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A63, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A63, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A63, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
@@ -40154,26 +40334,26 @@
         <v>32</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A64, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A64, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A64, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A64, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A64, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A64, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A64, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A64, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A64, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A64, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -40203,26 +40383,26 @@
         <v>32</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A65, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A65, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A65, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A65, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A65, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A65, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A65, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A65, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A65, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A65, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -40252,26 +40432,26 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A66, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A66, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A66, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A66, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A66, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A66, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A66, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A66, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A66, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A66, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -40301,26 +40481,26 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A67, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A67, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A67, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A67, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A67, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A67, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A67, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A67, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A67, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A67, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H67" s="1" t="str">
@@ -40350,26 +40530,26 @@
         <v>34</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A68, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A68, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A68, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A68, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A68, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A68, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A68, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A68, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A68, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A68, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H68" s="1" t="str">
@@ -40399,26 +40579,26 @@
         <v>34</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A69, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A69, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A69, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A69, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A69, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A69, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A69, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A69, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A69, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A69, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -40448,26 +40628,26 @@
         <v>35</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A70, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A70, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A70, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A70, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A70, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A70, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A70, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A70, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A70, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A70, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H70" s="1" t="str">
@@ -40497,26 +40677,26 @@
         <v>35</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A71, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A71, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A71, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A71, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A71, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A71, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A71, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A71, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A71, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A71, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -40546,26 +40726,26 @@
         <v>36</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A72, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A72, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A72, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A72, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A72, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A72, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A72, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A72, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A72, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A72, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -40595,26 +40775,26 @@
         <v>36</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A73, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A73, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A73, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A73, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A73, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A73, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A73, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A73, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A73, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A73, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H73" s="1" t="str">
@@ -40644,26 +40824,26 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A74, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A74, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A74, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A74, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A74, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A74, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A74, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A74, Scores!$F$2:$F$284, F$1)</f>
         <v>5</v>
       </c>
       <c r="G74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A74, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A74, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
@@ -40693,26 +40873,26 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A75, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A75, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A75, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A75, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A75, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A75, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A75, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A75, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A75, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A75, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H75" s="1" t="str">
@@ -40742,26 +40922,26 @@
         <v>38</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A76, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A76, Scores!$E$2:$E$284, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A76, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A76, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A76, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A76, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A76, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A76, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A76, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A76, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H76" s="1" t="str">
@@ -40791,26 +40971,26 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A77, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A77, Scores!$E$2:$E$284, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A77, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A77, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A77, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A77, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A77, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A77, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A77, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A77, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -40840,26 +41020,26 @@
         <v>39</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A78, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A78, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A78, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A78, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A78, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A78, Scores!$F$2:$F$284, E$1)</f>
         <v>7</v>
       </c>
       <c r="F78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A78, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A78, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A78, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A78, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -40889,26 +41069,26 @@
         <v>39</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A79, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A79, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A79, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A79, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A79, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A79, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A79, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A79, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A79, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A79, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -40938,26 +41118,26 @@
         <v>40</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A80, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A80, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A80, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A80, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A80, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A80, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A80, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A80, Scores!$F$2:$F$284, F$1)</f>
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A80, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A80, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -40987,26 +41167,26 @@
         <v>40</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A81, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A81, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A81, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A81, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A81, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A81, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A81, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A81, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A81, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A81, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -41036,26 +41216,26 @@
         <v>41</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A82, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A82, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A82, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A82, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A82, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A82, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A82, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A82, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A82, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A82, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -41085,26 +41265,26 @@
         <v>41</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A83, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A83, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A83, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A83, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A83, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A83, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A83, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A83, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A83, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A83, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -41134,26 +41314,26 @@
         <v>42</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A84, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A84, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A84, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A84, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A84, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A84, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A84, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A84, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A84, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A84, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -41183,26 +41363,26 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A85, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A85, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A85, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A85, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A85, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A85, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A85, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A85, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A85, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A85, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -41232,26 +41412,26 @@
         <v>43</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A86, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A86, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A86, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A86, Scores!$F$2:$F$284, D$1)</f>
         <v>7</v>
       </c>
       <c r="E86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A86, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A86, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A86, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A86, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A86, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A86, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -41281,26 +41461,26 @@
         <v>43</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A87, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A87, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A87, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A87, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A87, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A87, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A87, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A87, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A87, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A87, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -41330,26 +41510,26 @@
         <v>44</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A88, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A88, Scores!$E$2:$E$284, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A88, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A88, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A88, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A88, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A88, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A88, Scores!$F$2:$F$284, F$1)</f>
         <v>6</v>
       </c>
       <c r="G88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A88, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A88, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -41379,26 +41559,26 @@
         <v>44</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A89, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A89, Scores!$E$2:$E$284, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A89, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A89, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A89, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A89, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A89, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A89, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A89, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A89, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H89" s="1" t="str">
@@ -41428,26 +41608,26 @@
         <v>45</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A90, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A90, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A90, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A90, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A90, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A90, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A90, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A90, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A90, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A90, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H90" s="1" t="str">
@@ -41477,26 +41657,26 @@
         <v>45</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A91, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A91, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A91, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A91, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A91, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A91, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A91, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A91, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A91, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A91, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H91" s="1" t="str">
@@ -41526,26 +41706,26 @@
         <v>46</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A92, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A92, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A92, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A92, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A92, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A92, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A92, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A92, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A92, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A92, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -41575,26 +41755,26 @@
         <v>46</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A93, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A93, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A93, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A93, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A93, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A93, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A93, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A93, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A93, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A93, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -41623,26 +41803,26 @@
         <v>48</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A94, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A94, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A94, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A94, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A94, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A94, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A94, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A94, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A94, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A94, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H94" s="1" t="str">
@@ -41671,26 +41851,26 @@
         <v>48</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A95, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A95, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A95, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A95, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A95, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A95, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A95, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A95, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A95, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A95, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H95" s="1" t="str">
@@ -41720,26 +41900,26 @@
         <v>49</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A96, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A96, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A96, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A96, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A96, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A96, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A96, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A96, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A96, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A96, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H96" s="1" t="str">
@@ -41769,26 +41949,26 @@
         <v>49</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A97, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A97, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A97, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A97, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A97, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A97, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A97, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A97, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A97, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A97, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H97" s="1" t="str">
@@ -41818,26 +41998,26 @@
         <v>50</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A98, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A98, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A98, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A98, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A98, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A98, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A98, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A98, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A98, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A98, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H98" s="1" t="str">
@@ -41867,26 +42047,26 @@
         <v>50</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A99, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A99, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A99, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A99, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A99, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A99, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A99, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A99, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A99, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A99, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H99" s="1" t="str">
@@ -41916,26 +42096,26 @@
         <v>51</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A100, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A100, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A100, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A100, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A100, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A100, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A100, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A100, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A100, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A100, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H100" s="1" t="str">
@@ -41965,26 +42145,26 @@
         <v>51</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A101, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A101, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A101, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A101, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A101, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A101, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A101, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A101, Scores!$F$2:$F$284, F$1)</f>
         <v>5</v>
       </c>
       <c r="G101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A101, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A101, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H101" s="1" t="str">
@@ -42014,26 +42194,26 @@
         <v>52</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A102, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A102, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A102, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A102, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A102, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A102, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A102, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A102, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A102, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A102, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H102" s="1" t="str">
@@ -42063,26 +42243,26 @@
         <v>52</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A103, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A103, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A103, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A103, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A103, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A103, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A103, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A103, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A103, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A103, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H103" s="1" t="str">
@@ -42112,26 +42292,26 @@
         <v>53</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A104, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A104, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A104, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A104, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A104, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A104, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A104, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A104, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A104, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A104, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H104" s="1" t="str">
@@ -42161,26 +42341,26 @@
         <v>53</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A105, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A105, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A105, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A105, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A105, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A105, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A105, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A105, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A105, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A105, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H105" s="1" t="str">
@@ -42210,26 +42390,26 @@
         <v>54</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A106, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A106, Scores!$E$2:$E$284, 0))</f>
         <v>QJCDY</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A106, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A106, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A106, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A106, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A106, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A106, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A106, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A106, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H106" s="1" t="str">
@@ -42259,26 +42439,26 @@
         <v>54</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A107, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A107, Scores!$E$2:$E$284, 0))</f>
         <v>QJCDY</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A107, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A107, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A107, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A107, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A107, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A107, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A107, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A107, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H107" s="1" t="str">
@@ -42308,26 +42488,26 @@
         <v>55</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A108, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A108, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A108, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A108, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A108, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A108, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A108, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A108, Scores!$F$2:$F$284, F$1)</f>
         <v>6</v>
       </c>
       <c r="G108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A108, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A108, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H108" s="1" t="str">
@@ -42357,26 +42537,26 @@
         <v>55</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A109, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A109, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A109, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A109, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A109, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A109, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A109, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A109, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A109, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A109, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H109" s="1" t="str">
@@ -42406,26 +42586,26 @@
         <v>56</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A110, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A110, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A110, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A110, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A110, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A110, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A110, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A110, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A110, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A110, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H110" s="1" t="str">
@@ -42455,26 +42635,26 @@
         <v>56</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A111, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A111, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A111, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A111, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A111, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A111, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A111, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A111, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A111, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A111, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H111" s="1" t="str">
@@ -42504,26 +42684,26 @@
         <v>57</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A112, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A112, Scores!$E$2:$E$284, 0))</f>
         <v>JCK</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A112, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A112, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A112, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A112, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A112, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A112, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A112, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A112, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H112" s="1" t="str">
@@ -42553,26 +42733,26 @@
         <v>57</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A113, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A113, Scores!$E$2:$E$284, 0))</f>
         <v>JCK</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A113, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A113, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A113, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A113, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A113, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A113, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A113, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A113, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H113" s="1" t="str">
@@ -42602,26 +42782,26 @@
         <v>58</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A114, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A114, Scores!$E$2:$E$284, 0))</f>
         <v>CJK</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A114, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A114, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A114, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A114, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A114, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A114, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A114, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A114, Scores!$F$2:$F$284, G$1)</f>
         <v>5</v>
       </c>
       <c r="H114" s="1" t="str">
@@ -42651,26 +42831,26 @@
         <v>58</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A115, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A115, Scores!$E$2:$E$284, 0))</f>
         <v>CJK</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A115, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A115, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A115, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A115, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A115, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A115, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A115, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A115, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H115" s="1" t="str">
@@ -42700,26 +42880,26 @@
         <v>59</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A116, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A116, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A116, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A116, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A116, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A116, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A116, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A116, Scores!$F$2:$F$284, F$1)</f>
         <v>5</v>
       </c>
       <c r="G116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A116, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A116, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H116" s="1" t="str">
@@ -42749,26 +42929,26 @@
         <v>59</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A117, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A117, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A117, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A117, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A117, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A117, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A117, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A117, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A117, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A117, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H117" s="1" t="str">
@@ -42798,26 +42978,26 @@
         <v>60</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A118, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A118, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A118, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A118, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A118, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A118, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A118, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A118, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A118, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A118, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H118" s="1" t="str">
@@ -42847,26 +43027,26 @@
         <v>60</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A119, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A119, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A119, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A119, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A119, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A119, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A119, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A119, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A119, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A119, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H119" s="1" t="str">
@@ -42896,26 +43076,26 @@
         <v>61</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A120, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A120, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A120, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A120, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A120, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A120, Scores!$F$2:$F$284, E$1)</f>
         <v>7</v>
       </c>
       <c r="F120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A120, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A120, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A120, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A120, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H120" s="1" t="str">
@@ -42945,26 +43125,26 @@
         <v>61</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A121, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A121, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A121, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A121, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A121, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A121, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A121, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A121, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A121, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A121, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H121" s="1" t="str">
@@ -42994,26 +43174,26 @@
         <v>62</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A122, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A122, Scores!$E$2:$E$284, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A122, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A122, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A122, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A122, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A122, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A122, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A122, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A122, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H122" s="1" t="str">
@@ -43043,26 +43223,26 @@
         <v>62</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A123, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A123, Scores!$E$2:$E$284, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A123, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A123, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A123, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A123, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A123, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A123, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A123, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A123, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H123" s="1" t="str">
@@ -43092,26 +43272,26 @@
         <v>63</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A124, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A124, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A124, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A124, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A124, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A124, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A124, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A124, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A124, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A124, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H124" s="1" t="str">
@@ -43141,26 +43321,26 @@
         <v>63</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A125, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A125, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A125, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A125, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A125, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A125, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A125, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A125, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A125, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A125, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H125" s="1" t="str">
@@ -43189,26 +43369,26 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A126, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A126, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A126, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A126, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A126, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A126, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A126, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A126, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A126, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A126, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H126" s="1" t="str">
@@ -43237,26 +43417,26 @@
         <v>65</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A127, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A127, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A127, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A127, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A127, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A127, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A127, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A127, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A127, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A127, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H127" s="1" t="str">
@@ -43286,26 +43466,26 @@
         <v>66</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A128, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A128, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A128, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A128, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A128, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A128, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A128, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A128, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A128, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A128, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H128" s="1" t="str">
@@ -43335,26 +43515,26 @@
         <v>66</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A129, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A129, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A129, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A129, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A129, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A129, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A129, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A129, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A129, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A129, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H129" s="1" t="str">
@@ -43384,26 +43564,26 @@
         <v>67</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A130, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A130, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A130, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A130, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A130, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A130, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A130, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A130, Scores!$F$2:$F$284, F$1)</f>
         <v>6</v>
       </c>
       <c r="G130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A130, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A130, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H130" s="1" t="str">
@@ -43433,26 +43613,26 @@
         <v>67</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A131, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A131, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A131, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A131, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A131, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A131, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A131, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A131, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A131, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A131, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H131" s="1" t="str">
@@ -43482,26 +43662,26 @@
         <v>68</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A132, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A132, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A132, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A132, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A132, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A132, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A132, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A132, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A132, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A132, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H132" s="1" t="str">
@@ -43531,26 +43711,26 @@
         <v>68</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A133, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A133, Scores!$E$2:$E$284, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A133, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A133, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A133, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A133, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A133, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A133, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A133, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A133, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H133" s="1" t="str">
@@ -43576,30 +43756,30 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <f t="shared" ref="A134:A177" si="268">A132+1</f>
+        <f t="shared" ref="A134:A181" si="268">A132+1</f>
         <v>69</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A134, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A134, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A134, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A134, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A134, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A134, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A134, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A134, Scores!$F$2:$F$284, F$1)</f>
         <v>6</v>
       </c>
       <c r="G134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A134, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A134, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H134" s="1" t="str">
@@ -43629,26 +43809,26 @@
         <v>69</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A135, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A135, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A135, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A135, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A135, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A135, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A135, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A135, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A135, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A135, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H135" s="1" t="str">
@@ -43678,26 +43858,26 @@
         <v>70</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A136, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A136, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A136, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A136, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A136, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A136, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A136, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A136, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A136, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A136, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H136" s="1" t="str">
@@ -43727,26 +43907,26 @@
         <v>70</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A137, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A137, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A137, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A137, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A137, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A137, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A137, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A137, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A137, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A137, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H137" s="1" t="str">
@@ -43776,26 +43956,26 @@
         <v>71</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A138, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A138, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A138, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A138, Scores!$F$2:$F$284, D$1)</f>
         <v>8</v>
       </c>
       <c r="E138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A138, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A138, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A138, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A138, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A138, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A138, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H138" s="1" t="str">
@@ -43825,26 +44005,26 @@
         <v>71</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A139, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A139, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A139, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A139, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A139, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A139, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A139, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A139, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A139, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A139, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H139" s="1" t="str">
@@ -43874,26 +44054,26 @@
         <v>72</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A140, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A140, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A140, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A140, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A140, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A140, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A140, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A140, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A140, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A140, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H140" s="1" t="str">
@@ -43923,26 +44103,26 @@
         <v>72</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A141, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A141, Scores!$E$2:$E$284, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A141, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A141, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A141, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A141, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A141, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A141, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A141, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A141, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H141" s="1" t="str">
@@ -43972,26 +44152,26 @@
         <v>73</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A142, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A142, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A142, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A142, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A142, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A142, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A142, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A142, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A142, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A142, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H142" s="1" t="str">
@@ -44021,26 +44201,26 @@
         <v>73</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A143, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A143, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A143, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A143, Scores!$F$2:$F$284, D$1)</f>
         <v>6</v>
       </c>
       <c r="E143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A143, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A143, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A143, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A143, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A143, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A143, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H143" s="1" t="str">
@@ -44070,26 +44250,26 @@
         <v>74</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A144, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A144, Scores!$E$2:$E$284, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A144, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A144, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A144, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A144, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A144, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A144, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A144, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A144, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H144" s="1" t="str">
@@ -44119,26 +44299,26 @@
         <v>74</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A145, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A145, Scores!$E$2:$E$284, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A145, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A145, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A145, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A145, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A145, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A145, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A145, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A145, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H145" s="1" t="str">
@@ -44168,26 +44348,26 @@
         <v>75</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A146, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A146, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A146, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A146, Scores!$F$2:$F$284, D$1)</f>
         <v>5</v>
       </c>
       <c r="E146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A146, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A146, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A146, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A146, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A146, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A146, Scores!$F$2:$F$284, G$1)</f>
         <v>3</v>
       </c>
       <c r="H146" s="1" t="str">
@@ -44217,26 +44397,26 @@
         <v>75</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A147, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A147, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A147, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A147, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A147, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A147, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A147, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A147, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A147, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A147, Scores!$F$2:$F$284, G$1)</f>
         <v>1</v>
       </c>
       <c r="H147" s="1" t="str">
@@ -44266,26 +44446,26 @@
         <v>76</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A148, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A148, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A148, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A148, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A148, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A148, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A148, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A148, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A148, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A148, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H148" s="1" t="str">
@@ -44315,26 +44495,26 @@
         <v>76</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A149, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A149, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A149, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A149, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A149, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A149, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A149, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A149, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A149, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A149, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H149" s="1" t="str">
@@ -44364,26 +44544,26 @@
         <v>77</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A150, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A150, Scores!$E$2:$E$284, 0))</f>
         <v>QCJ</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A150, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A150, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A150, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A150, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A150, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A150, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A150, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A150, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H150" s="1" t="str">
@@ -44413,26 +44593,26 @@
         <v>77</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A151, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A151, Scores!$E$2:$E$284, 0))</f>
         <v>QCJ</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A151, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A151, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A151, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A151, Scores!$F$2:$F$284, E$1)</f>
         <v>5</v>
       </c>
       <c r="F151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A151, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A151, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A151, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A151, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H151" s="1" t="str">
@@ -44461,26 +44641,26 @@
         <v>79</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A152, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A152, Scores!$E$2:$E$284, 0))</f>
         <v>CJQD</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A152, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A152, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A152, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A152, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A152, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A152, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A152, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A152, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H152" s="1" t="str">
@@ -44509,26 +44689,26 @@
         <v>79</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A153, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A153, Scores!$E$2:$E$284, 0))</f>
         <v>CJQD</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A153, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A153, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A153, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A153, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A153, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A153, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A153, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A153, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H153" s="1" t="str">
@@ -44558,26 +44738,26 @@
         <v>80</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A154, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A154, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A154, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A154, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A154, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A154, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A154, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A154, Scores!$F$2:$F$284, F$1)</f>
         <v>5</v>
       </c>
       <c r="G154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A154, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A154, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H154" s="1" t="str">
@@ -44607,26 +44787,26 @@
         <v>80</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A155, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A155, Scores!$E$2:$E$284, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A155, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A155, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A155, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A155, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A155, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A155, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A155, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A155, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H155" s="1" t="str">
@@ -44656,26 +44836,26 @@
         <v>81</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A156, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A156, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A156, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A156, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A156, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A156, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A156, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A156, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A156, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A156, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H156" s="1" t="str">
@@ -44705,26 +44885,26 @@
         <v>81</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A157, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A157, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A157, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A157, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A157, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A157, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A157, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A157, Scores!$F$2:$F$284, F$1)</f>
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A157, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A157, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H157" s="1" t="str">
@@ -44754,26 +44934,26 @@
         <v>82</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A158, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A158, Scores!$E$2:$E$284, 0))</f>
         <v>JDC</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A158, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A158, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A158, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A158, Scores!$F$2:$F$284, E$1)</f>
         <v>6</v>
       </c>
       <c r="F158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A158, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A158, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A158, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A158, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H158" s="1" t="str">
@@ -44803,26 +44983,26 @@
         <v>82</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A159, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A159, Scores!$E$2:$E$284, 0))</f>
         <v>JDC</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A159, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A159, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A159, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A159, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A159, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A159, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A159, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A159, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H159" s="1" t="str">
@@ -44852,26 +45032,26 @@
         <v>83</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A160, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A160, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A160, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A160, Scores!$F$2:$F$284, D$1)</f>
         <v>6</v>
       </c>
       <c r="E160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A160, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A160, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A160, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A160, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A160, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A160, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H160" s="1" t="str">
@@ -44901,26 +45081,26 @@
         <v>83</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A161, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A161, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A161, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A161, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A161, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A161, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A161, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A161, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A161, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A161, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H161" s="1" t="str">
@@ -44950,26 +45130,26 @@
         <v>84</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A162, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A162, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A162, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A162, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A162, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A162, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A162, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A162, Scores!$F$2:$F$284, F$1)</f>
         <v>7</v>
       </c>
       <c r="G162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A162, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A162, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H162" s="1" t="str">
@@ -44999,26 +45179,26 @@
         <v>84</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A163, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A163, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A163, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A163, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A163, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A163, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A163, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A163, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A163, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A163, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H163" s="1" t="str">
@@ -45048,26 +45228,26 @@
         <v>85</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A164, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A164, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A164, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A164, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A164, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A164, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A164, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A164, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A164, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A164, Scores!$F$2:$F$284, G$1)</f>
         <v>5</v>
       </c>
       <c r="H164" s="1" t="str">
@@ -45097,26 +45277,26 @@
         <v>85</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A165, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A165, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A165, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A165, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A165, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A165, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A165, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A165, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A165, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A165, Scores!$F$2:$F$284, G$1)</f>
         <v>1</v>
       </c>
       <c r="H165" s="1" t="str">
@@ -45146,26 +45326,26 @@
         <v>86</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A166, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A166, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A166, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A166, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A166, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A166, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A166, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A166, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A166, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A166, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H166" s="1" t="str">
@@ -45195,26 +45375,26 @@
         <v>86</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A167, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A167, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A167, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A167, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A167, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A167, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A167, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A167, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A167, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A167, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H167" s="1" t="str">
@@ -45244,26 +45424,26 @@
         <v>87</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A168, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A168, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A168, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A168, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A168, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A168, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A168, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A168, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A168, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A168, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H168" s="1" t="str">
@@ -45293,26 +45473,26 @@
         <v>87</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A169, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A169, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A169, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A169, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A169, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A169, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A169, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A169, Scores!$F$2:$F$284, F$1)</f>
         <v>3</v>
       </c>
       <c r="G169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A169, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A169, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H169" s="1" t="str">
@@ -45342,26 +45522,26 @@
         <v>88</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A170, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A170, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A170, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A170, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A170, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A170, Scores!$F$2:$F$284, E$1)</f>
         <v>4</v>
       </c>
       <c r="F170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A170, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A170, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A170, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A170, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H170" s="1" t="str">
@@ -45369,11 +45549,11 @@
         <v>Caleb</v>
       </c>
       <c r="I170" s="1">
-        <f t="shared" ref="I170:I176" si="341">IF($H170=$C170, SUM($D170:$E170)-SUM($D171:$E171), SUM($D170:$E170) - SUM($D171:$F171))</f>
+        <f t="shared" ref="I170:I180" si="341">IF($H170=$C170, SUM($D170:$E170)-SUM($D171:$E171), SUM($D170:$E170) - SUM($D171:$F171))</f>
         <v>1</v>
       </c>
       <c r="J170" s="1">
-        <f t="shared" ref="J170:J176" si="342">IF($H170=$C170, SUM($D170:$F170)-SUM($D171:$E171), SUM($D170:$F170)-SUM($D171:$F171))</f>
+        <f t="shared" ref="J170:J180" si="342">IF($H170=$C170, SUM($D170:$F170)-SUM($D171:$E171), SUM($D170:$F170)-SUM($D171:$F171))</f>
         <v>5</v>
       </c>
       <c r="K170" s="1" t="str">
@@ -45391,26 +45571,26 @@
         <v>88</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A171, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A171, Scores!$E$2:$E$284, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A171, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A171, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A171, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A171, Scores!$F$2:$F$284, E$1)</f>
         <v>3</v>
       </c>
       <c r="F171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A171, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A171, Scores!$F$2:$F$284, F$1)</f>
         <v>4</v>
       </c>
       <c r="G171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A171, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A171, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H171" s="1" t="str">
@@ -45418,11 +45598,11 @@
         <v>Caleb</v>
       </c>
       <c r="I171" s="1">
-        <f t="shared" ref="I171:I177" si="343">IF($H171=$C171, SUM($D171:$E171)-SUM($D170:$E170), SUM($D171:$E171) - SUM($D170:$F170))</f>
+        <f t="shared" ref="I171:I181" si="343">IF($H171=$C171, SUM($D171:$E171)-SUM($D170:$E170), SUM($D171:$E171) - SUM($D170:$F170))</f>
         <v>-5</v>
       </c>
       <c r="J171" s="1">
-        <f t="shared" ref="J171:J177" si="344">IF($H171=$C171, SUM($D171:$F171)-SUM($D170:$E170), SUM($D171:$F171)-SUM($D170:$F170))</f>
+        <f t="shared" ref="J171:J181" si="344">IF($H171=$C171, SUM($D171:$F171)-SUM($D170:$E170), SUM($D171:$F171)-SUM($D170:$F170))</f>
         <v>-1</v>
       </c>
       <c r="K171" s="1">
@@ -45440,26 +45620,26 @@
         <v>89</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A172, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A172, Scores!$E$2:$E$284, 0))</f>
         <v>JVC</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A172, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A172, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A172, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A172, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A172, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A172, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A172, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A172, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H172" s="1" t="str">
@@ -45489,26 +45669,26 @@
         <v>89</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A173, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A173, Scores!$E$2:$E$284, 0))</f>
         <v>JVC</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A173, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A173, Scores!$F$2:$F$284, D$1)</f>
         <v>2</v>
       </c>
       <c r="E173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A173, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A173, Scores!$F$2:$F$284, E$1)</f>
         <v>1</v>
       </c>
       <c r="F173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A173, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A173, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A173, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A173, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H173" s="1" t="str">
@@ -45538,26 +45718,26 @@
         <v>90</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A174, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A174, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A174, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A174, Scores!$F$2:$F$284, D$1)</f>
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A174, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A174, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A174, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A174, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A174, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A174, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H174" s="1" t="str">
@@ -45587,26 +45767,26 @@
         <v>90</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A175, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A175, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A175, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A175, Scores!$F$2:$F$284, D$1)</f>
         <v>0</v>
       </c>
       <c r="E175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A175, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A175, Scores!$F$2:$F$284, E$1)</f>
         <v>0</v>
       </c>
       <c r="F175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A175, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A175, Scores!$F$2:$F$284, F$1)</f>
         <v>1</v>
       </c>
       <c r="G175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A175, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A175, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H175" s="1" t="str">
@@ -45636,26 +45816,26 @@
         <v>91</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A176, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A176, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A176, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A176, Scores!$F$2:$F$284, D$1)</f>
         <v>3</v>
       </c>
       <c r="E176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A176, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A176, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A176, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A176, Scores!$F$2:$F$284, F$1)</f>
         <v>2</v>
       </c>
       <c r="G176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A176, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A176, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H176" s="1" t="str">
@@ -45685,26 +45865,26 @@
         <v>91</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$281, MATCH(Clutch!$A177, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A177, Scores!$E$2:$E$284, 0))</f>
         <v>JC</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A177, Scores!$F$2:$F$281, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A177, Scores!$F$2:$F$284, D$1)</f>
         <v>4</v>
       </c>
       <c r="E177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A177, Scores!$F$2:$F$281, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A177, Scores!$F$2:$F$284, E$1)</f>
         <v>2</v>
       </c>
       <c r="F177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A177, Scores!$F$2:$F$281, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A177, Scores!$F$2:$F$284, F$1)</f>
         <v>5</v>
       </c>
       <c r="G177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$281, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$281, $A177, Scores!$F$2:$F$281, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A177, Scores!$F$2:$F$284, G$1)</f>
         <v>0</v>
       </c>
       <c r="H177" s="1" t="str">
@@ -45726,6 +45906,104 @@
       <c r="L177" s="1">
         <f t="shared" si="350"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="1">
+        <f t="shared" si="268"/>
+        <v>92</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A178, Scores!$E$2:$E$284, 0))</f>
+        <v>CJ</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A178, Scores!$F$2:$F$284, D$1)</f>
+        <v>4</v>
+      </c>
+      <c r="E178" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A178, Scores!$F$2:$F$284, E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F178" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A178, Scores!$F$2:$F$284, F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G178" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A178, Scores!$F$2:$F$284, G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <f t="shared" ref="H178:H181" si="351">IF(FIND("C", B178) &lt; FIND("J", B178), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="I178" s="1">
+        <f t="shared" si="341"/>
+        <v>3</v>
+      </c>
+      <c r="J178" s="1">
+        <f t="shared" si="342"/>
+        <v>4</v>
+      </c>
+      <c r="K178" s="1" t="str">
+        <f t="shared" ref="K178:K181" si="352">IF(I178&lt;=0,IF(J178&gt;=0,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="L178" s="1">
+        <f t="shared" ref="L178:L181" si="353">IF(I178&gt;3, "&gt;3", IF(I178&lt;-3, "&lt;-3", I178))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="1">
+        <f t="shared" si="268"/>
+        <v>92</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f>INDEX(Scores!$G$2:$G$284, MATCH(Clutch!$A179, Scores!$E$2:$E$284, 0))</f>
+        <v>CJ</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A179, Scores!$F$2:$F$284, D$1)</f>
+        <v>3</v>
+      </c>
+      <c r="E179" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A179, Scores!$F$2:$F$284, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A179, Scores!$F$2:$F$284, F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G179" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$284, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$284, $A179, Scores!$F$2:$F$284, G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="1" t="str">
+        <f t="shared" si="351"/>
+        <v>Caleb</v>
+      </c>
+      <c r="I179" s="1">
+        <f t="shared" si="343"/>
+        <v>-4</v>
+      </c>
+      <c r="J179" s="1">
+        <f t="shared" si="344"/>
+        <v>-4</v>
+      </c>
+      <c r="K179" s="1">
+        <f t="shared" si="352"/>
+        <v>0</v>
+      </c>
+      <c r="L179" s="1" t="str">
+        <f t="shared" si="353"/>
+        <v>&lt;-3</v>
       </c>
     </row>
   </sheetData>
@@ -45735,13 +46013,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45801,11 +46079,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N281, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N284, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A2, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A2, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
       <c r="J2"/>
@@ -45834,11 +46112,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N282, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N285, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
         <v>13</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A3, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A3, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -45890,11 +46168,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N283, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N286, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A4, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A4, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -45946,11 +46224,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N284, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N287, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A5, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A5, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -45999,11 +46277,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N285, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N288, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A6, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A6, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -46052,11 +46330,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N286, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N289, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A7, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A7, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -46105,11 +46383,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N287, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N290, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A8, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A8, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -46158,11 +46436,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N288, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N291, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A9, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A9, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
       <c r="J9"/>
@@ -46192,11 +46470,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N289, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N292, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A10, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A10, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
       <c r="J10"/>
@@ -46223,11 +46501,11 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N290, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N293, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A11, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A11, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
       <c r="J11"/>
@@ -46251,11 +46529,11 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N291, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N294, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A12, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A12, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J12"/>
@@ -46279,11 +46557,11 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N292, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N295, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A13, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A13, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J13"/>
@@ -46307,11 +46585,11 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N293, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N296, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A14, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A14, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J14"/>
@@ -46335,11 +46613,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N294, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N297, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A15, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A15, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J15"/>
@@ -46363,11 +46641,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N295, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N298, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A16, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A16, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J16"/>
@@ -46391,11 +46669,11 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N296, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N299, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A17, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A17, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J17"/>
@@ -46419,11 +46697,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N297, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N300, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A18, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A18, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J18"/>
@@ -46447,11 +46725,11 @@
         <v>5</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N298, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N301, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A19, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A19, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J19"/>
@@ -46475,11 +46753,11 @@
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N299, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N302, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A20, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A20, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J20"/>
@@ -46503,11 +46781,11 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N300, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N303, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A21, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A21, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
       <c r="J21"/>
@@ -46531,11 +46809,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N301, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N304, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A22, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A22, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46556,11 +46834,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N302, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N305, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A23, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A23, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46581,11 +46859,11 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N303, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N306, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A24, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A24, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46606,11 +46884,11 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N304, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N307, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A25, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A25, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46631,11 +46909,11 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N305, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N308, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A26, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A26, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46656,11 +46934,11 @@
         <v>6</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N306, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N309, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A27, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A27, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46681,11 +46959,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N307, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N310, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A28, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A28, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -46706,11 +46984,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N308, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N311, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A29, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A29, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -46731,11 +47009,11 @@
         <v>6</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N309, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N312, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A30, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A30, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -46756,11 +47034,11 @@
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N310, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N313, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A31, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A31, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -46781,11 +47059,11 @@
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N311, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N314, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A32, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A32, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -46806,11 +47084,11 @@
         <v>6</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N312, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N315, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A33, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A33, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46831,11 +47109,11 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N313, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N316, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A34, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A34, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46856,11 +47134,11 @@
         <v>5</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N314, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N317, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A35, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A35, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46881,11 +47159,11 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N315, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N318, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A36, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A36, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -46906,11 +47184,11 @@
         <v>6</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N316, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N319, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A37, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A37, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -46931,11 +47209,11 @@
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N317, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N320, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A38, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A38, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -46956,11 +47234,11 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N318, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N321, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A39, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A39, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -46981,11 +47259,11 @@
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N319, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N322, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A40, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A40, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -47006,11 +47284,11 @@
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N320, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N323, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A41, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A41, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -47031,11 +47309,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N321, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N324, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A42, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A42, Scores!$E$2:$E$284, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -47056,11 +47334,11 @@
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A43, INDEX(Scores!$H$2:$N322, 0, MATCH($B43, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A43, INDEX(Scores!$H$2:$N325, 0, MATCH($B43, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A43, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A43, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -47081,11 +47359,11 @@
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A44, INDEX(Scores!$H$2:$N323, 0, MATCH($B44, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A44, INDEX(Scores!$H$2:$N326, 0, MATCH($B44, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A44, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A44, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -47106,11 +47384,11 @@
         <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A45, INDEX(Scores!$H$2:$N324, 0, MATCH($B45, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A45, INDEX(Scores!$H$2:$N327, 0, MATCH($B45, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A45, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A45, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -47131,11 +47409,11 @@
         <v>3</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A46, INDEX(Scores!$H$2:$N325, 0, MATCH($B46, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A46, INDEX(Scores!$H$2:$N328, 0, MATCH($B46, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A46, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A46, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -47156,11 +47434,11 @@
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A47, INDEX(Scores!$H$2:$N326, 0, MATCH($B47, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A47, INDEX(Scores!$H$2:$N329, 0, MATCH($B47, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A47, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A47, Scores!$E$2:$E$284, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -47181,11 +47459,11 @@
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A48, INDEX(Scores!$H$2:$N327, 0, MATCH($B48, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A48, INDEX(Scores!$H$2:$N330, 0, MATCH($B48, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A48, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A48, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -47206,11 +47484,11 @@
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A49, INDEX(Scores!$H$2:$N328, 0, MATCH($B49, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A49, INDEX(Scores!$H$2:$N331, 0, MATCH($B49, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A49, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A49, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -47231,11 +47509,11 @@
         <v>3</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A50, INDEX(Scores!$H$2:$N329, 0, MATCH($B50, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A50, INDEX(Scores!$H$2:$N332, 0, MATCH($B50, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A50, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A50, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -47256,11 +47534,61 @@
         <v>6</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIF(Scores!$E$2:$E$281, 'Next Gen'!$A51, INDEX(Scores!$H$2:$N330, 0, MATCH($B51, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A51, INDEX(Scores!$H$2:$N333, 0, MATCH($B51, Scores!$H$1:$N$1, 0)))</f>
         <v>11</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$281, MATCH('Next Gen'!$A51, Scores!$E$2:$E$281, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A51, Scores!$E$2:$E$284, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>92</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A52, INDEX(Scores!$H$2:$N334, 0, MATCH($B52, Scores!$H$1:$N$1, 0)))</f>
+        <v>7</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A52, Scores!$E$2:$E$284, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>92</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <f>SUMIF(Scores!$E$2:$E$284, 'Next Gen'!$A53, INDEX(Scores!$H$2:$N335, 0, MATCH($B53, Scores!$H$1:$N$1, 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$284, MATCH('Next Gen'!$A53, Scores!$E$2:$E$284, 0))</f>
         <v>mid</v>
       </c>
     </row>

--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B873E7-3F1C-964B-9754-63A1FD1F50CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0DE434-2D79-7548-A05E-D682DB228B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" activeTab="2" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
-    <pivotCache cacheId="8" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -412,7 +412,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -706,13 +766,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45790.535457754631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{B04EF695-8846-BA48-A83C-7C48148E1A04}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45791.510307060184" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="63" xr:uid="{FA6C5F32-619D-F54B-AF35-F275F03BBFD0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G61" sheet="Next Gen"/>
+    <worksheetSource ref="A1:G64" sheet="Next Gen"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Game" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="96"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="98"/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
       <sharedItems count="5">
@@ -750,7 +810,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="992878451"/>
+      <x14:pivotCacheDefinition pivotCacheId="1039024845"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -7467,7 +7527,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="63">
   <r>
     <n v="71"/>
     <x v="0"/>
@@ -8008,12 +8068,39 @@
     <n v="3"/>
     <x v="1"/>
   </r>
+  <r>
+    <n v="98"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22CC87E5-B97A-7A41-B8CB-BDC4B3344B48}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
-  <location ref="G313:N318" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22CC87E5-B97A-7A41-B8CB-BDC4B3344B48}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+  <location ref="G316:N321" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -8119,7 +8206,7 @@
     <dataField name="Average of Veronica" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -8144,7 +8231,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8783F34-B1CD-114E-9DED-272AEABD9575}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8783F34-B1CD-114E-9DED-272AEABD9575}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P6:S9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -8252,17 +8339,17 @@
     <dataField name="Success Rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="8">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="27">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8272,7 +8359,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8295,8 +8382,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{794CFFD5-E4CE-C143-8DB7-1CDE5DE477FD}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
-  <location ref="J3:R9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A6F5F36-B203-2D43-985A-199A2B2FB17E}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+  <location ref="J3:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8315,8 +8402,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -8330,7 +8417,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -8342,9 +8429,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -8390,17 +8474,17 @@
     <dataField name="PPT" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="4">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="23">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8409,7 +8493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8421,7 +8505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8452,10 +8536,10 @@
     <pivotTable tabId="2" name="PivotTable1"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="992878451">
+    <tabular pivotCacheId="1039024845">
       <items count="3">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="2"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -8786,11 +8870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:AI860"/>
+  <dimension ref="A1:AI863"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29181,7 +29265,7 @@
         <v>45790</v>
       </c>
       <c r="E297" s="2">
-        <f t="shared" ref="E297:E299" si="522">E294+1</f>
+        <f t="shared" ref="E297:E298" si="522">E294+1</f>
         <v>97</v>
       </c>
       <c r="F297" s="2">
@@ -29321,19 +29405,19 @@
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="P299" s="2">
-        <f t="shared" ref="P299" si="523">COUNTA(H299)</f>
+        <f t="shared" ref="P299:P302" si="523">COUNTA(H299)</f>
         <v>1</v>
       </c>
       <c r="Q299" s="2">
-        <f t="shared" ref="Q299" si="524">COUNTA(I299)</f>
+        <f t="shared" ref="Q299:Q302" si="524">COUNTA(I299)</f>
         <v>1</v>
       </c>
       <c r="R299" s="2">
-        <f t="shared" ref="R299" si="525">COUNTA(J299)</f>
+        <f t="shared" ref="R299:R302" si="525">COUNTA(J299)</f>
         <v>0</v>
       </c>
       <c r="S299" s="2">
-        <f t="shared" ref="S299" si="526">COUNTA(K299)</f>
+        <f t="shared" ref="S299:S302" si="526">COUNTA(K299)</f>
         <v>0</v>
       </c>
       <c r="T299" s="2"/>
@@ -29343,211 +29427,249 @@
       <c r="X299" s="11"/>
       <c r="Y299" s="11"/>
     </row>
+    <row r="300" spans="1:25">
+      <c r="A300" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D300" s="4">
+        <v>45791</v>
+      </c>
+      <c r="E300" s="2">
+        <f t="shared" ref="E300:E302" si="527">E297+1</f>
+        <v>98</v>
+      </c>
+      <c r="F300" s="2">
+        <v>1</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="1">
+        <v>2</v>
+      </c>
+      <c r="I300" s="1">
+        <v>1</v>
+      </c>
+      <c r="J300" s="1">
+        <v>0</v>
+      </c>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+      <c r="M300" s="2"/>
+      <c r="N300" s="2"/>
+      <c r="P300" s="2">
+        <f t="shared" si="523"/>
+        <v>1</v>
+      </c>
+      <c r="Q300" s="2">
+        <f t="shared" si="524"/>
+        <v>1</v>
+      </c>
+      <c r="R300" s="2">
+        <f t="shared" si="525"/>
+        <v>1</v>
+      </c>
+      <c r="S300" s="2">
+        <f t="shared" si="526"/>
+        <v>0</v>
+      </c>
+      <c r="T300" s="2">
+        <f t="shared" ref="T300:T301" si="528">COUNTA(L300)</f>
+        <v>0</v>
+      </c>
+      <c r="U300" s="2">
+        <f t="shared" ref="U300:U301" si="529">COUNTA(M300)</f>
+        <v>0</v>
+      </c>
+      <c r="V300" s="2">
+        <f t="shared" ref="V300:V301" si="530">COUNTA(N300)</f>
+        <v>0</v>
+      </c>
+      <c r="W300" s="11" t="str">
+        <f t="shared" ref="W300" si="531">IF(SUM(H300:H302)&gt;SUM(I300:I302), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X300" s="11">
+        <f t="shared" ref="X300" si="532">ABS(SUM(H300:H302)-SUM(I300:I302))</f>
+        <v>9</v>
+      </c>
+      <c r="Y300" s="11">
+        <f t="shared" ref="Y300" si="533">SUM(H300:H302, I300:I302)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25">
+      <c r="A301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="4">
+        <v>45791</v>
+      </c>
+      <c r="E301" s="2">
+        <f t="shared" si="527"/>
+        <v>98</v>
+      </c>
+      <c r="F301" s="2">
+        <v>2</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="1">
+        <v>0</v>
+      </c>
+      <c r="I301" s="1">
+        <v>0</v>
+      </c>
+      <c r="J301" s="1">
+        <v>3</v>
+      </c>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="2"/>
+      <c r="N301" s="2"/>
+      <c r="P301" s="2">
+        <f t="shared" si="523"/>
+        <v>1</v>
+      </c>
+      <c r="Q301" s="2">
+        <f t="shared" si="524"/>
+        <v>1</v>
+      </c>
+      <c r="R301" s="2">
+        <f t="shared" si="525"/>
+        <v>1</v>
+      </c>
+      <c r="S301" s="2">
+        <f t="shared" si="526"/>
+        <v>0</v>
+      </c>
+      <c r="T301" s="2">
+        <f t="shared" si="528"/>
+        <v>0</v>
+      </c>
+      <c r="U301" s="2">
+        <f t="shared" si="529"/>
+        <v>0</v>
+      </c>
+      <c r="V301" s="2">
+        <f t="shared" si="530"/>
+        <v>0</v>
+      </c>
+      <c r="W301" s="11"/>
+      <c r="X301" s="11"/>
+      <c r="Y301" s="11"/>
+    </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="11" t="s">
+      <c r="A302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" s="4">
+        <v>45791</v>
+      </c>
+      <c r="E302" s="2">
+        <f t="shared" si="527"/>
+        <v>98</v>
+      </c>
+      <c r="F302" s="2">
+        <v>3</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="1">
+        <v>9</v>
+      </c>
+      <c r="I302" s="1">
+        <v>1</v>
+      </c>
+      <c r="J302" s="1">
+        <v>0</v>
+      </c>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2"/>
+      <c r="N302" s="2"/>
+      <c r="P302" s="2">
+        <f t="shared" si="523"/>
+        <v>1</v>
+      </c>
+      <c r="Q302" s="2">
+        <f t="shared" si="524"/>
+        <v>1</v>
+      </c>
+      <c r="R302" s="2">
+        <f t="shared" si="525"/>
+        <v>1</v>
+      </c>
+      <c r="S302" s="2">
+        <f t="shared" si="526"/>
+        <v>0</v>
+      </c>
+      <c r="T302" s="2"/>
+      <c r="U302" s="2"/>
+      <c r="V302" s="2"/>
+      <c r="W302" s="11"/>
+      <c r="X302" s="11"/>
+      <c r="Y302" s="11"/>
+    </row>
+    <row r="305" spans="1:35">
+      <c r="A305" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
-      <c r="F302" s="11"/>
-      <c r="G302" s="1">
-        <v>1</v>
-      </c>
-      <c r="H302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, H$2:H299)/SUMIF($F$2:$F299, $G302, P$2:P299)</f>
-        <v>2.5157894736842104</v>
-      </c>
-      <c r="I302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, I$2:I299)/SUMIF($F$2:$F299, $G302, Q$2:Q299)</f>
-        <v>1.1041666666666667</v>
-      </c>
-      <c r="J302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, J$2:J299)/SUMIF($F$2:$F299, $G302, R$2:R299)</f>
-        <v>1</v>
-      </c>
-      <c r="K302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, K$2:K299)/SUMIF($F$2:$F299, $G302, S$2:S299)</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="L302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, L$2:L299)/SUMIF($F$2:$F299, $G302, T$2:T299)</f>
-        <v>0</v>
-      </c>
-      <c r="M302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, M$2:M299)/SUMIF($F$2:$F299, $G302, U$2:U299)</f>
-        <v>0</v>
-      </c>
-      <c r="N302" s="5">
-        <f>SUMIF($F$2:$F299, $G302, N$2:N299)/SUMIF($F$2:$F299, $G302, V$2:V299)</f>
-        <v>0.5</v>
-      </c>
-      <c r="P302" s="5"/>
-      <c r="Q302" s="5"/>
-      <c r="R302" s="5"/>
-      <c r="S302" s="5"/>
-      <c r="T302" s="5"/>
-      <c r="U302" s="5"/>
-      <c r="V302" s="5"/>
-      <c r="X302" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y302" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="303" spans="1:25">
-      <c r="A303" s="11"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
-      <c r="F303" s="11"/>
-      <c r="G303" s="1">
-        <v>2</v>
-      </c>
-      <c r="H303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, H$2:H300)/SUMIF($F$2:$F300, $G303, P$2:P300)</f>
-        <v>2.5684210526315789</v>
-      </c>
-      <c r="I303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, I$2:I300)/SUMIF($F$2:$F300, $G303, Q$2:Q300)</f>
-        <v>1.3229166666666667</v>
-      </c>
-      <c r="J303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, J$2:J300)/SUMIF($F$2:$F300, $G303, R$2:R300)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="K303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, K$2:K300)/SUMIF($F$2:$F300, $G303, S$2:S300)</f>
-        <v>1.2941176470588236</v>
-      </c>
-      <c r="L303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, L$2:L300)/SUMIF($F$2:$F300, $G303, T$2:T300)</f>
-        <v>0</v>
-      </c>
-      <c r="M303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, M$2:M300)/SUMIF($F$2:$F300, $G303, U$2:U300)</f>
-        <v>1.5</v>
-      </c>
-      <c r="N303" s="5">
-        <f>SUMIF($F$2:$F300, $G303, N$2:N300)/SUMIF($F$2:$F300, $G303, V$2:V300)</f>
-        <v>1</v>
-      </c>
-      <c r="P303" s="5"/>
-      <c r="Q303" s="5"/>
-      <c r="R303" s="5"/>
-      <c r="S303" s="5"/>
-      <c r="T303" s="5"/>
-      <c r="U303" s="5"/>
-      <c r="V303" s="5"/>
-      <c r="W303" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X303" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W299,W303)</f>
-        <v>75</v>
-      </c>
-      <c r="Y303" s="6">
-        <f>X303/SUM(X303:X304)</f>
-        <v>0.7978723404255319</v>
-      </c>
-    </row>
-    <row r="304" spans="1:25">
-      <c r="A304" s="11"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
-      <c r="D304" s="11"/>
-      <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
-      <c r="G304" s="1">
-        <v>3</v>
-      </c>
-      <c r="H304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, H$2:H301)/SUMIF($F$2:$F301, $G304, P$2:P301)</f>
-        <v>2.4526315789473685</v>
-      </c>
-      <c r="I304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, I$2:I301)/SUMIF($F$2:$F301, $G304, Q$2:Q301)</f>
-        <v>1.46875</v>
-      </c>
-      <c r="J304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, J$2:J301)/SUMIF($F$2:$F301, $G304, R$2:R301)</f>
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="K304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, K$2:K301)/SUMIF($F$2:$F301, $G304, S$2:S301)</f>
-        <v>0.875</v>
-      </c>
-      <c r="L304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, L$2:L301)/SUMIF($F$2:$F301, $G304, T$2:T301)</f>
-        <v>1</v>
-      </c>
-      <c r="M304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, M$2:M301)/SUMIF($F$2:$F301, $G304, U$2:U301)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N304" s="5">
-        <f>SUMIF($F$2:$F301, $G304, N$2:N301)/SUMIF($F$2:$F301, $G304, V$2:V301)</f>
-        <v>1</v>
-      </c>
-      <c r="P304" s="5"/>
-      <c r="Q304" s="5"/>
-      <c r="R304" s="5"/>
-      <c r="S304" s="5"/>
-      <c r="T304" s="5"/>
-      <c r="U304" s="5"/>
-      <c r="V304" s="5"/>
-      <c r="W304" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X304" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W300,W304)</f>
-        <v>19</v>
-      </c>
-      <c r="Y304" s="6">
-        <f>X304/SUM(X303:X304)</f>
-        <v>0.20212765957446807</v>
-      </c>
-    </row>
-    <row r="305" spans="1:35">
-      <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
-      <c r="G305" s="1" t="s">
-        <v>41</v>
+      <c r="G305" s="1">
+        <v>1</v>
       </c>
       <c r="H305" s="5">
-        <f>IF(SUMIF($F$2:$F302, $G305, P$2:P302) = 0, "", SUMIF($F$2:$F302, $G305, H$2:H302)/SUMIF($F$2:$F302, $G305, P$2:P302))</f>
-        <v>3.2</v>
+        <f>SUMIF($F$2:$F299, $G305, H$2:H299)/SUMIF($F$2:$F299, $G305, P$2:P299)</f>
+        <v>2.5157894736842104</v>
       </c>
       <c r="I305" s="5">
-        <f>IF(SUMIF($F$2:$F302, $G305, Q$2:Q302) = 0, "", SUMIF($F$2:$F302, $G305, I$2:I302)/SUMIF($F$2:$F302, $G305, Q$2:Q302))</f>
-        <v>2</v>
+        <f>SUMIF($F$2:$F299, $G305, I$2:I299)/SUMIF($F$2:$F299, $G305, Q$2:Q299)</f>
+        <v>1.1041666666666667</v>
       </c>
       <c r="J305" s="5">
-        <f>IF(SUMIF($F$2:$F302, $G305, R$2:R302) = 0, "", SUMIF($F$2:$F302, $G305, J$2:J302)/SUMIF($F$2:$F302, $G305, R$2:R302))</f>
-        <v>2</v>
-      </c>
-      <c r="K305" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F302, $G305, S$2:S302) = 0, "", SUMIF($F$2:$F302, $G305, K$2:K302)/SUMIF($F$2:$F302, $G305, S$2:S302))</f>
-        <v/>
-      </c>
-      <c r="L305" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F302, $G305, T$2:T302) = 0, "", SUMIF($F$2:$F302, $G305, L$2:L302)/SUMIF($F$2:$F302, $G305, T$2:T302))</f>
-        <v/>
+        <f>SUMIF($F$2:$F299, $G305, J$2:J299)/SUMIF($F$2:$F299, $G305, R$2:R299)</f>
+        <v>1</v>
+      </c>
+      <c r="K305" s="5">
+        <f>SUMIF($F$2:$F299, $G305, K$2:K299)/SUMIF($F$2:$F299, $G305, S$2:S299)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="L305" s="5">
+        <f>SUMIF($F$2:$F299, $G305, L$2:L299)/SUMIF($F$2:$F299, $G305, T$2:T299)</f>
+        <v>0</v>
       </c>
       <c r="M305" s="5">
-        <f>IF(SUMIF($F$2:$F302, $G305, U$2:U302) = 0, "", SUMIF($F$2:$F302, $G305, M$2:M302)/SUMIF($F$2:$F302, $G305, U$2:U302))</f>
-        <v>0</v>
-      </c>
-      <c r="N305" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F302, $G305, V$2:V302) = 0, "", SUMIF($F$2:$F302, $G305, N$2:N302)/SUMIF($F$2:$F302, $G305, V$2:V302))</f>
-        <v/>
+        <f>SUMIF($F$2:$F299, $G305, M$2:M299)/SUMIF($F$2:$F299, $G305, U$2:U299)</f>
+        <v>0</v>
+      </c>
+      <c r="N305" s="5">
+        <f>SUMIF($F$2:$F299, $G305, N$2:N299)/SUMIF($F$2:$F299, $G305, V$2:V299)</f>
+        <v>0.5</v>
       </c>
       <c r="P305" s="5"/>
       <c r="Q305" s="5"/>
@@ -29556,6 +29678,12 @@
       <c r="T305" s="5"/>
       <c r="U305" s="5"/>
       <c r="V305" s="5"/>
+      <c r="X305" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y305" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="306" spans="1:35">
       <c r="A306" s="11"/>
@@ -29564,36 +29692,36 @@
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
-      <c r="G306" s="1" t="s">
-        <v>51</v>
+      <c r="G306" s="1">
+        <v>2</v>
       </c>
       <c r="H306" s="5">
-        <f>AVERAGE(H$2:H299)*3</f>
-        <v>7.5724137931034488</v>
+        <f>SUMIF($F$2:$F303, $G306, H$2:H303)/SUMIF($F$2:$F303, $G306, P$2:P303)</f>
+        <v>2.5416666666666665</v>
       </c>
       <c r="I306" s="5">
-        <f>AVERAGE(I$2:I299)*3</f>
-        <v>3.9317406143344709</v>
+        <f>SUMIF($F$2:$F303, $G306, I$2:I303)/SUMIF($F$2:$F303, $G306, Q$2:Q303)</f>
+        <v>1.3092783505154639</v>
       </c>
       <c r="J306" s="5">
-        <f>AVERAGE(J$2:J299)*3</f>
-        <v>3.1914893617021276</v>
+        <f>SUMIF($F$2:$F303, $G306, J$2:J303)/SUMIF($F$2:$F303, $G306, R$2:R303)</f>
+        <v>1</v>
       </c>
       <c r="K306" s="5">
-        <f>AVERAGE(K$2:K299)*3</f>
-        <v>3</v>
+        <f>SUMIF($F$2:$F303, $G306, K$2:K303)/SUMIF($F$2:$F303, $G306, S$2:S303)</f>
+        <v>1.2941176470588236</v>
       </c>
       <c r="L306" s="5">
-        <f>AVERAGE(L$2:L299)*3</f>
-        <v>1</v>
+        <f>SUMIF($F$2:$F303, $G306, L$2:L303)/SUMIF($F$2:$F303, $G306, T$2:T303)</f>
+        <v>0</v>
       </c>
       <c r="M306" s="5">
-        <f>AVERAGE(M$2:M299)*3</f>
+        <f>SUMIF($F$2:$F303, $G306, M$2:M303)/SUMIF($F$2:$F303, $G306, U$2:U303)</f>
         <v>1.5</v>
       </c>
       <c r="N306" s="5">
-        <f>AVERAGE(N$2:N299)*3</f>
-        <v>2</v>
+        <f>SUMIF($F$2:$F303, $G306, N$2:N303)/SUMIF($F$2:$F303, $G306, V$2:V303)</f>
+        <v>1</v>
       </c>
       <c r="P306" s="5"/>
       <c r="Q306" s="5"/>
@@ -29602,144 +29730,189 @@
       <c r="T306" s="5"/>
       <c r="U306" s="5"/>
       <c r="V306" s="5"/>
+      <c r="W306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X306" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W299,W306)</f>
+        <v>75</v>
+      </c>
+      <c r="Y306" s="6">
+        <f>X306/SUM(X306:X307)</f>
+        <v>0.7978723404255319</v>
+      </c>
+    </row>
+    <row r="307" spans="1:35">
+      <c r="A307" s="11"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="1">
+        <v>3</v>
+      </c>
+      <c r="H307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, H$2:H304)/SUMIF($F$2:$F304, $G307, P$2:P304)</f>
+        <v>2.5208333333333335</v>
+      </c>
+      <c r="I307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, I$2:I304)/SUMIF($F$2:$F304, $G307, Q$2:Q304)</f>
+        <v>1.4639175257731958</v>
+      </c>
+      <c r="J307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, J$2:J304)/SUMIF($F$2:$F304, $G307, R$2:R304)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="K307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, K$2:K304)/SUMIF($F$2:$F304, $G307, S$2:S304)</f>
+        <v>0.875</v>
+      </c>
+      <c r="L307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, L$2:L304)/SUMIF($F$2:$F304, $G307, T$2:T304)</f>
+        <v>1</v>
+      </c>
+      <c r="M307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, M$2:M304)/SUMIF($F$2:$F304, $G307, U$2:U304)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N307" s="5">
+        <f>SUMIF($F$2:$F304, $G307, N$2:N304)/SUMIF($F$2:$F304, $G307, V$2:V304)</f>
+        <v>1</v>
+      </c>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5"/>
+      <c r="V307" s="5"/>
+      <c r="W307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X307" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W303,W307)</f>
+        <v>19</v>
+      </c>
+      <c r="Y307" s="6">
+        <f>X307/SUM(X306:X307)</f>
+        <v>0.20212765957446807</v>
+      </c>
+    </row>
+    <row r="308" spans="1:35">
+      <c r="A308" s="11"/>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H308" s="5">
+        <f>IF(SUMIF($F$2:$F305, $G308, P$2:P305) = 0, "", SUMIF($F$2:$F305, $G308, H$2:H305)/SUMIF($F$2:$F305, $G308, P$2:P305))</f>
+        <v>3.2</v>
+      </c>
+      <c r="I308" s="5">
+        <f>IF(SUMIF($F$2:$F305, $G308, Q$2:Q305) = 0, "", SUMIF($F$2:$F305, $G308, I$2:I305)/SUMIF($F$2:$F305, $G308, Q$2:Q305))</f>
+        <v>2</v>
+      </c>
+      <c r="J308" s="5">
+        <f>IF(SUMIF($F$2:$F305, $G308, R$2:R305) = 0, "", SUMIF($F$2:$F305, $G308, J$2:J305)/SUMIF($F$2:$F305, $G308, R$2:R305))</f>
+        <v>2</v>
+      </c>
+      <c r="K308" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F305, $G308, S$2:S305) = 0, "", SUMIF($F$2:$F305, $G308, K$2:K305)/SUMIF($F$2:$F305, $G308, S$2:S305))</f>
+        <v/>
+      </c>
+      <c r="L308" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F305, $G308, T$2:T305) = 0, "", SUMIF($F$2:$F305, $G308, L$2:L305)/SUMIF($F$2:$F305, $G308, T$2:T305))</f>
+        <v/>
+      </c>
+      <c r="M308" s="5">
+        <f>IF(SUMIF($F$2:$F305, $G308, U$2:U305) = 0, "", SUMIF($F$2:$F305, $G308, M$2:M305)/SUMIF($F$2:$F305, $G308, U$2:U305))</f>
+        <v>0</v>
+      </c>
+      <c r="N308" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F305, $G308, V$2:V305) = 0, "", SUMIF($F$2:$F305, $G308, N$2:N305)/SUMIF($F$2:$F305, $G308, V$2:V305))</f>
+        <v/>
+      </c>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="5"/>
+      <c r="T308" s="5"/>
+      <c r="U308" s="5"/>
+      <c r="V308" s="5"/>
     </row>
     <row r="309" spans="1:35">
-      <c r="G309" s="7" t="s">
+      <c r="A309" s="11"/>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H309" s="5">
+        <f>AVERAGE(H$2:H299)*3</f>
+        <v>7.5724137931034488</v>
+      </c>
+      <c r="I309" s="5">
+        <f>AVERAGE(I$2:I299)*3</f>
+        <v>3.9317406143344709</v>
+      </c>
+      <c r="J309" s="5">
+        <f>AVERAGE(J$2:J299)*3</f>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="K309" s="5">
+        <f>AVERAGE(K$2:K299)*3</f>
+        <v>3</v>
+      </c>
+      <c r="L309" s="5">
+        <f>AVERAGE(L$2:L299)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M309" s="5">
+        <f>AVERAGE(M$2:M299)*3</f>
+        <v>1.5</v>
+      </c>
+      <c r="N309" s="5">
+        <f>AVERAGE(N$2:N299)*3</f>
+        <v>2</v>
+      </c>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5"/>
+      <c r="V309" s="5"/>
+    </row>
+    <row r="312" spans="1:35">
+      <c r="G312" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H309" t="s">
+      <c r="H312" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="310" spans="1:35">
-      <c r="G310" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H310" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="311" spans="1:35">
-      <c r="G311" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H311" t="s">
-        <v>16</v>
-      </c>
-      <c r="O311"/>
-      <c r="P311"/>
-      <c r="Q311"/>
-      <c r="R311"/>
-      <c r="S311"/>
-      <c r="T311"/>
-      <c r="U311"/>
-      <c r="V311"/>
-      <c r="W311"/>
-      <c r="X311"/>
-      <c r="Y311"/>
-      <c r="Z311"/>
-      <c r="AA311"/>
-      <c r="AB311"/>
-      <c r="AC311"/>
-      <c r="AD311"/>
-      <c r="AE311"/>
-      <c r="AF311"/>
-      <c r="AG311"/>
-      <c r="AH311"/>
-      <c r="AI311"/>
-    </row>
-    <row r="312" spans="1:35">
-      <c r="O312"/>
-      <c r="P312"/>
-      <c r="Q312"/>
-      <c r="R312"/>
-      <c r="S312"/>
-      <c r="T312"/>
-      <c r="U312"/>
-      <c r="V312"/>
-      <c r="W312"/>
-      <c r="X312"/>
-      <c r="Y312"/>
-      <c r="Z312"/>
-      <c r="AA312"/>
-      <c r="AB312"/>
-      <c r="AC312"/>
-      <c r="AD312"/>
-      <c r="AE312"/>
-      <c r="AF312"/>
-      <c r="AG312"/>
-      <c r="AH312"/>
-      <c r="AI312"/>
     </row>
     <row r="313" spans="1:35">
       <c r="G313" s="7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H313" t="s">
-        <v>63</v>
-      </c>
-      <c r="I313" t="s">
-        <v>64</v>
-      </c>
-      <c r="J313" t="s">
-        <v>65</v>
-      </c>
-      <c r="K313" t="s">
-        <v>66</v>
-      </c>
-      <c r="L313" t="s">
-        <v>67</v>
-      </c>
-      <c r="M313" t="s">
-        <v>68</v>
-      </c>
-      <c r="N313" t="s">
-        <v>69</v>
-      </c>
-      <c r="O313"/>
-      <c r="P313"/>
-      <c r="Q313"/>
-      <c r="R313"/>
-      <c r="S313"/>
-      <c r="T313"/>
-      <c r="U313"/>
-      <c r="V313"/>
-      <c r="W313"/>
-      <c r="X313"/>
-      <c r="Y313"/>
-      <c r="Z313"/>
-      <c r="AA313"/>
-      <c r="AB313"/>
-      <c r="AC313"/>
-      <c r="AD313"/>
-      <c r="AE313"/>
-      <c r="AF313"/>
-      <c r="AG313"/>
-      <c r="AH313"/>
-      <c r="AI313"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="314" spans="1:35">
-      <c r="G314" s="8">
-        <v>1</v>
-      </c>
-      <c r="H314" s="9">
-        <v>2.652173913043478</v>
-      </c>
-      <c r="I314" s="9">
-        <v>1.1702127659574468</v>
-      </c>
-      <c r="J314" s="9">
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="K314" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L314" s="9"/>
-      <c r="M314">
-        <v>0</v>
-      </c>
-      <c r="N314" s="9">
-        <v>1</v>
+      <c r="G314" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H314" t="s">
+        <v>16</v>
       </c>
       <c r="O314"/>
       <c r="P314"/>
@@ -29764,28 +29937,6 @@
       <c r="AI314"/>
     </row>
     <row r="315" spans="1:35">
-      <c r="G315" s="8">
-        <v>2</v>
-      </c>
-      <c r="H315" s="9">
-        <v>2.7826086956521738</v>
-      </c>
-      <c r="I315" s="9">
-        <v>1.4680851063829787</v>
-      </c>
-      <c r="J315" s="9">
-        <v>1</v>
-      </c>
-      <c r="K315" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="L315" s="9"/>
-      <c r="M315">
-        <v>0</v>
-      </c>
-      <c r="N315" s="9">
-        <v>1</v>
-      </c>
       <c r="O315"/>
       <c r="P315"/>
       <c r="Q315"/>
@@ -29803,29 +29954,35 @@
       <c r="AC315"/>
       <c r="AD315"/>
       <c r="AE315"/>
+      <c r="AF315"/>
+      <c r="AG315"/>
+      <c r="AH315"/>
+      <c r="AI315"/>
     </row>
     <row r="316" spans="1:35">
-      <c r="G316" s="8">
-        <v>3</v>
-      </c>
-      <c r="H316" s="9">
-        <v>2.8043478260869565</v>
-      </c>
-      <c r="I316" s="9">
-        <v>1.553191489361702</v>
-      </c>
-      <c r="J316" s="9">
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="K316" s="9">
-        <v>1</v>
-      </c>
-      <c r="L316" s="9"/>
-      <c r="M316">
-        <v>0</v>
-      </c>
-      <c r="N316" s="9">
-        <v>0</v>
+      <c r="G316" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H316" t="s">
+        <v>63</v>
+      </c>
+      <c r="I316" t="s">
+        <v>64</v>
+      </c>
+      <c r="J316" t="s">
+        <v>65</v>
+      </c>
+      <c r="K316" t="s">
+        <v>66</v>
+      </c>
+      <c r="L316" t="s">
+        <v>67</v>
+      </c>
+      <c r="M316" t="s">
+        <v>68</v>
+      </c>
+      <c r="N316" t="s">
+        <v>69</v>
       </c>
       <c r="O316"/>
       <c r="P316"/>
@@ -29844,30 +30001,34 @@
       <c r="AC316"/>
       <c r="AD316"/>
       <c r="AE316"/>
+      <c r="AF316"/>
+      <c r="AG316"/>
+      <c r="AH316"/>
+      <c r="AI316"/>
     </row>
     <row r="317" spans="1:35">
-      <c r="A317"/>
-      <c r="B317"/>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317" s="8" t="s">
-        <v>41</v>
+      <c r="G317" s="8">
+        <v>1</v>
       </c>
       <c r="H317" s="9">
-        <v>3</v>
+        <v>2.652173913043478</v>
       </c>
       <c r="I317" s="9">
-        <v>2.3333333333333335</v>
+        <v>1.1702127659574468</v>
       </c>
       <c r="J317" s="9">
-        <v>2</v>
-      </c>
-      <c r="K317" s="9"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="K317" s="9">
+        <v>0.9</v>
+      </c>
       <c r="L317" s="9"/>
-      <c r="M317"/>
-      <c r="N317" s="9"/>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317" s="9">
+        <v>1</v>
+      </c>
       <c r="O317"/>
       <c r="P317"/>
       <c r="Q317"/>
@@ -29885,35 +30046,33 @@
       <c r="AC317"/>
       <c r="AD317"/>
       <c r="AE317"/>
+      <c r="AF317"/>
+      <c r="AG317"/>
+      <c r="AH317"/>
+      <c r="AI317"/>
     </row>
     <row r="318" spans="1:35">
-      <c r="A318"/>
-      <c r="B318"/>
-      <c r="C318"/>
-      <c r="D318"/>
-      <c r="E318"/>
-      <c r="F318"/>
-      <c r="G318" s="8" t="s">
-        <v>55</v>
+      <c r="G318" s="8">
+        <v>2</v>
       </c>
       <c r="H318" s="9">
-        <v>2.7482014388489207</v>
+        <v>2.7826086956521738</v>
       </c>
       <c r="I318" s="9">
-        <v>1.4166666666666667</v>
+        <v>1.4680851063829787</v>
       </c>
       <c r="J318" s="9">
-        <v>1.3913043478260869</v>
+        <v>1</v>
       </c>
       <c r="K318" s="9">
-        <v>1.0666666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="L318" s="9"/>
       <c r="M318">
         <v>0</v>
       </c>
       <c r="N318" s="9">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O318"/>
       <c r="P318"/>
@@ -29934,20 +30093,28 @@
       <c r="AE318"/>
     </row>
     <row r="319" spans="1:35">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
-      <c r="D319"/>
-      <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
-      <c r="K319"/>
-      <c r="L319"/>
-      <c r="M319"/>
-      <c r="N319"/>
+      <c r="G319" s="8">
+        <v>3</v>
+      </c>
+      <c r="H319" s="9">
+        <v>2.8043478260869565</v>
+      </c>
+      <c r="I319" s="9">
+        <v>1.553191489361702</v>
+      </c>
+      <c r="J319" s="9">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="K319" s="9">
+        <v>1</v>
+      </c>
+      <c r="L319" s="9"/>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" s="9">
+        <v>0</v>
+      </c>
       <c r="O319"/>
       <c r="P319"/>
       <c r="Q319"/>
@@ -29973,14 +30140,22 @@
       <c r="D320"/>
       <c r="E320"/>
       <c r="F320"/>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
-      <c r="K320"/>
-      <c r="L320"/>
+      <c r="G320" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H320" s="9">
+        <v>3</v>
+      </c>
+      <c r="I320" s="9">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J320" s="9">
+        <v>2</v>
+      </c>
+      <c r="K320" s="9"/>
+      <c r="L320" s="9"/>
       <c r="M320"/>
-      <c r="N320"/>
+      <c r="N320" s="9"/>
       <c r="O320"/>
       <c r="P320"/>
       <c r="Q320"/>
@@ -30006,14 +30181,28 @@
       <c r="D321"/>
       <c r="E321"/>
       <c r="F321"/>
-      <c r="G321"/>
-      <c r="H321"/>
-      <c r="I321"/>
-      <c r="J321"/>
-      <c r="K321"/>
-      <c r="L321"/>
-      <c r="M321"/>
-      <c r="N321"/>
+      <c r="G321" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H321" s="9">
+        <v>2.7482014388489207</v>
+      </c>
+      <c r="I321" s="9">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="J321" s="9">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="K321" s="9">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="L321" s="9"/>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="O321"/>
       <c r="P321"/>
       <c r="Q321"/>
@@ -30158,6 +30347,11 @@
       <c r="X325"/>
       <c r="Y325"/>
       <c r="Z325"/>
+      <c r="AA325"/>
+      <c r="AB325"/>
+      <c r="AC325"/>
+      <c r="AD325"/>
+      <c r="AE325"/>
     </row>
     <row r="326" spans="1:31">
       <c r="A326"/>
@@ -30186,6 +30380,11 @@
       <c r="X326"/>
       <c r="Y326"/>
       <c r="Z326"/>
+      <c r="AA326"/>
+      <c r="AB326"/>
+      <c r="AC326"/>
+      <c r="AD326"/>
+      <c r="AE326"/>
     </row>
     <row r="327" spans="1:31">
       <c r="A327"/>
@@ -30214,6 +30413,11 @@
       <c r="X327"/>
       <c r="Y327"/>
       <c r="Z327"/>
+      <c r="AA327"/>
+      <c r="AB327"/>
+      <c r="AC327"/>
+      <c r="AD327"/>
+      <c r="AE327"/>
     </row>
     <row r="328" spans="1:31">
       <c r="A328"/>
@@ -31413,6 +31617,11 @@
       <c r="S370"/>
       <c r="T370"/>
       <c r="U370"/>
+      <c r="V370"/>
+      <c r="W370"/>
+      <c r="X370"/>
+      <c r="Y370"/>
+      <c r="Z370"/>
     </row>
     <row r="371" spans="1:26">
       <c r="A371"/>
@@ -31436,6 +31645,11 @@
       <c r="S371"/>
       <c r="T371"/>
       <c r="U371"/>
+      <c r="V371"/>
+      <c r="W371"/>
+      <c r="X371"/>
+      <c r="Y371"/>
+      <c r="Z371"/>
     </row>
     <row r="372" spans="1:26">
       <c r="A372"/>
@@ -31459,6 +31673,11 @@
       <c r="S372"/>
       <c r="T372"/>
       <c r="U372"/>
+      <c r="V372"/>
+      <c r="W372"/>
+      <c r="X372"/>
+      <c r="Y372"/>
+      <c r="Z372"/>
     </row>
     <row r="373" spans="1:26">
       <c r="A373"/>
@@ -33087,6 +33306,11 @@
       <c r="N443"/>
       <c r="O443"/>
       <c r="P443"/>
+      <c r="Q443"/>
+      <c r="R443"/>
+      <c r="S443"/>
+      <c r="T443"/>
+      <c r="U443"/>
     </row>
     <row r="444" spans="1:21">
       <c r="A444"/>
@@ -33105,6 +33329,11 @@
       <c r="N444"/>
       <c r="O444"/>
       <c r="P444"/>
+      <c r="Q444"/>
+      <c r="R444"/>
+      <c r="S444"/>
+      <c r="T444"/>
+      <c r="U444"/>
     </row>
     <row r="445" spans="1:21">
       <c r="A445"/>
@@ -33123,6 +33352,11 @@
       <c r="N445"/>
       <c r="O445"/>
       <c r="P445"/>
+      <c r="Q445"/>
+      <c r="R445"/>
+      <c r="S445"/>
+      <c r="T445"/>
+      <c r="U445"/>
     </row>
     <row r="446" spans="1:21">
       <c r="A446"/>
@@ -34900,8 +35134,13 @@
       <c r="I544"/>
       <c r="J544"/>
       <c r="K544"/>
-    </row>
-    <row r="545" spans="1:11">
+      <c r="L544"/>
+      <c r="M544"/>
+      <c r="N544"/>
+      <c r="O544"/>
+      <c r="P544"/>
+    </row>
+    <row r="545" spans="1:16">
       <c r="A545"/>
       <c r="B545"/>
       <c r="C545"/>
@@ -34913,8 +35152,13 @@
       <c r="I545"/>
       <c r="J545"/>
       <c r="K545"/>
-    </row>
-    <row r="546" spans="1:11">
+      <c r="L545"/>
+      <c r="M545"/>
+      <c r="N545"/>
+      <c r="O545"/>
+      <c r="P545"/>
+    </row>
+    <row r="546" spans="1:16">
       <c r="A546"/>
       <c r="B546"/>
       <c r="C546"/>
@@ -34926,8 +35170,13 @@
       <c r="I546"/>
       <c r="J546"/>
       <c r="K546"/>
-    </row>
-    <row r="547" spans="1:11">
+      <c r="L546"/>
+      <c r="M546"/>
+      <c r="N546"/>
+      <c r="O546"/>
+      <c r="P546"/>
+    </row>
+    <row r="547" spans="1:16">
       <c r="A547"/>
       <c r="B547"/>
       <c r="C547"/>
@@ -34940,7 +35189,7 @@
       <c r="J547"/>
       <c r="K547"/>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:16">
       <c r="A548"/>
       <c r="B548"/>
       <c r="C548"/>
@@ -34953,7 +35202,7 @@
       <c r="J548"/>
       <c r="K548"/>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:16">
       <c r="A549"/>
       <c r="B549"/>
       <c r="C549"/>
@@ -34966,7 +35215,7 @@
       <c r="J549"/>
       <c r="K549"/>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:16">
       <c r="A550"/>
       <c r="B550"/>
       <c r="C550"/>
@@ -34979,7 +35228,7 @@
       <c r="J550"/>
       <c r="K550"/>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:16">
       <c r="A551"/>
       <c r="B551"/>
       <c r="C551"/>
@@ -34992,7 +35241,7 @@
       <c r="J551"/>
       <c r="K551"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:16">
       <c r="A552"/>
       <c r="B552"/>
       <c r="C552"/>
@@ -35005,7 +35254,7 @@
       <c r="J552"/>
       <c r="K552"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:16">
       <c r="A553"/>
       <c r="B553"/>
       <c r="C553"/>
@@ -35018,7 +35267,7 @@
       <c r="J553"/>
       <c r="K553"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:16">
       <c r="A554"/>
       <c r="B554"/>
       <c r="C554"/>
@@ -35031,7 +35280,7 @@
       <c r="J554"/>
       <c r="K554"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:16">
       <c r="A555"/>
       <c r="B555"/>
       <c r="C555"/>
@@ -35044,7 +35293,7 @@
       <c r="J555"/>
       <c r="K555"/>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:16">
       <c r="A556"/>
       <c r="B556"/>
       <c r="C556"/>
@@ -35057,7 +35306,7 @@
       <c r="J556"/>
       <c r="K556"/>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:16">
       <c r="A557"/>
       <c r="B557"/>
       <c r="C557"/>
@@ -35070,7 +35319,7 @@
       <c r="J557"/>
       <c r="K557"/>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:16">
       <c r="A558"/>
       <c r="B558"/>
       <c r="C558"/>
@@ -35083,7 +35332,7 @@
       <c r="J558"/>
       <c r="K558"/>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:16">
       <c r="A559"/>
       <c r="B559"/>
       <c r="C559"/>
@@ -35096,7 +35345,7 @@
       <c r="J559"/>
       <c r="K559"/>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:16">
       <c r="A560"/>
       <c r="B560"/>
       <c r="C560"/>
@@ -36208,6 +36457,11 @@
       <c r="D645"/>
       <c r="E645"/>
       <c r="F645"/>
+      <c r="G645"/>
+      <c r="H645"/>
+      <c r="I645"/>
+      <c r="J645"/>
+      <c r="K645"/>
     </row>
     <row r="646" spans="1:11">
       <c r="A646"/>
@@ -36216,6 +36470,11 @@
       <c r="D646"/>
       <c r="E646"/>
       <c r="F646"/>
+      <c r="G646"/>
+      <c r="H646"/>
+      <c r="I646"/>
+      <c r="J646"/>
+      <c r="K646"/>
     </row>
     <row r="647" spans="1:11">
       <c r="A647"/>
@@ -36224,6 +36483,11 @@
       <c r="D647"/>
       <c r="E647"/>
       <c r="F647"/>
+      <c r="G647"/>
+      <c r="H647"/>
+      <c r="I647"/>
+      <c r="J647"/>
+      <c r="K647"/>
     </row>
     <row r="648" spans="1:11">
       <c r="A648"/>
@@ -37929,17 +38193,291 @@
       <c r="E860"/>
       <c r="F860"/>
     </row>
+    <row r="861" spans="1:6">
+      <c r="A861"/>
+      <c r="B861"/>
+      <c r="C861"/>
+      <c r="D861"/>
+      <c r="E861"/>
+      <c r="F861"/>
+    </row>
+    <row r="862" spans="1:6">
+      <c r="A862"/>
+      <c r="B862"/>
+      <c r="C862"/>
+      <c r="D862"/>
+      <c r="E862"/>
+      <c r="F862"/>
+    </row>
+    <row r="863" spans="1:6">
+      <c r="A863"/>
+      <c r="B863"/>
+      <c r="C863"/>
+      <c r="D863"/>
+      <c r="E863"/>
+      <c r="F863"/>
+    </row>
   </sheetData>
-  <mergeCells count="292">
-    <mergeCell ref="W296:W299"/>
-    <mergeCell ref="X296:X299"/>
-    <mergeCell ref="Y296:Y299"/>
-    <mergeCell ref="W290:W292"/>
-    <mergeCell ref="X290:X292"/>
-    <mergeCell ref="Y290:Y292"/>
-    <mergeCell ref="W284:W286"/>
-    <mergeCell ref="X284:X286"/>
-    <mergeCell ref="Y284:Y286"/>
+  <mergeCells count="295">
+    <mergeCell ref="W300:W302"/>
+    <mergeCell ref="X300:X302"/>
+    <mergeCell ref="Y300:Y302"/>
+    <mergeCell ref="W232:W234"/>
+    <mergeCell ref="X232:X234"/>
+    <mergeCell ref="Y232:Y234"/>
+    <mergeCell ref="W269:W271"/>
+    <mergeCell ref="X269:X271"/>
+    <mergeCell ref="Y269:Y271"/>
+    <mergeCell ref="W250:W252"/>
+    <mergeCell ref="X250:X252"/>
+    <mergeCell ref="Y250:Y252"/>
+    <mergeCell ref="W259:W262"/>
+    <mergeCell ref="X259:X262"/>
+    <mergeCell ref="Y259:Y262"/>
+    <mergeCell ref="W244:W246"/>
+    <mergeCell ref="X244:X246"/>
+    <mergeCell ref="Y244:Y246"/>
+    <mergeCell ref="W256:W258"/>
+    <mergeCell ref="X256:X258"/>
+    <mergeCell ref="Y256:Y258"/>
+    <mergeCell ref="W253:W255"/>
+    <mergeCell ref="X253:X255"/>
+    <mergeCell ref="Y253:Y255"/>
+    <mergeCell ref="W225:W227"/>
+    <mergeCell ref="X225:X227"/>
+    <mergeCell ref="Y225:Y227"/>
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W219:W221"/>
+    <mergeCell ref="X219:X221"/>
+    <mergeCell ref="Y219:Y221"/>
+    <mergeCell ref="W222:W224"/>
+    <mergeCell ref="X222:X224"/>
+    <mergeCell ref="Y222:Y224"/>
+    <mergeCell ref="W213:W215"/>
+    <mergeCell ref="X213:X215"/>
+    <mergeCell ref="Y213:Y215"/>
+    <mergeCell ref="Y204:Y206"/>
+    <mergeCell ref="W207:W209"/>
+    <mergeCell ref="X207:X209"/>
+    <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="Y193:Y197"/>
+    <mergeCell ref="W198:W200"/>
+    <mergeCell ref="X198:X200"/>
+    <mergeCell ref="Y198:Y200"/>
+    <mergeCell ref="Y190:Y192"/>
+    <mergeCell ref="A305:F309"/>
+    <mergeCell ref="W170:W172"/>
+    <mergeCell ref="X170:X172"/>
+    <mergeCell ref="Y170:Y172"/>
+    <mergeCell ref="W173:W177"/>
+    <mergeCell ref="X173:X177"/>
+    <mergeCell ref="Y173:Y177"/>
+    <mergeCell ref="W178:W180"/>
+    <mergeCell ref="X178:X180"/>
+    <mergeCell ref="Y178:Y180"/>
+    <mergeCell ref="W181:W183"/>
+    <mergeCell ref="W187:W189"/>
+    <mergeCell ref="X187:X189"/>
+    <mergeCell ref="Y187:Y189"/>
+    <mergeCell ref="W190:W192"/>
+    <mergeCell ref="X190:X192"/>
+    <mergeCell ref="W193:W197"/>
+    <mergeCell ref="X193:X197"/>
+    <mergeCell ref="W228:W231"/>
+    <mergeCell ref="X228:X231"/>
+    <mergeCell ref="Y228:Y231"/>
+    <mergeCell ref="W184:W186"/>
+    <mergeCell ref="X184:X186"/>
+    <mergeCell ref="Y184:Y186"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="Y74:Y76"/>
+    <mergeCell ref="Y77:Y79"/>
+    <mergeCell ref="Y80:Y82"/>
+    <mergeCell ref="Y83:Y85"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="W95:W97"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Y56:Y58"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="Y62:Y64"/>
+    <mergeCell ref="Y65:Y67"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Y71:Y73"/>
+    <mergeCell ref="W89:W91"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="W101:W103"/>
+    <mergeCell ref="X101:X103"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="W83:W85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="Y89:Y91"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="Y98:Y100"/>
+    <mergeCell ref="Y101:Y103"/>
+    <mergeCell ref="Y119:Y121"/>
+    <mergeCell ref="W116:W118"/>
+    <mergeCell ref="X116:X118"/>
+    <mergeCell ref="W104:W106"/>
+    <mergeCell ref="X104:X106"/>
+    <mergeCell ref="W107:W109"/>
+    <mergeCell ref="X107:X109"/>
+    <mergeCell ref="W110:W112"/>
+    <mergeCell ref="X110:X112"/>
+    <mergeCell ref="W113:W115"/>
+    <mergeCell ref="X113:X115"/>
+    <mergeCell ref="W98:W100"/>
+    <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="Y116:Y118"/>
+    <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
+    <mergeCell ref="W143:W145"/>
+    <mergeCell ref="X143:X145"/>
+    <mergeCell ref="Y143:Y145"/>
+    <mergeCell ref="W146:W148"/>
+    <mergeCell ref="X146:X148"/>
+    <mergeCell ref="Y146:Y148"/>
+    <mergeCell ref="W149:W151"/>
+    <mergeCell ref="X149:X151"/>
+    <mergeCell ref="W241:W243"/>
+    <mergeCell ref="X241:X243"/>
+    <mergeCell ref="Y241:Y243"/>
+    <mergeCell ref="W238:W240"/>
+    <mergeCell ref="X238:X240"/>
+    <mergeCell ref="Y238:Y240"/>
+    <mergeCell ref="W235:W237"/>
+    <mergeCell ref="X235:X237"/>
+    <mergeCell ref="Y235:Y237"/>
+    <mergeCell ref="X181:X183"/>
+    <mergeCell ref="Y181:Y183"/>
+    <mergeCell ref="W201:W203"/>
+    <mergeCell ref="X201:X203"/>
+    <mergeCell ref="Y201:Y203"/>
+    <mergeCell ref="W204:W206"/>
+    <mergeCell ref="X204:X206"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="Y167:Y169"/>
+    <mergeCell ref="W161:W163"/>
+    <mergeCell ref="X161:X163"/>
+    <mergeCell ref="Y161:Y163"/>
+    <mergeCell ref="W158:W160"/>
+    <mergeCell ref="X158:X160"/>
+    <mergeCell ref="W164:W166"/>
+    <mergeCell ref="X164:X166"/>
+    <mergeCell ref="Y164:Y166"/>
     <mergeCell ref="W278:W280"/>
     <mergeCell ref="X278:X280"/>
     <mergeCell ref="Y278:Y280"/>
@@ -37964,267 +38502,20 @@
     <mergeCell ref="W281:W283"/>
     <mergeCell ref="X281:X283"/>
     <mergeCell ref="Y281:Y283"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
-    <mergeCell ref="Y167:Y169"/>
-    <mergeCell ref="W161:W163"/>
-    <mergeCell ref="X161:X163"/>
-    <mergeCell ref="Y161:Y163"/>
-    <mergeCell ref="W158:W160"/>
-    <mergeCell ref="X158:X160"/>
-    <mergeCell ref="W164:W166"/>
-    <mergeCell ref="X164:X166"/>
-    <mergeCell ref="Y164:Y166"/>
-    <mergeCell ref="W143:W145"/>
-    <mergeCell ref="X143:X145"/>
-    <mergeCell ref="Y143:Y145"/>
-    <mergeCell ref="W146:W148"/>
-    <mergeCell ref="X146:X148"/>
-    <mergeCell ref="Y146:Y148"/>
-    <mergeCell ref="W149:W151"/>
-    <mergeCell ref="X149:X151"/>
-    <mergeCell ref="W241:W243"/>
-    <mergeCell ref="X241:X243"/>
-    <mergeCell ref="Y241:Y243"/>
-    <mergeCell ref="W238:W240"/>
-    <mergeCell ref="X238:X240"/>
-    <mergeCell ref="Y238:Y240"/>
-    <mergeCell ref="W235:W237"/>
-    <mergeCell ref="X235:X237"/>
-    <mergeCell ref="Y235:Y237"/>
-    <mergeCell ref="Y116:Y118"/>
-    <mergeCell ref="W122:W124"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
-    <mergeCell ref="Y89:Y91"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="Y95:Y97"/>
-    <mergeCell ref="Y98:Y100"/>
-    <mergeCell ref="Y101:Y103"/>
-    <mergeCell ref="Y119:Y121"/>
-    <mergeCell ref="W116:W118"/>
-    <mergeCell ref="X116:X118"/>
-    <mergeCell ref="W104:W106"/>
-    <mergeCell ref="X104:X106"/>
-    <mergeCell ref="W107:W109"/>
-    <mergeCell ref="X107:X109"/>
-    <mergeCell ref="W110:W112"/>
-    <mergeCell ref="X110:X112"/>
-    <mergeCell ref="W113:W115"/>
-    <mergeCell ref="X113:X115"/>
-    <mergeCell ref="W98:W100"/>
-    <mergeCell ref="X98:X100"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="W101:W103"/>
-    <mergeCell ref="X101:X103"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="W83:W85"/>
-    <mergeCell ref="X83:X85"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="Y74:Y76"/>
-    <mergeCell ref="Y77:Y79"/>
-    <mergeCell ref="Y80:Y82"/>
-    <mergeCell ref="Y83:Y85"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="W95:W97"/>
-    <mergeCell ref="X95:X97"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Y56:Y58"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="Y62:Y64"/>
-    <mergeCell ref="Y65:Y67"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Y71:Y73"/>
-    <mergeCell ref="W89:W91"/>
-    <mergeCell ref="X89:X91"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="A302:F306"/>
-    <mergeCell ref="W170:W172"/>
-    <mergeCell ref="X170:X172"/>
-    <mergeCell ref="Y170:Y172"/>
-    <mergeCell ref="W173:W177"/>
-    <mergeCell ref="X173:X177"/>
-    <mergeCell ref="Y173:Y177"/>
-    <mergeCell ref="W178:W180"/>
-    <mergeCell ref="X178:X180"/>
-    <mergeCell ref="Y178:Y180"/>
-    <mergeCell ref="W181:W183"/>
-    <mergeCell ref="W187:W189"/>
-    <mergeCell ref="X187:X189"/>
-    <mergeCell ref="Y187:Y189"/>
-    <mergeCell ref="W190:W192"/>
-    <mergeCell ref="X190:X192"/>
-    <mergeCell ref="W193:W197"/>
-    <mergeCell ref="X193:X197"/>
-    <mergeCell ref="W228:W231"/>
-    <mergeCell ref="X228:X231"/>
-    <mergeCell ref="Y228:Y231"/>
-    <mergeCell ref="W184:W186"/>
-    <mergeCell ref="X184:X186"/>
-    <mergeCell ref="Y184:Y186"/>
-    <mergeCell ref="X181:X183"/>
-    <mergeCell ref="Y181:Y183"/>
-    <mergeCell ref="W201:W203"/>
-    <mergeCell ref="X201:X203"/>
-    <mergeCell ref="Y201:Y203"/>
-    <mergeCell ref="W204:W206"/>
-    <mergeCell ref="X204:X206"/>
-    <mergeCell ref="Y204:Y206"/>
-    <mergeCell ref="W207:W209"/>
-    <mergeCell ref="X207:X209"/>
-    <mergeCell ref="Y207:Y209"/>
-    <mergeCell ref="Y193:Y197"/>
-    <mergeCell ref="W198:W200"/>
-    <mergeCell ref="X198:X200"/>
-    <mergeCell ref="Y198:Y200"/>
-    <mergeCell ref="Y190:Y192"/>
-    <mergeCell ref="W225:W227"/>
-    <mergeCell ref="X225:X227"/>
-    <mergeCell ref="Y225:Y227"/>
-    <mergeCell ref="W216:W218"/>
-    <mergeCell ref="X216:X218"/>
-    <mergeCell ref="Y216:Y218"/>
-    <mergeCell ref="W210:W212"/>
-    <mergeCell ref="X210:X212"/>
-    <mergeCell ref="Y210:Y212"/>
-    <mergeCell ref="W219:W221"/>
-    <mergeCell ref="X219:X221"/>
-    <mergeCell ref="Y219:Y221"/>
-    <mergeCell ref="W222:W224"/>
-    <mergeCell ref="X222:X224"/>
-    <mergeCell ref="Y222:Y224"/>
-    <mergeCell ref="W213:W215"/>
-    <mergeCell ref="X213:X215"/>
-    <mergeCell ref="Y213:Y215"/>
+    <mergeCell ref="W296:W299"/>
+    <mergeCell ref="X296:X299"/>
+    <mergeCell ref="Y296:Y299"/>
+    <mergeCell ref="W290:W292"/>
+    <mergeCell ref="X290:X292"/>
+    <mergeCell ref="Y290:Y292"/>
+    <mergeCell ref="W284:W286"/>
+    <mergeCell ref="X284:X286"/>
+    <mergeCell ref="Y284:Y286"/>
     <mergeCell ref="W293:W295"/>
     <mergeCell ref="X293:X295"/>
     <mergeCell ref="Y293:Y295"/>
-    <mergeCell ref="W232:W234"/>
-    <mergeCell ref="X232:X234"/>
-    <mergeCell ref="Y232:Y234"/>
-    <mergeCell ref="W269:W271"/>
-    <mergeCell ref="X269:X271"/>
-    <mergeCell ref="Y269:Y271"/>
-    <mergeCell ref="W250:W252"/>
-    <mergeCell ref="X250:X252"/>
-    <mergeCell ref="Y250:Y252"/>
-    <mergeCell ref="W259:W262"/>
-    <mergeCell ref="X259:X262"/>
-    <mergeCell ref="Y259:Y262"/>
-    <mergeCell ref="W244:W246"/>
-    <mergeCell ref="X244:X246"/>
-    <mergeCell ref="Y244:Y246"/>
-    <mergeCell ref="W256:W258"/>
-    <mergeCell ref="X256:X258"/>
-    <mergeCell ref="Y256:Y258"/>
-    <mergeCell ref="W253:W255"/>
-    <mergeCell ref="X253:X255"/>
-    <mergeCell ref="Y253:Y255"/>
   </mergeCells>
-  <conditionalFormatting sqref="H302:N305">
+  <conditionalFormatting sqref="H305:N308">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -38236,7 +38527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H306:N306">
+  <conditionalFormatting sqref="H309:N309">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -38254,13 +38545,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2B40FE-052D-8547-979C-A956FC17E5E1}">
-  <dimension ref="A1:S187"/>
+  <dimension ref="A1:S191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186:L187"/>
+      <selection pane="bottomRight" activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38320,26 +38611,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A2, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A2, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A2, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A2, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A2, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A2, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A2, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A2, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A2, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A2, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -38371,26 +38662,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A3, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A3, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A3, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A3, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A3, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A3, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A3, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A3, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A3, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A3, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -38427,26 +38718,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A4, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A4, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A4, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A4, Scores!$F$2:$F$302, D$1)</f>
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A4, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A4, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A4, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A4, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A4, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A4, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -38483,26 +38774,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A5, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A5, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A5, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A5, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A5, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A5, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A5, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A5, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A5, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A5, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -38535,26 +38826,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A6, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A6, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A6, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A6, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A6, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A6, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A6, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A6, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A6, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A6, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -38596,26 +38887,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A7, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A7, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A7, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A7, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A7, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A7, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A7, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A7, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A7, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A7, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -38657,26 +38948,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A8, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A8, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A8, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A8, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A8, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A8, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A8, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A8, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A8, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A8, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -38718,26 +39009,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A9, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A9, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A9, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A9, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A9, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A9, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A9, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A9, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A9, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A9, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -38779,26 +39070,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A10, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A10, Scores!$E$2:$E$302, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A10, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A10, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A10, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A10, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A10, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A10, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A10, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A10, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -38831,26 +39122,26 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A11, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A11, Scores!$E$2:$E$302, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A11, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A11, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A11, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A11, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A11, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A11, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A11, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A11, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -38883,26 +39174,26 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A12, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A12, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A12, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A12, Scores!$F$2:$F$302, D$1)</f>
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A12, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A12, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A12, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A12, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A12, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A12, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -38935,26 +39226,26 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A13, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A13, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A13, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A13, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A13, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A13, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A13, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A13, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A13, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A13, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -38987,26 +39278,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A14, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A14, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A14, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A14, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A14, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A14, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A14, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A14, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A14, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A14, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -39039,26 +39330,26 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A15, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A15, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A15, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A15, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A15, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A15, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A15, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A15, Scores!$F$2:$F$302, F$1)</f>
         <v>6</v>
       </c>
       <c r="G15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A15, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A15, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -39091,26 +39382,26 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A16, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A16, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A16, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A16, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A16, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A16, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A16, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A16, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A16, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A16, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -39143,26 +39434,26 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A17, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A17, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A17, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A17, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A17, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A17, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A17, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A17, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A17, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A17, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -39195,26 +39486,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A18, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A18, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A18, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A18, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A18, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A18, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A18, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A18, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A18, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A18, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -39247,26 +39538,26 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A19, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A19, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A19, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A19, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A19, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A19, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A19, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A19, Scores!$F$2:$F$302, F$1)</f>
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A19, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A19, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -39299,26 +39590,26 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A20, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A20, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A20, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A20, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A20, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A20, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A20, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A20, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A20, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A20, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -39351,26 +39642,26 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A21, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A21, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A21, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A21, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A21, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A21, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A21, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A21, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A21, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A21, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -39403,26 +39694,26 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A22, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A22, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A22, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A22, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A22, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A22, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A22, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A22, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A22, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A22, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -39455,26 +39746,26 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A23, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A23, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A23, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A23, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A23, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A23, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A23, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A23, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A23, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A23, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -39507,26 +39798,26 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A24, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A24, Scores!$E$2:$E$302, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A24, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A24, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A24, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A24, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A24, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A24, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A24, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A24, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -39559,26 +39850,26 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A25, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A25, Scores!$E$2:$E$302, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A25, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A25, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A25, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A25, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A25, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A25, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A25, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A25, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -39611,26 +39902,26 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A26, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A26, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A26, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A26, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A26, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A26, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A26, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A26, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A26, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A26, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -39663,26 +39954,26 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A27, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A27, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A27, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A27, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A27, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A27, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A27, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A27, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A27, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A27, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -39715,26 +40006,26 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A28, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A28, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A28, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A28, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A28, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A28, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A28, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A28, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A28, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A28, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -39767,26 +40058,26 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A29, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A29, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A29, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A29, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A29, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A29, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A29, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A29, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A29, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A29, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -39819,26 +40110,26 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A30, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A30, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A30, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A30, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A30, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A30, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A30, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A30, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A30, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A30, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -39871,26 +40162,26 @@
         <v>15</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A31, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A31, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A31, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A31, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A31, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A31, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A31, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A31, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A31, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A31, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -39923,26 +40214,26 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A32, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A32, Scores!$E$2:$E$302, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A32, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A32, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A32, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A32, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A32, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A32, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A32, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A32, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H32" s="1" t="str">
@@ -39975,26 +40266,26 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A33, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A33, Scores!$E$2:$E$302, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A33, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A33, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A33, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A33, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A33, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A33, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A33, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A33, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H33" s="1" t="str">
@@ -40024,26 +40315,26 @@
         <v>17</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A34, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A34, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A34, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A34, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A34, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A34, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A34, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A34, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A34, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A34, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
@@ -40073,26 +40364,26 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A35, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A35, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A35, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A35, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A35, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A35, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A35, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A35, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A35, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A35, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -40122,26 +40413,26 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A36, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A36, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A36, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A36, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A36, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A36, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A36, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A36, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A36, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A36, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -40171,26 +40462,26 @@
         <v>18</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A37, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A37, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A37, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A37, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A37, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A37, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A37, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A37, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A37, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A37, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
@@ -40220,26 +40511,26 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A38, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A38, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A38, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A38, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A38, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A38, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A38, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A38, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A38, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A38, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
@@ -40269,26 +40560,26 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A39, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A39, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A39, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A39, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A39, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A39, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A39, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A39, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A39, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A39, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -40318,26 +40609,26 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A40, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A40, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A40, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A40, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A40, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A40, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A40, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A40, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A40, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A40, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
@@ -40367,26 +40658,26 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A41, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A41, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A41, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A41, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A41, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A41, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A41, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A41, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A41, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A41, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -40416,26 +40707,26 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A42, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A42, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A42, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A42, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A42, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A42, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A42, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A42, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A42, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A42, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
@@ -40465,26 +40756,26 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A43, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A43, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A43, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A43, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A43, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A43, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A43, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A43, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A43, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A43, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -40514,26 +40805,26 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A44, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A44, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A44, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A44, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A44, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A44, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A44, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A44, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A44, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A44, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -40563,26 +40854,26 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A45, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A45, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A45, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A45, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A45, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A45, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A45, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A45, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A45, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A45, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -40612,26 +40903,26 @@
         <v>23</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A46, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A46, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A46, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A46, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A46, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A46, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A46, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A46, Scores!$F$2:$F$302, F$1)</f>
         <v>7</v>
       </c>
       <c r="G46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A46, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A46, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
@@ -40661,26 +40952,26 @@
         <v>23</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A47, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A47, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A47, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A47, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A47, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A47, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A47, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A47, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A47, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A47, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
@@ -40710,26 +41001,26 @@
         <v>24</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A48, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A48, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A48, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A48, Scores!$F$2:$F$302, D$1)</f>
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A48, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A48, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A48, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A48, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A48, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A48, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
@@ -40759,26 +41050,26 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A49, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A49, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A49, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A49, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A49, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A49, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A49, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A49, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A49, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A49, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
@@ -40808,26 +41099,26 @@
         <v>25</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A50, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A50, Scores!$E$2:$E$302, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A50, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A50, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A50, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A50, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A50, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A50, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A50, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A50, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
@@ -40857,26 +41148,26 @@
         <v>25</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A51, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A51, Scores!$E$2:$E$302, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A51, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A51, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A51, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A51, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A51, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A51, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A51, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A51, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
@@ -40906,26 +41197,26 @@
         <v>26</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A52, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A52, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A52, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A52, Scores!$F$2:$F$302, D$1)</f>
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A52, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A52, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A52, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A52, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A52, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A52, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
@@ -40955,26 +41246,26 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A53, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A53, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A53, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A53, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A53, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A53, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A53, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A53, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A53, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A53, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
@@ -41004,26 +41295,26 @@
         <v>27</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A54, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A54, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A54, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A54, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A54, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A54, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A54, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A54, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A54, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A54, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
@@ -41053,26 +41344,26 @@
         <v>27</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A55, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A55, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A55, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A55, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A55, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A55, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A55, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A55, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A55, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A55, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
@@ -41102,26 +41393,26 @@
         <v>28</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A56, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A56, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A56, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A56, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A56, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A56, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A56, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A56, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A56, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A56, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -41151,26 +41442,26 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A57, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A57, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A57, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A57, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A57, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A57, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A57, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A57, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A57, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A57, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
@@ -41200,26 +41491,26 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A58, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A58, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A58, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A58, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A58, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A58, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A58, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A58, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A58, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A58, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -41249,26 +41540,26 @@
         <v>29</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A59, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A59, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A59, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A59, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A59, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A59, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A59, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A59, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A59, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A59, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -41298,26 +41589,26 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A60, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A60, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A60, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A60, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A60, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A60, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A60, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A60, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A60, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A60, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -41347,26 +41638,26 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A61, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A61, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A61, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A61, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A61, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A61, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A61, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A61, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A61, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A61, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -41396,26 +41687,26 @@
         <v>31</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A62, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A62, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A62, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A62, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A62, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A62, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A62, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A62, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A62, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A62, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -41445,26 +41736,26 @@
         <v>31</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A63, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A63, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A63, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A63, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A63, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A63, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A63, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A63, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A63, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A63, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
@@ -41494,26 +41785,26 @@
         <v>32</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A64, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A64, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A64, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A64, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A64, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A64, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A64, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A64, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A64, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A64, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -41543,26 +41834,26 @@
         <v>32</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A65, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A65, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A65, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A65, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A65, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A65, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A65, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A65, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A65, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A65, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -41592,26 +41883,26 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A66, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A66, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A66, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A66, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A66, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A66, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A66, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A66, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A66, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A66, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -41641,26 +41932,26 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A67, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A67, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A67, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A67, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A67, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A67, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A67, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A67, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A67, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A67, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H67" s="1" t="str">
@@ -41690,26 +41981,26 @@
         <v>34</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A68, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A68, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A68, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A68, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A68, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A68, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A68, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A68, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A68, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A68, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H68" s="1" t="str">
@@ -41739,26 +42030,26 @@
         <v>34</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A69, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A69, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A69, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A69, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A69, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A69, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A69, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A69, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A69, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A69, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -41788,26 +42079,26 @@
         <v>35</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A70, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A70, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A70, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A70, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A70, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A70, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A70, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A70, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A70, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A70, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H70" s="1" t="str">
@@ -41837,26 +42128,26 @@
         <v>35</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A71, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A71, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A71, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A71, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A71, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A71, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A71, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A71, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A71, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A71, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -41886,26 +42177,26 @@
         <v>36</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A72, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A72, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A72, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A72, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A72, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A72, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A72, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A72, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A72, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A72, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -41935,26 +42226,26 @@
         <v>36</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A73, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A73, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A73, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A73, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A73, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A73, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A73, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A73, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A73, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A73, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H73" s="1" t="str">
@@ -41984,26 +42275,26 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A74, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A74, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A74, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A74, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A74, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A74, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A74, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A74, Scores!$F$2:$F$302, F$1)</f>
         <v>5</v>
       </c>
       <c r="G74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A74, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A74, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
@@ -42033,26 +42324,26 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A75, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A75, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A75, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A75, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A75, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A75, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A75, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A75, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A75, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A75, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H75" s="1" t="str">
@@ -42082,26 +42373,26 @@
         <v>38</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A76, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A76, Scores!$E$2:$E$302, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A76, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A76, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A76, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A76, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A76, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A76, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A76, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A76, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H76" s="1" t="str">
@@ -42131,26 +42422,26 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A77, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A77, Scores!$E$2:$E$302, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A77, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A77, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A77, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A77, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A77, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A77, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A77, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A77, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -42180,26 +42471,26 @@
         <v>39</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A78, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A78, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A78, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A78, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A78, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A78, Scores!$F$2:$F$302, E$1)</f>
         <v>7</v>
       </c>
       <c r="F78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A78, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A78, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A78, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A78, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -42229,26 +42520,26 @@
         <v>39</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A79, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A79, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A79, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A79, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A79, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A79, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A79, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A79, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A79, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A79, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -42278,26 +42569,26 @@
         <v>40</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A80, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A80, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A80, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A80, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A80, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A80, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A80, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A80, Scores!$F$2:$F$302, F$1)</f>
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A80, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A80, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -42327,26 +42618,26 @@
         <v>40</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A81, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A81, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A81, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A81, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A81, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A81, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A81, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A81, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A81, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A81, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -42376,26 +42667,26 @@
         <v>41</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A82, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A82, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A82, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A82, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A82, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A82, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A82, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A82, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A82, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A82, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -42425,26 +42716,26 @@
         <v>41</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A83, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A83, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A83, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A83, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A83, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A83, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A83, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A83, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A83, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A83, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -42474,26 +42765,26 @@
         <v>42</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A84, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A84, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A84, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A84, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A84, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A84, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A84, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A84, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A84, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A84, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -42523,26 +42814,26 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A85, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A85, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A85, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A85, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A85, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A85, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A85, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A85, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A85, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A85, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -42572,26 +42863,26 @@
         <v>43</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A86, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A86, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A86, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A86, Scores!$F$2:$F$302, D$1)</f>
         <v>7</v>
       </c>
       <c r="E86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A86, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A86, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A86, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A86, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A86, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A86, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -42621,26 +42912,26 @@
         <v>43</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A87, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A87, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A87, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A87, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A87, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A87, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A87, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A87, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A87, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A87, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -42670,26 +42961,26 @@
         <v>44</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A88, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A88, Scores!$E$2:$E$302, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A88, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A88, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A88, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A88, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A88, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A88, Scores!$F$2:$F$302, F$1)</f>
         <v>6</v>
       </c>
       <c r="G88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A88, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A88, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -42719,26 +43010,26 @@
         <v>44</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A89, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A89, Scores!$E$2:$E$302, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A89, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A89, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A89, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A89, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A89, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A89, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A89, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A89, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H89" s="1" t="str">
@@ -42768,26 +43059,26 @@
         <v>45</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A90, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A90, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A90, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A90, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A90, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A90, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A90, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A90, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A90, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A90, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H90" s="1" t="str">
@@ -42817,26 +43108,26 @@
         <v>45</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A91, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A91, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A91, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A91, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A91, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A91, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A91, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A91, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A91, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A91, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H91" s="1" t="str">
@@ -42866,26 +43157,26 @@
         <v>46</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A92, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A92, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A92, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A92, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A92, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A92, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A92, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A92, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A92, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A92, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -42915,26 +43206,26 @@
         <v>46</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A93, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A93, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A93, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A93, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A93, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A93, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A93, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A93, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A93, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A93, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -42963,26 +43254,26 @@
         <v>48</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A94, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A94, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A94, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A94, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A94, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A94, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A94, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A94, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A94, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A94, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H94" s="1" t="str">
@@ -43011,26 +43302,26 @@
         <v>48</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A95, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A95, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A95, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A95, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A95, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A95, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A95, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A95, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A95, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A95, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H95" s="1" t="str">
@@ -43060,26 +43351,26 @@
         <v>49</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A96, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A96, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A96, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A96, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A96, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A96, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A96, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A96, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A96, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A96, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H96" s="1" t="str">
@@ -43109,26 +43400,26 @@
         <v>49</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A97, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A97, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A97, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A97, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A97, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A97, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A97, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A97, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A97, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A97, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H97" s="1" t="str">
@@ -43158,26 +43449,26 @@
         <v>50</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A98, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A98, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A98, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A98, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A98, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A98, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A98, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A98, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A98, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A98, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H98" s="1" t="str">
@@ -43207,26 +43498,26 @@
         <v>50</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A99, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A99, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A99, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A99, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A99, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A99, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A99, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A99, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A99, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A99, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H99" s="1" t="str">
@@ -43256,26 +43547,26 @@
         <v>51</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A100, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A100, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A100, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A100, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A100, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A100, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A100, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A100, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A100, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A100, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H100" s="1" t="str">
@@ -43305,26 +43596,26 @@
         <v>51</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A101, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A101, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A101, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A101, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A101, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A101, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A101, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A101, Scores!$F$2:$F$302, F$1)</f>
         <v>5</v>
       </c>
       <c r="G101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A101, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A101, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H101" s="1" t="str">
@@ -43354,26 +43645,26 @@
         <v>52</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A102, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A102, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A102, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A102, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A102, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A102, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A102, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A102, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A102, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A102, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H102" s="1" t="str">
@@ -43403,26 +43694,26 @@
         <v>52</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A103, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A103, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A103, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A103, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A103, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A103, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A103, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A103, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A103, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A103, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H103" s="1" t="str">
@@ -43452,26 +43743,26 @@
         <v>53</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A104, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A104, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A104, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A104, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A104, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A104, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A104, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A104, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A104, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A104, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H104" s="1" t="str">
@@ -43501,26 +43792,26 @@
         <v>53</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A105, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A105, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A105, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A105, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A105, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A105, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A105, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A105, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A105, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A105, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H105" s="1" t="str">
@@ -43550,26 +43841,26 @@
         <v>54</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A106, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A106, Scores!$E$2:$E$302, 0))</f>
         <v>QJCDY</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A106, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A106, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A106, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A106, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A106, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A106, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A106, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A106, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H106" s="1" t="str">
@@ -43599,26 +43890,26 @@
         <v>54</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A107, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A107, Scores!$E$2:$E$302, 0))</f>
         <v>QJCDY</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A107, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A107, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A107, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A107, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A107, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A107, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A107, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A107, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H107" s="1" t="str">
@@ -43648,26 +43939,26 @@
         <v>55</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A108, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A108, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A108, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A108, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A108, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A108, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A108, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A108, Scores!$F$2:$F$302, F$1)</f>
         <v>6</v>
       </c>
       <c r="G108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A108, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A108, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H108" s="1" t="str">
@@ -43697,26 +43988,26 @@
         <v>55</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A109, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A109, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A109, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A109, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A109, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A109, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A109, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A109, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A109, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A109, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H109" s="1" t="str">
@@ -43746,26 +44037,26 @@
         <v>56</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A110, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A110, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A110, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A110, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A110, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A110, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A110, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A110, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A110, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A110, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H110" s="1" t="str">
@@ -43795,26 +44086,26 @@
         <v>56</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A111, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A111, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A111, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A111, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A111, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A111, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A111, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A111, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A111, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A111, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H111" s="1" t="str">
@@ -43844,26 +44135,26 @@
         <v>57</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A112, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A112, Scores!$E$2:$E$302, 0))</f>
         <v>JCK</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A112, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A112, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A112, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A112, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A112, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A112, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A112, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A112, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H112" s="1" t="str">
@@ -43893,26 +44184,26 @@
         <v>57</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A113, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A113, Scores!$E$2:$E$302, 0))</f>
         <v>JCK</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A113, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A113, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A113, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A113, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A113, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A113, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A113, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A113, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H113" s="1" t="str">
@@ -43942,26 +44233,26 @@
         <v>58</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A114, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A114, Scores!$E$2:$E$302, 0))</f>
         <v>CJK</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A114, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A114, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A114, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A114, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A114, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A114, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A114, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A114, Scores!$F$2:$F$302, G$1)</f>
         <v>5</v>
       </c>
       <c r="H114" s="1" t="str">
@@ -43991,26 +44282,26 @@
         <v>58</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A115, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A115, Scores!$E$2:$E$302, 0))</f>
         <v>CJK</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A115, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A115, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A115, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A115, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A115, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A115, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A115, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A115, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H115" s="1" t="str">
@@ -44040,26 +44331,26 @@
         <v>59</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A116, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A116, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A116, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A116, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A116, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A116, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A116, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A116, Scores!$F$2:$F$302, F$1)</f>
         <v>5</v>
       </c>
       <c r="G116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A116, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A116, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H116" s="1" t="str">
@@ -44089,26 +44380,26 @@
         <v>59</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A117, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A117, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A117, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A117, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A117, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A117, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A117, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A117, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A117, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A117, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H117" s="1" t="str">
@@ -44138,26 +44429,26 @@
         <v>60</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A118, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A118, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A118, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A118, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A118, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A118, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A118, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A118, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A118, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A118, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H118" s="1" t="str">
@@ -44187,26 +44478,26 @@
         <v>60</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A119, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A119, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A119, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A119, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A119, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A119, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A119, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A119, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A119, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A119, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H119" s="1" t="str">
@@ -44236,26 +44527,26 @@
         <v>61</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A120, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A120, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A120, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A120, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A120, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A120, Scores!$F$2:$F$302, E$1)</f>
         <v>7</v>
       </c>
       <c r="F120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A120, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A120, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A120, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A120, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H120" s="1" t="str">
@@ -44285,26 +44576,26 @@
         <v>61</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A121, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A121, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A121, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A121, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A121, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A121, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A121, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A121, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A121, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A121, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H121" s="1" t="str">
@@ -44334,26 +44625,26 @@
         <v>62</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A122, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A122, Scores!$E$2:$E$302, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A122, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A122, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A122, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A122, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A122, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A122, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A122, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A122, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H122" s="1" t="str">
@@ -44383,26 +44674,26 @@
         <v>62</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A123, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A123, Scores!$E$2:$E$302, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A123, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A123, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A123, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A123, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A123, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A123, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A123, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A123, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H123" s="1" t="str">
@@ -44432,26 +44723,26 @@
         <v>63</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A124, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A124, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A124, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A124, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A124, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A124, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A124, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A124, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A124, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A124, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H124" s="1" t="str">
@@ -44481,26 +44772,26 @@
         <v>63</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A125, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A125, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A125, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A125, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A125, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A125, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A125, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A125, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A125, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A125, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H125" s="1" t="str">
@@ -44529,26 +44820,26 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A126, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A126, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A126, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A126, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A126, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A126, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A126, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A126, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A126, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A126, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H126" s="1" t="str">
@@ -44577,26 +44868,26 @@
         <v>65</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A127, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A127, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A127, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A127, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A127, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A127, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A127, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A127, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A127, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A127, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H127" s="1" t="str">
@@ -44626,26 +44917,26 @@
         <v>66</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A128, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A128, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A128, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A128, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A128, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A128, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A128, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A128, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A128, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A128, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H128" s="1" t="str">
@@ -44675,26 +44966,26 @@
         <v>66</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A129, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A129, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A129, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A129, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A129, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A129, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A129, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A129, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A129, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A129, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H129" s="1" t="str">
@@ -44724,26 +45015,26 @@
         <v>67</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A130, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A130, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A130, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A130, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A130, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A130, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A130, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A130, Scores!$F$2:$F$302, F$1)</f>
         <v>6</v>
       </c>
       <c r="G130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A130, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A130, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H130" s="1" t="str">
@@ -44773,26 +45064,26 @@
         <v>67</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A131, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A131, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A131, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A131, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A131, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A131, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A131, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A131, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A131, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A131, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H131" s="1" t="str">
@@ -44822,26 +45113,26 @@
         <v>68</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A132, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A132, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A132, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A132, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A132, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A132, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A132, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A132, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A132, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A132, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H132" s="1" t="str">
@@ -44871,26 +45162,26 @@
         <v>68</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A133, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A133, Scores!$E$2:$E$302, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A133, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A133, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A133, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A133, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A133, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A133, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A133, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A133, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H133" s="1" t="str">
@@ -44916,30 +45207,30 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <f t="shared" ref="A134:A187" si="268">A132+1</f>
+        <f t="shared" ref="A134:A191" si="268">A132+1</f>
         <v>69</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A134, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A134, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A134, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A134, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A134, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A134, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A134, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A134, Scores!$F$2:$F$302, F$1)</f>
         <v>6</v>
       </c>
       <c r="G134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A134, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A134, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H134" s="1" t="str">
@@ -44969,26 +45260,26 @@
         <v>69</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A135, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A135, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A135, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A135, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A135, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A135, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A135, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A135, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A135, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A135, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H135" s="1" t="str">
@@ -45018,26 +45309,26 @@
         <v>70</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A136, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A136, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A136, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A136, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A136, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A136, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A136, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A136, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A136, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A136, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H136" s="1" t="str">
@@ -45067,26 +45358,26 @@
         <v>70</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A137, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A137, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A137, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A137, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A137, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A137, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A137, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A137, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A137, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A137, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H137" s="1" t="str">
@@ -45116,26 +45407,26 @@
         <v>71</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A138, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A138, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A138, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A138, Scores!$F$2:$F$302, D$1)</f>
         <v>8</v>
       </c>
       <c r="E138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A138, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A138, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A138, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A138, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A138, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A138, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H138" s="1" t="str">
@@ -45165,26 +45456,26 @@
         <v>71</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A139, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A139, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A139, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A139, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A139, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A139, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A139, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A139, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A139, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A139, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H139" s="1" t="str">
@@ -45214,26 +45505,26 @@
         <v>72</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A140, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A140, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A140, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A140, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A140, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A140, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A140, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A140, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A140, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A140, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H140" s="1" t="str">
@@ -45263,26 +45554,26 @@
         <v>72</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A141, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A141, Scores!$E$2:$E$302, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A141, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A141, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A141, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A141, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A141, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A141, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A141, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A141, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H141" s="1" t="str">
@@ -45312,26 +45603,26 @@
         <v>73</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A142, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A142, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A142, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A142, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A142, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A142, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A142, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A142, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A142, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A142, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H142" s="1" t="str">
@@ -45361,26 +45652,26 @@
         <v>73</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A143, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A143, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A143, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A143, Scores!$F$2:$F$302, D$1)</f>
         <v>6</v>
       </c>
       <c r="E143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A143, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A143, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A143, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A143, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A143, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A143, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H143" s="1" t="str">
@@ -45410,26 +45701,26 @@
         <v>74</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A144, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A144, Scores!$E$2:$E$302, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A144, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A144, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A144, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A144, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A144, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A144, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A144, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A144, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H144" s="1" t="str">
@@ -45459,26 +45750,26 @@
         <v>74</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A145, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A145, Scores!$E$2:$E$302, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A145, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A145, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A145, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A145, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A145, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A145, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A145, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A145, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H145" s="1" t="str">
@@ -45508,26 +45799,26 @@
         <v>75</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A146, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A146, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A146, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A146, Scores!$F$2:$F$302, D$1)</f>
         <v>5</v>
       </c>
       <c r="E146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A146, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A146, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A146, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A146, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A146, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A146, Scores!$F$2:$F$302, G$1)</f>
         <v>3</v>
       </c>
       <c r="H146" s="1" t="str">
@@ -45557,26 +45848,26 @@
         <v>75</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A147, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A147, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A147, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A147, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A147, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A147, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A147, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A147, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A147, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A147, Scores!$F$2:$F$302, G$1)</f>
         <v>1</v>
       </c>
       <c r="H147" s="1" t="str">
@@ -45606,26 +45897,26 @@
         <v>76</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A148, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A148, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A148, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A148, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A148, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A148, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A148, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A148, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A148, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A148, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H148" s="1" t="str">
@@ -45655,26 +45946,26 @@
         <v>76</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A149, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A149, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A149, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A149, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A149, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A149, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A149, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A149, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A149, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A149, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H149" s="1" t="str">
@@ -45704,26 +45995,26 @@
         <v>77</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A150, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A150, Scores!$E$2:$E$302, 0))</f>
         <v>QCJ</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A150, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A150, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A150, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A150, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A150, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A150, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A150, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A150, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H150" s="1" t="str">
@@ -45753,26 +46044,26 @@
         <v>77</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A151, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A151, Scores!$E$2:$E$302, 0))</f>
         <v>QCJ</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A151, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A151, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A151, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A151, Scores!$F$2:$F$302, E$1)</f>
         <v>5</v>
       </c>
       <c r="F151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A151, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A151, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A151, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A151, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H151" s="1" t="str">
@@ -45801,26 +46092,26 @@
         <v>79</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A152, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A152, Scores!$E$2:$E$302, 0))</f>
         <v>CJQD</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A152, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A152, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A152, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A152, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A152, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A152, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A152, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A152, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H152" s="1" t="str">
@@ -45849,26 +46140,26 @@
         <v>79</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A153, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A153, Scores!$E$2:$E$302, 0))</f>
         <v>CJQD</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A153, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A153, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A153, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A153, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A153, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A153, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A153, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A153, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H153" s="1" t="str">
@@ -45898,26 +46189,26 @@
         <v>80</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A154, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A154, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A154, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A154, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A154, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A154, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A154, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A154, Scores!$F$2:$F$302, F$1)</f>
         <v>5</v>
       </c>
       <c r="G154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A154, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A154, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H154" s="1" t="str">
@@ -45947,26 +46238,26 @@
         <v>80</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A155, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A155, Scores!$E$2:$E$302, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A155, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A155, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A155, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A155, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A155, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A155, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A155, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A155, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H155" s="1" t="str">
@@ -45996,26 +46287,26 @@
         <v>81</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A156, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A156, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A156, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A156, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A156, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A156, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A156, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A156, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A156, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A156, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H156" s="1" t="str">
@@ -46045,26 +46336,26 @@
         <v>81</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A157, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A157, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A157, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A157, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A157, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A157, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A157, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A157, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A157, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A157, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H157" s="1" t="str">
@@ -46094,26 +46385,26 @@
         <v>82</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A158, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A158, Scores!$E$2:$E$302, 0))</f>
         <v>JDC</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A158, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A158, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A158, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A158, Scores!$F$2:$F$302, E$1)</f>
         <v>6</v>
       </c>
       <c r="F158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A158, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A158, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A158, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A158, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H158" s="1" t="str">
@@ -46143,26 +46434,26 @@
         <v>82</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A159, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A159, Scores!$E$2:$E$302, 0))</f>
         <v>JDC</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A159, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A159, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A159, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A159, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A159, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A159, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A159, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A159, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H159" s="1" t="str">
@@ -46192,26 +46483,26 @@
         <v>83</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A160, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A160, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A160, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A160, Scores!$F$2:$F$302, D$1)</f>
         <v>6</v>
       </c>
       <c r="E160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A160, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A160, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A160, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A160, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A160, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A160, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H160" s="1" t="str">
@@ -46241,26 +46532,26 @@
         <v>83</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A161, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A161, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A161, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A161, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A161, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A161, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A161, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A161, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A161, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A161, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H161" s="1" t="str">
@@ -46290,26 +46581,26 @@
         <v>84</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A162, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A162, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A162, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A162, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A162, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A162, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A162, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A162, Scores!$F$2:$F$302, F$1)</f>
         <v>7</v>
       </c>
       <c r="G162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A162, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A162, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H162" s="1" t="str">
@@ -46339,26 +46630,26 @@
         <v>84</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A163, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A163, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A163, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A163, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A163, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A163, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A163, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A163, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A163, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A163, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H163" s="1" t="str">
@@ -46388,26 +46679,26 @@
         <v>85</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A164, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A164, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A164, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A164, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A164, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A164, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A164, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A164, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A164, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A164, Scores!$F$2:$F$302, G$1)</f>
         <v>5</v>
       </c>
       <c r="H164" s="1" t="str">
@@ -46437,26 +46728,26 @@
         <v>85</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A165, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A165, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A165, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A165, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A165, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A165, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A165, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A165, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A165, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A165, Scores!$F$2:$F$302, G$1)</f>
         <v>1</v>
       </c>
       <c r="H165" s="1" t="str">
@@ -46486,26 +46777,26 @@
         <v>86</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A166, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A166, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A166, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A166, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A166, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A166, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A166, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A166, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A166, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A166, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H166" s="1" t="str">
@@ -46535,26 +46826,26 @@
         <v>86</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A167, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A167, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A167, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A167, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A167, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A167, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A167, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A167, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A167, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A167, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H167" s="1" t="str">
@@ -46584,26 +46875,26 @@
         <v>87</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A168, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A168, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A168, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A168, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A168, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A168, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A168, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A168, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A168, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A168, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H168" s="1" t="str">
@@ -46633,26 +46924,26 @@
         <v>87</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A169, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A169, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A169, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A169, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A169, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A169, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A169, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A169, Scores!$F$2:$F$302, F$1)</f>
         <v>3</v>
       </c>
       <c r="G169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A169, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A169, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H169" s="1" t="str">
@@ -46682,26 +46973,26 @@
         <v>88</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A170, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A170, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A170, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A170, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A170, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A170, Scores!$F$2:$F$302, E$1)</f>
         <v>4</v>
       </c>
       <c r="F170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A170, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A170, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A170, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A170, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H170" s="1" t="str">
@@ -46709,11 +47000,11 @@
         <v>Caleb</v>
       </c>
       <c r="I170" s="1">
-        <f t="shared" ref="I170:I186" si="341">IF($H170=$C170, SUM($D170:$E170)-SUM($D171:$E171), SUM($D170:$E170) - SUM($D171:$F171))</f>
+        <f t="shared" ref="I170:I190" si="341">IF($H170=$C170, SUM($D170:$E170)-SUM($D171:$E171), SUM($D170:$E170) - SUM($D171:$F171))</f>
         <v>1</v>
       </c>
       <c r="J170" s="1">
-        <f t="shared" ref="J170:J186" si="342">IF($H170=$C170, SUM($D170:$F170)-SUM($D171:$E171), SUM($D170:$F170)-SUM($D171:$F171))</f>
+        <f t="shared" ref="J170:J190" si="342">IF($H170=$C170, SUM($D170:$F170)-SUM($D171:$E171), SUM($D170:$F170)-SUM($D171:$F171))</f>
         <v>5</v>
       </c>
       <c r="K170" s="1" t="str">
@@ -46731,26 +47022,26 @@
         <v>88</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A171, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A171, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A171, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A171, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A171, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A171, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A171, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A171, Scores!$F$2:$F$302, F$1)</f>
         <v>4</v>
       </c>
       <c r="G171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A171, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A171, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H171" s="1" t="str">
@@ -46758,11 +47049,11 @@
         <v>Caleb</v>
       </c>
       <c r="I171" s="1">
-        <f t="shared" ref="I171:I187" si="343">IF($H171=$C171, SUM($D171:$E171)-SUM($D170:$E170), SUM($D171:$E171) - SUM($D170:$F170))</f>
+        <f t="shared" ref="I171:I191" si="343">IF($H171=$C171, SUM($D171:$E171)-SUM($D170:$E170), SUM($D171:$E171) - SUM($D170:$F170))</f>
         <v>-5</v>
       </c>
       <c r="J171" s="1">
-        <f t="shared" ref="J171:J187" si="344">IF($H171=$C171, SUM($D171:$F171)-SUM($D170:$E170), SUM($D171:$F171)-SUM($D170:$F170))</f>
+        <f t="shared" ref="J171:J191" si="344">IF($H171=$C171, SUM($D171:$F171)-SUM($D170:$E170), SUM($D171:$F171)-SUM($D170:$F170))</f>
         <v>-1</v>
       </c>
       <c r="K171" s="1">
@@ -46780,26 +47071,26 @@
         <v>89</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A172, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A172, Scores!$E$2:$E$302, 0))</f>
         <v>JVC</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A172, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A172, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A172, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A172, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A172, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A172, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A172, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A172, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H172" s="1" t="str">
@@ -46829,26 +47120,26 @@
         <v>89</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A173, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A173, Scores!$E$2:$E$302, 0))</f>
         <v>JVC</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A173, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A173, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A173, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A173, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A173, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A173, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A173, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A173, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H173" s="1" t="str">
@@ -46878,26 +47169,26 @@
         <v>90</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A174, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A174, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A174, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A174, Scores!$F$2:$F$302, D$1)</f>
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A174, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A174, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A174, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A174, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A174, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A174, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H174" s="1" t="str">
@@ -46927,26 +47218,26 @@
         <v>90</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A175, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A175, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A175, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A175, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A175, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A175, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A175, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A175, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A175, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A175, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H175" s="1" t="str">
@@ -46976,26 +47267,26 @@
         <v>91</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A176, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A176, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A176, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A176, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A176, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A176, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A176, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A176, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A176, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A176, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H176" s="1" t="str">
@@ -47025,26 +47316,26 @@
         <v>91</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A177, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A177, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A177, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A177, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A177, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A177, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A177, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A177, Scores!$F$2:$F$302, F$1)</f>
         <v>5</v>
       </c>
       <c r="G177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A177, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A177, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H177" s="1" t="str">
@@ -47074,26 +47365,26 @@
         <v>92</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A178, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A178, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A178, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A178, Scores!$F$2:$F$302, D$1)</f>
         <v>4</v>
       </c>
       <c r="E178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A178, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A178, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A178, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A178, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A178, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A178, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H178" s="1" t="str">
@@ -47123,26 +47414,26 @@
         <v>92</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A179, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A179, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A179, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A179, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A179, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A179, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A179, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A179, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A179, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A179, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H179" s="1" t="str">
@@ -47172,26 +47463,26 @@
         <v>93</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A180, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A180, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A180, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A180, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A180, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A180, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A180, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A180, Scores!$F$2:$F$302, F$1)</f>
         <v>8</v>
       </c>
       <c r="G180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A180, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A180, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H180" s="1" t="str">
@@ -47221,26 +47512,26 @@
         <v>93</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A181, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A181, Scores!$E$2:$E$302, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A181, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A181, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A181, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A181, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A181, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A181, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A181, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A181, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H181" s="1" t="str">
@@ -47270,26 +47561,26 @@
         <v>94</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A182, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A182, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A182, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A182, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A182, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A182, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A182, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A182, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A182, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A182, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H182" s="1" t="str">
@@ -47319,26 +47610,26 @@
         <v>94</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A183, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A183, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A183, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A183, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A183, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A183, Scores!$F$2:$F$302, E$1)</f>
         <v>3</v>
       </c>
       <c r="F183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A183, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A183, Scores!$F$2:$F$302, F$1)</f>
         <v>2</v>
       </c>
       <c r="G183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A183, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A183, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H183" s="1" t="str">
@@ -47368,26 +47659,26 @@
         <v>95</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A184, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A184, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A184, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A184, Scores!$F$2:$F$302, D$1)</f>
         <v>2</v>
       </c>
       <c r="E184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A184, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A184, Scores!$F$2:$F$302, E$1)</f>
         <v>0</v>
       </c>
       <c r="F184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A184, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A184, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A184, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A184, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H184" s="1" t="str">
@@ -47417,26 +47708,26 @@
         <v>95</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A185, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A185, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A185, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A185, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A185, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A185, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A185, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A185, Scores!$F$2:$F$302, F$1)</f>
         <v>0</v>
       </c>
       <c r="G185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A185, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A185, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H185" s="1" t="str">
@@ -47466,26 +47757,26 @@
         <v>96</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A186, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A186, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A186, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A186, Scores!$F$2:$F$302, D$1)</f>
         <v>3</v>
       </c>
       <c r="E186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A186, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A186, Scores!$F$2:$F$302, E$1)</f>
         <v>1</v>
       </c>
       <c r="F186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A186, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A186, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A186, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A186, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H186" s="1" t="str">
@@ -47515,26 +47806,26 @@
         <v>96</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$299, MATCH(Clutch!$A187, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A187, Scores!$E$2:$E$302, 0))</f>
         <v>JC</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A187, Scores!$F$2:$F$299, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A187, Scores!$F$2:$F$302, D$1)</f>
         <v>0</v>
       </c>
       <c r="E187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A187, Scores!$F$2:$F$299, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A187, Scores!$F$2:$F$302, E$1)</f>
         <v>2</v>
       </c>
       <c r="F187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A187, Scores!$F$2:$F$299, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A187, Scores!$F$2:$F$302, F$1)</f>
         <v>1</v>
       </c>
       <c r="G187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$299, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$299, $A187, Scores!$F$2:$F$299, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A187, Scores!$F$2:$F$302, G$1)</f>
         <v>0</v>
       </c>
       <c r="H187" s="1" t="str">
@@ -47556,6 +47847,202 @@
       <c r="L187" s="1">
         <f t="shared" si="365"/>
         <v>-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="1">
+        <f t="shared" si="268"/>
+        <v>97</v>
+      </c>
+      <c r="B188" s="1" t="str">
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A188, Scores!$E$2:$E$302, 0))</f>
+        <v>CJ</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A188, Scores!$F$2:$F$302, D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A188, Scores!$F$2:$F$302, E$1)</f>
+        <v>3</v>
+      </c>
+      <c r="F188" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A188, Scores!$F$2:$F$302, F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A188, Scores!$F$2:$F$302, G$1)</f>
+        <v>3</v>
+      </c>
+      <c r="H188" s="1" t="str">
+        <f t="shared" ref="H188:H191" si="366">IF(FIND("C", B188) &lt; FIND("J", B188), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="I188" s="1">
+        <f t="shared" si="341"/>
+        <v>2</v>
+      </c>
+      <c r="J188" s="1">
+        <f t="shared" si="342"/>
+        <v>2</v>
+      </c>
+      <c r="K188" s="1" t="str">
+        <f t="shared" ref="K188:K191" si="367">IF(I188&lt;=0,IF(J188&gt;=0,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="L188" s="1">
+        <f t="shared" ref="L188:L191" si="368">IF(I188&gt;3, "&gt;3", IF(I188&lt;-3, "&lt;-3", I188))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="1">
+        <f t="shared" si="268"/>
+        <v>97</v>
+      </c>
+      <c r="B189" s="1" t="str">
+        <f>INDEX(Scores!$G$2:$G$302, MATCH(Clutch!$A189, Scores!$E$2:$E$302, 0))</f>
+        <v>CJ</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A189, Scores!$F$2:$F$302, D$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E189" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A189, Scores!$F$2:$F$302, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A189, Scores!$F$2:$F$302, F$1)</f>
+        <v>2</v>
+      </c>
+      <c r="G189" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A189, Scores!$F$2:$F$302, G$1)</f>
+        <v>2</v>
+      </c>
+      <c r="H189" s="1" t="str">
+        <f t="shared" si="366"/>
+        <v>Caleb</v>
+      </c>
+      <c r="I189" s="1">
+        <f t="shared" si="343"/>
+        <v>-2</v>
+      </c>
+      <c r="J189" s="1">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="1">
+        <f t="shared" si="367"/>
+        <v>1</v>
+      </c>
+      <c r="L189" s="1">
+        <f t="shared" si="368"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="1">
+        <f t="shared" si="268"/>
+        <v>98</v>
+      </c>
+      <c r="B190" s="1" t="str">
+        <f>INDEX(Scores!$G$2:$G$303, MATCH(Clutch!$A190, Scores!$E$2:$E$303, 0))</f>
+        <v>CJQ</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A190, Scores!$F$2:$F$302, D$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E190" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A190, Scores!$F$2:$F$302, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A190, Scores!$F$2:$F$302, F$1)</f>
+        <v>9</v>
+      </c>
+      <c r="G190" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A190, Scores!$F$2:$F$302, G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H190" s="1" t="str">
+        <f t="shared" ref="H190:H191" si="369">IF(FIND("C", B190) &lt; FIND("J", B190), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="I190" s="1">
+        <f t="shared" si="341"/>
+        <v>1</v>
+      </c>
+      <c r="J190" s="1">
+        <f t="shared" si="342"/>
+        <v>10</v>
+      </c>
+      <c r="K190" s="1" t="str">
+        <f t="shared" ref="K190:K191" si="370">IF(I190&lt;=0,IF(J190&gt;=0,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="L190" s="1">
+        <f t="shared" ref="L190:L191" si="371">IF(I190&gt;3, "&gt;3", IF(I190&lt;-3, "&lt;-3", I190))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="1">
+        <f t="shared" si="268"/>
+        <v>98</v>
+      </c>
+      <c r="B191" s="1" t="str">
+        <f>INDEX(Scores!$G$2:$G$303, MATCH(Clutch!$A191, Scores!$E$2:$E$303, 0))</f>
+        <v>CJQ</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A191, Scores!$F$2:$F$302, D$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A191, Scores!$F$2:$F$302, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A191, Scores!$F$2:$F$302, F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="G191" s="1">
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$302, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$302, $A191, Scores!$F$2:$F$302, G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H191" s="1" t="str">
+        <f t="shared" si="369"/>
+        <v>Caleb</v>
+      </c>
+      <c r="I191" s="1">
+        <f t="shared" si="343"/>
+        <v>-10</v>
+      </c>
+      <c r="J191" s="1">
+        <f t="shared" si="344"/>
+        <v>-9</v>
+      </c>
+      <c r="K191" s="1">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="L191" s="1" t="str">
+        <f t="shared" si="371"/>
+        <v>&lt;-3</v>
       </c>
     </row>
   </sheetData>
@@ -47565,13 +48052,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -47631,11 +48118,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N299, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
+        <f ca="1">SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N299, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A2, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A2, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
       <c r="J2"/>
@@ -47664,11 +48151,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N300, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N303, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
         <v>13</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A3, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A3, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -47720,39 +48207,39 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N301, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N304, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A4, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A4, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L4" s="9">
-        <v>8.115384615384615</v>
+        <v>8.375</v>
       </c>
       <c r="M4" s="9">
-        <v>3.8461538461538463</v>
+        <v>4</v>
       </c>
       <c r="N4" s="9">
-        <v>0.87916666666666665</v>
+        <v>0.91156462585034015</v>
       </c>
       <c r="O4" s="9">
-        <v>0.47393364928909953</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="P4" s="9">
-        <v>1.87</v>
+        <v>1.953125</v>
       </c>
       <c r="Q4" s="9">
-        <v>0.41666666666666669</v>
+        <v>0.43537414965986393</v>
       </c>
       <c r="R4" s="9">
-        <v>0.77916666666666667</v>
+        <v>0.85034013605442171</v>
       </c>
       <c r="S4"/>
       <c r="U4" s="1" t="s">
@@ -47776,39 +48263,39 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N302, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N305, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A5, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A5, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="9">
-        <v>4.2</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="M5" s="9">
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N5" s="9">
-        <v>0.46666666666666667</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="O5" s="9">
-        <v>0.47619047619047616</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="P5" s="9">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.22222222222222221</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="R5" s="9">
-        <v>0.31111111111111112</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S5"/>
     </row>
@@ -47829,39 +48316,39 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N303, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N306, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A6, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A6, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L6" s="9">
-        <v>5.68</v>
+        <v>5.4</v>
       </c>
       <c r="M6" s="9">
-        <v>2.44</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="N6" s="9">
-        <v>0.61471861471861466</v>
+        <v>0.58695652173913049</v>
       </c>
       <c r="O6" s="9">
-        <v>0.42957746478873238</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="P6" s="9">
-        <v>1.721311475409836</v>
+        <v>1.5405405405405406</v>
       </c>
       <c r="Q6" s="9">
-        <v>0.26406926406926406</v>
+        <v>0.26811594202898553</v>
       </c>
       <c r="R6" s="9">
-        <v>0.45454545454545453</v>
+        <v>0.41304347826086957</v>
       </c>
       <c r="S6"/>
     </row>
@@ -47882,39 +48369,39 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N304, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N307, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A7, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A7, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="9">
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="M7" s="9">
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="N7" s="9">
-        <v>0.40740740740740738</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O7" s="9">
-        <v>0.63636363636363635</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="P7" s="9">
-        <v>1.8571428571428572</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.25925925925925924</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="R7" s="9">
-        <v>0.48148148148148145</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="S7"/>
     </row>
@@ -47935,39 +48422,39 @@
         <v>4</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N305, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N308, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A8, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A8, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="10">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="L8" s="9">
-        <v>2</v>
+        <v>6.4210526315789478</v>
       </c>
       <c r="M8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="9">
-        <v>0.22222222222222221</v>
+        <v>0.70114942528735635</v>
       </c>
       <c r="O8" s="9">
-        <v>1</v>
+        <v>0.46721311475409838</v>
       </c>
       <c r="P8" s="9">
-        <v>1</v>
+        <v>1.8157894736842106</v>
       </c>
       <c r="Q8" s="9">
-        <v>0.22222222222222221</v>
+        <v>0.32758620689655171</v>
       </c>
       <c r="R8" s="9">
-        <v>0.22222222222222221</v>
+        <v>0.59482758620689657</v>
       </c>
       <c r="S8"/>
     </row>
@@ -47988,40 +48475,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N306, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N309, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A9, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A9, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="10">
-        <v>60</v>
-      </c>
-      <c r="L9" s="9">
-        <v>6.45</v>
-      </c>
-      <c r="M9" s="9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0.70108695652173914</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0.46511627906976744</v>
-      </c>
-      <c r="P9" s="9">
-        <v>1.7833333333333334</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0.58152173913043481</v>
-      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
@@ -48040,11 +48509,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N307, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N310, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A10, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A10, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
       <c r="J10"/>
@@ -48071,11 +48540,11 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N308, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N311, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A11, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A11, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
       <c r="J11"/>
@@ -48099,11 +48568,11 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N309, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N312, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A12, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A12, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J12"/>
@@ -48127,11 +48596,11 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N310, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N313, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A13, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A13, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J13"/>
@@ -48155,11 +48624,11 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N311, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N314, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A14, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A14, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J14"/>
@@ -48183,11 +48652,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N312, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N315, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A15, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A15, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J15"/>
@@ -48211,11 +48680,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N313, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N316, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A16, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A16, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J16"/>
@@ -48239,11 +48708,11 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N314, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N317, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A17, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A17, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J17"/>
@@ -48267,11 +48736,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N315, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N318, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A18, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A18, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J18"/>
@@ -48295,11 +48764,11 @@
         <v>5</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N316, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N319, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A19, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A19, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J19"/>
@@ -48323,11 +48792,11 @@
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N317, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N320, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A20, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A20, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J20"/>
@@ -48351,11 +48820,11 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N318, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N321, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A21, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A21, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
       <c r="J21"/>
@@ -48379,11 +48848,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N319, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N322, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A22, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A22, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48404,11 +48873,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N320, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N323, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A23, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A23, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48429,11 +48898,11 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N321, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N324, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A24, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A24, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48454,11 +48923,11 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N322, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N325, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A25, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A25, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48479,11 +48948,11 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N323, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N326, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A26, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A26, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48504,11 +48973,11 @@
         <v>6</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N324, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N327, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A27, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A27, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48529,11 +48998,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N325, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N328, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A28, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A28, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -48554,11 +49023,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N326, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N329, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A29, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A29, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -48579,11 +49048,11 @@
         <v>6</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N327, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N330, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A30, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A30, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48604,11 +49073,11 @@
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N328, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N331, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A31, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A31, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48629,11 +49098,11 @@
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N329, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N332, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A32, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A32, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48654,11 +49123,11 @@
         <v>6</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N330, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N333, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A33, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A33, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48679,11 +49148,11 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N331, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N334, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A34, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A34, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48704,11 +49173,11 @@
         <v>5</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N332, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N335, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A35, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A35, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48729,11 +49198,11 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N333, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N336, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A36, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A36, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48754,11 +49223,11 @@
         <v>6</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N334, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N337, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A37, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A37, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -48779,11 +49248,11 @@
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N335, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N338, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A38, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A38, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -48804,11 +49273,11 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N336, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N339, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A39, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A39, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48829,11 +49298,11 @@
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N337, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N340, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A40, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A40, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48854,11 +49323,11 @@
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N338, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N341, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A41, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A41, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48879,11 +49348,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N339, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N342, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A42, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A42, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -48904,11 +49373,11 @@
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A43, INDEX(Scores!$H$2:$N340, 0, MATCH($B43, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A43, INDEX(Scores!$H$2:$N343, 0, MATCH($B43, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A43, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A43, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48929,11 +49398,11 @@
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A44, INDEX(Scores!$H$2:$N341, 0, MATCH($B44, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A44, INDEX(Scores!$H$2:$N344, 0, MATCH($B44, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A44, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A44, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -48954,11 +49423,11 @@
         <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A45, INDEX(Scores!$H$2:$N342, 0, MATCH($B45, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A45, INDEX(Scores!$H$2:$N345, 0, MATCH($B45, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A45, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A45, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -48979,11 +49448,11 @@
         <v>3</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A46, INDEX(Scores!$H$2:$N343, 0, MATCH($B46, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A46, INDEX(Scores!$H$2:$N346, 0, MATCH($B46, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A46, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A46, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -49004,11 +49473,11 @@
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A47, INDEX(Scores!$H$2:$N344, 0, MATCH($B47, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A47, INDEX(Scores!$H$2:$N347, 0, MATCH($B47, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A47, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A47, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -49029,11 +49498,11 @@
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A48, INDEX(Scores!$H$2:$N345, 0, MATCH($B48, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A48, INDEX(Scores!$H$2:$N348, 0, MATCH($B48, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A48, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A48, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49054,11 +49523,11 @@
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A49, INDEX(Scores!$H$2:$N346, 0, MATCH($B49, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A49, INDEX(Scores!$H$2:$N349, 0, MATCH($B49, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A49, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A49, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49079,11 +49548,11 @@
         <v>3</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A50, INDEX(Scores!$H$2:$N347, 0, MATCH($B50, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A50, INDEX(Scores!$H$2:$N350, 0, MATCH($B50, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A50, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A50, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49104,11 +49573,11 @@
         <v>6</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A51, INDEX(Scores!$H$2:$N348, 0, MATCH($B51, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A51, INDEX(Scores!$H$2:$N351, 0, MATCH($B51, Scores!$H$1:$N$1, 0)))</f>
         <v>11</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A51, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A51, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49129,11 +49598,11 @@
         <v>4</v>
       </c>
       <c r="F52" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A52, INDEX(Scores!$H$2:$N349, 0, MATCH($B52, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A52, INDEX(Scores!$H$2:$N352, 0, MATCH($B52, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A52, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A52, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49154,11 +49623,11 @@
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A53, INDEX(Scores!$H$2:$N350, 0, MATCH($B53, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A53, INDEX(Scores!$H$2:$N353, 0, MATCH($B53, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A53, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A53, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49179,11 +49648,11 @@
         <v>7</v>
       </c>
       <c r="F54" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A54, INDEX(Scores!$H$2:$N351, 0, MATCH($B54, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A54, INDEX(Scores!$H$2:$N354, 0, MATCH($B54, Scores!$H$1:$N$1, 0)))</f>
         <v>14</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A54, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A54, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49204,11 +49673,11 @@
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A55, INDEX(Scores!$H$2:$N352, 0, MATCH($B55, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A55, INDEX(Scores!$H$2:$N355, 0, MATCH($B55, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A55, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A55, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49229,11 +49698,11 @@
         <v>4</v>
       </c>
       <c r="F56" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A56, INDEX(Scores!$H$2:$N353, 0, MATCH($B56, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A56, INDEX(Scores!$H$2:$N356, 0, MATCH($B56, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A56, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A56, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -49254,11 +49723,11 @@
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A57, INDEX(Scores!$H$2:$N354, 0, MATCH($B57, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A57, INDEX(Scores!$H$2:$N357, 0, MATCH($B57, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A57, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A57, Scores!$E$2:$E$302, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -49279,11 +49748,11 @@
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A58, INDEX(Scores!$H$2:$N355, 0, MATCH($B58, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A58, INDEX(Scores!$H$2:$N358, 0, MATCH($B58, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A58, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A58, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -49304,11 +49773,11 @@
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A59, INDEX(Scores!$H$2:$N356, 0, MATCH($B59, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A59, INDEX(Scores!$H$2:$N359, 0, MATCH($B59, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A59, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A59, Scores!$E$2:$E$302, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -49329,11 +49798,11 @@
         <v>3</v>
       </c>
       <c r="F60" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A60, INDEX(Scores!$H$2:$N357, 0, MATCH($B60, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A60, INDEX(Scores!$H$2:$N360, 0, MATCH($B60, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A60, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A60, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -49354,11 +49823,86 @@
         <v>2</v>
       </c>
       <c r="F61" s="1">
-        <f>SUMIF(Scores!$E$2:$E$299, 'Next Gen'!$A61, INDEX(Scores!$H$2:$N358, 0, MATCH($B61, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A61, INDEX(Scores!$H$2:$N361, 0, MATCH($B61, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$299, MATCH('Next Gen'!$A61, Scores!$E$2:$E$299, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A61, Scores!$E$2:$E$302, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>98</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A62, INDEX(Scores!$H$2:$N362, 0, MATCH($B62, Scores!$H$1:$N$1, 0)))</f>
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A62, Scores!$E$2:$E$302, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>98</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A63, INDEX(Scores!$H$2:$N363, 0, MATCH($B63, Scores!$H$1:$N$1, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A63, Scores!$E$2:$E$302, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>98</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <f>SUMIF(Scores!$E$2:$E$302, 'Next Gen'!$A64, INDEX(Scores!$H$2:$N364, 0, MATCH($B64, Scores!$H$1:$N$1, 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$302, MATCH('Next Gen'!$A64, Scores!$E$2:$E$302, 0))</f>
         <v>mid</v>
       </c>
     </row>

--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B5AF3-FA5D-0D45-827F-683BB3036977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677FC1A0-58C0-C246-B678-9FE771C1737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" activeTab="2" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -340,6 +340,9 @@
   <si>
     <t>JCDQ</t>
   </si>
+  <si>
+    <t>JQ</t>
+  </si>
 </sst>
 </file>
 
@@ -415,52 +418,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -8685,8 +8643,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A66BE9A-23B4-084D-8F25-6B6C7D528D0A}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
-  <location ref="G322:N327" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A66BE9A-23B4-084D-8F25-6B6C7D528D0A}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
+  <location ref="G325:N330" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -8792,7 +8750,7 @@
     <dataField name="Average of Veronica" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -8925,17 +8883,17 @@
     <dataField name="Success Rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="23">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="7">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8945,7 +8903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8968,7 +8926,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F12215B5-AD3A-7642-B0F3-D13A42846D3D}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F12215B5-AD3A-7642-B0F3-D13A42846D3D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
   <location ref="J3:R7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -9057,17 +9015,17 @@
     <dataField name="PPT" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="19">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="3">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9076,7 +9034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9088,7 +9046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9453,11 +9411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:AI869"/>
+  <dimension ref="A1:AI872"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I312" sqref="I312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29822,16 +29780,16 @@
         <v>0</v>
       </c>
       <c r="W296" s="11" t="str">
-        <f>IF(SUM(H296:H309)&gt;SUM(I296:I309), "Caleb", "Joshua")</f>
-        <v>Caleb</v>
+        <f>IF(SUM(H296:H312)&gt;SUM(I296:I312), "Caleb", "Joshua")</f>
+        <v>Joshua</v>
       </c>
       <c r="X296" s="11">
-        <f>ABS(SUM(H296:H309)-SUM(I296:I309))</f>
-        <v>8</v>
+        <f>ABS(SUM(H296:H312)-SUM(I296:I312))</f>
+        <v>1</v>
       </c>
       <c r="Y296" s="11">
-        <f>SUM(H296:H309, I296:I309)</f>
-        <v>50</v>
+        <f>SUM(H296:H312, I296:I312)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="297" spans="1:25">
@@ -29988,19 +29946,19 @@
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="P299" s="2">
-        <f>COUNTA(H309)</f>
+        <f>COUNTA(H312)</f>
         <v>0</v>
       </c>
       <c r="Q299" s="2">
-        <f>COUNTA(I309)</f>
+        <f>COUNTA(I312)</f>
         <v>0</v>
       </c>
       <c r="R299" s="2">
-        <f>COUNTA(J309)</f>
+        <f>COUNTA(J312)</f>
         <v>0</v>
       </c>
       <c r="S299" s="2">
-        <f>COUNTA(K309)</f>
+        <f>COUNTA(K312)</f>
         <v>0</v>
       </c>
       <c r="T299" s="2"/>
@@ -30024,7 +29982,7 @@
         <v>45791</v>
       </c>
       <c r="E300" s="2">
-        <f t="shared" ref="E300:E308" si="523">E297+1</f>
+        <f t="shared" ref="E300:E311" si="523">E297+1</f>
         <v>98</v>
       </c>
       <c r="F300" s="2">
@@ -30363,7 +30321,7 @@
       <c r="X304" s="11"/>
       <c r="Y304" s="11"/>
     </row>
-    <row r="305" spans="1:35">
+    <row r="305" spans="1:25">
       <c r="A305" s="1" t="s">
         <v>30</v>
       </c>
@@ -30424,7 +30382,7 @@
       <c r="X305" s="11"/>
       <c r="Y305" s="11"/>
     </row>
-    <row r="306" spans="1:35">
+    <row r="306" spans="1:25">
       <c r="A306" s="1" t="s">
         <v>30</v>
       </c>
@@ -30458,19 +30416,19 @@
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
       <c r="P306" s="2">
-        <f t="shared" ref="P306:P308" si="544">COUNTA(H306)</f>
+        <f t="shared" ref="P306:P311" si="544">COUNTA(H306)</f>
         <v>1</v>
       </c>
       <c r="Q306" s="2">
-        <f t="shared" ref="Q306:Q308" si="545">COUNTA(I306)</f>
+        <f t="shared" ref="Q306:Q311" si="545">COUNTA(I306)</f>
         <v>1</v>
       </c>
       <c r="R306" s="2">
-        <f t="shared" ref="R306:R308" si="546">COUNTA(J306)</f>
+        <f t="shared" ref="R306:R311" si="546">COUNTA(J306)</f>
         <v>0</v>
       </c>
       <c r="S306" s="2">
-        <f t="shared" ref="S306:S308" si="547">COUNTA(K306)</f>
+        <f t="shared" ref="S306:S311" si="547">COUNTA(K306)</f>
         <v>0</v>
       </c>
       <c r="T306" s="2">
@@ -30498,7 +30456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:35">
+    <row r="307" spans="1:25">
       <c r="A307" s="1" t="s">
         <v>30</v>
       </c>
@@ -30563,7 +30521,7 @@
       <c r="X307" s="11"/>
       <c r="Y307" s="11"/>
     </row>
-    <row r="308" spans="1:35">
+    <row r="308" spans="1:25">
       <c r="A308" s="1" t="s">
         <v>30</v>
       </c>
@@ -30619,211 +30577,231 @@
       <c r="X308" s="11"/>
       <c r="Y308" s="11"/>
     </row>
-    <row r="311" spans="1:35">
-      <c r="A311" s="11" t="s">
+    <row r="309" spans="1:25">
+      <c r="A309" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="4">
+        <v>45797</v>
+      </c>
+      <c r="E309" s="2">
+        <f t="shared" si="523"/>
+        <v>101</v>
+      </c>
+      <c r="F309" s="2">
+        <v>1</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I309" s="1">
+        <v>3</v>
+      </c>
+      <c r="J309" s="1">
+        <v>3</v>
+      </c>
+      <c r="K309" s="2"/>
+      <c r="L309" s="2"/>
+      <c r="M309" s="2"/>
+      <c r="N309" s="2"/>
+      <c r="P309" s="2">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Q309" s="2">
+        <f t="shared" si="545"/>
+        <v>1</v>
+      </c>
+      <c r="R309" s="2">
+        <f t="shared" si="546"/>
+        <v>1</v>
+      </c>
+      <c r="S309" s="2">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="T309" s="2">
+        <f t="shared" ref="T309:T310" si="554">COUNTA(L309)</f>
+        <v>0</v>
+      </c>
+      <c r="U309" s="2">
+        <f t="shared" ref="U309:U310" si="555">COUNTA(M309)</f>
+        <v>0</v>
+      </c>
+      <c r="V309" s="2">
+        <f t="shared" ref="V309:V310" si="556">COUNTA(N309)</f>
+        <v>0</v>
+      </c>
+      <c r="W309" s="11"/>
+      <c r="X309" s="11"/>
+      <c r="Y309" s="11"/>
+    </row>
+    <row r="310" spans="1:25">
+      <c r="A310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="4">
+        <v>45797</v>
+      </c>
+      <c r="E310" s="2">
+        <f t="shared" si="523"/>
+        <v>101</v>
+      </c>
+      <c r="F310" s="2">
+        <v>2</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I310" s="1">
+        <v>3</v>
+      </c>
+      <c r="J310" s="1">
+        <v>3</v>
+      </c>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="2"/>
+      <c r="N310" s="2"/>
+      <c r="P310" s="2">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Q310" s="2">
+        <f t="shared" si="545"/>
+        <v>1</v>
+      </c>
+      <c r="R310" s="2">
+        <f t="shared" si="546"/>
+        <v>1</v>
+      </c>
+      <c r="S310" s="2">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="T310" s="2">
+        <f t="shared" si="554"/>
+        <v>0</v>
+      </c>
+      <c r="U310" s="2">
+        <f t="shared" si="555"/>
+        <v>0</v>
+      </c>
+      <c r="V310" s="2">
+        <f t="shared" si="556"/>
+        <v>0</v>
+      </c>
+      <c r="W310" s="11"/>
+      <c r="X310" s="11"/>
+      <c r="Y310" s="11"/>
+    </row>
+    <row r="311" spans="1:25">
+      <c r="A311" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D311" s="4">
+        <v>45797</v>
+      </c>
+      <c r="E311" s="2">
+        <f t="shared" si="523"/>
+        <v>101</v>
+      </c>
+      <c r="F311" s="2">
+        <v>3</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I311" s="1">
+        <v>3</v>
+      </c>
+      <c r="J311" s="1">
+        <v>0</v>
+      </c>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+      <c r="M311" s="2"/>
+      <c r="N311" s="2"/>
+      <c r="P311" s="2">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Q311" s="2">
+        <f t="shared" si="545"/>
+        <v>1</v>
+      </c>
+      <c r="R311" s="2">
+        <f t="shared" si="546"/>
+        <v>1</v>
+      </c>
+      <c r="S311" s="2">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="T311" s="2"/>
+      <c r="U311" s="2"/>
+      <c r="V311" s="2"/>
+      <c r="W311" s="11"/>
+      <c r="X311" s="11"/>
+      <c r="Y311" s="11"/>
+    </row>
+    <row r="314" spans="1:25">
+      <c r="A314" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="11"/>
-      <c r="E311" s="11"/>
-      <c r="F311" s="11"/>
-      <c r="G311" s="1">
-        <v>1</v>
-      </c>
-      <c r="H311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, H$2:H309)/SUMIF($F$2:$F309, $G311, P$2:P309)</f>
-        <v>2.4795918367346941</v>
-      </c>
-      <c r="I311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, I$2:I309)/SUMIF($F$2:$F309, $G311, Q$2:Q309)</f>
-        <v>1.1717171717171717</v>
-      </c>
-      <c r="J311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, J$2:J309)/SUMIF($F$2:$F309, $G311, R$2:R309)</f>
-        <v>1.0588235294117647</v>
-      </c>
-      <c r="K311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, K$2:K309)/SUMIF($F$2:$F309, $G311, S$2:S309)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, L$2:L309)/SUMIF($F$2:$F309, $G311, T$2:T309)</f>
-        <v>0</v>
-      </c>
-      <c r="M311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, M$2:M309)/SUMIF($F$2:$F309, $G311, U$2:U309)</f>
-        <v>0</v>
-      </c>
-      <c r="N311" s="5">
-        <f>SUMIF($F$2:$F309, $G311, N$2:N309)/SUMIF($F$2:$F309, $G311, V$2:V309)</f>
-        <v>0.5</v>
-      </c>
-      <c r="P311" s="5"/>
-      <c r="Q311" s="5"/>
-      <c r="R311" s="5"/>
-      <c r="S311" s="5"/>
-      <c r="T311" s="5"/>
-      <c r="U311" s="5"/>
-      <c r="V311" s="5"/>
-      <c r="X311" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y311" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="312" spans="1:35">
-      <c r="A312" s="11"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-      <c r="F312" s="11"/>
-      <c r="G312" s="1">
-        <v>2</v>
-      </c>
-      <c r="H312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, H$2:H309)/SUMIF($F$2:$F309, $G312, P$2:P309)</f>
-        <v>2.5306122448979593</v>
-      </c>
-      <c r="I312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, I$2:I309)/SUMIF($F$2:$F309, $G312, Q$2:Q309)</f>
-        <v>1.3232323232323233</v>
-      </c>
-      <c r="J312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, J$2:J309)/SUMIF($F$2:$F309, $G312, R$2:R309)</f>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="K312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, K$2:K309)/SUMIF($F$2:$F309, $G312, S$2:S309)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, L$2:L309)/SUMIF($F$2:$F309, $G312, T$2:T309)</f>
-        <v>0</v>
-      </c>
-      <c r="M312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, M$2:M309)/SUMIF($F$2:$F309, $G312, U$2:U309)</f>
-        <v>1.5</v>
-      </c>
-      <c r="N312" s="5">
-        <f>SUMIF($F$2:$F309, $G312, N$2:N309)/SUMIF($F$2:$F309, $G312, V$2:V309)</f>
-        <v>1</v>
-      </c>
-      <c r="P312" s="5"/>
-      <c r="Q312" s="5"/>
-      <c r="R312" s="5"/>
-      <c r="S312" s="5"/>
-      <c r="T312" s="5"/>
-      <c r="U312" s="5"/>
-      <c r="V312" s="5"/>
-      <c r="W312" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X312" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W309,W312)</f>
-        <v>77</v>
-      </c>
-      <c r="Y312" s="6">
-        <f>X312/SUM(X312:X313)</f>
-        <v>0.79381443298969068</v>
-      </c>
-    </row>
-    <row r="313" spans="1:35">
-      <c r="A313" s="11"/>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
-      <c r="D313" s="11"/>
-      <c r="E313" s="11"/>
-      <c r="F313" s="11"/>
-      <c r="G313" s="1">
-        <v>3</v>
-      </c>
-      <c r="H313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, H$2:H310)/SUMIF($F$2:$F310, $G313, P$2:P310)</f>
-        <v>2.5306122448979593</v>
-      </c>
-      <c r="I313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, I$2:I310)/SUMIF($F$2:$F310, $G313, Q$2:Q310)</f>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="J313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, J$2:J310)/SUMIF($F$2:$F310, $G313, R$2:R310)</f>
-        <v>1.6</v>
-      </c>
-      <c r="K313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, K$2:K310)/SUMIF($F$2:$F310, $G313, S$2:S310)</f>
-        <v>1</v>
-      </c>
-      <c r="L313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, L$2:L310)/SUMIF($F$2:$F310, $G313, T$2:T310)</f>
-        <v>1</v>
-      </c>
-      <c r="M313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, M$2:M310)/SUMIF($F$2:$F310, $G313, U$2:U310)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N313" s="5">
-        <f>SUMIF($F$2:$F310, $G313, N$2:N310)/SUMIF($F$2:$F310, $G313, V$2:V310)</f>
-        <v>1</v>
-      </c>
-      <c r="P313" s="5"/>
-      <c r="Q313" s="5"/>
-      <c r="R313" s="5"/>
-      <c r="S313" s="5"/>
-      <c r="T313" s="5"/>
-      <c r="U313" s="5"/>
-      <c r="V313" s="5"/>
-      <c r="W313" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X313" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W309,W313)</f>
-        <v>20</v>
-      </c>
-      <c r="Y313" s="6">
-        <f>X313/SUM(X312:X313)</f>
-        <v>0.20618556701030927</v>
-      </c>
-    </row>
-    <row r="314" spans="1:35">
-      <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
-      <c r="G314" s="1" t="s">
-        <v>41</v>
+      <c r="G314" s="1">
+        <v>1</v>
       </c>
       <c r="H314" s="5">
-        <f>IF(SUMIF($F$2:$F311, $G314, P$2:P311) = 0, "", SUMIF($F$2:$F311, $G314, H$2:H311)/SUMIF($F$2:$F311, $G314, P$2:P311))</f>
-        <v>4</v>
+        <f>SUMIF($F$2:$F312, $G314, H$2:H312)/SUMIF($F$2:$F312, $G314, P$2:P312)</f>
+        <v>2.4795918367346941</v>
       </c>
       <c r="I314" s="5">
-        <f>IF(SUMIF($F$2:$F311, $G314, Q$2:Q311) = 0, "", SUMIF($F$2:$F311, $G314, I$2:I311)/SUMIF($F$2:$F311, $G314, Q$2:Q311))</f>
-        <v>2.5</v>
+        <f>SUMIF($F$2:$F312, $G314, I$2:I312)/SUMIF($F$2:$F312, $G314, Q$2:Q312)</f>
+        <v>1.19</v>
       </c>
       <c r="J314" s="5">
-        <f>IF(SUMIF($F$2:$F311, $G314, R$2:R311) = 0, "", SUMIF($F$2:$F311, $G314, J$2:J311)/SUMIF($F$2:$F311, $G314, R$2:R311))</f>
-        <v>2</v>
-      </c>
-      <c r="K314" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F311, $G314, S$2:S311) = 0, "", SUMIF($F$2:$F311, $G314, K$2:K311)/SUMIF($F$2:$F311, $G314, S$2:S311))</f>
-        <v/>
-      </c>
-      <c r="L314" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F311, $G314, T$2:T311) = 0, "", SUMIF($F$2:$F311, $G314, L$2:L311)/SUMIF($F$2:$F311, $G314, T$2:T311))</f>
-        <v/>
+        <f>SUMIF($F$2:$F312, $G314, J$2:J312)/SUMIF($F$2:$F312, $G314, R$2:R312)</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="K314" s="5">
+        <f>SUMIF($F$2:$F312, $G314, K$2:K312)/SUMIF($F$2:$F312, $G314, S$2:S312)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L314" s="5">
+        <f>SUMIF($F$2:$F312, $G314, L$2:L312)/SUMIF($F$2:$F312, $G314, T$2:T312)</f>
+        <v>0</v>
       </c>
       <c r="M314" s="5">
-        <f>IF(SUMIF($F$2:$F311, $G314, U$2:U311) = 0, "", SUMIF($F$2:$F311, $G314, M$2:M311)/SUMIF($F$2:$F311, $G314, U$2:U311))</f>
-        <v>0</v>
-      </c>
-      <c r="N314" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F311, $G314, V$2:V311) = 0, "", SUMIF($F$2:$F311, $G314, N$2:N311)/SUMIF($F$2:$F311, $G314, V$2:V311))</f>
-        <v/>
+        <f>SUMIF($F$2:$F312, $G314, M$2:M312)/SUMIF($F$2:$F312, $G314, U$2:U312)</f>
+        <v>0</v>
+      </c>
+      <c r="N314" s="5">
+        <f>SUMIF($F$2:$F312, $G314, N$2:N312)/SUMIF($F$2:$F312, $G314, V$2:V312)</f>
+        <v>0.5</v>
       </c>
       <c r="P314" s="5"/>
       <c r="Q314" s="5"/>
@@ -30832,44 +30810,50 @@
       <c r="T314" s="5"/>
       <c r="U314" s="5"/>
       <c r="V314" s="5"/>
-    </row>
-    <row r="315" spans="1:35">
+      <c r="X314" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y314" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
-      <c r="G315" s="1" t="s">
-        <v>51</v>
+      <c r="G315" s="1">
+        <v>2</v>
       </c>
       <c r="H315" s="5">
-        <f>AVERAGE(H$2:H309)*3</f>
-        <v>7.575250836120401</v>
+        <f>SUMIF($F$2:$F312, $G315, H$2:H312)/SUMIF($F$2:$F312, $G315, P$2:P312)</f>
+        <v>2.5306122448979593</v>
       </c>
       <c r="I315" s="5">
-        <f>AVERAGE(I$2:I309)*3</f>
-        <v>3.9735099337748347</v>
+        <f>SUMIF($F$2:$F312, $G315, I$2:I312)/SUMIF($F$2:$F312, $G315, Q$2:Q312)</f>
+        <v>1.34</v>
       </c>
       <c r="J315" s="5">
-        <f>AVERAGE(J$2:J309)*3</f>
-        <v>3.5094339622641506</v>
+        <f>SUMIF($F$2:$F312, $G315, J$2:J312)/SUMIF($F$2:$F312, $G315, R$2:R312)</f>
+        <v>1.0555555555555556</v>
       </c>
       <c r="K315" s="5">
-        <f>AVERAGE(K$2:K309)*3</f>
-        <v>3.1111111111111107</v>
+        <f>SUMIF($F$2:$F312, $G315, K$2:K312)/SUMIF($F$2:$F312, $G315, S$2:S312)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L315" s="5">
-        <f>AVERAGE(L$2:L309)*3</f>
-        <v>1</v>
+        <f>SUMIF($F$2:$F312, $G315, L$2:L312)/SUMIF($F$2:$F312, $G315, T$2:T312)</f>
+        <v>0</v>
       </c>
       <c r="M315" s="5">
-        <f>AVERAGE(M$2:M309)*3</f>
+        <f>SUMIF($F$2:$F312, $G315, M$2:M312)/SUMIF($F$2:$F312, $G315, U$2:U312)</f>
         <v>1.5</v>
       </c>
       <c r="N315" s="5">
-        <f>AVERAGE(N$2:N309)*3</f>
-        <v>2</v>
+        <f>SUMIF($F$2:$F312, $G315, N$2:N312)/SUMIF($F$2:$F312, $G315, V$2:V312)</f>
+        <v>1</v>
       </c>
       <c r="P315" s="5"/>
       <c r="Q315" s="5"/>
@@ -30878,144 +30862,189 @@
       <c r="T315" s="5"/>
       <c r="U315" s="5"/>
       <c r="V315" s="5"/>
-    </row>
-    <row r="318" spans="1:35">
-      <c r="G318" s="7" t="s">
+      <c r="W315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X315" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W312,W315)</f>
+        <v>76</v>
+      </c>
+      <c r="Y315" s="6">
+        <f>X315/SUM(X315:X316)</f>
+        <v>0.78350515463917525</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25">
+      <c r="A316" s="11"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="1">
+        <v>3</v>
+      </c>
+      <c r="H316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, H$2:H313)/SUMIF($F$2:$F313, $G316, P$2:P313)</f>
+        <v>2.5306122448979593</v>
+      </c>
+      <c r="I316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, I$2:I313)/SUMIF($F$2:$F313, $G316, Q$2:Q313)</f>
+        <v>1.46</v>
+      </c>
+      <c r="J316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, J$2:J313)/SUMIF($F$2:$F313, $G316, R$2:R313)</f>
+        <v>1.5</v>
+      </c>
+      <c r="K316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, K$2:K313)/SUMIF($F$2:$F313, $G316, S$2:S313)</f>
+        <v>1</v>
+      </c>
+      <c r="L316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, L$2:L313)/SUMIF($F$2:$F313, $G316, T$2:T313)</f>
+        <v>1</v>
+      </c>
+      <c r="M316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, M$2:M313)/SUMIF($F$2:$F313, $G316, U$2:U313)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N316" s="5">
+        <f>SUMIF($F$2:$F313, $G316, N$2:N313)/SUMIF($F$2:$F313, $G316, V$2:V313)</f>
+        <v>1</v>
+      </c>
+      <c r="P316" s="5"/>
+      <c r="Q316" s="5"/>
+      <c r="R316" s="5"/>
+      <c r="S316" s="5"/>
+      <c r="T316" s="5"/>
+      <c r="U316" s="5"/>
+      <c r="V316" s="5"/>
+      <c r="W316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X316" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W312,W316)</f>
+        <v>21</v>
+      </c>
+      <c r="Y316" s="6">
+        <f>X316/SUM(X315:X316)</f>
+        <v>0.21649484536082475</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25">
+      <c r="A317" s="11"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H317" s="5">
+        <f>IF(SUMIF($F$2:$F314, $G317, P$2:P314) = 0, "", SUMIF($F$2:$F314, $G317, H$2:H314)/SUMIF($F$2:$F314, $G317, P$2:P314))</f>
+        <v>4</v>
+      </c>
+      <c r="I317" s="5">
+        <f>IF(SUMIF($F$2:$F314, $G317, Q$2:Q314) = 0, "", SUMIF($F$2:$F314, $G317, I$2:I314)/SUMIF($F$2:$F314, $G317, Q$2:Q314))</f>
+        <v>2.5</v>
+      </c>
+      <c r="J317" s="5">
+        <f>IF(SUMIF($F$2:$F314, $G317, R$2:R314) = 0, "", SUMIF($F$2:$F314, $G317, J$2:J314)/SUMIF($F$2:$F314, $G317, R$2:R314))</f>
+        <v>2</v>
+      </c>
+      <c r="K317" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F314, $G317, S$2:S314) = 0, "", SUMIF($F$2:$F314, $G317, K$2:K314)/SUMIF($F$2:$F314, $G317, S$2:S314))</f>
+        <v/>
+      </c>
+      <c r="L317" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F314, $G317, T$2:T314) = 0, "", SUMIF($F$2:$F314, $G317, L$2:L314)/SUMIF($F$2:$F314, $G317, T$2:T314))</f>
+        <v/>
+      </c>
+      <c r="M317" s="5">
+        <f>IF(SUMIF($F$2:$F314, $G317, U$2:U314) = 0, "", SUMIF($F$2:$F314, $G317, M$2:M314)/SUMIF($F$2:$F314, $G317, U$2:U314))</f>
+        <v>0</v>
+      </c>
+      <c r="N317" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F314, $G317, V$2:V314) = 0, "", SUMIF($F$2:$F314, $G317, N$2:N314)/SUMIF($F$2:$F314, $G317, V$2:V314))</f>
+        <v/>
+      </c>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5"/>
+      <c r="V317" s="5"/>
+    </row>
+    <row r="318" spans="1:25">
+      <c r="A318" s="11"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
+      <c r="G318" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H318" s="5">
+        <f>AVERAGE(H$2:H312)*3</f>
+        <v>7.575250836120401</v>
+      </c>
+      <c r="I318" s="5">
+        <f>AVERAGE(I$2:I312)*3</f>
+        <v>4.0229508196721309</v>
+      </c>
+      <c r="J318" s="5">
+        <f>AVERAGE(J$2:J312)*3</f>
+        <v>3.6428571428571423</v>
+      </c>
+      <c r="K318" s="5">
+        <f>AVERAGE(K$2:K312)*3</f>
+        <v>3.1111111111111107</v>
+      </c>
+      <c r="L318" s="5">
+        <f>AVERAGE(L$2:L312)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M318" s="5">
+        <f>AVERAGE(M$2:M312)*3</f>
+        <v>1.5</v>
+      </c>
+      <c r="N318" s="5">
+        <f>AVERAGE(N$2:N312)*3</f>
+        <v>2</v>
+      </c>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="5"/>
+      <c r="V318" s="5"/>
+    </row>
+    <row r="321" spans="1:35">
+      <c r="G321" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H318" t="s">
+      <c r="H321" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="319" spans="1:35">
-      <c r="G319" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H319" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="320" spans="1:35">
-      <c r="G320" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H320" t="s">
-        <v>16</v>
-      </c>
-      <c r="O320"/>
-      <c r="P320"/>
-      <c r="Q320"/>
-      <c r="R320"/>
-      <c r="S320"/>
-      <c r="T320"/>
-      <c r="U320"/>
-      <c r="V320"/>
-      <c r="W320"/>
-      <c r="X320"/>
-      <c r="Y320"/>
-      <c r="Z320"/>
-      <c r="AA320"/>
-      <c r="AB320"/>
-      <c r="AC320"/>
-      <c r="AD320"/>
-      <c r="AE320"/>
-      <c r="AF320"/>
-      <c r="AG320"/>
-      <c r="AH320"/>
-      <c r="AI320"/>
-    </row>
-    <row r="321" spans="1:35">
-      <c r="O321"/>
-      <c r="P321"/>
-      <c r="Q321"/>
-      <c r="R321"/>
-      <c r="S321"/>
-      <c r="T321"/>
-      <c r="U321"/>
-      <c r="V321"/>
-      <c r="W321"/>
-      <c r="X321"/>
-      <c r="Y321"/>
-      <c r="Z321"/>
-      <c r="AA321"/>
-      <c r="AB321"/>
-      <c r="AC321"/>
-      <c r="AD321"/>
-      <c r="AE321"/>
-      <c r="AF321"/>
-      <c r="AG321"/>
-      <c r="AH321"/>
-      <c r="AI321"/>
     </row>
     <row r="322" spans="1:35">
       <c r="G322" s="7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H322" t="s">
-        <v>63</v>
-      </c>
-      <c r="I322" t="s">
-        <v>64</v>
-      </c>
-      <c r="J322" t="s">
-        <v>65</v>
-      </c>
-      <c r="K322" t="s">
-        <v>66</v>
-      </c>
-      <c r="L322" t="s">
-        <v>67</v>
-      </c>
-      <c r="M322" t="s">
-        <v>68</v>
-      </c>
-      <c r="N322" t="s">
-        <v>69</v>
-      </c>
-      <c r="O322"/>
-      <c r="P322"/>
-      <c r="Q322"/>
-      <c r="R322"/>
-      <c r="S322"/>
-      <c r="T322"/>
-      <c r="U322"/>
-      <c r="V322"/>
-      <c r="W322"/>
-      <c r="X322"/>
-      <c r="Y322"/>
-      <c r="Z322"/>
-      <c r="AA322"/>
-      <c r="AB322"/>
-      <c r="AC322"/>
-      <c r="AD322"/>
-      <c r="AE322"/>
-      <c r="AF322"/>
-      <c r="AG322"/>
-      <c r="AH322"/>
-      <c r="AI322"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="323" spans="1:35">
-      <c r="G323" s="8">
-        <v>1</v>
-      </c>
-      <c r="H323" s="9">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="I323" s="9">
-        <v>1.2363636363636363</v>
-      </c>
-      <c r="J323" s="9">
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="K323" s="9">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="L323" s="9"/>
-      <c r="M323">
-        <v>0</v>
-      </c>
-      <c r="N323" s="9">
-        <v>1</v>
+      <c r="G323" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H323" t="s">
+        <v>16</v>
       </c>
       <c r="O323"/>
       <c r="P323"/>
@@ -31040,28 +31069,6 @@
       <c r="AI323"/>
     </row>
     <row r="324" spans="1:35">
-      <c r="G324" s="8">
-        <v>2</v>
-      </c>
-      <c r="H324" s="9">
-        <v>2.574074074074074</v>
-      </c>
-      <c r="I324" s="9">
-        <v>1.3636363636363635</v>
-      </c>
-      <c r="J324" s="9">
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="K324" s="9">
-        <v>1.3636363636363635</v>
-      </c>
-      <c r="L324" s="9"/>
-      <c r="M324">
-        <v>0</v>
-      </c>
-      <c r="N324" s="9">
-        <v>1</v>
-      </c>
       <c r="O324"/>
       <c r="P324"/>
       <c r="Q324"/>
@@ -31079,29 +31086,35 @@
       <c r="AC324"/>
       <c r="AD324"/>
       <c r="AE324"/>
+      <c r="AF324"/>
+      <c r="AG324"/>
+      <c r="AH324"/>
+      <c r="AI324"/>
     </row>
     <row r="325" spans="1:35">
-      <c r="G325" s="8">
-        <v>3</v>
-      </c>
-      <c r="H325" s="9">
-        <v>2.8518518518518516</v>
-      </c>
-      <c r="I325" s="9">
-        <v>1.5454545454545454</v>
-      </c>
-      <c r="J325" s="9">
-        <v>1.5555555555555556</v>
-      </c>
-      <c r="K325" s="9">
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="L325" s="9"/>
-      <c r="M325">
-        <v>0</v>
-      </c>
-      <c r="N325" s="9">
-        <v>0</v>
+      <c r="G325" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H325" t="s">
+        <v>63</v>
+      </c>
+      <c r="I325" t="s">
+        <v>64</v>
+      </c>
+      <c r="J325" t="s">
+        <v>65</v>
+      </c>
+      <c r="K325" t="s">
+        <v>66</v>
+      </c>
+      <c r="L325" t="s">
+        <v>67</v>
+      </c>
+      <c r="M325" t="s">
+        <v>68</v>
+      </c>
+      <c r="N325" t="s">
+        <v>69</v>
       </c>
       <c r="O325"/>
       <c r="P325"/>
@@ -31120,30 +31133,34 @@
       <c r="AC325"/>
       <c r="AD325"/>
       <c r="AE325"/>
+      <c r="AF325"/>
+      <c r="AG325"/>
+      <c r="AH325"/>
+      <c r="AI325"/>
     </row>
     <row r="326" spans="1:35">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
-      <c r="D326"/>
-      <c r="E326"/>
-      <c r="F326"/>
-      <c r="G326" s="8" t="s">
-        <v>41</v>
+      <c r="G326" s="8">
+        <v>1</v>
       </c>
       <c r="H326" s="9">
-        <v>3</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="I326" s="9">
-        <v>2.25</v>
+        <v>1.2363636363636363</v>
       </c>
       <c r="J326" s="9">
-        <v>2</v>
-      </c>
-      <c r="K326" s="9"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="K326" s="9">
+        <v>0.81818181818181823</v>
+      </c>
       <c r="L326" s="9"/>
-      <c r="M326"/>
-      <c r="N326" s="9"/>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326" s="9">
+        <v>1</v>
+      </c>
       <c r="O326"/>
       <c r="P326"/>
       <c r="Q326"/>
@@ -31161,35 +31178,33 @@
       <c r="AC326"/>
       <c r="AD326"/>
       <c r="AE326"/>
+      <c r="AF326"/>
+      <c r="AG326"/>
+      <c r="AH326"/>
+      <c r="AI326"/>
     </row>
     <row r="327" spans="1:35">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327"/>
-      <c r="E327"/>
-      <c r="F327"/>
-      <c r="G327" s="8" t="s">
-        <v>55</v>
+      <c r="G327" s="8">
+        <v>2</v>
       </c>
       <c r="H327" s="9">
-        <v>2.6646341463414633</v>
+        <v>2.574074074074074</v>
       </c>
       <c r="I327" s="9">
-        <v>1.4023668639053255</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="J327" s="9">
-        <v>1.5172413793103448</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="K327" s="9">
-        <v>1.1212121212121211</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="L327" s="9"/>
       <c r="M327">
         <v>0</v>
       </c>
       <c r="N327" s="9">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O327"/>
       <c r="P327"/>
@@ -31210,20 +31225,28 @@
       <c r="AE327"/>
     </row>
     <row r="328" spans="1:35">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
-      <c r="D328"/>
-      <c r="E328"/>
-      <c r="F328"/>
-      <c r="G328"/>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
-      <c r="K328"/>
-      <c r="L328"/>
-      <c r="M328"/>
-      <c r="N328"/>
+      <c r="G328" s="8">
+        <v>3</v>
+      </c>
+      <c r="H328" s="9">
+        <v>2.8518518518518516</v>
+      </c>
+      <c r="I328" s="9">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="J328" s="9">
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="K328" s="9">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="L328" s="9"/>
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328" s="9">
+        <v>0</v>
+      </c>
       <c r="O328"/>
       <c r="P328"/>
       <c r="Q328"/>
@@ -31249,14 +31272,22 @@
       <c r="D329"/>
       <c r="E329"/>
       <c r="F329"/>
-      <c r="G329"/>
-      <c r="H329"/>
-      <c r="I329"/>
-      <c r="J329"/>
-      <c r="K329"/>
-      <c r="L329"/>
+      <c r="G329" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H329" s="9">
+        <v>3</v>
+      </c>
+      <c r="I329" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="J329" s="9">
+        <v>2</v>
+      </c>
+      <c r="K329" s="9"/>
+      <c r="L329" s="9"/>
       <c r="M329"/>
-      <c r="N329"/>
+      <c r="N329" s="9"/>
       <c r="O329"/>
       <c r="P329"/>
       <c r="Q329"/>
@@ -31282,14 +31313,28 @@
       <c r="D330"/>
       <c r="E330"/>
       <c r="F330"/>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
-      <c r="L330"/>
-      <c r="M330"/>
-      <c r="N330"/>
+      <c r="G330" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H330" s="9">
+        <v>2.6646341463414633</v>
+      </c>
+      <c r="I330" s="9">
+        <v>1.4023668639053255</v>
+      </c>
+      <c r="J330" s="9">
+        <v>1.5172413793103448</v>
+      </c>
+      <c r="K330" s="9">
+        <v>1.1212121212121211</v>
+      </c>
+      <c r="L330" s="9"/>
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="O330"/>
       <c r="P330"/>
       <c r="Q330"/>
@@ -31434,6 +31479,11 @@
       <c r="X334"/>
       <c r="Y334"/>
       <c r="Z334"/>
+      <c r="AA334"/>
+      <c r="AB334"/>
+      <c r="AC334"/>
+      <c r="AD334"/>
+      <c r="AE334"/>
     </row>
     <row r="335" spans="1:35">
       <c r="A335"/>
@@ -31462,6 +31512,11 @@
       <c r="X335"/>
       <c r="Y335"/>
       <c r="Z335"/>
+      <c r="AA335"/>
+      <c r="AB335"/>
+      <c r="AC335"/>
+      <c r="AD335"/>
+      <c r="AE335"/>
     </row>
     <row r="336" spans="1:35">
       <c r="A336"/>
@@ -31490,6 +31545,11 @@
       <c r="X336"/>
       <c r="Y336"/>
       <c r="Z336"/>
+      <c r="AA336"/>
+      <c r="AB336"/>
+      <c r="AC336"/>
+      <c r="AD336"/>
+      <c r="AE336"/>
     </row>
     <row r="337" spans="1:26">
       <c r="A337"/>
@@ -32689,6 +32749,11 @@
       <c r="S379"/>
       <c r="T379"/>
       <c r="U379"/>
+      <c r="V379"/>
+      <c r="W379"/>
+      <c r="X379"/>
+      <c r="Y379"/>
+      <c r="Z379"/>
     </row>
     <row r="380" spans="1:26">
       <c r="A380"/>
@@ -32712,6 +32777,11 @@
       <c r="S380"/>
       <c r="T380"/>
       <c r="U380"/>
+      <c r="V380"/>
+      <c r="W380"/>
+      <c r="X380"/>
+      <c r="Y380"/>
+      <c r="Z380"/>
     </row>
     <row r="381" spans="1:26">
       <c r="A381"/>
@@ -32735,6 +32805,11 @@
       <c r="S381"/>
       <c r="T381"/>
       <c r="U381"/>
+      <c r="V381"/>
+      <c r="W381"/>
+      <c r="X381"/>
+      <c r="Y381"/>
+      <c r="Z381"/>
     </row>
     <row r="382" spans="1:26">
       <c r="A382"/>
@@ -34363,6 +34438,11 @@
       <c r="N452"/>
       <c r="O452"/>
       <c r="P452"/>
+      <c r="Q452"/>
+      <c r="R452"/>
+      <c r="S452"/>
+      <c r="T452"/>
+      <c r="U452"/>
     </row>
     <row r="453" spans="1:21">
       <c r="A453"/>
@@ -34381,6 +34461,11 @@
       <c r="N453"/>
       <c r="O453"/>
       <c r="P453"/>
+      <c r="Q453"/>
+      <c r="R453"/>
+      <c r="S453"/>
+      <c r="T453"/>
+      <c r="U453"/>
     </row>
     <row r="454" spans="1:21">
       <c r="A454"/>
@@ -34399,6 +34484,11 @@
       <c r="N454"/>
       <c r="O454"/>
       <c r="P454"/>
+      <c r="Q454"/>
+      <c r="R454"/>
+      <c r="S454"/>
+      <c r="T454"/>
+      <c r="U454"/>
     </row>
     <row r="455" spans="1:21">
       <c r="A455"/>
@@ -36176,6 +36266,11 @@
       <c r="I553"/>
       <c r="J553"/>
       <c r="K553"/>
+      <c r="L553"/>
+      <c r="M553"/>
+      <c r="N553"/>
+      <c r="O553"/>
+      <c r="P553"/>
     </row>
     <row r="554" spans="1:16">
       <c r="A554"/>
@@ -36189,6 +36284,11 @@
       <c r="I554"/>
       <c r="J554"/>
       <c r="K554"/>
+      <c r="L554"/>
+      <c r="M554"/>
+      <c r="N554"/>
+      <c r="O554"/>
+      <c r="P554"/>
     </row>
     <row r="555" spans="1:16">
       <c r="A555"/>
@@ -36202,6 +36302,11 @@
       <c r="I555"/>
       <c r="J555"/>
       <c r="K555"/>
+      <c r="L555"/>
+      <c r="M555"/>
+      <c r="N555"/>
+      <c r="O555"/>
+      <c r="P555"/>
     </row>
     <row r="556" spans="1:16">
       <c r="A556"/>
@@ -37484,6 +37589,11 @@
       <c r="D654"/>
       <c r="E654"/>
       <c r="F654"/>
+      <c r="G654"/>
+      <c r="H654"/>
+      <c r="I654"/>
+      <c r="J654"/>
+      <c r="K654"/>
     </row>
     <row r="655" spans="1:11">
       <c r="A655"/>
@@ -37492,6 +37602,11 @@
       <c r="D655"/>
       <c r="E655"/>
       <c r="F655"/>
+      <c r="G655"/>
+      <c r="H655"/>
+      <c r="I655"/>
+      <c r="J655"/>
+      <c r="K655"/>
     </row>
     <row r="656" spans="1:11">
       <c r="A656"/>
@@ -37500,6 +37615,11 @@
       <c r="D656"/>
       <c r="E656"/>
       <c r="F656"/>
+      <c r="G656"/>
+      <c r="H656"/>
+      <c r="I656"/>
+      <c r="J656"/>
+      <c r="K656"/>
     </row>
     <row r="657" spans="1:6">
       <c r="A657"/>
@@ -39205,8 +39325,312 @@
       <c r="E869"/>
       <c r="F869"/>
     </row>
+    <row r="870" spans="1:6">
+      <c r="A870"/>
+      <c r="B870"/>
+      <c r="C870"/>
+      <c r="D870"/>
+      <c r="E870"/>
+      <c r="F870"/>
+    </row>
+    <row r="871" spans="1:6">
+      <c r="A871"/>
+      <c r="B871"/>
+      <c r="C871"/>
+      <c r="D871"/>
+      <c r="E871"/>
+      <c r="F871"/>
+    </row>
+    <row r="872" spans="1:6">
+      <c r="A872"/>
+      <c r="B872"/>
+      <c r="C872"/>
+      <c r="D872"/>
+      <c r="E872"/>
+      <c r="F872"/>
+    </row>
   </sheetData>
-  <mergeCells count="301">
+  <mergeCells count="304">
+    <mergeCell ref="W309:W311"/>
+    <mergeCell ref="X309:X311"/>
+    <mergeCell ref="Y309:Y311"/>
+    <mergeCell ref="W303:W305"/>
+    <mergeCell ref="X303:X305"/>
+    <mergeCell ref="Y303:Y305"/>
+    <mergeCell ref="W296:W299"/>
+    <mergeCell ref="X296:X299"/>
+    <mergeCell ref="Y296:Y299"/>
+    <mergeCell ref="W290:W292"/>
+    <mergeCell ref="X290:X292"/>
+    <mergeCell ref="Y290:Y292"/>
+    <mergeCell ref="W284:W286"/>
+    <mergeCell ref="X284:X286"/>
+    <mergeCell ref="Y284:Y286"/>
+    <mergeCell ref="W293:W295"/>
+    <mergeCell ref="X293:X295"/>
+    <mergeCell ref="Y293:Y295"/>
+    <mergeCell ref="W278:W280"/>
+    <mergeCell ref="X278:X280"/>
+    <mergeCell ref="Y278:Y280"/>
+    <mergeCell ref="W287:W289"/>
+    <mergeCell ref="X287:X289"/>
+    <mergeCell ref="Y287:Y289"/>
+    <mergeCell ref="W272:W274"/>
+    <mergeCell ref="X272:X274"/>
+    <mergeCell ref="Y272:Y274"/>
+    <mergeCell ref="W263:W265"/>
+    <mergeCell ref="X263:X265"/>
+    <mergeCell ref="Y263:Y265"/>
+    <mergeCell ref="W266:W268"/>
+    <mergeCell ref="X266:X268"/>
+    <mergeCell ref="Y266:Y268"/>
+    <mergeCell ref="W275:W277"/>
+    <mergeCell ref="X275:X277"/>
+    <mergeCell ref="Y275:Y277"/>
+    <mergeCell ref="W281:W283"/>
+    <mergeCell ref="X281:X283"/>
+    <mergeCell ref="Y281:Y283"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="Y167:Y169"/>
+    <mergeCell ref="W161:W163"/>
+    <mergeCell ref="X161:X163"/>
+    <mergeCell ref="Y161:Y163"/>
+    <mergeCell ref="W158:W160"/>
+    <mergeCell ref="X158:X160"/>
+    <mergeCell ref="W164:W166"/>
+    <mergeCell ref="X164:X166"/>
+    <mergeCell ref="Y164:Y166"/>
+    <mergeCell ref="W143:W145"/>
+    <mergeCell ref="X143:X145"/>
+    <mergeCell ref="Y143:Y145"/>
+    <mergeCell ref="W146:W148"/>
+    <mergeCell ref="X146:X148"/>
+    <mergeCell ref="Y146:Y148"/>
+    <mergeCell ref="W149:W151"/>
+    <mergeCell ref="X149:X151"/>
+    <mergeCell ref="X181:X183"/>
+    <mergeCell ref="Y181:Y183"/>
+    <mergeCell ref="W201:W203"/>
+    <mergeCell ref="X201:X203"/>
+    <mergeCell ref="Y201:Y203"/>
+    <mergeCell ref="W204:W206"/>
+    <mergeCell ref="X204:X206"/>
+    <mergeCell ref="Y116:Y118"/>
+    <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
+    <mergeCell ref="Y204:Y206"/>
+    <mergeCell ref="Y89:Y91"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="Y98:Y100"/>
+    <mergeCell ref="Y101:Y103"/>
+    <mergeCell ref="Y119:Y121"/>
+    <mergeCell ref="W116:W118"/>
+    <mergeCell ref="X116:X118"/>
+    <mergeCell ref="W104:W106"/>
+    <mergeCell ref="X104:X106"/>
+    <mergeCell ref="W107:W109"/>
+    <mergeCell ref="X107:X109"/>
+    <mergeCell ref="W110:W112"/>
+    <mergeCell ref="X110:X112"/>
+    <mergeCell ref="W113:W115"/>
+    <mergeCell ref="X113:X115"/>
+    <mergeCell ref="W98:W100"/>
+    <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="W101:W103"/>
+    <mergeCell ref="X101:X103"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="W83:W85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="Y74:Y76"/>
+    <mergeCell ref="Y77:Y79"/>
+    <mergeCell ref="Y80:Y82"/>
+    <mergeCell ref="Y83:Y85"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="W95:W97"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Y56:Y58"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="Y62:Y64"/>
+    <mergeCell ref="Y65:Y67"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Y71:Y73"/>
+    <mergeCell ref="W89:W91"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="A314:F318"/>
+    <mergeCell ref="W170:W172"/>
+    <mergeCell ref="X170:X172"/>
+    <mergeCell ref="Y170:Y172"/>
+    <mergeCell ref="W173:W177"/>
+    <mergeCell ref="X173:X177"/>
+    <mergeCell ref="Y173:Y177"/>
+    <mergeCell ref="W178:W180"/>
+    <mergeCell ref="X178:X180"/>
+    <mergeCell ref="Y178:Y180"/>
+    <mergeCell ref="W181:W183"/>
+    <mergeCell ref="W187:W189"/>
+    <mergeCell ref="X187:X189"/>
+    <mergeCell ref="Y187:Y189"/>
+    <mergeCell ref="W190:W192"/>
+    <mergeCell ref="X190:X192"/>
+    <mergeCell ref="W193:W197"/>
+    <mergeCell ref="X193:X197"/>
+    <mergeCell ref="W228:W231"/>
+    <mergeCell ref="X228:X231"/>
+    <mergeCell ref="Y228:Y231"/>
+    <mergeCell ref="W184:W186"/>
+    <mergeCell ref="X184:X186"/>
+    <mergeCell ref="Y184:Y186"/>
+    <mergeCell ref="Y190:Y192"/>
+    <mergeCell ref="W225:W227"/>
+    <mergeCell ref="X225:X227"/>
+    <mergeCell ref="Y225:Y227"/>
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W219:W221"/>
+    <mergeCell ref="X219:X221"/>
+    <mergeCell ref="Y219:Y221"/>
+    <mergeCell ref="W222:W224"/>
+    <mergeCell ref="X222:X224"/>
+    <mergeCell ref="Y222:Y224"/>
+    <mergeCell ref="W213:W215"/>
+    <mergeCell ref="X256:X258"/>
+    <mergeCell ref="Y256:Y258"/>
+    <mergeCell ref="W253:W255"/>
+    <mergeCell ref="W207:W209"/>
+    <mergeCell ref="X207:X209"/>
+    <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="Y193:Y197"/>
+    <mergeCell ref="W198:W200"/>
+    <mergeCell ref="X198:X200"/>
+    <mergeCell ref="Y198:Y200"/>
+    <mergeCell ref="W241:W243"/>
+    <mergeCell ref="X241:X243"/>
+    <mergeCell ref="Y241:Y243"/>
+    <mergeCell ref="W238:W240"/>
+    <mergeCell ref="X238:X240"/>
+    <mergeCell ref="Y238:Y240"/>
+    <mergeCell ref="W235:W237"/>
+    <mergeCell ref="X235:X237"/>
+    <mergeCell ref="Y235:Y237"/>
+    <mergeCell ref="W247:W249"/>
+    <mergeCell ref="X247:X249"/>
+    <mergeCell ref="Y247:Y249"/>
+    <mergeCell ref="X253:X255"/>
+    <mergeCell ref="Y253:Y255"/>
     <mergeCell ref="W306:W308"/>
     <mergeCell ref="X306:X308"/>
     <mergeCell ref="Y306:Y308"/>
@@ -39231,285 +39655,8 @@
     <mergeCell ref="X244:X246"/>
     <mergeCell ref="Y244:Y246"/>
     <mergeCell ref="W256:W258"/>
-    <mergeCell ref="X256:X258"/>
-    <mergeCell ref="Y256:Y258"/>
-    <mergeCell ref="W253:W255"/>
-    <mergeCell ref="W207:W209"/>
-    <mergeCell ref="X207:X209"/>
-    <mergeCell ref="Y207:Y209"/>
-    <mergeCell ref="Y193:Y197"/>
-    <mergeCell ref="W198:W200"/>
-    <mergeCell ref="X198:X200"/>
-    <mergeCell ref="Y198:Y200"/>
-    <mergeCell ref="Y190:Y192"/>
-    <mergeCell ref="W225:W227"/>
-    <mergeCell ref="X225:X227"/>
-    <mergeCell ref="Y225:Y227"/>
-    <mergeCell ref="W216:W218"/>
-    <mergeCell ref="X216:X218"/>
-    <mergeCell ref="Y216:Y218"/>
-    <mergeCell ref="W210:W212"/>
-    <mergeCell ref="X210:X212"/>
-    <mergeCell ref="Y210:Y212"/>
-    <mergeCell ref="W219:W221"/>
-    <mergeCell ref="X219:X221"/>
-    <mergeCell ref="Y219:Y221"/>
-    <mergeCell ref="W222:W224"/>
-    <mergeCell ref="X222:X224"/>
-    <mergeCell ref="Y222:Y224"/>
-    <mergeCell ref="W213:W215"/>
-    <mergeCell ref="A311:F315"/>
-    <mergeCell ref="W170:W172"/>
-    <mergeCell ref="X170:X172"/>
-    <mergeCell ref="Y170:Y172"/>
-    <mergeCell ref="W173:W177"/>
-    <mergeCell ref="X173:X177"/>
-    <mergeCell ref="Y173:Y177"/>
-    <mergeCell ref="W178:W180"/>
-    <mergeCell ref="X178:X180"/>
-    <mergeCell ref="Y178:Y180"/>
-    <mergeCell ref="W181:W183"/>
-    <mergeCell ref="W187:W189"/>
-    <mergeCell ref="X187:X189"/>
-    <mergeCell ref="Y187:Y189"/>
-    <mergeCell ref="W190:W192"/>
-    <mergeCell ref="X190:X192"/>
-    <mergeCell ref="W193:W197"/>
-    <mergeCell ref="X193:X197"/>
-    <mergeCell ref="W228:W231"/>
-    <mergeCell ref="X228:X231"/>
-    <mergeCell ref="Y228:Y231"/>
-    <mergeCell ref="W184:W186"/>
-    <mergeCell ref="X184:X186"/>
-    <mergeCell ref="Y184:Y186"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="Y74:Y76"/>
-    <mergeCell ref="Y77:Y79"/>
-    <mergeCell ref="Y80:Y82"/>
-    <mergeCell ref="Y83:Y85"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="W95:W97"/>
-    <mergeCell ref="X95:X97"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Y56:Y58"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="Y62:Y64"/>
-    <mergeCell ref="Y65:Y67"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Y71:Y73"/>
-    <mergeCell ref="W89:W91"/>
-    <mergeCell ref="X89:X91"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="W101:W103"/>
-    <mergeCell ref="X101:X103"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="W83:W85"/>
-    <mergeCell ref="X83:X85"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="Y89:Y91"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="Y95:Y97"/>
-    <mergeCell ref="Y98:Y100"/>
-    <mergeCell ref="Y101:Y103"/>
-    <mergeCell ref="Y119:Y121"/>
-    <mergeCell ref="W116:W118"/>
-    <mergeCell ref="X116:X118"/>
-    <mergeCell ref="W104:W106"/>
-    <mergeCell ref="X104:X106"/>
-    <mergeCell ref="W107:W109"/>
-    <mergeCell ref="X107:X109"/>
-    <mergeCell ref="W110:W112"/>
-    <mergeCell ref="X110:X112"/>
-    <mergeCell ref="W113:W115"/>
-    <mergeCell ref="X113:X115"/>
-    <mergeCell ref="W98:W100"/>
-    <mergeCell ref="X98:X100"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
-    <mergeCell ref="X181:X183"/>
-    <mergeCell ref="Y181:Y183"/>
-    <mergeCell ref="W201:W203"/>
-    <mergeCell ref="X201:X203"/>
-    <mergeCell ref="Y201:Y203"/>
-    <mergeCell ref="W204:W206"/>
-    <mergeCell ref="X204:X206"/>
-    <mergeCell ref="Y116:Y118"/>
-    <mergeCell ref="W122:W124"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
-    <mergeCell ref="Y204:Y206"/>
-    <mergeCell ref="W241:W243"/>
-    <mergeCell ref="X241:X243"/>
-    <mergeCell ref="Y241:Y243"/>
-    <mergeCell ref="W238:W240"/>
-    <mergeCell ref="X238:X240"/>
-    <mergeCell ref="Y238:Y240"/>
-    <mergeCell ref="W235:W237"/>
-    <mergeCell ref="X235:X237"/>
-    <mergeCell ref="Y235:Y237"/>
-    <mergeCell ref="Y164:Y166"/>
-    <mergeCell ref="W143:W145"/>
-    <mergeCell ref="X143:X145"/>
-    <mergeCell ref="Y143:Y145"/>
-    <mergeCell ref="W146:W148"/>
-    <mergeCell ref="X146:X148"/>
-    <mergeCell ref="Y146:Y148"/>
-    <mergeCell ref="W149:W151"/>
-    <mergeCell ref="X149:X151"/>
-    <mergeCell ref="W275:W277"/>
-    <mergeCell ref="X275:X277"/>
-    <mergeCell ref="Y275:Y277"/>
-    <mergeCell ref="W281:W283"/>
-    <mergeCell ref="X281:X283"/>
-    <mergeCell ref="Y281:Y283"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
-    <mergeCell ref="Y167:Y169"/>
-    <mergeCell ref="W161:W163"/>
-    <mergeCell ref="X161:X163"/>
-    <mergeCell ref="Y161:Y163"/>
-    <mergeCell ref="W158:W160"/>
-    <mergeCell ref="X158:X160"/>
-    <mergeCell ref="W164:W166"/>
-    <mergeCell ref="X164:X166"/>
-    <mergeCell ref="W247:W249"/>
-    <mergeCell ref="X247:X249"/>
-    <mergeCell ref="Y247:Y249"/>
-    <mergeCell ref="W272:W274"/>
-    <mergeCell ref="X272:X274"/>
-    <mergeCell ref="Y272:Y274"/>
-    <mergeCell ref="W263:W265"/>
-    <mergeCell ref="X263:X265"/>
-    <mergeCell ref="Y263:Y265"/>
-    <mergeCell ref="W266:W268"/>
-    <mergeCell ref="X266:X268"/>
-    <mergeCell ref="Y266:Y268"/>
-    <mergeCell ref="X253:X255"/>
-    <mergeCell ref="Y253:Y255"/>
-    <mergeCell ref="W284:W286"/>
-    <mergeCell ref="X284:X286"/>
-    <mergeCell ref="Y284:Y286"/>
-    <mergeCell ref="W293:W295"/>
-    <mergeCell ref="X293:X295"/>
-    <mergeCell ref="Y293:Y295"/>
-    <mergeCell ref="W278:W280"/>
-    <mergeCell ref="X278:X280"/>
-    <mergeCell ref="Y278:Y280"/>
-    <mergeCell ref="W287:W289"/>
-    <mergeCell ref="X287:X289"/>
-    <mergeCell ref="Y287:Y289"/>
-    <mergeCell ref="W303:W305"/>
-    <mergeCell ref="X303:X305"/>
-    <mergeCell ref="Y303:Y305"/>
-    <mergeCell ref="W296:W299"/>
-    <mergeCell ref="X296:X299"/>
-    <mergeCell ref="Y296:Y299"/>
-    <mergeCell ref="W290:W292"/>
-    <mergeCell ref="X290:X292"/>
-    <mergeCell ref="Y290:Y292"/>
   </mergeCells>
-  <conditionalFormatting sqref="H311:N314">
+  <conditionalFormatting sqref="H314:N317">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -39521,7 +39668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H315:N315">
+  <conditionalFormatting sqref="H318:N318">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -39605,26 +39752,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A2, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A2, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A2, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A2, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A2, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A2, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A2, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A2, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A2, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A2, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -39656,26 +39803,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A3, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A3, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A3, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A3, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A3, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A3, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A3, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A3, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A3, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A3, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -39712,26 +39859,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A4, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A4, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A4, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A4, Scores!$F$2:$F$312, D$1)</f>
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A4, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A4, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A4, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A4, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A4, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A4, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -39768,26 +39915,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A5, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A5, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A5, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A5, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A5, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A5, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A5, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A5, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A5, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A5, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -39820,26 +39967,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A6, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A6, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A6, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A6, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A6, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A6, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A6, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A6, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A6, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A6, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -39881,26 +40028,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A7, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A7, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A7, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A7, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A7, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A7, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A7, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A7, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A7, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A7, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -39942,26 +40089,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A8, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A8, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A8, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A8, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A8, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A8, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A8, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A8, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A8, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A8, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -40003,26 +40150,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A9, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A9, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A9, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A9, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A9, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A9, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A9, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A9, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A9, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A9, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -40064,26 +40211,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A10, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A10, Scores!$E$2:$E$312, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A10, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A10, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A10, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A10, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A10, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A10, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A10, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A10, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -40116,26 +40263,26 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A11, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A11, Scores!$E$2:$E$312, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A11, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A11, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A11, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A11, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A11, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A11, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A11, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A11, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -40168,26 +40315,26 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A12, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A12, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A12, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A12, Scores!$F$2:$F$312, D$1)</f>
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A12, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A12, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A12, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A12, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A12, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A12, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -40220,26 +40367,26 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A13, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A13, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A13, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A13, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A13, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A13, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A13, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A13, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A13, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A13, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -40272,26 +40419,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A14, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A14, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A14, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A14, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A14, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A14, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A14, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A14, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A14, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A14, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -40324,26 +40471,26 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A15, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A15, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A15, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A15, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A15, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A15, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A15, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A15, Scores!$F$2:$F$312, F$1)</f>
         <v>6</v>
       </c>
       <c r="G15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A15, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A15, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -40376,26 +40523,26 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A16, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A16, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A16, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A16, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A16, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A16, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A16, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A16, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A16, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A16, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -40428,26 +40575,26 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A17, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A17, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A17, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A17, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A17, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A17, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A17, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A17, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A17, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A17, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -40480,26 +40627,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A18, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A18, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A18, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A18, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A18, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A18, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A18, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A18, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A18, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A18, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -40532,26 +40679,26 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A19, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A19, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A19, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A19, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A19, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A19, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A19, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A19, Scores!$F$2:$F$312, F$1)</f>
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A19, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A19, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -40584,26 +40731,26 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A20, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A20, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A20, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A20, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A20, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A20, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A20, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A20, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A20, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A20, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -40636,26 +40783,26 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A21, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A21, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A21, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A21, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A21, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A21, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A21, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A21, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A21, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A21, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -40688,26 +40835,26 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A22, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A22, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A22, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A22, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A22, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A22, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A22, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A22, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A22, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A22, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -40740,26 +40887,26 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A23, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A23, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A23, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A23, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A23, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A23, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A23, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A23, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A23, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A23, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -40792,26 +40939,26 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A24, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A24, Scores!$E$2:$E$312, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A24, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A24, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A24, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A24, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A24, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A24, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A24, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A24, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -40844,26 +40991,26 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A25, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A25, Scores!$E$2:$E$312, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A25, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A25, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A25, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A25, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A25, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A25, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A25, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A25, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -40896,26 +41043,26 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A26, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A26, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A26, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A26, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A26, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A26, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A26, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A26, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A26, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A26, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -40948,26 +41095,26 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A27, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A27, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A27, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A27, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A27, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A27, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A27, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A27, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A27, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A27, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -41000,26 +41147,26 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A28, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A28, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A28, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A28, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A28, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A28, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A28, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A28, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A28, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A28, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -41052,26 +41199,26 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A29, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A29, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A29, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A29, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A29, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A29, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A29, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A29, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A29, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A29, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -41104,26 +41251,26 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A30, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A30, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A30, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A30, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A30, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A30, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A30, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A30, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A30, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A30, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -41156,26 +41303,26 @@
         <v>15</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A31, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A31, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A31, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A31, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A31, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A31, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A31, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A31, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A31, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A31, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -41208,26 +41355,26 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A32, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A32, Scores!$E$2:$E$312, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A32, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A32, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A32, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A32, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A32, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A32, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A32, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A32, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H32" s="1" t="str">
@@ -41260,26 +41407,26 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A33, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A33, Scores!$E$2:$E$312, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A33, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A33, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A33, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A33, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A33, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A33, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A33, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A33, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H33" s="1" t="str">
@@ -41309,26 +41456,26 @@
         <v>17</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A34, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A34, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A34, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A34, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A34, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A34, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A34, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A34, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A34, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A34, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
@@ -41358,26 +41505,26 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A35, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A35, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A35, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A35, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A35, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A35, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A35, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A35, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A35, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A35, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -41407,26 +41554,26 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A36, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A36, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A36, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A36, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A36, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A36, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A36, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A36, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A36, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A36, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -41456,26 +41603,26 @@
         <v>18</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A37, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A37, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A37, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A37, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A37, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A37, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A37, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A37, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A37, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A37, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
@@ -41505,26 +41652,26 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A38, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A38, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A38, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A38, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A38, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A38, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A38, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A38, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A38, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A38, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
@@ -41554,26 +41701,26 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A39, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A39, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A39, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A39, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A39, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A39, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A39, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A39, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A39, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A39, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -41603,26 +41750,26 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A40, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A40, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A40, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A40, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A40, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A40, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A40, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A40, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A40, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A40, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
@@ -41652,26 +41799,26 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A41, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A41, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A41, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A41, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A41, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A41, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A41, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A41, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A41, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A41, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -41701,26 +41848,26 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A42, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A42, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A42, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A42, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A42, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A42, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A42, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A42, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A42, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A42, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
@@ -41750,26 +41897,26 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A43, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A43, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A43, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A43, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A43, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A43, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A43, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A43, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A43, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A43, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -41799,26 +41946,26 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A44, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A44, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A44, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A44, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A44, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A44, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A44, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A44, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A44, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A44, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -41848,26 +41995,26 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A45, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A45, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A45, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A45, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A45, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A45, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A45, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A45, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A45, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A45, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -41897,26 +42044,26 @@
         <v>23</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A46, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A46, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A46, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A46, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A46, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A46, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A46, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A46, Scores!$F$2:$F$312, F$1)</f>
         <v>7</v>
       </c>
       <c r="G46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A46, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A46, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
@@ -41946,26 +42093,26 @@
         <v>23</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A47, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A47, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A47, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A47, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A47, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A47, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A47, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A47, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A47, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A47, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
@@ -41995,26 +42142,26 @@
         <v>24</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A48, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A48, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A48, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A48, Scores!$F$2:$F$312, D$1)</f>
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A48, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A48, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A48, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A48, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A48, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A48, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
@@ -42044,26 +42191,26 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A49, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A49, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A49, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A49, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A49, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A49, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A49, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A49, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A49, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A49, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
@@ -42093,26 +42240,26 @@
         <v>25</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A50, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A50, Scores!$E$2:$E$312, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A50, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A50, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A50, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A50, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A50, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A50, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A50, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A50, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
@@ -42142,26 +42289,26 @@
         <v>25</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A51, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A51, Scores!$E$2:$E$312, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A51, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A51, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A51, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A51, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A51, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A51, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A51, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A51, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
@@ -42191,26 +42338,26 @@
         <v>26</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A52, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A52, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A52, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A52, Scores!$F$2:$F$312, D$1)</f>
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A52, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A52, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A52, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A52, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A52, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A52, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
@@ -42240,26 +42387,26 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A53, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A53, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A53, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A53, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A53, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A53, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A53, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A53, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A53, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A53, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
@@ -42289,26 +42436,26 @@
         <v>27</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A54, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A54, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A54, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A54, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A54, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A54, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A54, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A54, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A54, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A54, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
@@ -42338,26 +42485,26 @@
         <v>27</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A55, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A55, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A55, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A55, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A55, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A55, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A55, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A55, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A55, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A55, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
@@ -42387,26 +42534,26 @@
         <v>28</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A56, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A56, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A56, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A56, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A56, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A56, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A56, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A56, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A56, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A56, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -42436,26 +42583,26 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A57, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A57, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A57, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A57, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A57, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A57, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A57, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A57, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A57, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A57, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
@@ -42485,26 +42632,26 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A58, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A58, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A58, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A58, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A58, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A58, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A58, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A58, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A58, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A58, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -42534,26 +42681,26 @@
         <v>29</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A59, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A59, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A59, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A59, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A59, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A59, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A59, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A59, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A59, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A59, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -42583,26 +42730,26 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A60, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A60, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A60, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A60, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A60, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A60, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A60, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A60, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A60, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A60, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -42632,26 +42779,26 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A61, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A61, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A61, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A61, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A61, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A61, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A61, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A61, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A61, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A61, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -42681,26 +42828,26 @@
         <v>31</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A62, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A62, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A62, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A62, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A62, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A62, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A62, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A62, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A62, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A62, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -42730,26 +42877,26 @@
         <v>31</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A63, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A63, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A63, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A63, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A63, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A63, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A63, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A63, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A63, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A63, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
@@ -42779,26 +42926,26 @@
         <v>32</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A64, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A64, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A64, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A64, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A64, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A64, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A64, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A64, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A64, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A64, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -42828,26 +42975,26 @@
         <v>32</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A65, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A65, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A65, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A65, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A65, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A65, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A65, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A65, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A65, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A65, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -42877,26 +43024,26 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A66, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A66, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A66, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A66, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A66, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A66, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A66, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A66, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A66, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A66, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -42926,26 +43073,26 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A67, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A67, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A67, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A67, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A67, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A67, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A67, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A67, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A67, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A67, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H67" s="1" t="str">
@@ -42975,26 +43122,26 @@
         <v>34</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A68, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A68, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A68, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A68, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A68, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A68, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A68, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A68, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A68, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A68, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H68" s="1" t="str">
@@ -43024,26 +43171,26 @@
         <v>34</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A69, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A69, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A69, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A69, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A69, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A69, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A69, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A69, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A69, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A69, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -43073,26 +43220,26 @@
         <v>35</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A70, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A70, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A70, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A70, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A70, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A70, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A70, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A70, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A70, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A70, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H70" s="1" t="str">
@@ -43122,26 +43269,26 @@
         <v>35</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A71, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A71, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A71, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A71, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A71, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A71, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A71, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A71, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A71, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A71, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -43171,26 +43318,26 @@
         <v>36</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A72, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A72, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A72, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A72, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A72, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A72, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A72, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A72, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A72, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A72, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -43220,26 +43367,26 @@
         <v>36</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A73, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A73, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A73, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A73, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A73, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A73, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A73, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A73, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A73, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A73, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H73" s="1" t="str">
@@ -43269,26 +43416,26 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A74, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A74, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A74, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A74, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A74, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A74, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A74, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A74, Scores!$F$2:$F$312, F$1)</f>
         <v>5</v>
       </c>
       <c r="G74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A74, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A74, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
@@ -43318,26 +43465,26 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A75, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A75, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A75, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A75, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A75, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A75, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A75, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A75, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A75, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A75, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H75" s="1" t="str">
@@ -43367,26 +43514,26 @@
         <v>38</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A76, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A76, Scores!$E$2:$E$312, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A76, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A76, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A76, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A76, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A76, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A76, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A76, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A76, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H76" s="1" t="str">
@@ -43416,26 +43563,26 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A77, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A77, Scores!$E$2:$E$312, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A77, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A77, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A77, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A77, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A77, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A77, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A77, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A77, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -43465,26 +43612,26 @@
         <v>39</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A78, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A78, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A78, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A78, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A78, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A78, Scores!$F$2:$F$312, E$1)</f>
         <v>7</v>
       </c>
       <c r="F78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A78, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A78, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A78, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A78, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -43514,26 +43661,26 @@
         <v>39</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A79, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A79, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A79, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A79, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A79, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A79, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A79, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A79, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A79, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A79, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -43563,26 +43710,26 @@
         <v>40</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A80, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A80, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A80, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A80, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A80, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A80, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A80, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A80, Scores!$F$2:$F$312, F$1)</f>
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A80, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A80, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -43612,26 +43759,26 @@
         <v>40</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A81, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A81, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A81, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A81, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A81, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A81, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A81, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A81, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A81, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A81, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -43661,26 +43808,26 @@
         <v>41</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A82, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A82, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A82, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A82, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A82, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A82, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A82, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A82, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A82, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A82, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -43710,26 +43857,26 @@
         <v>41</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A83, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A83, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A83, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A83, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A83, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A83, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A83, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A83, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A83, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A83, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -43759,26 +43906,26 @@
         <v>42</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A84, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A84, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A84, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A84, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A84, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A84, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A84, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A84, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A84, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A84, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -43808,26 +43955,26 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A85, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A85, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A85, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A85, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A85, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A85, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A85, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A85, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A85, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A85, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -43857,26 +44004,26 @@
         <v>43</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A86, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A86, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A86, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A86, Scores!$F$2:$F$312, D$1)</f>
         <v>7</v>
       </c>
       <c r="E86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A86, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A86, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A86, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A86, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A86, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A86, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -43906,26 +44053,26 @@
         <v>43</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A87, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A87, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A87, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A87, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A87, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A87, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A87, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A87, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A87, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A87, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -43955,26 +44102,26 @@
         <v>44</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A88, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A88, Scores!$E$2:$E$312, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A88, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A88, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A88, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A88, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A88, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A88, Scores!$F$2:$F$312, F$1)</f>
         <v>6</v>
       </c>
       <c r="G88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A88, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A88, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -44004,26 +44151,26 @@
         <v>44</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A89, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A89, Scores!$E$2:$E$312, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A89, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A89, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A89, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A89, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A89, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A89, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A89, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A89, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H89" s="1" t="str">
@@ -44053,26 +44200,26 @@
         <v>45</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A90, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A90, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A90, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A90, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A90, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A90, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A90, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A90, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A90, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A90, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H90" s="1" t="str">
@@ -44102,26 +44249,26 @@
         <v>45</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A91, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A91, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A91, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A91, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A91, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A91, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A91, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A91, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A91, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A91, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H91" s="1" t="str">
@@ -44151,26 +44298,26 @@
         <v>46</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A92, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A92, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A92, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A92, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A92, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A92, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A92, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A92, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A92, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A92, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -44200,26 +44347,26 @@
         <v>46</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A93, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A93, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A93, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A93, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A93, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A93, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A93, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A93, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A93, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A93, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -44248,26 +44395,26 @@
         <v>48</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A94, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A94, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A94, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A94, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A94, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A94, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A94, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A94, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A94, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A94, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H94" s="1" t="str">
@@ -44296,26 +44443,26 @@
         <v>48</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A95, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A95, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A95, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A95, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A95, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A95, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A95, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A95, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A95, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A95, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H95" s="1" t="str">
@@ -44345,26 +44492,26 @@
         <v>49</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A96, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A96, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A96, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A96, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A96, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A96, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A96, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A96, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A96, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A96, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H96" s="1" t="str">
@@ -44394,26 +44541,26 @@
         <v>49</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A97, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A97, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A97, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A97, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A97, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A97, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A97, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A97, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A97, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A97, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H97" s="1" t="str">
@@ -44443,26 +44590,26 @@
         <v>50</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A98, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A98, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A98, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A98, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A98, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A98, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A98, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A98, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A98, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A98, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H98" s="1" t="str">
@@ -44492,26 +44639,26 @@
         <v>50</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A99, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A99, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A99, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A99, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A99, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A99, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A99, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A99, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A99, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A99, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H99" s="1" t="str">
@@ -44541,26 +44688,26 @@
         <v>51</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A100, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A100, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A100, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A100, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A100, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A100, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A100, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A100, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A100, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A100, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H100" s="1" t="str">
@@ -44590,26 +44737,26 @@
         <v>51</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A101, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A101, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A101, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A101, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A101, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A101, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A101, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A101, Scores!$F$2:$F$312, F$1)</f>
         <v>5</v>
       </c>
       <c r="G101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A101, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A101, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H101" s="1" t="str">
@@ -44639,26 +44786,26 @@
         <v>52</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A102, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A102, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A102, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A102, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A102, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A102, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A102, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A102, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A102, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A102, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H102" s="1" t="str">
@@ -44688,26 +44835,26 @@
         <v>52</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A103, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A103, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A103, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A103, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A103, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A103, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A103, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A103, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A103, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A103, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H103" s="1" t="str">
@@ -44737,26 +44884,26 @@
         <v>53</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A104, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A104, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A104, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A104, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A104, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A104, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A104, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A104, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A104, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A104, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H104" s="1" t="str">
@@ -44786,26 +44933,26 @@
         <v>53</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A105, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A105, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A105, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A105, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A105, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A105, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A105, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A105, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A105, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A105, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H105" s="1" t="str">
@@ -44835,26 +44982,26 @@
         <v>54</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A106, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A106, Scores!$E$2:$E$312, 0))</f>
         <v>QJCDY</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A106, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A106, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A106, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A106, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A106, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A106, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G106" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A106, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C106, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A106, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H106" s="1" t="str">
@@ -44884,26 +45031,26 @@
         <v>54</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A107, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A107, Scores!$E$2:$E$312, 0))</f>
         <v>QJCDY</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A107, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A107, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A107, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A107, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A107, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A107, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G107" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A107, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C107, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A107, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H107" s="1" t="str">
@@ -44933,26 +45080,26 @@
         <v>55</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A108, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A108, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A108, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A108, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A108, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A108, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A108, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A108, Scores!$F$2:$F$312, F$1)</f>
         <v>6</v>
       </c>
       <c r="G108" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A108, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C108, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A108, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H108" s="1" t="str">
@@ -44982,26 +45129,26 @@
         <v>55</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A109, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A109, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A109, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A109, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A109, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A109, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A109, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A109, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G109" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A109, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C109, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A109, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H109" s="1" t="str">
@@ -45031,26 +45178,26 @@
         <v>56</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A110, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A110, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A110, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A110, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A110, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A110, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A110, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A110, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A110, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C110, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A110, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H110" s="1" t="str">
@@ -45080,26 +45227,26 @@
         <v>56</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A111, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A111, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A111, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A111, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A111, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A111, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A111, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A111, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A111, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C111, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A111, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H111" s="1" t="str">
@@ -45129,26 +45276,26 @@
         <v>57</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A112, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A112, Scores!$E$2:$E$312, 0))</f>
         <v>JCK</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A112, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A112, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A112, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A112, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A112, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A112, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A112, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C112, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A112, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H112" s="1" t="str">
@@ -45178,26 +45325,26 @@
         <v>57</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A113, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A113, Scores!$E$2:$E$312, 0))</f>
         <v>JCK</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A113, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A113, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A113, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A113, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A113, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A113, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G113" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A113, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C113, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A113, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H113" s="1" t="str">
@@ -45227,26 +45374,26 @@
         <v>58</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A114, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A114, Scores!$E$2:$E$312, 0))</f>
         <v>CJK</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A114, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A114, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A114, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A114, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A114, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A114, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G114" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A114, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C114, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A114, Scores!$F$2:$F$312, G$1)</f>
         <v>5</v>
       </c>
       <c r="H114" s="1" t="str">
@@ -45276,26 +45423,26 @@
         <v>58</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A115, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A115, Scores!$E$2:$E$312, 0))</f>
         <v>CJK</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A115, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A115, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A115, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A115, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A115, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A115, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G115" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A115, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C115, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A115, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H115" s="1" t="str">
@@ -45325,26 +45472,26 @@
         <v>59</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A116, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A116, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A116, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A116, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A116, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A116, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A116, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A116, Scores!$F$2:$F$312, F$1)</f>
         <v>5</v>
       </c>
       <c r="G116" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A116, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C116, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A116, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H116" s="1" t="str">
@@ -45374,26 +45521,26 @@
         <v>59</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A117, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A117, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A117, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A117, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A117, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A117, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A117, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A117, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A117, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C117, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A117, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H117" s="1" t="str">
@@ -45423,26 +45570,26 @@
         <v>60</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A118, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A118, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A118, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A118, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A118, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A118, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A118, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A118, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A118, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C118, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A118, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H118" s="1" t="str">
@@ -45472,26 +45619,26 @@
         <v>60</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A119, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A119, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A119, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A119, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A119, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A119, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A119, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A119, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G119" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A119, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C119, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A119, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H119" s="1" t="str">
@@ -45521,26 +45668,26 @@
         <v>61</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A120, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A120, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A120, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A120, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A120, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A120, Scores!$F$2:$F$312, E$1)</f>
         <v>7</v>
       </c>
       <c r="F120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A120, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A120, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G120" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A120, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C120, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A120, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H120" s="1" t="str">
@@ -45570,26 +45717,26 @@
         <v>61</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A121, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A121, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A121, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A121, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A121, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A121, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A121, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A121, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A121, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C121, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A121, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H121" s="1" t="str">
@@ -45619,26 +45766,26 @@
         <v>62</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A122, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A122, Scores!$E$2:$E$312, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A122, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A122, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A122, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A122, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A122, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A122, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G122" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A122, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C122, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A122, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H122" s="1" t="str">
@@ -45668,26 +45815,26 @@
         <v>62</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A123, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A123, Scores!$E$2:$E$312, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A123, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A123, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A123, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A123, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A123, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A123, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G123" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A123, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C123, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A123, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H123" s="1" t="str">
@@ -45717,26 +45864,26 @@
         <v>63</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A124, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A124, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A124, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A124, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A124, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A124, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A124, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A124, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G124" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A124, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C124, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A124, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H124" s="1" t="str">
@@ -45766,26 +45913,26 @@
         <v>63</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A125, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A125, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A125, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A125, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A125, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A125, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A125, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A125, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A125, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C125, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A125, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H125" s="1" t="str">
@@ -45814,26 +45961,26 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A126, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A126, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A126, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A126, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A126, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A126, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A126, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A126, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G126" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A126, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C126, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A126, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H126" s="1" t="str">
@@ -45862,26 +46009,26 @@
         <v>65</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A127, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A127, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A127, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A127, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A127, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A127, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A127, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A127, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G127" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A127, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C127, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A127, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H127" s="1" t="str">
@@ -45911,26 +46058,26 @@
         <v>66</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A128, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A128, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A128, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A128, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A128, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A128, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A128, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A128, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G128" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A128, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C128, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A128, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H128" s="1" t="str">
@@ -45960,26 +46107,26 @@
         <v>66</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A129, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A129, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A129, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A129, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A129, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A129, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A129, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A129, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A129, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C129, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A129, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H129" s="1" t="str">
@@ -46009,26 +46156,26 @@
         <v>67</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A130, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A130, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A130, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A130, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A130, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A130, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A130, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A130, Scores!$F$2:$F$312, F$1)</f>
         <v>6</v>
       </c>
       <c r="G130" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A130, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C130, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A130, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H130" s="1" t="str">
@@ -46058,26 +46205,26 @@
         <v>67</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A131, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A131, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A131, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A131, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A131, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A131, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A131, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A131, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G131" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A131, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C131, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A131, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H131" s="1" t="str">
@@ -46107,26 +46254,26 @@
         <v>68</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A132, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A132, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A132, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A132, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A132, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A132, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A132, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A132, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G132" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A132, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C132, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A132, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H132" s="1" t="str">
@@ -46156,26 +46303,26 @@
         <v>68</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A133, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A133, Scores!$E$2:$E$312, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A133, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A133, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A133, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A133, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A133, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A133, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A133, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C133, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A133, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H133" s="1" t="str">
@@ -46205,26 +46352,26 @@
         <v>69</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A134, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A134, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A134, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A134, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A134, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A134, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A134, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A134, Scores!$F$2:$F$312, F$1)</f>
         <v>6</v>
       </c>
       <c r="G134" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A134, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C134, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A134, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H134" s="1" t="str">
@@ -46254,26 +46401,26 @@
         <v>69</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A135, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A135, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A135, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A135, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A135, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A135, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A135, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A135, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G135" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A135, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C135, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A135, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H135" s="1" t="str">
@@ -46303,26 +46450,26 @@
         <v>70</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A136, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A136, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A136, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A136, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A136, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A136, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A136, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A136, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G136" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A136, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C136, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A136, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H136" s="1" t="str">
@@ -46352,26 +46499,26 @@
         <v>70</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A137, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A137, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A137, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A137, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A137, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A137, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A137, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A137, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G137" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A137, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C137, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A137, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H137" s="1" t="str">
@@ -46401,26 +46548,26 @@
         <v>71</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A138, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A138, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A138, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A138, Scores!$F$2:$F$312, D$1)</f>
         <v>8</v>
       </c>
       <c r="E138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A138, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A138, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A138, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A138, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G138" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A138, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C138, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A138, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H138" s="1" t="str">
@@ -46450,26 +46597,26 @@
         <v>71</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A139, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A139, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A139, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A139, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A139, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A139, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A139, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A139, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G139" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A139, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C139, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A139, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H139" s="1" t="str">
@@ -46499,26 +46646,26 @@
         <v>72</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A140, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A140, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A140, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A140, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A140, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A140, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A140, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A140, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G140" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A140, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C140, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A140, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H140" s="1" t="str">
@@ -46548,26 +46695,26 @@
         <v>72</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A141, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A141, Scores!$E$2:$E$312, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A141, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A141, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A141, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A141, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A141, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A141, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A141, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C141, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A141, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H141" s="1" t="str">
@@ -46597,26 +46744,26 @@
         <v>73</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A142, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A142, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A142, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A142, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A142, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A142, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A142, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A142, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G142" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A142, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C142, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A142, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H142" s="1" t="str">
@@ -46646,26 +46793,26 @@
         <v>73</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A143, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A143, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A143, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A143, Scores!$F$2:$F$312, D$1)</f>
         <v>6</v>
       </c>
       <c r="E143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A143, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A143, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A143, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A143, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A143, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C143, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A143, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H143" s="1" t="str">
@@ -46695,26 +46842,26 @@
         <v>74</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A144, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A144, Scores!$E$2:$E$312, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A144, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A144, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A144, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A144, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A144, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A144, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G144" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A144, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C144, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A144, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H144" s="1" t="str">
@@ -46744,26 +46891,26 @@
         <v>74</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A145, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A145, Scores!$E$2:$E$312, 0))</f>
         <v>JCD</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A145, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A145, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A145, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A145, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A145, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A145, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A145, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C145, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A145, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H145" s="1" t="str">
@@ -46793,26 +46940,26 @@
         <v>75</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A146, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A146, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A146, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A146, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A146, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A146, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A146, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A146, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A146, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C146, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A146, Scores!$F$2:$F$312, G$1)</f>
         <v>3</v>
       </c>
       <c r="H146" s="1" t="str">
@@ -46842,26 +46989,26 @@
         <v>75</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A147, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A147, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A147, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A147, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A147, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A147, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A147, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A147, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G147" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A147, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C147, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A147, Scores!$F$2:$F$312, G$1)</f>
         <v>1</v>
       </c>
       <c r="H147" s="1" t="str">
@@ -46891,26 +47038,26 @@
         <v>76</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A148, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A148, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A148, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A148, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A148, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A148, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A148, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A148, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G148" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A148, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C148, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A148, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H148" s="1" t="str">
@@ -46940,26 +47087,26 @@
         <v>76</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A149, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A149, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A149, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A149, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A149, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A149, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A149, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A149, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A149, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C149, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A149, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H149" s="1" t="str">
@@ -46989,26 +47136,26 @@
         <v>77</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A150, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A150, Scores!$E$2:$E$312, 0))</f>
         <v>QCJ</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A150, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A150, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A150, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A150, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A150, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A150, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A150, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C150, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A150, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H150" s="1" t="str">
@@ -47038,26 +47185,26 @@
         <v>77</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A151, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A151, Scores!$E$2:$E$312, 0))</f>
         <v>QCJ</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A151, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A151, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A151, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A151, Scores!$F$2:$F$312, E$1)</f>
         <v>5</v>
       </c>
       <c r="F151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A151, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A151, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A151, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C151, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A151, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H151" s="1" t="str">
@@ -47086,26 +47233,26 @@
         <v>79</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A152, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A152, Scores!$E$2:$E$312, 0))</f>
         <v>CJQD</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A152, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A152, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A152, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A152, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A152, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A152, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G152" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A152, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C152, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A152, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H152" s="1" t="str">
@@ -47134,26 +47281,26 @@
         <v>79</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A153, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A153, Scores!$E$2:$E$312, 0))</f>
         <v>CJQD</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A153, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A153, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A153, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A153, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A153, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A153, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A153, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C153, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A153, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H153" s="1" t="str">
@@ -47183,26 +47330,26 @@
         <v>80</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A154, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A154, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A154, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A154, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A154, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A154, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A154, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A154, Scores!$F$2:$F$312, F$1)</f>
         <v>5</v>
       </c>
       <c r="G154" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A154, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C154, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A154, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H154" s="1" t="str">
@@ -47232,26 +47379,26 @@
         <v>80</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A155, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A155, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A155, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A155, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A155, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A155, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A155, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A155, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G155" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A155, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C155, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A155, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H155" s="1" t="str">
@@ -47281,26 +47428,26 @@
         <v>81</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A156, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A156, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A156, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A156, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A156, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A156, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A156, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A156, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G156" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A156, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C156, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A156, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H156" s="1" t="str">
@@ -47330,26 +47477,26 @@
         <v>81</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A157, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A157, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A157, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A157, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A157, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A157, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A157, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A157, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A157, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C157, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A157, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H157" s="1" t="str">
@@ -47379,26 +47526,26 @@
         <v>82</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A158, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A158, Scores!$E$2:$E$312, 0))</f>
         <v>JDC</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A158, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A158, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A158, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A158, Scores!$F$2:$F$312, E$1)</f>
         <v>6</v>
       </c>
       <c r="F158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A158, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A158, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G158" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A158, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C158, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A158, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H158" s="1" t="str">
@@ -47428,26 +47575,26 @@
         <v>82</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A159, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A159, Scores!$E$2:$E$312, 0))</f>
         <v>JDC</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A159, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A159, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A159, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A159, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A159, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A159, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G159" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A159, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C159, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A159, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H159" s="1" t="str">
@@ -47477,26 +47624,26 @@
         <v>83</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A160, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A160, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A160, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A160, Scores!$F$2:$F$312, D$1)</f>
         <v>6</v>
       </c>
       <c r="E160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A160, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A160, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A160, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A160, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G160" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A160, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C160, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A160, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H160" s="1" t="str">
@@ -47526,26 +47673,26 @@
         <v>83</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A161, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A161, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A161, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A161, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A161, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A161, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A161, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A161, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G161" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A161, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C161, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A161, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H161" s="1" t="str">
@@ -47575,26 +47722,26 @@
         <v>84</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A162, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A162, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A162, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A162, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A162, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A162, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A162, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A162, Scores!$F$2:$F$312, F$1)</f>
         <v>7</v>
       </c>
       <c r="G162" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A162, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C162, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A162, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H162" s="1" t="str">
@@ -47624,26 +47771,26 @@
         <v>84</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A163, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A163, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A163, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A163, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A163, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A163, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A163, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A163, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G163" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A163, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C163, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A163, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H163" s="1" t="str">
@@ -47673,26 +47820,26 @@
         <v>85</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A164, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A164, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A164, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A164, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A164, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A164, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A164, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A164, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G164" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A164, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C164, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A164, Scores!$F$2:$F$312, G$1)</f>
         <v>5</v>
       </c>
       <c r="H164" s="1" t="str">
@@ -47722,26 +47869,26 @@
         <v>85</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A165, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A165, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A165, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A165, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A165, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A165, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A165, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A165, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G165" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A165, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C165, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A165, Scores!$F$2:$F$312, G$1)</f>
         <v>1</v>
       </c>
       <c r="H165" s="1" t="str">
@@ -47771,26 +47918,26 @@
         <v>86</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A166, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A166, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A166, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A166, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A166, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A166, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A166, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A166, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G166" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A166, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C166, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A166, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H166" s="1" t="str">
@@ -47820,26 +47967,26 @@
         <v>86</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A167, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A167, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A167, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A167, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A167, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A167, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A167, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A167, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G167" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A167, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C167, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A167, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H167" s="1" t="str">
@@ -47869,26 +48016,26 @@
         <v>87</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A168, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A168, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A168, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A168, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A168, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A168, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A168, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A168, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G168" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A168, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C168, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A168, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H168" s="1" t="str">
@@ -47918,26 +48065,26 @@
         <v>87</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A169, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A169, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A169, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A169, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A169, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A169, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A169, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A169, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G169" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A169, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C169, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A169, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H169" s="1" t="str">
@@ -47967,26 +48114,26 @@
         <v>88</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A170, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A170, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A170, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A170, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A170, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A170, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A170, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A170, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G170" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A170, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C170, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A170, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H170" s="1" t="str">
@@ -48016,26 +48163,26 @@
         <v>88</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A171, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A171, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A171, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A171, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A171, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A171, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A171, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A171, Scores!$F$2:$F$312, F$1)</f>
         <v>4</v>
       </c>
       <c r="G171" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A171, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C171, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A171, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H171" s="1" t="str">
@@ -48043,7 +48190,7 @@
         <v>Caleb</v>
       </c>
       <c r="I171" s="1">
-        <f t="shared" ref="I171:I195" si="343">IF($H171=$C171, SUM($D171:$E171)-SUM($D170:$E170), SUM($D171:$E171) - SUM($D170:$F170))</f>
+        <f t="shared" ref="I171:I193" si="343">IF($H171=$C171, SUM($D171:$E171)-SUM($D170:$E170), SUM($D171:$E171) - SUM($D170:$F170))</f>
         <v>-5</v>
       </c>
       <c r="J171" s="1">
@@ -48065,26 +48212,26 @@
         <v>89</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A172, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A172, Scores!$E$2:$E$312, 0))</f>
         <v>JVC</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A172, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A172, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A172, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A172, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A172, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A172, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G172" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A172, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C172, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A172, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H172" s="1" t="str">
@@ -48114,26 +48261,26 @@
         <v>89</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A173, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A173, Scores!$E$2:$E$312, 0))</f>
         <v>JVC</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A173, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A173, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A173, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A173, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A173, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A173, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G173" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A173, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C173, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A173, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H173" s="1" t="str">
@@ -48163,26 +48310,26 @@
         <v>90</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A174, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A174, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A174, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A174, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A174, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A174, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A174, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A174, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G174" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A174, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C174, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A174, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H174" s="1" t="str">
@@ -48212,26 +48359,26 @@
         <v>90</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A175, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A175, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A175, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A175, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A175, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A175, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A175, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A175, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G175" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A175, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C175, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A175, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H175" s="1" t="str">
@@ -48261,26 +48408,26 @@
         <v>91</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A176, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A176, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A176, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A176, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A176, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A176, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A176, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A176, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G176" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A176, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C176, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A176, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H176" s="1" t="str">
@@ -48310,26 +48457,26 @@
         <v>91</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A177, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A177, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A177, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A177, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A177, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A177, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A177, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A177, Scores!$F$2:$F$312, F$1)</f>
         <v>5</v>
       </c>
       <c r="G177" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A177, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C177, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A177, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H177" s="1" t="str">
@@ -48359,26 +48506,26 @@
         <v>92</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A178, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A178, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A178, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A178, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A178, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A178, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A178, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A178, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G178" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A178, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C178, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A178, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H178" s="1" t="str">
@@ -48408,26 +48555,26 @@
         <v>92</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A179, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A179, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A179, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A179, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A179, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A179, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A179, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A179, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G179" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A179, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C179, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A179, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H179" s="1" t="str">
@@ -48457,26 +48604,26 @@
         <v>93</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A180, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A180, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A180, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A180, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A180, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A180, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A180, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A180, Scores!$F$2:$F$312, F$1)</f>
         <v>8</v>
       </c>
       <c r="G180" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A180, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C180, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A180, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H180" s="1" t="str">
@@ -48506,26 +48653,26 @@
         <v>93</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A181, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A181, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A181, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A181, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A181, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A181, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A181, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A181, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G181" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A181, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C181, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A181, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H181" s="1" t="str">
@@ -48555,26 +48702,26 @@
         <v>94</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A182, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A182, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A182, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A182, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A182, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A182, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A182, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A182, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G182" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A182, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C182, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A182, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H182" s="1" t="str">
@@ -48604,26 +48751,26 @@
         <v>94</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A183, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A183, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A183, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A183, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A183, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A183, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A183, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A183, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G183" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A183, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C183, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A183, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H183" s="1" t="str">
@@ -48653,26 +48800,26 @@
         <v>95</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A184, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A184, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A184, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A184, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A184, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A184, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A184, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A184, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G184" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A184, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C184, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A184, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H184" s="1" t="str">
@@ -48702,26 +48849,26 @@
         <v>95</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A185, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A185, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A185, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A185, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A185, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A185, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A185, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A185, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G185" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A185, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C185, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A185, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H185" s="1" t="str">
@@ -48751,26 +48898,26 @@
         <v>96</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A186, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A186, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A186, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A186, Scores!$F$2:$F$312, D$1)</f>
         <v>3</v>
       </c>
       <c r="E186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A186, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A186, Scores!$F$2:$F$312, E$1)</f>
         <v>1</v>
       </c>
       <c r="F186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A186, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A186, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G186" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A186, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C186, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A186, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H186" s="1" t="str">
@@ -48800,26 +48947,26 @@
         <v>96</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A187, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A187, Scores!$E$2:$E$312, 0))</f>
         <v>JC</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A187, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A187, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A187, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A187, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A187, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A187, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G187" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A187, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C187, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A187, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H187" s="1" t="str">
@@ -48849,26 +48996,26 @@
         <v>97</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A188, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A188, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A188, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A188, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E188" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A188, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A188, Scores!$F$2:$F$312, E$1)</f>
         <v>3</v>
       </c>
       <c r="F188" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A188, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A188, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G188" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A188, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C188, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A188, Scores!$F$2:$F$312, G$1)</f>
         <v>3</v>
       </c>
       <c r="H188" s="1" t="str">
@@ -48898,26 +49045,26 @@
         <v>97</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A189, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A189, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A189, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A189, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E189" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A189, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A189, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F189" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A189, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A189, Scores!$F$2:$F$312, F$1)</f>
         <v>2</v>
       </c>
       <c r="G189" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A189, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C189, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A189, Scores!$F$2:$F$312, G$1)</f>
         <v>2</v>
       </c>
       <c r="H189" s="1" t="str">
@@ -48947,26 +49094,26 @@
         <v>98</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A190, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A190, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D190" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A190, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A190, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E190" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A190, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A190, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F190" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A190, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A190, Scores!$F$2:$F$312, F$1)</f>
         <v>9</v>
       </c>
       <c r="G190" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A190, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C190, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A190, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H190" s="1" t="str">
@@ -48996,26 +49143,26 @@
         <v>98</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A191, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A191, Scores!$E$2:$E$312, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A191, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A191, Scores!$F$2:$F$312, D$1)</f>
         <v>1</v>
       </c>
       <c r="E191" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A191, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A191, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F191" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A191, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A191, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G191" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A191, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C191, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A191, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H191" s="1" t="str">
@@ -49045,26 +49192,26 @@
         <v>99</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A192, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A192, Scores!$E$2:$E$312, 0))</f>
         <v>JCDQ</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A192, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A192, Scores!$F$2:$F$312, D$1)</f>
         <v>0</v>
       </c>
       <c r="E192" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A192, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A192, Scores!$F$2:$F$312, E$1)</f>
         <v>0</v>
       </c>
       <c r="F192" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A192, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A192, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G192" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A192, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C192, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A192, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H192" s="1" t="str">
@@ -49094,26 +49241,26 @@
         <v>99</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A193, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A193, Scores!$E$2:$E$312, 0))</f>
         <v>JCDQ</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A193, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A193, Scores!$F$2:$F$312, D$1)</f>
         <v>4</v>
       </c>
       <c r="E193" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A193, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A193, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F193" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A193, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A193, Scores!$F$2:$F$312, F$1)</f>
         <v>1</v>
       </c>
       <c r="G193" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A193, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C193, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A193, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H193" s="1" t="str">
@@ -49143,26 +49290,26 @@
         <v>100</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A194, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A194, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A194, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A194, Scores!$F$2:$F$312, D$1)</f>
         <v>2</v>
       </c>
       <c r="E194" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A194, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A194, Scores!$F$2:$F$312, E$1)</f>
         <v>4</v>
       </c>
       <c r="F194" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A194, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A194, Scores!$F$2:$F$312, F$1)</f>
         <v>3</v>
       </c>
       <c r="G194" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A194, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C194, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A194, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H194" s="1" t="str">
@@ -49192,26 +49339,26 @@
         <v>100</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$309, MATCH(Clutch!$A195, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$312, MATCH(Clutch!$A195, Scores!$E$2:$E$312, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A195, Scores!$F$2:$F$309, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A195, Scores!$F$2:$F$312, D$1)</f>
         <v>5</v>
       </c>
       <c r="E195" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A195, Scores!$F$2:$F$309, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A195, Scores!$F$2:$F$312, E$1)</f>
         <v>2</v>
       </c>
       <c r="F195" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A195, Scores!$F$2:$F$309, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A195, Scores!$F$2:$F$312, F$1)</f>
         <v>0</v>
       </c>
       <c r="G195" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$309, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$309, $A195, Scores!$F$2:$F$309, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$312, 0, MATCH($C195, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$312, $A195, Scores!$F$2:$F$312, G$1)</f>
         <v>0</v>
       </c>
       <c r="H195" s="1" t="str">
@@ -49231,7 +49378,7 @@
         <v>0</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" ref="L194:L195" si="377">IF(I195&gt;3, "&gt;3", IF(I195&lt;-3, "&lt;-3", I195))</f>
+        <f t="shared" ref="L195" si="377">IF(I195&gt;3, "&gt;3", IF(I195&lt;-3, "&lt;-3", I195))</f>
         <v>-2</v>
       </c>
     </row>
@@ -49242,13 +49389,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2ABBE-FAC4-104F-9C94-9E82F6025A5C}">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49308,11 +49455,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N299, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
+        <f ca="1">SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A2, INDEX(Scores!$H$2:$N299, 0, MATCH($B2, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A2, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A2, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
       <c r="J2"/>
@@ -49341,11 +49488,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N309, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A3, INDEX(Scores!$H$2:$N312, 0, MATCH($B3, Scores!$H$1:$N$1, 0)))</f>
         <v>13</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A3, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A3, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -49397,11 +49544,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N310, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A4, INDEX(Scores!$H$2:$N313, 0, MATCH($B4, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A4, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A4, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -49453,11 +49600,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N311, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A5, INDEX(Scores!$H$2:$N314, 0, MATCH($B5, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A5, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A5, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -49506,11 +49653,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N312, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A6, INDEX(Scores!$H$2:$N315, 0, MATCH($B6, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A6, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A6, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -49559,11 +49706,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N313, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A7, INDEX(Scores!$H$2:$N316, 0, MATCH($B7, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A7, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A7, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -49612,11 +49759,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N314, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A8, INDEX(Scores!$H$2:$N317, 0, MATCH($B8, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A8, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A8, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
       <c r="J8"/>
@@ -49647,11 +49794,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N315, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A9, INDEX(Scores!$H$2:$N318, 0, MATCH($B9, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A9, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A9, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
       <c r="J9"/>
@@ -49681,11 +49828,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N316, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A10, INDEX(Scores!$H$2:$N319, 0, MATCH($B10, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A10, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A10, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
       <c r="J10"/>
@@ -49712,11 +49859,11 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N317, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A11, INDEX(Scores!$H$2:$N320, 0, MATCH($B11, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A11, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A11, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
       <c r="J11"/>
@@ -49740,11 +49887,11 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N318, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A12, INDEX(Scores!$H$2:$N321, 0, MATCH($B12, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A12, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A12, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J12"/>
@@ -49768,11 +49915,11 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N319, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A13, INDEX(Scores!$H$2:$N322, 0, MATCH($B13, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A13, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A13, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J13"/>
@@ -49796,11 +49943,11 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N320, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A14, INDEX(Scores!$H$2:$N323, 0, MATCH($B14, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A14, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A14, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J14"/>
@@ -49824,11 +49971,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N321, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A15, INDEX(Scores!$H$2:$N324, 0, MATCH($B15, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A15, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A15, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J15"/>
@@ -49852,11 +49999,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N322, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A16, INDEX(Scores!$H$2:$N325, 0, MATCH($B16, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A16, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A16, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J16"/>
@@ -49880,11 +50027,11 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N323, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A17, INDEX(Scores!$H$2:$N326, 0, MATCH($B17, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A17, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A17, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J17"/>
@@ -49908,11 +50055,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N324, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A18, INDEX(Scores!$H$2:$N327, 0, MATCH($B18, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A18, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A18, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J18"/>
@@ -49936,11 +50083,11 @@
         <v>5</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N325, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A19, INDEX(Scores!$H$2:$N328, 0, MATCH($B19, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A19, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A19, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J19"/>
@@ -49964,11 +50111,11 @@
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N326, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A20, INDEX(Scores!$H$2:$N329, 0, MATCH($B20, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A20, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A20, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J20"/>
@@ -49992,11 +50139,11 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N327, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A21, INDEX(Scores!$H$2:$N330, 0, MATCH($B21, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A21, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A21, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
       <c r="J21"/>
@@ -50020,11 +50167,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N328, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A22, INDEX(Scores!$H$2:$N331, 0, MATCH($B22, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A22, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A22, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50045,11 +50192,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N329, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A23, INDEX(Scores!$H$2:$N332, 0, MATCH($B23, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A23, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A23, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50070,11 +50217,11 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N330, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A24, INDEX(Scores!$H$2:$N333, 0, MATCH($B24, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A24, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A24, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50095,11 +50242,11 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N331, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A25, INDEX(Scores!$H$2:$N334, 0, MATCH($B25, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A25, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A25, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50120,11 +50267,11 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N332, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A26, INDEX(Scores!$H$2:$N335, 0, MATCH($B26, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A26, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A26, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50145,11 +50292,11 @@
         <v>6</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N333, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A27, INDEX(Scores!$H$2:$N336, 0, MATCH($B27, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A27, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A27, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50170,11 +50317,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N334, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A28, INDEX(Scores!$H$2:$N337, 0, MATCH($B28, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A28, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A28, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50195,11 +50342,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N335, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A29, INDEX(Scores!$H$2:$N338, 0, MATCH($B29, Scores!$H$1:$N$1, 0)))</f>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A29, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A29, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50220,11 +50367,11 @@
         <v>6</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N336, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A30, INDEX(Scores!$H$2:$N339, 0, MATCH($B30, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A30, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A30, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50245,11 +50392,11 @@
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N337, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A31, INDEX(Scores!$H$2:$N340, 0, MATCH($B31, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A31, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A31, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50270,11 +50417,11 @@
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N338, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A32, INDEX(Scores!$H$2:$N341, 0, MATCH($B32, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A32, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A32, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50295,11 +50442,11 @@
         <v>6</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N339, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A33, INDEX(Scores!$H$2:$N342, 0, MATCH($B33, Scores!$H$1:$N$1, 0)))</f>
         <v>12</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A33, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A33, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50320,11 +50467,11 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N340, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A34, INDEX(Scores!$H$2:$N343, 0, MATCH($B34, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A34, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A34, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50345,11 +50492,11 @@
         <v>5</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N341, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A35, INDEX(Scores!$H$2:$N344, 0, MATCH($B35, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A35, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A35, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50370,11 +50517,11 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N342, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A36, INDEX(Scores!$H$2:$N345, 0, MATCH($B36, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A36, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A36, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50395,11 +50542,11 @@
         <v>6</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N343, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A37, INDEX(Scores!$H$2:$N346, 0, MATCH($B37, Scores!$H$1:$N$1, 0)))</f>
         <v>10</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A37, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A37, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50420,11 +50567,11 @@
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N344, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A38, INDEX(Scores!$H$2:$N347, 0, MATCH($B38, Scores!$H$1:$N$1, 0)))</f>
         <v>6</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A38, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A38, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50445,11 +50592,11 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N345, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A39, INDEX(Scores!$H$2:$N348, 0, MATCH($B39, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A39, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A39, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50470,11 +50617,11 @@
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N346, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A40, INDEX(Scores!$H$2:$N349, 0, MATCH($B40, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A40, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A40, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50495,11 +50642,11 @@
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N347, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A41, INDEX(Scores!$H$2:$N350, 0, MATCH($B41, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A41, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A41, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50520,11 +50667,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N348, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A42, INDEX(Scores!$H$2:$N351, 0, MATCH($B42, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A42, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A42, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50545,11 +50692,11 @@
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A43, INDEX(Scores!$H$2:$N349, 0, MATCH($B43, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A43, INDEX(Scores!$H$2:$N352, 0, MATCH($B43, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A43, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A43, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50570,11 +50717,11 @@
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A44, INDEX(Scores!$H$2:$N350, 0, MATCH($B44, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A44, INDEX(Scores!$H$2:$N353, 0, MATCH($B44, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A44, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A44, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50595,11 +50742,11 @@
         <v>2</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A45, INDEX(Scores!$H$2:$N351, 0, MATCH($B45, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A45, INDEX(Scores!$H$2:$N354, 0, MATCH($B45, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A45, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A45, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50620,11 +50767,11 @@
         <v>3</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A46, INDEX(Scores!$H$2:$N352, 0, MATCH($B46, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A46, INDEX(Scores!$H$2:$N355, 0, MATCH($B46, Scores!$H$1:$N$1, 0)))</f>
         <v>4</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A46, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A46, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50645,11 +50792,11 @@
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A47, INDEX(Scores!$H$2:$N353, 0, MATCH($B47, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A47, INDEX(Scores!$H$2:$N356, 0, MATCH($B47, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A47, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A47, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50670,11 +50817,11 @@
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A48, INDEX(Scores!$H$2:$N354, 0, MATCH($B48, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A48, INDEX(Scores!$H$2:$N357, 0, MATCH($B48, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A48, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A48, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50695,11 +50842,11 @@
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A49, INDEX(Scores!$H$2:$N355, 0, MATCH($B49, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A49, INDEX(Scores!$H$2:$N358, 0, MATCH($B49, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A49, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A49, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50720,11 +50867,11 @@
         <v>3</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A50, INDEX(Scores!$H$2:$N356, 0, MATCH($B50, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A50, INDEX(Scores!$H$2:$N359, 0, MATCH($B50, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A50, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A50, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50745,11 +50892,11 @@
         <v>6</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A51, INDEX(Scores!$H$2:$N357, 0, MATCH($B51, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A51, INDEX(Scores!$H$2:$N360, 0, MATCH($B51, Scores!$H$1:$N$1, 0)))</f>
         <v>11</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A51, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A51, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50770,11 +50917,11 @@
         <v>4</v>
       </c>
       <c r="F52" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A52, INDEX(Scores!$H$2:$N358, 0, MATCH($B52, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A52, INDEX(Scores!$H$2:$N361, 0, MATCH($B52, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A52, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A52, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50795,11 +50942,11 @@
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A53, INDEX(Scores!$H$2:$N359, 0, MATCH($B53, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A53, INDEX(Scores!$H$2:$N362, 0, MATCH($B53, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A53, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A53, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50820,11 +50967,11 @@
         <v>7</v>
       </c>
       <c r="F54" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A54, INDEX(Scores!$H$2:$N360, 0, MATCH($B54, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A54, INDEX(Scores!$H$2:$N363, 0, MATCH($B54, Scores!$H$1:$N$1, 0)))</f>
         <v>14</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A54, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A54, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50845,11 +50992,11 @@
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A55, INDEX(Scores!$H$2:$N361, 0, MATCH($B55, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A55, INDEX(Scores!$H$2:$N364, 0, MATCH($B55, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A55, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A55, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50870,11 +51017,11 @@
         <v>4</v>
       </c>
       <c r="F56" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A56, INDEX(Scores!$H$2:$N362, 0, MATCH($B56, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A56, INDEX(Scores!$H$2:$N365, 0, MATCH($B56, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A56, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A56, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50895,11 +51042,11 @@
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A57, INDEX(Scores!$H$2:$N363, 0, MATCH($B57, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A57, INDEX(Scores!$H$2:$N366, 0, MATCH($B57, Scores!$H$1:$N$1, 0)))</f>
         <v>8</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A57, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A57, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -50920,11 +51067,11 @@
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A58, INDEX(Scores!$H$2:$N364, 0, MATCH($B58, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A58, INDEX(Scores!$H$2:$N367, 0, MATCH($B58, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A58, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A58, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50945,11 +51092,11 @@
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A59, INDEX(Scores!$H$2:$N365, 0, MATCH($B59, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A59, INDEX(Scores!$H$2:$N368, 0, MATCH($B59, Scores!$H$1:$N$1, 0)))</f>
         <v>1</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A59, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A59, Scores!$E$2:$E$312, 0))</f>
         <v>low</v>
       </c>
     </row>
@@ -50970,11 +51117,11 @@
         <v>3</v>
       </c>
       <c r="F60" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A60, INDEX(Scores!$H$2:$N366, 0, MATCH($B60, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A60, INDEX(Scores!$H$2:$N369, 0, MATCH($B60, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A60, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A60, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -50995,11 +51142,11 @@
         <v>2</v>
       </c>
       <c r="F61" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A61, INDEX(Scores!$H$2:$N367, 0, MATCH($B61, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A61, INDEX(Scores!$H$2:$N370, 0, MATCH($B61, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A61, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A61, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51020,11 +51167,11 @@
         <v>4</v>
       </c>
       <c r="F62" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A62, INDEX(Scores!$H$2:$N368, 0, MATCH($B62, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A62, INDEX(Scores!$H$2:$N371, 0, MATCH($B62, Scores!$H$1:$N$1, 0)))</f>
         <v>11</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A62, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A62, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51045,11 +51192,11 @@
         <v>2</v>
       </c>
       <c r="F63" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A63, INDEX(Scores!$H$2:$N369, 0, MATCH($B63, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A63, INDEX(Scores!$H$2:$N372, 0, MATCH($B63, Scores!$H$1:$N$1, 0)))</f>
         <v>2</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A63, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A63, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51070,11 +51217,11 @@
         <v>1</v>
       </c>
       <c r="F64" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A64, INDEX(Scores!$H$2:$N370, 0, MATCH($B64, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A64, INDEX(Scores!$H$2:$N373, 0, MATCH($B64, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A64, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A64, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51095,11 +51242,11 @@
         <v>1</v>
       </c>
       <c r="F65" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A65, INDEX(Scores!$H$2:$N371, 0, MATCH($B65, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A65, INDEX(Scores!$H$2:$N374, 0, MATCH($B65, Scores!$H$1:$N$1, 0)))</f>
         <v>3</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A65, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A65, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51120,11 +51267,11 @@
         <v>4</v>
       </c>
       <c r="F66" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A66, INDEX(Scores!$H$2:$N372, 0, MATCH($B66, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A66, INDEX(Scores!$H$2:$N375, 0, MATCH($B66, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A66, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A66, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51145,11 +51292,11 @@
         <v>4</v>
       </c>
       <c r="F67" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A67, INDEX(Scores!$H$2:$N373, 0, MATCH($B67, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A67, INDEX(Scores!$H$2:$N376, 0, MATCH($B67, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A67, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A67, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51170,11 +51317,11 @@
         <v>2</v>
       </c>
       <c r="F68" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A68, INDEX(Scores!$H$2:$N374, 0, MATCH($B68, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A68, INDEX(Scores!$H$2:$N377, 0, MATCH($B68, Scores!$H$1:$N$1, 0)))</f>
         <v>5</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A68, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A68, Scores!$E$2:$E$312, 0))</f>
         <v>mid</v>
       </c>
     </row>
@@ -51195,11 +51342,11 @@
         <v>4</v>
       </c>
       <c r="F69" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A69, INDEX(Scores!$H$2:$N375, 0, MATCH($B69, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A69, INDEX(Scores!$H$2:$N378, 0, MATCH($B69, Scores!$H$1:$N$1, 0)))</f>
         <v>9</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A69, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A69, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
       </c>
     </row>
@@ -51220,12 +51367,62 @@
         <v>4</v>
       </c>
       <c r="F70" s="1">
-        <f>SUMIF(Scores!$E$2:$E$309, 'Next Gen'!$A70, INDEX(Scores!$H$2:$N376, 0, MATCH($B70, Scores!$H$1:$N$1, 0)))</f>
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A70, INDEX(Scores!$H$2:$N379, 0, MATCH($B70, Scores!$H$1:$N$1, 0)))</f>
         <v>7</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>INDEX(Scores!$B$2:$B$309, MATCH('Next Gen'!$A70, Scores!$E$2:$E$309, 0))</f>
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A70, Scores!$E$2:$E$312, 0))</f>
         <v>high</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>101</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A71, INDEX(Scores!$H$2:$N380, 0, MATCH($B71, Scores!$H$1:$N$1, 0)))</f>
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A71, Scores!$E$2:$E$312, 0))</f>
+        <v>mid</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>101</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <f>SUMIF(Scores!$E$2:$E$312, 'Next Gen'!$A72, INDEX(Scores!$H$2:$N381, 0, MATCH($B72, Scores!$H$1:$N$1, 0)))</f>
+        <v>6</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>INDEX(Scores!$B$2:$B$312, MATCH('Next Gen'!$A72, Scores!$E$2:$E$312, 0))</f>
+        <v>mid</v>
       </c>
     </row>
   </sheetData>

--- a/Maxfield - Darts.xlsx
+++ b/Maxfield - Darts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebskinner/Desktop/Rice/First Year/Dart Board/DartsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E7D89-4021-054B-B4C6-ACFB420A4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA73D381-D180-5540-A4B1-E994546771E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" activeTab="2" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29640" windowHeight="17400" xr2:uid="{323CE3BE-3075-5142-8CC5-C739FD3D3415}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -418,22 +418,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -9007,7 +8992,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78E2A95C-DA54-D548-89C2-51C9BFC03224}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Round">
-  <location ref="G340:N345" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="G343:N348" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -9113,7 +9098,7 @@
     <dataField name="Average of Veronica" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -9246,17 +9231,17 @@
     <dataField name="Success Rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="13">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="7">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9266,7 +9251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9289,7 +9274,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{459AB24C-6D98-4049-8DB3-0F4403F7B259}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{459AB24C-6D98-4049-8DB3-0F4403F7B259}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Players">
   <location ref="J3:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -9381,17 +9366,17 @@
     <dataField name="PPT" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9400,7 +9385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9412,7 +9397,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9777,11 +9762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC3A9F4-D995-4141-98AC-53C67004365F}">
-  <dimension ref="A1:AI887"/>
+  <dimension ref="A1:AI890"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F324" sqref="F324"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G326" sqref="G326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30146,16 +30131,16 @@
         <v>0</v>
       </c>
       <c r="W296" s="11" t="str">
-        <f>IF(SUM(H296:H327)&gt;SUM(I296:I327), "Caleb", "Joshua")</f>
+        <f>IF(SUM(H296:H330)&gt;SUM(I296:I330), "Caleb", "Joshua")</f>
         <v>Joshua</v>
       </c>
       <c r="X296" s="11">
-        <f>ABS(SUM(H296:H327)-SUM(I296:I327))</f>
-        <v>31</v>
+        <f>ABS(SUM(H296:H330)-SUM(I296:I330))</f>
+        <v>30</v>
       </c>
       <c r="Y296" s="11">
-        <f>SUM(H296:H327, I296:I327)</f>
-        <v>89</v>
+        <f>SUM(H296:H330, I296:I330)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:25">
@@ -30312,19 +30297,19 @@
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="P299" s="2">
-        <f>COUNTA(H327)</f>
+        <f>COUNTA(H330)</f>
         <v>0</v>
       </c>
       <c r="Q299" s="2">
-        <f>COUNTA(I327)</f>
+        <f>COUNTA(I330)</f>
         <v>0</v>
       </c>
       <c r="R299" s="2">
-        <f>COUNTA(J327)</f>
+        <f>COUNTA(J330)</f>
         <v>0</v>
       </c>
       <c r="S299" s="2">
-        <f>COUNTA(K327)</f>
+        <f>COUNTA(K330)</f>
         <v>0</v>
       </c>
       <c r="T299" s="2"/>
@@ -30348,7 +30333,7 @@
         <v>45791</v>
       </c>
       <c r="E300" s="2">
-        <f t="shared" ref="E300:E326" si="523">E297+1</f>
+        <f t="shared" ref="E300:E329" si="523">E297+1</f>
         <v>98</v>
       </c>
       <c r="F300" s="2">
@@ -31891,7 +31876,7 @@
         <v>1</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I324" s="1">
         <v>1</v>
@@ -31956,7 +31941,7 @@
         <v>2</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I325" s="1">
         <v>0</v>
@@ -32021,7 +32006,7 @@
         <v>3</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I326" s="1">
         <v>2</v>
@@ -32056,211 +32041,240 @@
       <c r="X326" s="11"/>
       <c r="Y326" s="11"/>
     </row>
+    <row r="327" spans="1:25">
+      <c r="A327" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" s="4">
+        <v>45818</v>
+      </c>
+      <c r="E327" s="2">
+        <f t="shared" si="523"/>
+        <v>107</v>
+      </c>
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H327" s="1">
+        <v>3</v>
+      </c>
+      <c r="I327" s="1">
+        <v>1</v>
+      </c>
+      <c r="K327" s="2"/>
+      <c r="L327" s="2"/>
+      <c r="M327" s="2"/>
+      <c r="N327" s="2"/>
+      <c r="P327" s="2">
+        <f t="shared" ref="P327:P329" si="592">COUNTA(H327)</f>
+        <v>1</v>
+      </c>
+      <c r="Q327" s="2">
+        <f t="shared" ref="Q327:Q329" si="593">COUNTA(I327)</f>
+        <v>1</v>
+      </c>
+      <c r="R327" s="2">
+        <f t="shared" ref="R327:R329" si="594">COUNTA(J327)</f>
+        <v>0</v>
+      </c>
+      <c r="S327" s="2">
+        <f t="shared" ref="S327:S329" si="595">COUNTA(K327)</f>
+        <v>0</v>
+      </c>
+      <c r="T327" s="2">
+        <f t="shared" ref="T327:T328" si="596">COUNTA(L327)</f>
+        <v>0</v>
+      </c>
+      <c r="U327" s="2">
+        <f t="shared" ref="U327:U328" si="597">COUNTA(M327)</f>
+        <v>0</v>
+      </c>
+      <c r="V327" s="2">
+        <f t="shared" ref="V327:V328" si="598">COUNTA(N327)</f>
+        <v>0</v>
+      </c>
+      <c r="W327" s="11" t="str">
+        <f t="shared" ref="W327" si="599">IF(SUM(H327:H329)&gt;SUM(I327:I329), "Caleb", "Joshua")</f>
+        <v>Caleb</v>
+      </c>
+      <c r="X327" s="11">
+        <f t="shared" ref="X327" si="600">ABS(SUM(H327:H329)-SUM(I327:I329))</f>
+        <v>1</v>
+      </c>
+      <c r="Y327" s="11">
+        <f t="shared" ref="Y327" si="601">SUM(H327:H329, I327:I329)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25">
+      <c r="A328" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D328" s="4">
+        <v>45818</v>
+      </c>
+      <c r="E328" s="2">
+        <f t="shared" si="523"/>
+        <v>107</v>
+      </c>
+      <c r="F328" s="2">
+        <v>2</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H328" s="1">
+        <v>0</v>
+      </c>
+      <c r="I328" s="1">
+        <v>3</v>
+      </c>
+      <c r="K328" s="2"/>
+      <c r="L328" s="2"/>
+      <c r="M328" s="2"/>
+      <c r="N328" s="2"/>
+      <c r="P328" s="2">
+        <f t="shared" si="592"/>
+        <v>1</v>
+      </c>
+      <c r="Q328" s="2">
+        <f t="shared" si="593"/>
+        <v>1</v>
+      </c>
+      <c r="R328" s="2">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="S328" s="2">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="T328" s="2">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="U328" s="2">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="V328" s="2">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="W328" s="11"/>
+      <c r="X328" s="11"/>
+      <c r="Y328" s="11"/>
+    </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="11" t="s">
+      <c r="A329" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="4">
+        <v>45818</v>
+      </c>
+      <c r="E329" s="2">
+        <f t="shared" si="523"/>
+        <v>107</v>
+      </c>
+      <c r="F329" s="2">
+        <v>3</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H329" s="1">
+        <v>3</v>
+      </c>
+      <c r="I329" s="1">
+        <v>1</v>
+      </c>
+      <c r="K329" s="2"/>
+      <c r="L329" s="2"/>
+      <c r="M329" s="2"/>
+      <c r="N329" s="2"/>
+      <c r="P329" s="2">
+        <f t="shared" si="592"/>
+        <v>1</v>
+      </c>
+      <c r="Q329" s="2">
+        <f t="shared" si="593"/>
+        <v>1</v>
+      </c>
+      <c r="R329" s="2">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="S329" s="2">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="T329" s="2"/>
+      <c r="U329" s="2"/>
+      <c r="V329" s="2"/>
+      <c r="W329" s="11"/>
+      <c r="X329" s="11"/>
+      <c r="Y329" s="11"/>
+    </row>
+    <row r="332" spans="1:25">
+      <c r="A332" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B329" s="11"/>
-      <c r="C329" s="11"/>
-      <c r="D329" s="11"/>
-      <c r="E329" s="11"/>
-      <c r="F329" s="11"/>
-      <c r="G329" s="1">
-        <v>1</v>
-      </c>
-      <c r="H329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, H$2:H327)/SUMIF($F$2:$F327, $G329, P$2:P327)</f>
-        <v>2.4795918367346941</v>
-      </c>
-      <c r="I329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, I$2:I327)/SUMIF($F$2:$F327, $G329, Q$2:Q327)</f>
-        <v>1.2285714285714286</v>
-      </c>
-      <c r="J329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, J$2:J327)/SUMIF($F$2:$F327, $G329, R$2:R327)</f>
-        <v>1.1363636363636365</v>
-      </c>
-      <c r="K329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, K$2:K327)/SUMIF($F$2:$F327, $G329, S$2:S327)</f>
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="L329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, L$2:L327)/SUMIF($F$2:$F327, $G329, T$2:T327)</f>
-        <v>0</v>
-      </c>
-      <c r="M329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, M$2:M327)/SUMIF($F$2:$F327, $G329, U$2:U327)</f>
-        <v>0</v>
-      </c>
-      <c r="N329" s="5">
-        <f>SUMIF($F$2:$F327, $G329, N$2:N327)/SUMIF($F$2:$F327, $G329, V$2:V327)</f>
-        <v>0.5</v>
-      </c>
-      <c r="P329" s="5"/>
-      <c r="Q329" s="5"/>
-      <c r="R329" s="5"/>
-      <c r="S329" s="5"/>
-      <c r="T329" s="5"/>
-      <c r="U329" s="5"/>
-      <c r="V329" s="5"/>
-      <c r="X329" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y329" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="330" spans="1:25">
-      <c r="A330" s="11"/>
-      <c r="B330" s="11"/>
-      <c r="C330" s="11"/>
-      <c r="D330" s="11"/>
-      <c r="E330" s="11"/>
-      <c r="F330" s="11"/>
-      <c r="G330" s="1">
-        <v>2</v>
-      </c>
-      <c r="H330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, H$2:H327)/SUMIF($F$2:$F327, $G330, P$2:P327)</f>
-        <v>2.5306122448979593</v>
-      </c>
-      <c r="I330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, I$2:I327)/SUMIF($F$2:$F327, $G330, Q$2:Q327)</f>
-        <v>1.3523809523809525</v>
-      </c>
-      <c r="J330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, J$2:J327)/SUMIF($F$2:$F327, $G330, R$2:R327)</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="K330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, K$2:K327)/SUMIF($F$2:$F327, $G330, S$2:S327)</f>
-        <v>1.263157894736842</v>
-      </c>
-      <c r="L330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, L$2:L327)/SUMIF($F$2:$F327, $G330, T$2:T327)</f>
-        <v>0</v>
-      </c>
-      <c r="M330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, M$2:M327)/SUMIF($F$2:$F327, $G330, U$2:U327)</f>
-        <v>1.5</v>
-      </c>
-      <c r="N330" s="5">
-        <f>SUMIF($F$2:$F327, $G330, N$2:N327)/SUMIF($F$2:$F327, $G330, V$2:V327)</f>
-        <v>1</v>
-      </c>
-      <c r="P330" s="5"/>
-      <c r="Q330" s="5"/>
-      <c r="R330" s="5"/>
-      <c r="S330" s="5"/>
-      <c r="T330" s="5"/>
-      <c r="U330" s="5"/>
-      <c r="V330" s="5"/>
-      <c r="W330" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X330" s="1">
-        <f xml:space="preserve"> COUNTIF(W2:W327,W330)</f>
-        <v>76</v>
-      </c>
-      <c r="Y330" s="6">
-        <f>X330/SUM(X330:X331)</f>
-        <v>0.78350515463917525</v>
-      </c>
-    </row>
-    <row r="331" spans="1:25">
-      <c r="A331" s="11"/>
-      <c r="B331" s="11"/>
-      <c r="C331" s="11"/>
-      <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
-      <c r="F331" s="11"/>
-      <c r="G331" s="1">
-        <v>3</v>
-      </c>
-      <c r="H331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, H$2:H328)/SUMIF($F$2:$F328, $G331, P$2:P328)</f>
-        <v>2.5306122448979593</v>
-      </c>
-      <c r="I331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, I$2:I328)/SUMIF($F$2:$F328, $G331, Q$2:Q328)</f>
-        <v>1.5047619047619047</v>
-      </c>
-      <c r="J331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, J$2:J328)/SUMIF($F$2:$F328, $G331, R$2:R328)</f>
-        <v>1.4</v>
-      </c>
-      <c r="K331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, K$2:K328)/SUMIF($F$2:$F328, $G331, S$2:S328)</f>
-        <v>1</v>
-      </c>
-      <c r="L331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, L$2:L328)/SUMIF($F$2:$F328, $G331, T$2:T328)</f>
-        <v>1</v>
-      </c>
-      <c r="M331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, M$2:M328)/SUMIF($F$2:$F328, $G331, U$2:U328)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N331" s="5">
-        <f>SUMIF($F$2:$F328, $G331, N$2:N328)/SUMIF($F$2:$F328, $G331, V$2:V328)</f>
-        <v>1</v>
-      </c>
-      <c r="P331" s="5"/>
-      <c r="Q331" s="5"/>
-      <c r="R331" s="5"/>
-      <c r="S331" s="5"/>
-      <c r="T331" s="5"/>
-      <c r="U331" s="5"/>
-      <c r="V331" s="5"/>
-      <c r="W331" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X331" s="1">
-        <f xml:space="preserve"> COUNTIF(W3:W327,W331)</f>
-        <v>21</v>
-      </c>
-      <c r="Y331" s="6">
-        <f>X331/SUM(X330:X331)</f>
-        <v>0.21649484536082475</v>
-      </c>
-    </row>
-    <row r="332" spans="1:25">
-      <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
-      <c r="G332" s="1" t="s">
-        <v>41</v>
+      <c r="G332" s="1">
+        <v>1</v>
       </c>
       <c r="H332" s="5">
-        <f>IF(SUMIF($F$2:$F329, $G332, P$2:P329) = 0, "", SUMIF($F$2:$F329, $G332, H$2:H329)/SUMIF($F$2:$F329, $G332, P$2:P329))</f>
-        <v>4</v>
+        <f>SUMIF($F$2:$F330, $G332, H$2:H330)/SUMIF($F$2:$F330, $G332, P$2:P330)</f>
+        <v>2.4848484848484849</v>
       </c>
       <c r="I332" s="5">
-        <f>IF(SUMIF($F$2:$F329, $G332, Q$2:Q329) = 0, "", SUMIF($F$2:$F329, $G332, I$2:I329)/SUMIF($F$2:$F329, $G332, Q$2:Q329))</f>
-        <v>2.5</v>
+        <f>SUMIF($F$2:$F330, $G332, I$2:I330)/SUMIF($F$2:$F330, $G332, Q$2:Q330)</f>
+        <v>1.2264150943396226</v>
       </c>
       <c r="J332" s="5">
-        <f>IF(SUMIF($F$2:$F329, $G332, R$2:R329) = 0, "", SUMIF($F$2:$F329, $G332, J$2:J329)/SUMIF($F$2:$F329, $G332, R$2:R329))</f>
-        <v>2</v>
-      </c>
-      <c r="K332" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F329, $G332, S$2:S329) = 0, "", SUMIF($F$2:$F329, $G332, K$2:K329)/SUMIF($F$2:$F329, $G332, S$2:S329))</f>
-        <v/>
-      </c>
-      <c r="L332" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F329, $G332, T$2:T329) = 0, "", SUMIF($F$2:$F329, $G332, L$2:L329)/SUMIF($F$2:$F329, $G332, T$2:T329))</f>
-        <v/>
+        <f>SUMIF($F$2:$F330, $G332, J$2:J330)/SUMIF($F$2:$F330, $G332, R$2:R330)</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="K332" s="5">
+        <f>SUMIF($F$2:$F330, $G332, K$2:K330)/SUMIF($F$2:$F330, $G332, S$2:S330)</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="L332" s="5">
+        <f>SUMIF($F$2:$F330, $G332, L$2:L330)/SUMIF($F$2:$F330, $G332, T$2:T330)</f>
+        <v>0</v>
       </c>
       <c r="M332" s="5">
-        <f>IF(SUMIF($F$2:$F329, $G332, U$2:U329) = 0, "", SUMIF($F$2:$F329, $G332, M$2:M329)/SUMIF($F$2:$F329, $G332, U$2:U329))</f>
-        <v>0</v>
-      </c>
-      <c r="N332" s="5" t="str">
-        <f>IF(SUMIF($F$2:$F329, $G332, V$2:V329) = 0, "", SUMIF($F$2:$F329, $G332, N$2:N329)/SUMIF($F$2:$F329, $G332, V$2:V329))</f>
-        <v/>
+        <f>SUMIF($F$2:$F330, $G332, M$2:M330)/SUMIF($F$2:$F330, $G332, U$2:U330)</f>
+        <v>0</v>
+      </c>
+      <c r="N332" s="5">
+        <f>SUMIF($F$2:$F330, $G332, N$2:N330)/SUMIF($F$2:$F330, $G332, V$2:V330)</f>
+        <v>0.5</v>
       </c>
       <c r="P332" s="5"/>
       <c r="Q332" s="5"/>
@@ -32269,6 +32283,12 @@
       <c r="T332" s="5"/>
       <c r="U332" s="5"/>
       <c r="V332" s="5"/>
+      <c r="X332" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y332" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="333" spans="1:25">
       <c r="A333" s="11"/>
@@ -32277,36 +32297,36 @@
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
-      <c r="G333" s="1" t="s">
-        <v>51</v>
+      <c r="G333" s="1">
+        <v>2</v>
       </c>
       <c r="H333" s="5">
-        <f>AVERAGE(H$2:H327)*3</f>
-        <v>7.575250836120401</v>
+        <f>SUMIF($F$2:$F330, $G333, H$2:H330)/SUMIF($F$2:$F330, $G333, P$2:P330)</f>
+        <v>2.5050505050505052</v>
       </c>
       <c r="I333" s="5">
-        <f>AVERAGE(I$2:I327)*3</f>
-        <v>4.1156249999999996</v>
+        <f>SUMIF($F$2:$F330, $G333, I$2:I330)/SUMIF($F$2:$F330, $G333, Q$2:Q330)</f>
+        <v>1.3679245283018868</v>
       </c>
       <c r="J333" s="5">
-        <f>AVERAGE(J$2:J327)*3</f>
-        <v>3.3970588235294117</v>
+        <f>SUMIF($F$2:$F330, $G333, J$2:J330)/SUMIF($F$2:$F330, $G333, R$2:R330)</f>
+        <v>0.90909090909090906</v>
       </c>
       <c r="K333" s="5">
-        <f>AVERAGE(K$2:K327)*3</f>
-        <v>3</v>
+        <f>SUMIF($F$2:$F330, $G333, K$2:K330)/SUMIF($F$2:$F330, $G333, S$2:S330)</f>
+        <v>1.263157894736842</v>
       </c>
       <c r="L333" s="5">
-        <f>AVERAGE(L$2:L327)*3</f>
-        <v>1</v>
+        <f>SUMIF($F$2:$F330, $G333, L$2:L330)/SUMIF($F$2:$F330, $G333, T$2:T330)</f>
+        <v>0</v>
       </c>
       <c r="M333" s="5">
-        <f>AVERAGE(M$2:M327)*3</f>
+        <f>SUMIF($F$2:$F330, $G333, M$2:M330)/SUMIF($F$2:$F330, $G333, U$2:U330)</f>
         <v>1.5</v>
       </c>
       <c r="N333" s="5">
-        <f>AVERAGE(N$2:N327)*3</f>
-        <v>2</v>
+        <f>SUMIF($F$2:$F330, $G333, N$2:N330)/SUMIF($F$2:$F330, $G333, V$2:V330)</f>
+        <v>1</v>
       </c>
       <c r="P333" s="5"/>
       <c r="Q333" s="5"/>
@@ -32315,144 +32335,189 @@
       <c r="T333" s="5"/>
       <c r="U333" s="5"/>
       <c r="V333" s="5"/>
+      <c r="W333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X333" s="1">
+        <f xml:space="preserve"> COUNTIF(W2:W330,W333)</f>
+        <v>77</v>
+      </c>
+      <c r="Y333" s="6">
+        <f>X333/SUM(X333:X334)</f>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25">
+      <c r="A334" s="11"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="1">
+        <v>3</v>
+      </c>
+      <c r="H334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, H$2:H331)/SUMIF($F$2:$F331, $G334, P$2:P331)</f>
+        <v>2.5353535353535355</v>
+      </c>
+      <c r="I334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, I$2:I331)/SUMIF($F$2:$F331, $G334, Q$2:Q331)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, J$2:J331)/SUMIF($F$2:$F331, $G334, R$2:R331)</f>
+        <v>1.4</v>
+      </c>
+      <c r="K334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, K$2:K331)/SUMIF($F$2:$F331, $G334, S$2:S331)</f>
+        <v>1</v>
+      </c>
+      <c r="L334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, L$2:L331)/SUMIF($F$2:$F331, $G334, T$2:T331)</f>
+        <v>1</v>
+      </c>
+      <c r="M334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, M$2:M331)/SUMIF($F$2:$F331, $G334, U$2:U331)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N334" s="5">
+        <f>SUMIF($F$2:$F331, $G334, N$2:N331)/SUMIF($F$2:$F331, $G334, V$2:V331)</f>
+        <v>1</v>
+      </c>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="5"/>
+      <c r="V334" s="5"/>
+      <c r="W334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X334" s="1">
+        <f xml:space="preserve"> COUNTIF(W3:W330,W334)</f>
+        <v>21</v>
+      </c>
+      <c r="Y334" s="6">
+        <f>X334/SUM(X333:X334)</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25">
+      <c r="A335" s="11"/>
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H335" s="5">
+        <f>IF(SUMIF($F$2:$F332, $G335, P$2:P332) = 0, "", SUMIF($F$2:$F332, $G335, H$2:H332)/SUMIF($F$2:$F332, $G335, P$2:P332))</f>
+        <v>4</v>
+      </c>
+      <c r="I335" s="5">
+        <f>IF(SUMIF($F$2:$F332, $G335, Q$2:Q332) = 0, "", SUMIF($F$2:$F332, $G335, I$2:I332)/SUMIF($F$2:$F332, $G335, Q$2:Q332))</f>
+        <v>2.5</v>
+      </c>
+      <c r="J335" s="5">
+        <f>IF(SUMIF($F$2:$F332, $G335, R$2:R332) = 0, "", SUMIF($F$2:$F332, $G335, J$2:J332)/SUMIF($F$2:$F332, $G335, R$2:R332))</f>
+        <v>2</v>
+      </c>
+      <c r="K335" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F332, $G335, S$2:S332) = 0, "", SUMIF($F$2:$F332, $G335, K$2:K332)/SUMIF($F$2:$F332, $G335, S$2:S332))</f>
+        <v/>
+      </c>
+      <c r="L335" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F332, $G335, T$2:T332) = 0, "", SUMIF($F$2:$F332, $G335, L$2:L332)/SUMIF($F$2:$F332, $G335, T$2:T332))</f>
+        <v/>
+      </c>
+      <c r="M335" s="5">
+        <f>IF(SUMIF($F$2:$F332, $G335, U$2:U332) = 0, "", SUMIF($F$2:$F332, $G335, M$2:M332)/SUMIF($F$2:$F332, $G335, U$2:U332))</f>
+        <v>0</v>
+      </c>
+      <c r="N335" s="5" t="str">
+        <f>IF(SUMIF($F$2:$F332, $G335, V$2:V332) = 0, "", SUMIF($F$2:$F332, $G335, N$2:N332)/SUMIF($F$2:$F332, $G335, V$2:V332))</f>
+        <v/>
+      </c>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
+      <c r="R335" s="5"/>
+      <c r="S335" s="5"/>
+      <c r="T335" s="5"/>
+      <c r="U335" s="5"/>
+      <c r="V335" s="5"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="G336" s="7" t="s">
+      <c r="A336" s="11"/>
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
+      <c r="G336" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H336" s="5">
+        <f>AVERAGE(H$2:H330)*3</f>
+        <v>7.5596026490066226</v>
+      </c>
+      <c r="I336" s="5">
+        <f>AVERAGE(I$2:I330)*3</f>
+        <v>4.1238390092879262</v>
+      </c>
+      <c r="J336" s="5">
+        <f>AVERAGE(J$2:J330)*3</f>
+        <v>3.3970588235294117</v>
+      </c>
+      <c r="K336" s="5">
+        <f>AVERAGE(K$2:K330)*3</f>
+        <v>3</v>
+      </c>
+      <c r="L336" s="5">
+        <f>AVERAGE(L$2:L330)*3</f>
+        <v>1</v>
+      </c>
+      <c r="M336" s="5">
+        <f>AVERAGE(M$2:M330)*3</f>
+        <v>1.5</v>
+      </c>
+      <c r="N336" s="5">
+        <f>AVERAGE(N$2:N330)*3</f>
+        <v>2</v>
+      </c>
+      <c r="P336" s="5"/>
+      <c r="Q336" s="5"/>
+      <c r="R336" s="5"/>
+      <c r="S336" s="5"/>
+      <c r="T336" s="5"/>
+      <c r="U336" s="5"/>
+      <c r="V336" s="5"/>
+    </row>
+    <row r="339" spans="1:35">
+      <c r="G339" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H336" t="s">
+      <c r="H339" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="337" spans="1:35">
-      <c r="G337" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H337" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="338" spans="1:35">
-      <c r="G338" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H338" t="s">
-        <v>16</v>
-      </c>
-      <c r="O338"/>
-      <c r="P338"/>
-      <c r="Q338"/>
-      <c r="R338"/>
-      <c r="S338"/>
-      <c r="T338"/>
-      <c r="U338"/>
-      <c r="V338"/>
-      <c r="W338"/>
-      <c r="X338"/>
-      <c r="Y338"/>
-      <c r="Z338"/>
-      <c r="AA338"/>
-      <c r="AB338"/>
-      <c r="AC338"/>
-      <c r="AD338"/>
-      <c r="AE338"/>
-      <c r="AF338"/>
-      <c r="AG338"/>
-      <c r="AH338"/>
-      <c r="AI338"/>
-    </row>
-    <row r="339" spans="1:35">
-      <c r="O339"/>
-      <c r="P339"/>
-      <c r="Q339"/>
-      <c r="R339"/>
-      <c r="S339"/>
-      <c r="T339"/>
-      <c r="U339"/>
-      <c r="V339"/>
-      <c r="W339"/>
-      <c r="X339"/>
-      <c r="Y339"/>
-      <c r="Z339"/>
-      <c r="AA339"/>
-      <c r="AB339"/>
-      <c r="AC339"/>
-      <c r="AD339"/>
-      <c r="AE339"/>
-      <c r="AF339"/>
-      <c r="AG339"/>
-      <c r="AH339"/>
-      <c r="AI339"/>
     </row>
     <row r="340" spans="1:35">
       <c r="G340" s="7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H340" t="s">
-        <v>63</v>
-      </c>
-      <c r="I340" t="s">
-        <v>64</v>
-      </c>
-      <c r="J340" t="s">
-        <v>65</v>
-      </c>
-      <c r="K340" t="s">
-        <v>66</v>
-      </c>
-      <c r="L340" t="s">
-        <v>67</v>
-      </c>
-      <c r="M340" t="s">
-        <v>68</v>
-      </c>
-      <c r="N340" t="s">
-        <v>69</v>
-      </c>
-      <c r="O340"/>
-      <c r="P340"/>
-      <c r="Q340"/>
-      <c r="R340"/>
-      <c r="S340"/>
-      <c r="T340"/>
-      <c r="U340"/>
-      <c r="V340"/>
-      <c r="W340"/>
-      <c r="X340"/>
-      <c r="Y340"/>
-      <c r="Z340"/>
-      <c r="AA340"/>
-      <c r="AB340"/>
-      <c r="AC340"/>
-      <c r="AD340"/>
-      <c r="AE340"/>
-      <c r="AF340"/>
-      <c r="AG340"/>
-      <c r="AH340"/>
-      <c r="AI340"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="341" spans="1:35">
-      <c r="G341" s="8">
-        <v>1</v>
-      </c>
-      <c r="H341" s="9">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="I341" s="9">
-        <v>1.3220338983050848</v>
-      </c>
-      <c r="J341" s="9">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="K341" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="L341" s="9"/>
-      <c r="M341">
-        <v>0</v>
-      </c>
-      <c r="N341" s="9">
-        <v>1</v>
+      <c r="G341" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H341" t="s">
+        <v>16</v>
       </c>
       <c r="O341"/>
       <c r="P341"/>
@@ -32477,28 +32542,6 @@
       <c r="AI341"/>
     </row>
     <row r="342" spans="1:35">
-      <c r="G342" s="8">
-        <v>2</v>
-      </c>
-      <c r="H342" s="9">
-        <v>2.574074074074074</v>
-      </c>
-      <c r="I342" s="9">
-        <v>1.4576271186440677</v>
-      </c>
-      <c r="J342" s="9">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="K342" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="L342" s="9"/>
-      <c r="M342">
-        <v>0</v>
-      </c>
-      <c r="N342" s="9">
-        <v>1</v>
-      </c>
       <c r="O342"/>
       <c r="P342"/>
       <c r="Q342"/>
@@ -32516,29 +32559,35 @@
       <c r="AC342"/>
       <c r="AD342"/>
       <c r="AE342"/>
+      <c r="AF342"/>
+      <c r="AG342"/>
+      <c r="AH342"/>
+      <c r="AI342"/>
     </row>
     <row r="343" spans="1:35">
-      <c r="G343" s="8">
-        <v>3</v>
-      </c>
-      <c r="H343" s="9">
-        <v>2.8518518518518516</v>
-      </c>
-      <c r="I343" s="9">
-        <v>1.6440677966101696</v>
-      </c>
-      <c r="J343" s="9">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K343" s="9">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L343" s="9"/>
-      <c r="M343">
-        <v>0</v>
-      </c>
-      <c r="N343" s="9">
-        <v>0</v>
+      <c r="G343" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H343" t="s">
+        <v>63</v>
+      </c>
+      <c r="I343" t="s">
+        <v>64</v>
+      </c>
+      <c r="J343" t="s">
+        <v>65</v>
+      </c>
+      <c r="K343" t="s">
+        <v>66</v>
+      </c>
+      <c r="L343" t="s">
+        <v>67</v>
+      </c>
+      <c r="M343" t="s">
+        <v>68</v>
+      </c>
+      <c r="N343" t="s">
+        <v>69</v>
       </c>
       <c r="O343"/>
       <c r="P343"/>
@@ -32557,30 +32606,34 @@
       <c r="AC343"/>
       <c r="AD343"/>
       <c r="AE343"/>
+      <c r="AF343"/>
+      <c r="AG343"/>
+      <c r="AH343"/>
+      <c r="AI343"/>
     </row>
     <row r="344" spans="1:35">
-      <c r="A344"/>
-      <c r="B344"/>
-      <c r="C344"/>
-      <c r="D344"/>
-      <c r="E344"/>
-      <c r="F344"/>
-      <c r="G344" s="8" t="s">
-        <v>41</v>
+      <c r="G344" s="8">
+        <v>1</v>
       </c>
       <c r="H344" s="9">
-        <v>3</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="I344" s="9">
-        <v>2.25</v>
+        <v>1.3220338983050848</v>
       </c>
       <c r="J344" s="9">
-        <v>2</v>
-      </c>
-      <c r="K344" s="9"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="K344" s="9">
+        <v>0.75</v>
+      </c>
       <c r="L344" s="9"/>
-      <c r="M344"/>
-      <c r="N344" s="9"/>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344" s="9">
+        <v>1</v>
+      </c>
       <c r="O344"/>
       <c r="P344"/>
       <c r="Q344"/>
@@ -32598,35 +32651,33 @@
       <c r="AC344"/>
       <c r="AD344"/>
       <c r="AE344"/>
+      <c r="AF344"/>
+      <c r="AG344"/>
+      <c r="AH344"/>
+      <c r="AI344"/>
     </row>
     <row r="345" spans="1:35">
-      <c r="A345"/>
-      <c r="B345"/>
-      <c r="C345"/>
-      <c r="D345"/>
-      <c r="E345"/>
-      <c r="F345"/>
-      <c r="G345" s="8" t="s">
-        <v>55</v>
+      <c r="G345" s="8">
+        <v>2</v>
       </c>
       <c r="H345" s="9">
-        <v>2.6646341463414633</v>
+        <v>2.574074074074074</v>
       </c>
       <c r="I345" s="9">
-        <v>1.4917127071823204</v>
+        <v>1.4576271186440677</v>
       </c>
       <c r="J345" s="9">
-        <v>1.4736842105263157</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K345" s="9">
-        <v>1.0555555555555556</v>
+        <v>1.25</v>
       </c>
       <c r="L345" s="9"/>
       <c r="M345">
         <v>0</v>
       </c>
       <c r="N345" s="9">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O345"/>
       <c r="P345"/>
@@ -32647,20 +32698,28 @@
       <c r="AE345"/>
     </row>
     <row r="346" spans="1:35">
-      <c r="A346"/>
-      <c r="B346"/>
-      <c r="C346"/>
-      <c r="D346"/>
-      <c r="E346"/>
-      <c r="F346"/>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
-      <c r="L346"/>
-      <c r="M346"/>
-      <c r="N346"/>
+      <c r="G346" s="8">
+        <v>3</v>
+      </c>
+      <c r="H346" s="9">
+        <v>2.8518518518518516</v>
+      </c>
+      <c r="I346" s="9">
+        <v>1.6440677966101696</v>
+      </c>
+      <c r="J346" s="9">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K346" s="9">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L346" s="9"/>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346" s="9">
+        <v>0</v>
+      </c>
       <c r="O346"/>
       <c r="P346"/>
       <c r="Q346"/>
@@ -32686,14 +32745,22 @@
       <c r="D347"/>
       <c r="E347"/>
       <c r="F347"/>
-      <c r="G347"/>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
-      <c r="K347"/>
-      <c r="L347"/>
+      <c r="G347" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H347" s="9">
+        <v>3</v>
+      </c>
+      <c r="I347" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="J347" s="9">
+        <v>2</v>
+      </c>
+      <c r="K347" s="9"/>
+      <c r="L347" s="9"/>
       <c r="M347"/>
-      <c r="N347"/>
+      <c r="N347" s="9"/>
       <c r="O347"/>
       <c r="P347"/>
       <c r="Q347"/>
@@ -32719,14 +32786,28 @@
       <c r="D348"/>
       <c r="E348"/>
       <c r="F348"/>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
-      <c r="K348"/>
-      <c r="L348"/>
-      <c r="M348"/>
-      <c r="N348"/>
+      <c r="G348" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H348" s="9">
+        <v>2.6646341463414633</v>
+      </c>
+      <c r="I348" s="9">
+        <v>1.4917127071823204</v>
+      </c>
+      <c r="J348" s="9">
+        <v>1.4736842105263157</v>
+      </c>
+      <c r="K348" s="9">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="L348" s="9"/>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="O348"/>
       <c r="P348"/>
       <c r="Q348"/>
@@ -32871,8 +32952,13 @@
       <c r="X352"/>
       <c r="Y352"/>
       <c r="Z352"/>
-    </row>
-    <row r="353" spans="1:26">
+      <c r="AA352"/>
+      <c r="AB352"/>
+      <c r="AC352"/>
+      <c r="AD352"/>
+      <c r="AE352"/>
+    </row>
+    <row r="353" spans="1:31">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
@@ -32899,8 +32985,13 @@
       <c r="X353"/>
       <c r="Y353"/>
       <c r="Z353"/>
-    </row>
-    <row r="354" spans="1:26">
+      <c r="AA353"/>
+      <c r="AB353"/>
+      <c r="AC353"/>
+      <c r="AD353"/>
+      <c r="AE353"/>
+    </row>
+    <row r="354" spans="1:31">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -32927,8 +33018,13 @@
       <c r="X354"/>
       <c r="Y354"/>
       <c r="Z354"/>
-    </row>
-    <row r="355" spans="1:26">
+      <c r="AA354"/>
+      <c r="AB354"/>
+      <c r="AC354"/>
+      <c r="AD354"/>
+      <c r="AE354"/>
+    </row>
+    <row r="355" spans="1:31">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
@@ -32956,7 +33052,7 @@
       <c r="Y355"/>
       <c r="Z355"/>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:31">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
@@ -32984,7 +33080,7 @@
       <c r="Y356"/>
       <c r="Z356"/>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:31">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
@@ -33012,7 +33108,7 @@
       <c r="Y357"/>
       <c r="Z357"/>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:31">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
@@ -33040,7 +33136,7 @@
       <c r="Y358"/>
       <c r="Z358"/>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:31">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
@@ -33068,7 +33164,7 @@
       <c r="Y359"/>
       <c r="Z359"/>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:31">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
@@ -33096,7 +33192,7 @@
       <c r="Y360"/>
       <c r="Z360"/>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:31">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
@@ -33124,7 +33220,7 @@
       <c r="Y361"/>
       <c r="Z361"/>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:31">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -33152,7 +33248,7 @@
       <c r="Y362"/>
       <c r="Z362"/>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:31">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
@@ -33180,7 +33276,7 @@
       <c r="Y363"/>
       <c r="Z363"/>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:31">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
@@ -33208,7 +33304,7 @@
       <c r="Y364"/>
       <c r="Z364"/>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:31">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
@@ -33236,7 +33332,7 @@
       <c r="Y365"/>
       <c r="Z365"/>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:31">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
@@ -33264,7 +33360,7 @@
       <c r="Y366"/>
       <c r="Z366"/>
     </row>
-    <row r="367" spans="1:26">
+    <row r="367" spans="1:31">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
@@ -33292,7 +33388,7 @@
       <c r="Y367"/>
       <c r="Z367"/>
     </row>
-    <row r="368" spans="1:26">
+    <row r="368" spans="1:31">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
@@ -34126,6 +34222,11 @@
       <c r="S397"/>
       <c r="T397"/>
       <c r="U397"/>
+      <c r="V397"/>
+      <c r="W397"/>
+      <c r="X397"/>
+      <c r="Y397"/>
+      <c r="Z397"/>
     </row>
     <row r="398" spans="1:26">
       <c r="A398"/>
@@ -34149,6 +34250,11 @@
       <c r="S398"/>
       <c r="T398"/>
       <c r="U398"/>
+      <c r="V398"/>
+      <c r="W398"/>
+      <c r="X398"/>
+      <c r="Y398"/>
+      <c r="Z398"/>
     </row>
     <row r="399" spans="1:26">
       <c r="A399"/>
@@ -34172,6 +34278,11 @@
       <c r="S399"/>
       <c r="T399"/>
       <c r="U399"/>
+      <c r="V399"/>
+      <c r="W399"/>
+      <c r="X399"/>
+      <c r="Y399"/>
+      <c r="Z399"/>
     </row>
     <row r="400" spans="1:26">
       <c r="A400"/>
@@ -35800,6 +35911,11 @@
       <c r="N470"/>
       <c r="O470"/>
       <c r="P470"/>
+      <c r="Q470"/>
+      <c r="R470"/>
+      <c r="S470"/>
+      <c r="T470"/>
+      <c r="U470"/>
     </row>
     <row r="471" spans="1:21">
       <c r="A471"/>
@@ -35818,6 +35934,11 @@
       <c r="N471"/>
       <c r="O471"/>
       <c r="P471"/>
+      <c r="Q471"/>
+      <c r="R471"/>
+      <c r="S471"/>
+      <c r="T471"/>
+      <c r="U471"/>
     </row>
     <row r="472" spans="1:21">
       <c r="A472"/>
@@ -35836,6 +35957,11 @@
       <c r="N472"/>
       <c r="O472"/>
       <c r="P472"/>
+      <c r="Q472"/>
+      <c r="R472"/>
+      <c r="S472"/>
+      <c r="T472"/>
+      <c r="U472"/>
     </row>
     <row r="473" spans="1:21">
       <c r="A473"/>
@@ -37613,6 +37739,11 @@
       <c r="I571"/>
       <c r="J571"/>
       <c r="K571"/>
+      <c r="L571"/>
+      <c r="M571"/>
+      <c r="N571"/>
+      <c r="O571"/>
+      <c r="P571"/>
     </row>
     <row r="572" spans="1:16">
       <c r="A572"/>
@@ -37626,6 +37757,11 @@
       <c r="I572"/>
       <c r="J572"/>
       <c r="K572"/>
+      <c r="L572"/>
+      <c r="M572"/>
+      <c r="N572"/>
+      <c r="O572"/>
+      <c r="P572"/>
     </row>
     <row r="573" spans="1:16">
       <c r="A573"/>
@@ -37639,6 +37775,11 @@
       <c r="I573"/>
       <c r="J573"/>
       <c r="K573"/>
+      <c r="L573"/>
+      <c r="M573"/>
+      <c r="N573"/>
+      <c r="O573"/>
+      <c r="P573"/>
     </row>
     <row r="574" spans="1:16">
       <c r="A574"/>
@@ -38921,24 +39062,39 @@
       <c r="D672"/>
       <c r="E672"/>
       <c r="F672"/>
-    </row>
-    <row r="673" spans="1:6">
+      <c r="G672"/>
+      <c r="H672"/>
+      <c r="I672"/>
+      <c r="J672"/>
+      <c r="K672"/>
+    </row>
+    <row r="673" spans="1:11">
       <c r="A673"/>
       <c r="B673"/>
       <c r="C673"/>
       <c r="D673"/>
       <c r="E673"/>
       <c r="F673"/>
-    </row>
-    <row r="674" spans="1:6">
+      <c r="G673"/>
+      <c r="H673"/>
+      <c r="I673"/>
+      <c r="J673"/>
+      <c r="K673"/>
+    </row>
+    <row r="674" spans="1:11">
       <c r="A674"/>
       <c r="B674"/>
       <c r="C674"/>
       <c r="D674"/>
       <c r="E674"/>
       <c r="F674"/>
-    </row>
-    <row r="675" spans="1:6">
+      <c r="G674"/>
+      <c r="H674"/>
+      <c r="I674"/>
+      <c r="J674"/>
+      <c r="K674"/>
+    </row>
+    <row r="675" spans="1:11">
       <c r="A675"/>
       <c r="B675"/>
       <c r="C675"/>
@@ -38946,7 +39102,7 @@
       <c r="E675"/>
       <c r="F675"/>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:11">
       <c r="A676"/>
       <c r="B676"/>
       <c r="C676"/>
@@ -38954,7 +39110,7 @@
       <c r="E676"/>
       <c r="F676"/>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:11">
       <c r="A677"/>
       <c r="B677"/>
       <c r="C677"/>
@@ -38962,7 +39118,7 @@
       <c r="E677"/>
       <c r="F677"/>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:11">
       <c r="A678"/>
       <c r="B678"/>
       <c r="C678"/>
@@ -38970,7 +39126,7 @@
       <c r="E678"/>
       <c r="F678"/>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:11">
       <c r="A679"/>
       <c r="B679"/>
       <c r="C679"/>
@@ -38978,7 +39134,7 @@
       <c r="E679"/>
       <c r="F679"/>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:11">
       <c r="A680"/>
       <c r="B680"/>
       <c r="C680"/>
@@ -38986,7 +39142,7 @@
       <c r="E680"/>
       <c r="F680"/>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:11">
       <c r="A681"/>
       <c r="B681"/>
       <c r="C681"/>
@@ -38994,7 +39150,7 @@
       <c r="E681"/>
       <c r="F681"/>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:11">
       <c r="A682"/>
       <c r="B682"/>
       <c r="C682"/>
@@ -39002,7 +39158,7 @@
       <c r="E682"/>
       <c r="F682"/>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:11">
       <c r="A683"/>
       <c r="B683"/>
       <c r="C683"/>
@@ -39010,7 +39166,7 @@
       <c r="E683"/>
       <c r="F683"/>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:11">
       <c r="A684"/>
       <c r="B684"/>
       <c r="C684"/>
@@ -39018,7 +39174,7 @@
       <c r="E684"/>
       <c r="F684"/>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:11">
       <c r="A685"/>
       <c r="B685"/>
       <c r="C685"/>
@@ -39026,7 +39182,7 @@
       <c r="E685"/>
       <c r="F685"/>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:11">
       <c r="A686"/>
       <c r="B686"/>
       <c r="C686"/>
@@ -39034,7 +39190,7 @@
       <c r="E686"/>
       <c r="F686"/>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:11">
       <c r="A687"/>
       <c r="B687"/>
       <c r="C687"/>
@@ -39042,7 +39198,7 @@
       <c r="E687"/>
       <c r="F687"/>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:11">
       <c r="A688"/>
       <c r="B688"/>
       <c r="C688"/>
@@ -40642,8 +40798,330 @@
       <c r="E887"/>
       <c r="F887"/>
     </row>
+    <row r="888" spans="1:6">
+      <c r="A888"/>
+      <c r="B888"/>
+      <c r="C888"/>
+      <c r="D888"/>
+      <c r="E888"/>
+      <c r="F888"/>
+    </row>
+    <row r="889" spans="1:6">
+      <c r="A889"/>
+      <c r="B889"/>
+      <c r="C889"/>
+      <c r="D889"/>
+      <c r="E889"/>
+      <c r="F889"/>
+    </row>
+    <row r="890" spans="1:6">
+      <c r="A890"/>
+      <c r="B890"/>
+      <c r="C890"/>
+      <c r="D890"/>
+      <c r="E890"/>
+      <c r="F890"/>
+    </row>
   </sheetData>
-  <mergeCells count="319">
+  <mergeCells count="322">
+    <mergeCell ref="W327:W329"/>
+    <mergeCell ref="X327:X329"/>
+    <mergeCell ref="Y327:Y329"/>
+    <mergeCell ref="W318:W320"/>
+    <mergeCell ref="X318:X320"/>
+    <mergeCell ref="Y318:Y320"/>
+    <mergeCell ref="W312:W314"/>
+    <mergeCell ref="X312:X314"/>
+    <mergeCell ref="Y312:Y314"/>
+    <mergeCell ref="W309:W311"/>
+    <mergeCell ref="X309:X311"/>
+    <mergeCell ref="Y309:Y311"/>
+    <mergeCell ref="W315:W317"/>
+    <mergeCell ref="X315:X317"/>
+    <mergeCell ref="Y315:Y317"/>
+    <mergeCell ref="W303:W305"/>
+    <mergeCell ref="X303:X305"/>
+    <mergeCell ref="Y303:Y305"/>
+    <mergeCell ref="W296:W299"/>
+    <mergeCell ref="X296:X299"/>
+    <mergeCell ref="Y296:Y299"/>
+    <mergeCell ref="W306:W308"/>
+    <mergeCell ref="X306:X308"/>
+    <mergeCell ref="Y306:Y308"/>
+    <mergeCell ref="W300:W302"/>
+    <mergeCell ref="X300:X302"/>
+    <mergeCell ref="Y300:Y302"/>
+    <mergeCell ref="W290:W292"/>
+    <mergeCell ref="X290:X292"/>
+    <mergeCell ref="Y290:Y292"/>
+    <mergeCell ref="W284:W286"/>
+    <mergeCell ref="X284:X286"/>
+    <mergeCell ref="Y284:Y286"/>
+    <mergeCell ref="W293:W295"/>
+    <mergeCell ref="X293:X295"/>
+    <mergeCell ref="Y293:Y295"/>
+    <mergeCell ref="W278:W280"/>
+    <mergeCell ref="X278:X280"/>
+    <mergeCell ref="Y278:Y280"/>
+    <mergeCell ref="W287:W289"/>
+    <mergeCell ref="X287:X289"/>
+    <mergeCell ref="Y287:Y289"/>
+    <mergeCell ref="W272:W274"/>
+    <mergeCell ref="X272:X274"/>
+    <mergeCell ref="Y272:Y274"/>
+    <mergeCell ref="W281:W283"/>
+    <mergeCell ref="X281:X283"/>
+    <mergeCell ref="Y281:Y283"/>
+    <mergeCell ref="X164:X166"/>
+    <mergeCell ref="Y164:Y166"/>
+    <mergeCell ref="W263:W265"/>
+    <mergeCell ref="X263:X265"/>
+    <mergeCell ref="Y263:Y265"/>
+    <mergeCell ref="W266:W268"/>
+    <mergeCell ref="X266:X268"/>
+    <mergeCell ref="Y266:Y268"/>
+    <mergeCell ref="W275:W277"/>
+    <mergeCell ref="X275:X277"/>
+    <mergeCell ref="Y275:Y277"/>
+    <mergeCell ref="Y201:Y203"/>
+    <mergeCell ref="W204:W206"/>
+    <mergeCell ref="X204:X206"/>
+    <mergeCell ref="Y204:Y206"/>
+    <mergeCell ref="Y190:Y192"/>
+    <mergeCell ref="Y247:Y249"/>
+    <mergeCell ref="X253:X255"/>
+    <mergeCell ref="Y253:Y255"/>
+    <mergeCell ref="W225:W227"/>
+    <mergeCell ref="X225:X227"/>
+    <mergeCell ref="Y225:Y227"/>
+    <mergeCell ref="W216:W218"/>
+    <mergeCell ref="X216:X218"/>
+    <mergeCell ref="W146:W148"/>
+    <mergeCell ref="X146:X148"/>
+    <mergeCell ref="Y146:Y148"/>
+    <mergeCell ref="W149:W151"/>
+    <mergeCell ref="X149:X151"/>
+    <mergeCell ref="X181:X183"/>
+    <mergeCell ref="Y181:Y183"/>
+    <mergeCell ref="Y149:Y151"/>
+    <mergeCell ref="W152:W154"/>
+    <mergeCell ref="X152:X154"/>
+    <mergeCell ref="Y152:Y154"/>
+    <mergeCell ref="W155:W157"/>
+    <mergeCell ref="X155:X157"/>
+    <mergeCell ref="Y155:Y157"/>
+    <mergeCell ref="Y158:Y160"/>
+    <mergeCell ref="W167:W169"/>
+    <mergeCell ref="X167:X169"/>
+    <mergeCell ref="Y167:Y169"/>
+    <mergeCell ref="W161:W163"/>
+    <mergeCell ref="X161:X163"/>
+    <mergeCell ref="Y161:Y163"/>
+    <mergeCell ref="W158:W160"/>
+    <mergeCell ref="X158:X160"/>
+    <mergeCell ref="W164:W166"/>
+    <mergeCell ref="Y116:Y118"/>
+    <mergeCell ref="W122:W124"/>
+    <mergeCell ref="Y122:Y124"/>
+    <mergeCell ref="Y137:Y139"/>
+    <mergeCell ref="W140:W142"/>
+    <mergeCell ref="X140:X142"/>
+    <mergeCell ref="Y140:Y142"/>
+    <mergeCell ref="Y131:Y133"/>
+    <mergeCell ref="Y134:Y136"/>
+    <mergeCell ref="W125:W127"/>
+    <mergeCell ref="X125:X127"/>
+    <mergeCell ref="Y125:Y127"/>
+    <mergeCell ref="X122:X124"/>
+    <mergeCell ref="W128:W130"/>
+    <mergeCell ref="X128:X130"/>
+    <mergeCell ref="Y128:Y130"/>
+    <mergeCell ref="W137:W139"/>
+    <mergeCell ref="X137:X139"/>
+    <mergeCell ref="W131:W133"/>
+    <mergeCell ref="X131:X133"/>
+    <mergeCell ref="W134:W136"/>
+    <mergeCell ref="X134:X136"/>
+    <mergeCell ref="W143:W145"/>
+    <mergeCell ref="X143:X145"/>
+    <mergeCell ref="Y143:Y145"/>
+    <mergeCell ref="Y89:Y91"/>
+    <mergeCell ref="Y92:Y94"/>
+    <mergeCell ref="Y95:Y97"/>
+    <mergeCell ref="Y98:Y100"/>
+    <mergeCell ref="Y101:Y103"/>
+    <mergeCell ref="Y119:Y121"/>
+    <mergeCell ref="W116:W118"/>
+    <mergeCell ref="X116:X118"/>
+    <mergeCell ref="W104:W106"/>
+    <mergeCell ref="X104:X106"/>
+    <mergeCell ref="W107:W109"/>
+    <mergeCell ref="X107:X109"/>
+    <mergeCell ref="W110:W112"/>
+    <mergeCell ref="X110:X112"/>
+    <mergeCell ref="W113:W115"/>
+    <mergeCell ref="X113:X115"/>
+    <mergeCell ref="W98:W100"/>
+    <mergeCell ref="X98:X100"/>
+    <mergeCell ref="W119:W121"/>
+    <mergeCell ref="X119:X121"/>
+    <mergeCell ref="Y104:Y106"/>
+    <mergeCell ref="Y107:Y109"/>
+    <mergeCell ref="Y110:Y112"/>
+    <mergeCell ref="Y113:Y115"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="W92:W94"/>
+    <mergeCell ref="W101:W103"/>
+    <mergeCell ref="X101:X103"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="W83:W85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="Y74:Y76"/>
+    <mergeCell ref="Y77:Y79"/>
+    <mergeCell ref="Y80:Y82"/>
+    <mergeCell ref="Y83:Y85"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="W95:W97"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Y56:Y58"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="Y59:Y61"/>
+    <mergeCell ref="Y62:Y64"/>
+    <mergeCell ref="Y65:Y67"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Y71:Y73"/>
+    <mergeCell ref="W89:W91"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="X92:X94"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="A332:F336"/>
+    <mergeCell ref="W170:W172"/>
+    <mergeCell ref="X170:X172"/>
+    <mergeCell ref="Y170:Y172"/>
+    <mergeCell ref="W173:W177"/>
+    <mergeCell ref="X173:X177"/>
+    <mergeCell ref="Y173:Y177"/>
+    <mergeCell ref="W178:W180"/>
+    <mergeCell ref="X178:X180"/>
+    <mergeCell ref="Y178:Y180"/>
+    <mergeCell ref="W181:W183"/>
+    <mergeCell ref="W187:W189"/>
+    <mergeCell ref="X187:X189"/>
+    <mergeCell ref="Y187:Y189"/>
+    <mergeCell ref="W190:W192"/>
+    <mergeCell ref="X190:X192"/>
+    <mergeCell ref="W193:W197"/>
+    <mergeCell ref="X193:X197"/>
+    <mergeCell ref="W228:W231"/>
+    <mergeCell ref="X228:X231"/>
+    <mergeCell ref="Y228:Y231"/>
+    <mergeCell ref="W184:W186"/>
+    <mergeCell ref="X184:X186"/>
+    <mergeCell ref="Y184:Y186"/>
+    <mergeCell ref="Y216:Y218"/>
+    <mergeCell ref="W219:W221"/>
+    <mergeCell ref="X219:X221"/>
+    <mergeCell ref="Y219:Y221"/>
+    <mergeCell ref="W222:W224"/>
+    <mergeCell ref="X222:X224"/>
+    <mergeCell ref="Y222:Y224"/>
+    <mergeCell ref="W207:W209"/>
+    <mergeCell ref="X207:X209"/>
+    <mergeCell ref="Y207:Y209"/>
+    <mergeCell ref="Y193:Y197"/>
+    <mergeCell ref="W198:W200"/>
+    <mergeCell ref="X198:X200"/>
+    <mergeCell ref="Y198:Y200"/>
+    <mergeCell ref="W241:W243"/>
+    <mergeCell ref="X241:X243"/>
+    <mergeCell ref="Y241:Y243"/>
+    <mergeCell ref="W238:W240"/>
+    <mergeCell ref="X238:X240"/>
+    <mergeCell ref="Y238:Y240"/>
+    <mergeCell ref="W235:W237"/>
+    <mergeCell ref="X235:X237"/>
+    <mergeCell ref="Y235:Y237"/>
+    <mergeCell ref="W210:W212"/>
+    <mergeCell ref="X210:X212"/>
+    <mergeCell ref="Y210:Y212"/>
+    <mergeCell ref="W213:W215"/>
+    <mergeCell ref="X213:X215"/>
+    <mergeCell ref="Y213:Y215"/>
+    <mergeCell ref="W201:W203"/>
+    <mergeCell ref="X201:X203"/>
+    <mergeCell ref="W232:W234"/>
+    <mergeCell ref="X232:X234"/>
+    <mergeCell ref="Y232:Y234"/>
     <mergeCell ref="W321:W323"/>
     <mergeCell ref="X321:X323"/>
     <mergeCell ref="Y321:Y323"/>
@@ -40668,303 +41146,8 @@
     <mergeCell ref="W259:W262"/>
     <mergeCell ref="X259:X262"/>
     <mergeCell ref="Y259:Y262"/>
-    <mergeCell ref="Y193:Y197"/>
-    <mergeCell ref="W198:W200"/>
-    <mergeCell ref="X198:X200"/>
-    <mergeCell ref="Y198:Y200"/>
-    <mergeCell ref="W241:W243"/>
-    <mergeCell ref="X241:X243"/>
-    <mergeCell ref="Y241:Y243"/>
-    <mergeCell ref="W238:W240"/>
-    <mergeCell ref="X238:X240"/>
-    <mergeCell ref="Y238:Y240"/>
-    <mergeCell ref="W235:W237"/>
-    <mergeCell ref="X235:X237"/>
-    <mergeCell ref="Y235:Y237"/>
-    <mergeCell ref="W210:W212"/>
-    <mergeCell ref="X210:X212"/>
-    <mergeCell ref="Y210:Y212"/>
-    <mergeCell ref="W213:W215"/>
-    <mergeCell ref="X213:X215"/>
-    <mergeCell ref="Y213:Y215"/>
-    <mergeCell ref="W201:W203"/>
-    <mergeCell ref="X201:X203"/>
-    <mergeCell ref="W232:W234"/>
-    <mergeCell ref="X232:X234"/>
-    <mergeCell ref="Y232:Y234"/>
-    <mergeCell ref="Y216:Y218"/>
-    <mergeCell ref="W219:W221"/>
-    <mergeCell ref="X219:X221"/>
-    <mergeCell ref="Y219:Y221"/>
-    <mergeCell ref="W222:W224"/>
-    <mergeCell ref="X222:X224"/>
-    <mergeCell ref="Y222:Y224"/>
-    <mergeCell ref="W207:W209"/>
-    <mergeCell ref="X207:X209"/>
-    <mergeCell ref="Y207:Y209"/>
-    <mergeCell ref="A329:F333"/>
-    <mergeCell ref="W170:W172"/>
-    <mergeCell ref="X170:X172"/>
-    <mergeCell ref="Y170:Y172"/>
-    <mergeCell ref="W173:W177"/>
-    <mergeCell ref="X173:X177"/>
-    <mergeCell ref="Y173:Y177"/>
-    <mergeCell ref="W178:W180"/>
-    <mergeCell ref="X178:X180"/>
-    <mergeCell ref="Y178:Y180"/>
-    <mergeCell ref="W181:W183"/>
-    <mergeCell ref="W187:W189"/>
-    <mergeCell ref="X187:X189"/>
-    <mergeCell ref="Y187:Y189"/>
-    <mergeCell ref="W190:W192"/>
-    <mergeCell ref="X190:X192"/>
-    <mergeCell ref="W193:W197"/>
-    <mergeCell ref="X193:X197"/>
-    <mergeCell ref="W228:W231"/>
-    <mergeCell ref="X228:X231"/>
-    <mergeCell ref="Y228:Y231"/>
-    <mergeCell ref="W184:W186"/>
-    <mergeCell ref="X184:X186"/>
-    <mergeCell ref="Y184:Y186"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Y71:Y73"/>
-    <mergeCell ref="W89:W91"/>
-    <mergeCell ref="X89:X91"/>
-    <mergeCell ref="X92:X94"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Y56:Y58"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="Y59:Y61"/>
-    <mergeCell ref="Y62:Y64"/>
-    <mergeCell ref="Y65:Y67"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y107:Y109"/>
-    <mergeCell ref="Y110:Y112"/>
-    <mergeCell ref="Y113:Y115"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="W101:W103"/>
-    <mergeCell ref="X101:X103"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="W83:W85"/>
-    <mergeCell ref="X83:X85"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="Y74:Y76"/>
-    <mergeCell ref="Y77:Y79"/>
-    <mergeCell ref="Y80:Y82"/>
-    <mergeCell ref="Y83:Y85"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="W95:W97"/>
-    <mergeCell ref="X95:X97"/>
-    <mergeCell ref="W143:W145"/>
-    <mergeCell ref="X143:X145"/>
-    <mergeCell ref="Y143:Y145"/>
-    <mergeCell ref="Y89:Y91"/>
-    <mergeCell ref="Y92:Y94"/>
-    <mergeCell ref="Y95:Y97"/>
-    <mergeCell ref="Y98:Y100"/>
-    <mergeCell ref="Y101:Y103"/>
-    <mergeCell ref="Y119:Y121"/>
-    <mergeCell ref="W116:W118"/>
-    <mergeCell ref="X116:X118"/>
-    <mergeCell ref="W104:W106"/>
-    <mergeCell ref="X104:X106"/>
-    <mergeCell ref="W107:W109"/>
-    <mergeCell ref="X107:X109"/>
-    <mergeCell ref="W110:W112"/>
-    <mergeCell ref="X110:X112"/>
-    <mergeCell ref="W113:W115"/>
-    <mergeCell ref="X113:X115"/>
-    <mergeCell ref="W98:W100"/>
-    <mergeCell ref="X98:X100"/>
-    <mergeCell ref="W119:W121"/>
-    <mergeCell ref="X119:X121"/>
-    <mergeCell ref="Y104:Y106"/>
-    <mergeCell ref="Y116:Y118"/>
-    <mergeCell ref="W122:W124"/>
-    <mergeCell ref="Y122:Y124"/>
-    <mergeCell ref="Y137:Y139"/>
-    <mergeCell ref="W140:W142"/>
-    <mergeCell ref="X140:X142"/>
-    <mergeCell ref="Y140:Y142"/>
-    <mergeCell ref="Y131:Y133"/>
-    <mergeCell ref="Y134:Y136"/>
-    <mergeCell ref="W125:W127"/>
-    <mergeCell ref="X125:X127"/>
-    <mergeCell ref="Y125:Y127"/>
-    <mergeCell ref="X122:X124"/>
-    <mergeCell ref="W128:W130"/>
-    <mergeCell ref="X128:X130"/>
-    <mergeCell ref="Y128:Y130"/>
-    <mergeCell ref="W137:W139"/>
-    <mergeCell ref="X137:X139"/>
-    <mergeCell ref="W131:W133"/>
-    <mergeCell ref="X131:X133"/>
-    <mergeCell ref="W134:W136"/>
-    <mergeCell ref="X134:X136"/>
-    <mergeCell ref="W146:W148"/>
-    <mergeCell ref="X146:X148"/>
-    <mergeCell ref="Y146:Y148"/>
-    <mergeCell ref="W149:W151"/>
-    <mergeCell ref="X149:X151"/>
-    <mergeCell ref="X181:X183"/>
-    <mergeCell ref="Y181:Y183"/>
-    <mergeCell ref="Y149:Y151"/>
-    <mergeCell ref="W152:W154"/>
-    <mergeCell ref="X152:X154"/>
-    <mergeCell ref="Y152:Y154"/>
-    <mergeCell ref="W155:W157"/>
-    <mergeCell ref="X155:X157"/>
-    <mergeCell ref="Y155:Y157"/>
-    <mergeCell ref="Y158:Y160"/>
-    <mergeCell ref="W167:W169"/>
-    <mergeCell ref="X167:X169"/>
-    <mergeCell ref="Y167:Y169"/>
-    <mergeCell ref="W161:W163"/>
-    <mergeCell ref="X161:X163"/>
-    <mergeCell ref="Y161:Y163"/>
-    <mergeCell ref="W158:W160"/>
-    <mergeCell ref="X158:X160"/>
-    <mergeCell ref="W164:W166"/>
-    <mergeCell ref="X164:X166"/>
-    <mergeCell ref="Y164:Y166"/>
-    <mergeCell ref="W263:W265"/>
-    <mergeCell ref="X263:X265"/>
-    <mergeCell ref="Y263:Y265"/>
-    <mergeCell ref="W266:W268"/>
-    <mergeCell ref="X266:X268"/>
-    <mergeCell ref="Y266:Y268"/>
-    <mergeCell ref="W275:W277"/>
-    <mergeCell ref="X275:X277"/>
-    <mergeCell ref="Y275:Y277"/>
-    <mergeCell ref="Y201:Y203"/>
-    <mergeCell ref="W204:W206"/>
-    <mergeCell ref="X204:X206"/>
-    <mergeCell ref="Y204:Y206"/>
-    <mergeCell ref="Y190:Y192"/>
-    <mergeCell ref="Y247:Y249"/>
-    <mergeCell ref="X253:X255"/>
-    <mergeCell ref="Y253:Y255"/>
-    <mergeCell ref="W225:W227"/>
-    <mergeCell ref="X225:X227"/>
-    <mergeCell ref="Y225:Y227"/>
-    <mergeCell ref="W216:W218"/>
-    <mergeCell ref="X216:X218"/>
-    <mergeCell ref="W278:W280"/>
-    <mergeCell ref="X278:X280"/>
-    <mergeCell ref="Y278:Y280"/>
-    <mergeCell ref="W287:W289"/>
-    <mergeCell ref="X287:X289"/>
-    <mergeCell ref="Y287:Y289"/>
-    <mergeCell ref="W272:W274"/>
-    <mergeCell ref="X272:X274"/>
-    <mergeCell ref="Y272:Y274"/>
-    <mergeCell ref="W281:W283"/>
-    <mergeCell ref="X281:X283"/>
-    <mergeCell ref="Y281:Y283"/>
-    <mergeCell ref="W290:W292"/>
-    <mergeCell ref="X290:X292"/>
-    <mergeCell ref="Y290:Y292"/>
-    <mergeCell ref="W284:W286"/>
-    <mergeCell ref="X284:X286"/>
-    <mergeCell ref="Y284:Y286"/>
-    <mergeCell ref="W293:W295"/>
-    <mergeCell ref="X293:X295"/>
-    <mergeCell ref="Y293:Y295"/>
-    <mergeCell ref="W303:W305"/>
-    <mergeCell ref="X303:X305"/>
-    <mergeCell ref="Y303:Y305"/>
-    <mergeCell ref="W296:W299"/>
-    <mergeCell ref="X296:X299"/>
-    <mergeCell ref="Y296:Y299"/>
-    <mergeCell ref="W306:W308"/>
-    <mergeCell ref="X306:X308"/>
-    <mergeCell ref="Y306:Y308"/>
-    <mergeCell ref="W300:W302"/>
-    <mergeCell ref="X300:X302"/>
-    <mergeCell ref="Y300:Y302"/>
-    <mergeCell ref="W318:W320"/>
-    <mergeCell ref="X318:X320"/>
-    <mergeCell ref="Y318:Y320"/>
-    <mergeCell ref="W312:W314"/>
-    <mergeCell ref="X312:X314"/>
-    <mergeCell ref="Y312:Y314"/>
-    <mergeCell ref="W309:W311"/>
-    <mergeCell ref="X309:X311"/>
-    <mergeCell ref="Y309:Y311"/>
-    <mergeCell ref="W315:W317"/>
-    <mergeCell ref="X315:X317"/>
-    <mergeCell ref="Y315:Y317"/>
   </mergeCells>
-  <conditionalFormatting sqref="H329:N332">
+  <conditionalFormatting sqref="H332:N335">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -40976,7 +41159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H333:N333">
+  <conditionalFormatting sqref="H336:N336">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -40994,13 +41177,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2B40FE-052D-8547-979C-A956FC17E5E1}">
-  <dimension ref="A1:S195"/>
+  <dimension ref="A1:S197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A196" sqref="A196"/>
+      <selection pane="bottomRight" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -41060,26 +41243,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A2, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A2, Scores!$E$2:$E$330, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A2, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A2, Scores!$F$2:$F$330, D$1)</f>
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A2, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A2, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A2, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A2, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A2, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C2, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A2, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -41111,26 +41294,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A3, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A3, Scores!$E$2:$E$330, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A3, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A3, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A3, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A3, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A3, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A3, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A3, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C3, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A3, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -41167,26 +41350,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A4, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A4, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A4, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A4, Scores!$F$2:$F$330, D$1)</f>
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A4, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A4, Scores!$F$2:$F$330, E$1)</f>
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A4, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A4, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A4, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C4, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A4, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -41223,26 +41406,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A5, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A5, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A5, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A5, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A5, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A5, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A5, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A5, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A5, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C5, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A5, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -41275,26 +41458,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A6, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A6, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A6, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A6, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A6, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A6, Scores!$F$2:$F$330, E$1)</f>
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A6, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A6, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A6, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C6, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A6, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -41336,26 +41519,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A7, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A7, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A7, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A7, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A7, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A7, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A7, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A7, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A7, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C7, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A7, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -41397,26 +41580,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A8, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A8, Scores!$E$2:$E$330, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A8, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A8, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A8, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A8, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A8, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A8, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A8, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C8, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A8, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -41458,26 +41641,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A9, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A9, Scores!$E$2:$E$330, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A9, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A9, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A9, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A9, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A9, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A9, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A9, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C9, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A9, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -41519,26 +41702,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A10, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A10, Scores!$E$2:$E$330, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A10, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A10, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A10, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A10, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A10, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A10, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A10, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C10, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A10, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -41571,26 +41754,26 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A11, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A11, Scores!$E$2:$E$330, 0))</f>
         <v>QJC</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A11, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A11, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A11, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A11, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A11, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A11, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A11, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C11, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A11, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -41623,26 +41806,26 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A12, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A12, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A12, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A12, Scores!$F$2:$F$330, D$1)</f>
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A12, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A12, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A12, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A12, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A12, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C12, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A12, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -41675,26 +41858,26 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A13, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A13, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A13, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A13, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A13, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A13, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A13, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A13, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A13, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C13, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A13, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -41727,26 +41910,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A14, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A14, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A14, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A14, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A14, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A14, Scores!$F$2:$F$330, E$1)</f>
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A14, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A14, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A14, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C14, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A14, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -41779,26 +41962,26 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A15, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A15, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A15, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A15, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A15, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A15, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A15, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A15, Scores!$F$2:$F$330, F$1)</f>
         <v>6</v>
       </c>
       <c r="G15" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A15, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C15, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A15, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -41831,26 +42014,26 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A16, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A16, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A16, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A16, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A16, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A16, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A16, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A16, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G16" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A16, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C16, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A16, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -41883,26 +42066,26 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A17, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A17, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A17, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A17, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A17, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A17, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A17, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A17, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A17, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C17, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A17, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -41935,26 +42118,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A18, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A18, Scores!$E$2:$E$330, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A18, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A18, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A18, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A18, Scores!$F$2:$F$330, E$1)</f>
         <v>5</v>
       </c>
       <c r="F18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A18, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A18, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A18, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C18, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A18, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -41987,26 +42170,26 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A19, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A19, Scores!$E$2:$E$330, 0))</f>
         <v>CJQ</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A19, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A19, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A19, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A19, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A19, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A19, Scores!$F$2:$F$330, F$1)</f>
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A19, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C19, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A19, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -42039,26 +42222,26 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A20, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A20, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A20, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A20, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A20, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A20, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A20, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A20, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A20, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C20, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A20, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -42091,26 +42274,26 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A21, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A21, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A21, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A21, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A21, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A21, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A21, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A21, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A21, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C21, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A21, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -42143,26 +42326,26 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A22, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A22, Scores!$E$2:$E$330, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A22, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A22, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A22, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A22, Scores!$F$2:$F$330, E$1)</f>
         <v>6</v>
       </c>
       <c r="F22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A22, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A22, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G22" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A22, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C22, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A22, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -42195,26 +42378,26 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A23, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A23, Scores!$E$2:$E$330, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A23, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A23, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A23, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A23, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A23, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A23, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A23, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C23, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A23, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -42247,26 +42430,26 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A24, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A24, Scores!$E$2:$E$330, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A24, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A24, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A24, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A24, Scores!$F$2:$F$330, E$1)</f>
         <v>6</v>
       </c>
       <c r="F24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A24, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A24, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A24, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C24, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A24, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -42299,26 +42482,26 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A25, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A25, Scores!$E$2:$E$330, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A25, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A25, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A25, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A25, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A25, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A25, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A25, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C25, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A25, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -42351,26 +42534,26 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A26, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A26, Scores!$E$2:$E$330, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A26, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A26, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A26, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A26, Scores!$F$2:$F$330, E$1)</f>
         <v>5</v>
       </c>
       <c r="F26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A26, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A26, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A26, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C26, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A26, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -42403,26 +42586,26 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A27, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A27, Scores!$E$2:$E$330, 0))</f>
         <v>DCJ</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A27, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A27, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A27, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A27, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A27, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A27, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A27, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C27, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A27, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -42455,26 +42638,26 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A28, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A28, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A28, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A28, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A28, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A28, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A28, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A28, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A28, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C28, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A28, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -42507,26 +42690,26 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A29, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A29, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A29, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A29, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A29, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A29, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A29, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A29, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A29, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C29, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A29, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -42559,26 +42742,26 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A30, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A30, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A30, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A30, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A30, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A30, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A30, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A30, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A30, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C30, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A30, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -42611,26 +42794,26 @@
         <v>15</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A31, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A31, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A31, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A31, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A31, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A31, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A31, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A31, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A31, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C31, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A31, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -42663,26 +42846,26 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A32, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A32, Scores!$E$2:$E$330, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A32, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A32, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A32, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A32, Scores!$F$2:$F$330, E$1)</f>
         <v>6</v>
       </c>
       <c r="F32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A32, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A32, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A32, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C32, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A32, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H32" s="1" t="str">
@@ -42715,26 +42898,26 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A33, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A33, Scores!$E$2:$E$330, 0))</f>
         <v>DJC</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A33, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A33, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A33, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A33, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A33, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A33, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A33, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C33, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A33, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H33" s="1" t="str">
@@ -42764,26 +42947,26 @@
         <v>17</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A34, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A34, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A34, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A34, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A34, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A34, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A34, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A34, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A34, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C34, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A34, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
@@ -42813,26 +42996,26 @@
         <v>17</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A35, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A35, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A35, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A35, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A35, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A35, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A35, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A35, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A35, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C35, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A35, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -42862,26 +43045,26 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A36, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A36, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A36, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A36, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A36, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A36, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A36, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A36, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A36, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C36, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A36, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -42911,26 +43094,26 @@
         <v>18</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A37, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A37, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A37, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A37, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A37, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A37, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A37, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A37, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A37, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C37, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A37, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
@@ -42960,26 +43143,26 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A38, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A38, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A38, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A38, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A38, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A38, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A38, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A38, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G38" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A38, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C38, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A38, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
@@ -43009,26 +43192,26 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A39, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A39, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A39, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A39, Scores!$F$2:$F$330, D$1)</f>
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A39, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A39, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A39, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A39, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A39, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C39, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A39, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -43058,26 +43241,26 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A40, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A40, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A40, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A40, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A40, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A40, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A40, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A40, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A40, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C40, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A40, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H40" s="1" t="str">
@@ -43107,26 +43290,26 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A41, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A41, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A41, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A41, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A41, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A41, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A41, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A41, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A41, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C41, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A41, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -43156,26 +43339,26 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A42, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A42, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A42, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A42, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A42, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A42, Scores!$F$2:$F$330, E$1)</f>
         <v>6</v>
       </c>
       <c r="F42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A42, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A42, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G42" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A42, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C42, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A42, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
@@ -43205,26 +43388,26 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A43, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A43, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A43, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A43, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A43, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A43, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A43, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A43, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A43, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C43, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A43, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -43254,26 +43437,26 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A44, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A44, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A44, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A44, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A44, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A44, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A44, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A44, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A44, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C44, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A44, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -43303,26 +43486,26 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A45, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A45, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A45, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A45, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A45, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A45, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A45, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A45, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A45, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C45, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A45, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -43352,26 +43535,26 @@
         <v>23</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A46, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A46, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A46, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A46, Scores!$F$2:$F$330, D$1)</f>
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A46, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A46, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A46, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A46, Scores!$F$2:$F$330, F$1)</f>
         <v>7</v>
       </c>
       <c r="G46" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A46, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C46, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A46, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H46" s="1" t="str">
@@ -43401,26 +43584,26 @@
         <v>23</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A47, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A47, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A47, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A47, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A47, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A47, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A47, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A47, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A47, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C47, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A47, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
@@ -43450,26 +43633,26 @@
         <v>24</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A48, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A48, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A48, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A48, Scores!$F$2:$F$330, D$1)</f>
         <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A48, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A48, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A48, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A48, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A48, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C48, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A48, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H48" s="1" t="str">
@@ -43499,26 +43682,26 @@
         <v>24</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A49, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A49, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A49, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A49, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A49, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A49, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A49, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A49, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A49, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C49, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A49, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
@@ -43548,26 +43731,26 @@
         <v>25</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A50, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A50, Scores!$E$2:$E$330, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A50, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A50, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A50, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A50, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A50, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A50, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A50, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C50, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A50, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H50" s="1" t="str">
@@ -43597,26 +43780,26 @@
         <v>25</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A51, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A51, Scores!$E$2:$E$330, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A51, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A51, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A51, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A51, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A51, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A51, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A51, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C51, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A51, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
@@ -43646,26 +43829,26 @@
         <v>26</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A52, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A52, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A52, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A52, Scores!$F$2:$F$330, D$1)</f>
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A52, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A52, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A52, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A52, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G52" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A52, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C52, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A52, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
@@ -43695,26 +43878,26 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A53, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A53, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A53, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A53, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A53, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A53, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A53, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A53, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G53" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A53, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C53, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A53, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
@@ -43744,26 +43927,26 @@
         <v>27</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A54, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A54, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A54, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A54, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A54, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A54, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A54, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A54, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G54" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A54, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C54, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A54, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
@@ -43793,26 +43976,26 @@
         <v>27</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A55, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A55, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A55, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A55, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A55, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A55, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A55, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A55, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A55, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C55, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A55, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
@@ -43842,26 +44025,26 @@
         <v>28</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A56, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A56, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A56, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A56, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A56, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A56, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A56, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A56, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G56" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A56, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C56, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A56, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -43891,26 +44074,26 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A57, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A57, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A57, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A57, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A57, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A57, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A57, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A57, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A57, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C57, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A57, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
@@ -43940,26 +44123,26 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A58, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A58, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A58, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A58, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A58, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A58, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A58, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A58, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G58" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A58, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C58, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A58, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -43989,26 +44172,26 @@
         <v>29</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A59, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A59, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A59, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A59, Scores!$F$2:$F$330, D$1)</f>
         <v>4</v>
       </c>
       <c r="E59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A59, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A59, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A59, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A59, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A59, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C59, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A59, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -44038,26 +44221,26 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A60, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A60, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A60, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A60, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A60, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A60, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A60, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A60, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G60" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A60, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C60, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A60, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -44087,26 +44270,26 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A61, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A61, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A61, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A61, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A61, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A61, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A61, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A61, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A61, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C61, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A61, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -44136,26 +44319,26 @@
         <v>31</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A62, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A62, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A62, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A62, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A62, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A62, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A62, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A62, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A62, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C62, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A62, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -44185,26 +44368,26 @@
         <v>31</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A63, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A63, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A63, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A63, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A63, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A63, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A63, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A63, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G63" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A63, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C63, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A63, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H63" s="1" t="str">
@@ -44234,26 +44417,26 @@
         <v>32</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A64, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A64, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A64, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A64, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A64, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A64, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A64, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A64, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G64" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A64, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C64, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A64, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -44283,26 +44466,26 @@
         <v>32</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A65, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A65, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A65, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A65, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A65, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A65, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A65, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A65, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A65, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C65, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A65, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -44332,26 +44515,26 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A66, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A66, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A66, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A66, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A66, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A66, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A66, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A66, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A66, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C66, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A66, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -44381,26 +44564,26 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A67, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A67, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A67, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A67, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A67, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A67, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A67, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A67, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A67, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C67, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A67, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H67" s="1" t="str">
@@ -44430,26 +44613,26 @@
         <v>34</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A68, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A68, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A68, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A68, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A68, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A68, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A68, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A68, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A68, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C68, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A68, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H68" s="1" t="str">
@@ -44479,26 +44662,26 @@
         <v>34</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A69, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A69, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A69, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A69, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A69, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A69, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A69, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A69, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A69, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C69, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A69, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -44528,26 +44711,26 @@
         <v>35</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A70, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A70, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A70, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A70, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A70, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A70, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A70, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A70, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A70, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C70, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A70, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H70" s="1" t="str">
@@ -44577,26 +44760,26 @@
         <v>35</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A71, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A71, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A71, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A71, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A71, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A71, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A71, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A71, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A71, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C71, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A71, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -44626,26 +44809,26 @@
         <v>36</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A72, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A72, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A72, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A72, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A72, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A72, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A72, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A72, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A72, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C72, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A72, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -44675,26 +44858,26 @@
         <v>36</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A73, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A73, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A73, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A73, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A73, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A73, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A73, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A73, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G73" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A73, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C73, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A73, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H73" s="1" t="str">
@@ -44724,26 +44907,26 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A74, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A74, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A74, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A74, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A74, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A74, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A74, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A74, Scores!$F$2:$F$330, F$1)</f>
         <v>5</v>
       </c>
       <c r="G74" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A74, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C74, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A74, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
@@ -44773,26 +44956,26 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A75, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A75, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A75, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A75, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A75, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A75, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A75, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A75, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G75" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A75, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C75, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A75, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H75" s="1" t="str">
@@ -44822,26 +45005,26 @@
         <v>38</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A76, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A76, Scores!$E$2:$E$330, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A76, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A76, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A76, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A76, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A76, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A76, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G76" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A76, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C76, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A76, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H76" s="1" t="str">
@@ -44871,26 +45054,26 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A77, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A77, Scores!$E$2:$E$330, 0))</f>
         <v>CJD</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A77, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A77, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A77, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A77, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A77, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A77, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G77" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A77, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C77, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A77, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -44920,26 +45103,26 @@
         <v>39</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A78, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A78, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A78, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A78, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A78, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A78, Scores!$F$2:$F$330, E$1)</f>
         <v>7</v>
       </c>
       <c r="F78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A78, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A78, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G78" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A78, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C78, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A78, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -44969,26 +45152,26 @@
         <v>39</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A79, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A79, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A79, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A79, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A79, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A79, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A79, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A79, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G79" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A79, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C79, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A79, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -45018,26 +45201,26 @@
         <v>40</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A80, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A80, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A80, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A80, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A80, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A80, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A80, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A80, Scores!$F$2:$F$330, F$1)</f>
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A80, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C80, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A80, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -45067,26 +45250,26 @@
         <v>40</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A81, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A81, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A81, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A81, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A81, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A81, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A81, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A81, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A81, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C81, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A81, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -45116,26 +45299,26 @@
         <v>41</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A82, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A82, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A82, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A82, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A82, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A82, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A82, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A82, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G82" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A82, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C82, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A82, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -45165,26 +45348,26 @@
         <v>41</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A83, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A83, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A83, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A83, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A83, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A83, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A83, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A83, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A83, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C83, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A83, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -45214,26 +45397,26 @@
         <v>42</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A84, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A84, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A84, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A84, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A84, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A84, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A84, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A84, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G84" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A84, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C84, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A84, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -45263,26 +45446,26 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A85, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A85, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A85, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A85, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A85, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A85, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A85, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A85, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G85" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A85, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C85, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A85, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -45312,26 +45495,26 @@
         <v>43</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A86, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A86, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A86, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A86, Scores!$F$2:$F$330, D$1)</f>
         <v>7</v>
       </c>
       <c r="E86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A86, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A86, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A86, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A86, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G86" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A86, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C86, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A86, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -45361,26 +45544,26 @@
         <v>43</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A87, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A87, Scores!$E$2:$E$330, 0))</f>
         <v>JCQ</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A87, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A87, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A87, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A87, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A87, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A87, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G87" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A87, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C87, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A87, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -45410,26 +45593,26 @@
         <v>44</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A88, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A88, Scores!$E$2:$E$330, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A88, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A88, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A88, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A88, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A88, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A88, Scores!$F$2:$F$330, F$1)</f>
         <v>6</v>
       </c>
       <c r="G88" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A88, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C88, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A88, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -45459,26 +45642,26 @@
         <v>44</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A89, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A89, Scores!$E$2:$E$330, 0))</f>
         <v>CJV</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A89, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A89, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A89, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A89, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A89, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A89, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G89" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A89, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C89, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A89, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H89" s="1" t="str">
@@ -45508,26 +45691,26 @@
         <v>45</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A90, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A90, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A90, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A90, Scores!$F$2:$F$330, D$1)</f>
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A90, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A90, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A90, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A90, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G90" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A90, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C90, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A90, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H90" s="1" t="str">
@@ -45557,26 +45740,26 @@
         <v>45</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A91, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A91, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A91, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A91, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A91, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A91, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A91, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A91, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A91, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C91, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A91, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H91" s="1" t="str">
@@ -45606,26 +45789,26 @@
         <v>46</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A92, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A92, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A92, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A92, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A92, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A92, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A92, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A92, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G92" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A92, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C92, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A92, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -45655,26 +45838,26 @@
         <v>46</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A93, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A93, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A93, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A93, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A93, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A93, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A93, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A93, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G93" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A93, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C93, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A93, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -45703,26 +45886,26 @@
         <v>48</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A94, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A94, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A94, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A94, Scores!$F$2:$F$330, D$1)</f>
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A94, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A94, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A94, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A94, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G94" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A94, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C94, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A94, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H94" s="1" t="str">
@@ -45751,26 +45934,26 @@
         <v>48</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A95, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A95, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A95, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A95, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A95, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A95, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A95, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A95, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A95, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C95, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A95, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H95" s="1" t="str">
@@ -45800,26 +45983,26 @@
         <v>49</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A96, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A96, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A96, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A96, Scores!$F$2:$F$330, D$1)</f>
         <v>2</v>
       </c>
       <c r="E96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A96, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A96, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A96, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A96, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G96" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A96, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C96, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A96, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H96" s="1" t="str">
@@ -45849,26 +46032,26 @@
         <v>49</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A97, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A97, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A97, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A97, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A97, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A97, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A97, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A97, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G97" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A97, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C97, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A97, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H97" s="1" t="str">
@@ -45898,26 +46081,26 @@
         <v>50</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A98, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A98, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A98, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A98, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A98, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A98, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A98, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A98, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G98" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A98, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C98, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A98, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H98" s="1" t="str">
@@ -45947,26 +46130,26 @@
         <v>50</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A99, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A99, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A99, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A99, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A99, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A99, Scores!$F$2:$F$330, E$1)</f>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A99, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A99, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G99" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A99, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C99, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A99, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H99" s="1" t="str">
@@ -45996,26 +46179,26 @@
         <v>51</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A100, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A100, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A100, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A100, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A100, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A100, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A100, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A100, Scores!$F$2:$F$330, F$1)</f>
         <v>3</v>
       </c>
       <c r="G100" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A100, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C100, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A100, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H100" s="1" t="str">
@@ -46045,26 +46228,26 @@
         <v>51</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A101, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A101, Scores!$E$2:$E$330, 0))</f>
         <v>JC</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A101, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A101, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A101, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A101, Scores!$F$2:$F$330, E$1)</f>
         <v>2</v>
       </c>
       <c r="F101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A101, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A101, Scores!$F$2:$F$330, F$1)</f>
         <v>5</v>
       </c>
       <c r="G101" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A101, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C101, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A101, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H101" s="1" t="str">
@@ -46094,26 +46277,26 @@
         <v>52</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A102, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A102, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A102, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A102, Scores!$F$2:$F$330, D$1)</f>
         <v>5</v>
       </c>
       <c r="E102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A102, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A102, Scores!$F$2:$F$330, E$1)</f>
         <v>4</v>
       </c>
       <c r="F102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A102, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A102, Scores!$F$2:$F$330, F$1)</f>
         <v>1</v>
       </c>
       <c r="G102" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A102, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C102, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A102, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H102" s="1" t="str">
@@ -46143,26 +46326,26 @@
         <v>52</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A103, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A103, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A103, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A103, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A103, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A103, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A103, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A103, Scores!$F$2:$F$330, F$1)</f>
         <v>2</v>
       </c>
       <c r="G103" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A103, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C103, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A103, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H103" s="1" t="str">
@@ -46192,26 +46375,26 @@
         <v>53</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A104, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A104, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A104, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A104, Scores!$F$2:$F$330, D$1)</f>
         <v>3</v>
       </c>
       <c r="E104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A104, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A104, Scores!$F$2:$F$330, E$1)</f>
         <v>3</v>
       </c>
       <c r="F104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A104, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A104, Scores!$F$2:$F$330, F$1)</f>
         <v>4</v>
       </c>
       <c r="G104" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A104, Scores!$F$2:$F$327, G$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C104, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A104, Scores!$F$2:$F$330, G$1)</f>
         <v>0</v>
       </c>
       <c r="H104" s="1" t="str">
@@ -46241,26 +46424,26 @@
         <v>53</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>INDEX(Scores!$G$2:$G$327, MATCH(Clutch!$A105, Scores!$E$2:$E$327, 0))</f>
+        <f>INDEX(Scores!$G$2:$G$330, MATCH(Clutch!$A105, Scores!$E$2:$E$330, 0))</f>
         <v>CJ</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A105, Scores!$F$2:$F$327, D$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A105, Scores!$F$2:$F$330, D$1)</f>
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A105, Scores!$F$2:$F$327, E$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A105, Scores!$F$2:$F$330, E$1)</f>
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <f>SUMIFS(INDEX(Scores!$H$2:$N$327, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$327, $A105, Scores!$F$2:$F$327, F$1)</f>
+        <f>SUMIFS(INDEX(Scores!$H$2:$N$330, 0, MATCH($C105, Scores!$H$1:$N$1, 0)), Scores!$E$2:$E$330, $A105, Scores!$F$2:$F$330, F$1)</f>
         <v>0</v>
     